--- a/output.xlsx
+++ b/output.xlsx
@@ -441,27 +441,27 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Balance_P10</t>
+          <t>Nominal_Balance_P10</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Balance_P25</t>
+          <t>Nominal_Balance_P25</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Balance_P50</t>
+          <t>Nominal_Balance_P50</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Balance_P75</t>
+          <t>Nominal_Balance_P75</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Balance_P90</t>
+          <t>Nominal_Balance_P90</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -501,17 +501,17 @@
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Avg_Contribution</t>
+          <t>Avg_Nominal_Contribution</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>Avg_Drawdown</t>
+          <t>Avg_Real_Contribution</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>Avg_Real_Contribution</t>
+          <t>Avg_Nominal_Drawdown</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
@@ -578,49 +578,49 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>8969.982420735452</v>
+        <v>8754.508495630624</v>
       </c>
       <c r="D2" t="n">
-        <v>9802.334891753988</v>
+        <v>9753.694986394614</v>
       </c>
       <c r="E2" t="n">
-        <v>10773.49796867687</v>
+        <v>10840.0071152974</v>
       </c>
       <c r="F2" t="n">
-        <v>11856.91689914384</v>
+        <v>11794.85477947883</v>
       </c>
       <c r="G2" t="n">
-        <v>12520.68430094294</v>
+        <v>12730.71220356335</v>
       </c>
       <c r="H2" t="n">
-        <v>8708.720796830534</v>
+        <v>8667.830193693688</v>
       </c>
       <c r="I2" t="n">
-        <v>9516.829991994164</v>
+        <v>9657.123748905557</v>
       </c>
       <c r="J2" t="n">
-        <v>10459.7067657057</v>
+        <v>10732.68031217564</v>
       </c>
       <c r="K2" t="n">
-        <v>11511.56980499402</v>
+        <v>11678.07403908795</v>
       </c>
       <c r="L2" t="n">
-        <v>12156.00417567276</v>
+        <v>12604.66554808252</v>
       </c>
       <c r="M2" t="n">
-        <v>7.811995829645777</v>
+        <v>7.845498892975857</v>
       </c>
       <c r="N2" t="n">
-        <v>3.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="O2" t="n">
         <v>10000</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="Q2" t="n">
-        <v>9708.737864077671</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -664,49 +664,49 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>18238.36242115469</v>
+        <v>18256.19984102944</v>
       </c>
       <c r="D3" t="n">
-        <v>20265.28094894833</v>
+        <v>20282.77332288077</v>
       </c>
       <c r="E3" t="n">
-        <v>22502.59858441199</v>
+        <v>22726.46072391308</v>
       </c>
       <c r="F3" t="n">
-        <v>25040.74683240907</v>
+        <v>25181.08786058466</v>
       </c>
       <c r="G3" t="n">
-        <v>27093.57011638842</v>
+        <v>27369.12447300357</v>
       </c>
       <c r="H3" t="n">
-        <v>17191.4058074792</v>
+        <v>17896.48058134442</v>
       </c>
       <c r="I3" t="n">
-        <v>19101.97091992491</v>
+        <v>19883.1225594361</v>
       </c>
       <c r="J3" t="n">
-        <v>21210.85737054576</v>
+        <v>22278.65966465354</v>
       </c>
       <c r="K3" t="n">
-        <v>23603.3055258828</v>
+        <v>24684.92094949971</v>
       </c>
       <c r="L3" t="n">
-        <v>25538.28835553626</v>
+        <v>26829.84459661167</v>
       </c>
       <c r="M3" t="n">
-        <v>8.000701433081316</v>
+        <v>8.411380876626803</v>
       </c>
       <c r="N3" t="n">
-        <v>3.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="O3" t="n">
         <v>10200</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>10099.0099009901</v>
       </c>
       <c r="Q3" t="n">
-        <v>9614.478273164295</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -750,49 +750,49 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>28019.98317054962</v>
+        <v>27788.69221833117</v>
       </c>
       <c r="D4" t="n">
-        <v>31525.18115489573</v>
+        <v>31258.43672503001</v>
       </c>
       <c r="E4" t="n">
-        <v>35688.81443169917</v>
+        <v>35577.83678601115</v>
       </c>
       <c r="F4" t="n">
-        <v>40295.01890295754</v>
+        <v>40009.66984219883</v>
       </c>
       <c r="G4" t="n">
-        <v>44328.27779737994</v>
+        <v>43918.8161901992</v>
       </c>
       <c r="H4" t="n">
-        <v>25642.25389374438</v>
+        <v>26971.43089090584</v>
       </c>
       <c r="I4" t="n">
-        <v>28850.00659350023</v>
+        <v>30339.13072493378</v>
       </c>
       <c r="J4" t="n">
-        <v>32660.32085937217</v>
+        <v>34531.49786908015</v>
       </c>
       <c r="K4" t="n">
-        <v>36875.65046251949</v>
+        <v>38832.99137067598</v>
       </c>
       <c r="L4" t="n">
-        <v>40566.6536997621</v>
+        <v>42627.17030285247</v>
       </c>
       <c r="M4" t="n">
-        <v>8.85038980593681</v>
+        <v>7.987698210844626</v>
       </c>
       <c r="N4" t="n">
-        <v>3.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="O4" t="n">
         <v>10404</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>10199.00009802961</v>
       </c>
       <c r="Q4" t="n">
-        <v>9521.133823910272</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -836,49 +836,49 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>37970.17828631129</v>
+        <v>38086.63634716444</v>
       </c>
       <c r="D5" t="n">
-        <v>43544.6331012511</v>
+        <v>43248.31365445474</v>
       </c>
       <c r="E5" t="n">
-        <v>49898.6990066798</v>
+        <v>49721.12219389564</v>
       </c>
       <c r="F5" t="n">
-        <v>56698.05871541826</v>
+        <v>56867.41847222795</v>
       </c>
       <c r="G5" t="n">
-        <v>62729.63014823956</v>
+        <v>63801.42534044448</v>
       </c>
       <c r="H5" t="n">
-        <v>33736.01161443711</v>
+        <v>36600.50891708984</v>
       </c>
       <c r="I5" t="n">
-        <v>38688.84251670237</v>
+        <v>41560.7793539588</v>
       </c>
       <c r="J5" t="n">
-        <v>44334.34777527845</v>
+        <v>47781.02113396203</v>
       </c>
       <c r="K5" t="n">
-        <v>50375.49081061236</v>
+        <v>54648.47139329008</v>
       </c>
       <c r="L5" t="n">
-        <v>55734.46390725236</v>
+        <v>61311.91570215501</v>
       </c>
       <c r="M5" t="n">
-        <v>7.894292104732389</v>
+        <v>8.637074536643812</v>
       </c>
       <c r="N5" t="n">
-        <v>3.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="O5" t="n">
         <v>10612.08</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>10299.98029702</v>
       </c>
       <c r="Q5" t="n">
-        <v>9428.695631445124</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -922,49 +922,49 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>48812.01469310215</v>
+        <v>48723.50812588121</v>
       </c>
       <c r="D6" t="n">
-        <v>56056.41593985012</v>
+        <v>56026.1316034781</v>
       </c>
       <c r="E6" t="n">
-        <v>65308.10780259333</v>
+        <v>65832.29606324744</v>
       </c>
       <c r="F6" t="n">
-        <v>75346.96073839659</v>
+        <v>74860.20597319998</v>
       </c>
       <c r="G6" t="n">
-        <v>85357.50418648371</v>
+        <v>83926.31598484414</v>
       </c>
       <c r="H6" t="n">
-        <v>42105.67265775879</v>
+        <v>46358.74616160459</v>
       </c>
       <c r="I6" t="n">
-        <v>48354.75681080719</v>
+        <v>53306.94183004949</v>
       </c>
       <c r="J6" t="n">
-        <v>56335.34748202497</v>
+        <v>62637.1708405488</v>
       </c>
       <c r="K6" t="n">
-        <v>64994.95020958962</v>
+        <v>71226.91735067355</v>
       </c>
       <c r="L6" t="n">
-        <v>73630.1329243689</v>
+        <v>79853.00994682101</v>
       </c>
       <c r="M6" t="n">
-        <v>8.216306114836515</v>
+        <v>8.278593107079672</v>
       </c>
       <c r="N6" t="n">
-        <v>3.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="O6" t="n">
         <v>10824.3216</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>10401.96029996079</v>
       </c>
       <c r="Q6" t="n">
-        <v>9337.154897159246</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -1008,49 +1008,49 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>59502.08341270248</v>
+        <v>60169.70303195624</v>
       </c>
       <c r="D7" t="n">
-        <v>69584.97237080584</v>
+        <v>68637.720830529</v>
       </c>
       <c r="E7" t="n">
-        <v>81777.9020093467</v>
+        <v>81948.14291356746</v>
       </c>
       <c r="F7" t="n">
-        <v>95608.68377458295</v>
+        <v>96082.83305074406</v>
       </c>
       <c r="G7" t="n">
-        <v>109967.6962827809</v>
+        <v>110574.5523242104</v>
       </c>
       <c r="H7" t="n">
-        <v>49832.05809801594</v>
+        <v>56682.58204791497</v>
       </c>
       <c r="I7" t="n">
-        <v>58276.31886231695</v>
+        <v>64659.83786710826</v>
       </c>
       <c r="J7" t="n">
-        <v>68487.70547744643</v>
+        <v>77198.857569657</v>
       </c>
       <c r="K7" t="n">
-        <v>80070.76746345915</v>
+        <v>90514.37506517884</v>
       </c>
       <c r="L7" t="n">
-        <v>92096.21438059858</v>
+        <v>104166.2301573894</v>
       </c>
       <c r="M7" t="n">
-        <v>8.257193780633633</v>
+        <v>8.123724213564209</v>
       </c>
       <c r="N7" t="n">
-        <v>3.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="O7" t="n">
         <v>11040.808032</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>10504.95000590099</v>
       </c>
       <c r="Q7" t="n">
-        <v>9246.502907866439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1094,49 +1094,49 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>72120.28828064083</v>
+        <v>73570.79962436199</v>
       </c>
       <c r="D8" t="n">
-        <v>84242.7663044665</v>
+        <v>84624.63733534675</v>
       </c>
       <c r="E8" t="n">
-        <v>99759.89210461862</v>
+        <v>100317.7022935776</v>
       </c>
       <c r="F8" t="n">
-        <v>116335.3258674258</v>
+        <v>118565.557846414</v>
       </c>
       <c r="G8" t="n">
-        <v>134590.5648090351</v>
+        <v>138318.0357231824</v>
       </c>
       <c r="H8" t="n">
-        <v>58640.3941966246</v>
+        <v>68620.81310888336</v>
       </c>
       <c r="I8" t="n">
-        <v>68497.07817424359</v>
+        <v>78930.92711572145</v>
       </c>
       <c r="J8" t="n">
-        <v>81113.92144279424</v>
+        <v>93568.13213595524</v>
       </c>
       <c r="K8" t="n">
-        <v>94591.26593216675</v>
+        <v>110588.2364697736</v>
       </c>
       <c r="L8" t="n">
-        <v>109434.4457531339</v>
+        <v>129011.7292106388</v>
       </c>
       <c r="M8" t="n">
-        <v>7.838523765511724</v>
+        <v>8.704323190360302</v>
       </c>
       <c r="N8" t="n">
-        <v>3.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="O8" t="n">
         <v>11261.62419264</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>10608.95941190002</v>
       </c>
       <c r="Q8" t="n">
-        <v>9156.731034974535</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1180,49 +1180,49 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>84077.51439700635</v>
+        <v>86227.01225234187</v>
       </c>
       <c r="D9" t="n">
-        <v>100485.8718147599</v>
+        <v>99870.87866593817</v>
       </c>
       <c r="E9" t="n">
-        <v>121749.2263588604</v>
+        <v>119435.1821589584</v>
       </c>
       <c r="F9" t="n">
-        <v>142675.1232772497</v>
+        <v>144933.4915422815</v>
       </c>
       <c r="G9" t="n">
-        <v>163937.0064924249</v>
+        <v>172038.1240437221</v>
       </c>
       <c r="H9" t="n">
-        <v>66371.56626315968</v>
+        <v>79629.19913981449</v>
       </c>
       <c r="I9" t="n">
-        <v>79324.47512865791</v>
+        <v>92229.0808625606</v>
       </c>
       <c r="J9" t="n">
-        <v>96109.96355826197</v>
+        <v>110296.3868979169</v>
       </c>
       <c r="K9" t="n">
-        <v>112629.0598219401</v>
+        <v>133843.6478150791</v>
       </c>
       <c r="L9" t="n">
-        <v>129413.3867709038</v>
+        <v>158874.3211817082</v>
       </c>
       <c r="M9" t="n">
-        <v>8.944414798862537</v>
+        <v>8.315864248557114</v>
       </c>
       <c r="N9" t="n">
-        <v>3.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="O9" t="n">
         <v>11486.8566764928</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>10713.99861399804</v>
       </c>
       <c r="Q9" t="n">
-        <v>9067.830733664099</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1266,49 +1266,49 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>96886.50181911924</v>
+        <v>98410.09396386627</v>
       </c>
       <c r="D10" t="n">
-        <v>118487.621813791</v>
+        <v>116457.0210853286</v>
       </c>
       <c r="E10" t="n">
-        <v>142985.7237783422</v>
+        <v>142487.6930279953</v>
       </c>
       <c r="F10" t="n">
-        <v>172414.999696587</v>
+        <v>173410.0090900496</v>
       </c>
       <c r="G10" t="n">
-        <v>197281.5819803208</v>
+        <v>205818.212276691</v>
       </c>
       <c r="H10" t="n">
-        <v>74255.43613241421</v>
+        <v>89980.26801835482</v>
       </c>
       <c r="I10" t="n">
-        <v>90810.89593369313</v>
+        <v>106481.2921906632</v>
       </c>
       <c r="J10" t="n">
-        <v>109586.6511899854</v>
+        <v>130282.1721995679</v>
       </c>
       <c r="K10" t="n">
-        <v>132141.7406744856</v>
+        <v>158555.6772328377</v>
       </c>
       <c r="L10" t="n">
-        <v>151199.9054129388</v>
+        <v>188187.7880384428</v>
       </c>
       <c r="M10" t="n">
-        <v>8.412980259133574</v>
+        <v>8.419786520719413</v>
       </c>
       <c r="N10" t="n">
-        <v>3.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="O10" t="n">
         <v>11716.59381002266</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>10820.07780819604</v>
       </c>
       <c r="Q10" t="n">
-        <v>8979.793542075129</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1352,49 +1352,49 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>109334.3035274283</v>
+        <v>109843.6099177635</v>
       </c>
       <c r="D11" t="n">
-        <v>137416.9364937003</v>
+        <v>135431.0796134048</v>
       </c>
       <c r="E11" t="n">
-        <v>166261.4160596642</v>
+        <v>167538.0064345623</v>
       </c>
       <c r="F11" t="n">
-        <v>200734.9714404369</v>
+        <v>201842.1796373522</v>
       </c>
       <c r="G11" t="n">
-        <v>236883.3131117662</v>
+        <v>238067.4982079381</v>
       </c>
       <c r="H11" t="n">
-        <v>81354.98994423093</v>
+        <v>99439.98711493613</v>
       </c>
       <c r="I11" t="n">
-        <v>102251.1062487121</v>
+        <v>122603.9896340022</v>
       </c>
       <c r="J11" t="n">
-        <v>123714.1079721087</v>
+        <v>151669.9716404784</v>
       </c>
       <c r="K11" t="n">
-        <v>149365.670755797</v>
+        <v>182725.0921324927</v>
       </c>
       <c r="L11" t="n">
-        <v>176263.4318270408</v>
+        <v>215519.4004640416</v>
       </c>
       <c r="M11" t="n">
-        <v>7.794421914875263</v>
+        <v>7.819731979524278</v>
       </c>
       <c r="N11" t="n">
-        <v>3.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="O11" t="n">
         <v>11950.92568622311</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>10927.2072914455</v>
       </c>
       <c r="Q11" t="n">
-        <v>8892.61108050158</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -1438,49 +1438,49 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>126202.2010718446</v>
+        <v>125923.7008248249</v>
       </c>
       <c r="D12" t="n">
-        <v>155267.0966585217</v>
+        <v>156830.9744465655</v>
       </c>
       <c r="E12" t="n">
-        <v>190359.7084215558</v>
+        <v>189199.7451282612</v>
       </c>
       <c r="F12" t="n">
-        <v>231378.8267896948</v>
+        <v>233776.6952913245</v>
       </c>
       <c r="G12" t="n">
-        <v>276198.8776927639</v>
+        <v>280918.8388382126</v>
       </c>
       <c r="H12" t="n">
-        <v>91171.15520789564</v>
+        <v>112868.399646907</v>
       </c>
       <c r="I12" t="n">
-        <v>112168.2541818326</v>
+        <v>140571.3220378855</v>
       </c>
       <c r="J12" t="n">
-        <v>137519.9035708684</v>
+        <v>169584.2189067843</v>
       </c>
       <c r="K12" t="n">
-        <v>167152.9874273351</v>
+        <v>209539.5965925471</v>
       </c>
       <c r="L12" t="n">
-        <v>199531.9458179519</v>
+        <v>251794.2179482519</v>
       </c>
       <c r="M12" t="n">
-        <v>8.02866463535605</v>
+        <v>8.333821601589801</v>
       </c>
       <c r="N12" t="n">
-        <v>3.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="O12" t="n">
         <v>12189.94419994757</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>11035.39746264793</v>
       </c>
       <c r="Q12" t="n">
-        <v>8806.275050593798</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -1524,49 +1524,49 @@
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>140825.6802926338</v>
+        <v>143626.3374446252</v>
       </c>
       <c r="D13" t="n">
-        <v>174722.0581118503</v>
+        <v>176038.0598814253</v>
       </c>
       <c r="E13" t="n">
-        <v>214294.73136788</v>
+        <v>218675.1353886483</v>
       </c>
       <c r="F13" t="n">
-        <v>265361.3607677048</v>
+        <v>266881.8585097501</v>
       </c>
       <c r="G13" t="n">
-        <v>322619.807029418</v>
+        <v>329686.0679932541</v>
       </c>
       <c r="H13" t="n">
-        <v>98772.29877174142</v>
+        <v>127461.0818929042</v>
       </c>
       <c r="I13" t="n">
-        <v>122546.5361855592</v>
+        <v>156224.8398589517</v>
       </c>
       <c r="J13" t="n">
-        <v>150302.013012789</v>
+        <v>194063.0794854085</v>
       </c>
       <c r="K13" t="n">
-        <v>186119.1194230971</v>
+        <v>236844.0985718021</v>
       </c>
       <c r="L13" t="n">
-        <v>226279.0416021732</v>
+        <v>292579.6456213281</v>
       </c>
       <c r="M13" t="n">
-        <v>7.180822837284129</v>
+        <v>8.477437335482954</v>
       </c>
       <c r="N13" t="n">
-        <v>3.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="O13" t="n">
         <v>12433.74308394652</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>11144.65882366424</v>
       </c>
       <c r="Q13" t="n">
-        <v>8720.777234568615</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -1610,49 +1610,49 @@
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>161450.4365576339</v>
+        <v>160107.9250841798</v>
       </c>
       <c r="D14" t="n">
-        <v>194539.1706031795</v>
+        <v>195755.7850151385</v>
       </c>
       <c r="E14" t="n">
-        <v>244998.0833725485</v>
+        <v>248181.1475220569</v>
       </c>
       <c r="F14" t="n">
-        <v>304007.9134833199</v>
+        <v>309706.042527971</v>
       </c>
       <c r="G14" t="n">
-        <v>372212.5396179507</v>
+        <v>382571.6380721667</v>
       </c>
       <c r="H14" t="n">
-        <v>109939.8911164043</v>
+        <v>126863.9768524702</v>
       </c>
       <c r="I14" t="n">
-        <v>132471.7089033964</v>
+        <v>155110.1069221934</v>
       </c>
       <c r="J14" t="n">
-        <v>166831.7731682971</v>
+        <v>196650.149190952</v>
       </c>
       <c r="K14" t="n">
-        <v>207014.5960549967</v>
+        <v>245400.3459833791</v>
       </c>
       <c r="L14" t="n">
-        <v>253458.6276151072</v>
+        <v>303136.5212638974</v>
       </c>
       <c r="M14" t="n">
-        <v>7.900990149536518</v>
+        <v>7.432671350392457</v>
       </c>
       <c r="N14" t="n">
-        <v>3.000000000000001</v>
+        <v>12.00000000000001</v>
       </c>
       <c r="O14" t="n">
         <v>12682.41794562546</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>11255.00198033419</v>
       </c>
       <c r="Q14" t="n">
-        <v>8636.109494427174</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -1696,49 +1696,49 @@
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>174271.3274385468</v>
+        <v>176410.1232797004</v>
       </c>
       <c r="D15" t="n">
-        <v>221692.7568224246</v>
+        <v>220832.5942121867</v>
       </c>
       <c r="E15" t="n">
-        <v>274468.3785279273</v>
+        <v>275977.1729096745</v>
       </c>
       <c r="F15" t="n">
-        <v>348078.0341458445</v>
+        <v>347041.3350676285</v>
       </c>
       <c r="G15" t="n">
-        <v>427566.7541308841</v>
+        <v>434580.5819485765</v>
       </c>
       <c r="H15" t="n">
-        <v>115213.8776132701</v>
+        <v>124804.7092103797</v>
       </c>
       <c r="I15" t="n">
-        <v>146565.028956322</v>
+        <v>156232.2342529489</v>
       </c>
       <c r="J15" t="n">
-        <v>181455.9321789774</v>
+        <v>195245.3191083848</v>
       </c>
       <c r="K15" t="n">
-        <v>230120.586188159</v>
+        <v>245521.0171721552</v>
       </c>
       <c r="L15" t="n">
-        <v>282671.994331999</v>
+        <v>307452.3284164092</v>
       </c>
       <c r="M15" t="n">
-        <v>8.458799870944055</v>
+        <v>7.612142448383693</v>
       </c>
       <c r="N15" t="n">
-        <v>3.000000000000001</v>
+        <v>12.00000000000001</v>
       </c>
       <c r="O15" t="n">
         <v>12936.06630453796</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>10250.09108923292</v>
       </c>
       <c r="Q15" t="n">
-        <v>8552.263771180309</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -1782,49 +1782,49 @@
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>193255.7627115602</v>
+        <v>196265.6994565281</v>
       </c>
       <c r="D16" t="n">
-        <v>243913.3666644704</v>
+        <v>247497.5091214506</v>
       </c>
       <c r="E16" t="n">
-        <v>307910.5837080607</v>
+        <v>309375.4319261889</v>
       </c>
       <c r="F16" t="n">
-        <v>393924.7305553821</v>
+        <v>392487.6106486533</v>
       </c>
       <c r="G16" t="n">
-        <v>482649.3955899716</v>
+        <v>495326.3351848602</v>
       </c>
       <c r="H16" t="n">
-        <v>124043.5201996799</v>
+        <v>123974.9246429848</v>
       </c>
       <c r="I16" t="n">
-        <v>156558.7085233465</v>
+        <v>156336.4618862224</v>
       </c>
       <c r="J16" t="n">
-        <v>197636.0868829158</v>
+        <v>195422.8169550102</v>
       </c>
       <c r="K16" t="n">
-        <v>252845.2946820047</v>
+        <v>247922.1896042491</v>
       </c>
       <c r="L16" t="n">
-        <v>309794.2809632277</v>
+        <v>312882.2063573591</v>
       </c>
       <c r="M16" t="n">
-        <v>8.134873865940841</v>
+        <v>8.073579272926901</v>
       </c>
       <c r="N16" t="n">
-        <v>3.000000000000001</v>
+        <v>12.00000000000001</v>
       </c>
       <c r="O16" t="n">
         <v>13194.78763062872</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>9334.904384837124</v>
       </c>
       <c r="Q16" t="n">
-        <v>8469.232084081466</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -1868,49 +1868,49 @@
         <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>216090.8888431823</v>
+        <v>216220.9515522926</v>
       </c>
       <c r="D17" t="n">
-        <v>272987.490120076</v>
+        <v>274456.349891757</v>
       </c>
       <c r="E17" t="n">
-        <v>349694.2212294586</v>
+        <v>344549.6574716649</v>
       </c>
       <c r="F17" t="n">
-        <v>442699.1411313359</v>
+        <v>445546.5402746932</v>
       </c>
       <c r="G17" t="n">
-        <v>542578.6281880906</v>
+        <v>559269.5863851355</v>
       </c>
       <c r="H17" t="n">
-        <v>134660.6977937598</v>
+        <v>121946.4601574246</v>
       </c>
       <c r="I17" t="n">
-        <v>170116.7786635088</v>
+        <v>154790.6439997927</v>
       </c>
       <c r="J17" t="n">
-        <v>217917.8775065231</v>
+        <v>194322.5703868066</v>
       </c>
       <c r="K17" t="n">
-        <v>275875.4687741878</v>
+        <v>251283.8049773635</v>
       </c>
       <c r="L17" t="n">
-        <v>338117.0630142206</v>
+        <v>315422.4687466516</v>
       </c>
       <c r="M17" t="n">
-        <v>8.272205435455669</v>
+        <v>7.614970187142285</v>
       </c>
       <c r="N17" t="n">
-        <v>3.000000000000001</v>
+        <v>12.00000000000001</v>
       </c>
       <c r="O17" t="n">
         <v>13458.6833832413</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>8501.430779048094</v>
       </c>
       <c r="Q17" t="n">
-        <v>8387.006529867083</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -1954,49 +1954,49 @@
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>239082.9660017074</v>
+        <v>239123.9411733162</v>
       </c>
       <c r="D18" t="n">
-        <v>297684.6238958183</v>
+        <v>300907.1468835301</v>
       </c>
       <c r="E18" t="n">
-        <v>387433.182227426</v>
+        <v>385336.5463428587</v>
       </c>
       <c r="F18" t="n">
-        <v>494521.4225356871</v>
+        <v>494320.5910165551</v>
       </c>
       <c r="G18" t="n">
-        <v>613142.1082933603</v>
+        <v>617188.5904139687</v>
       </c>
       <c r="H18" t="n">
-        <v>144649.1263523792</v>
+        <v>120413.8552470059</v>
       </c>
       <c r="I18" t="n">
-        <v>180104.0931320853</v>
+        <v>151525.5622244914</v>
       </c>
       <c r="J18" t="n">
-        <v>234403.4469135667</v>
+        <v>194041.0436739988</v>
       </c>
       <c r="K18" t="n">
-        <v>299193.5934566415</v>
+        <v>248921.3242313524</v>
       </c>
       <c r="L18" t="n">
-        <v>370961.0591574184</v>
+        <v>310793.04406557</v>
       </c>
       <c r="M18" t="n">
-        <v>7.376721982032539</v>
+        <v>7.423973161643585</v>
       </c>
       <c r="N18" t="n">
-        <v>3.000000000000001</v>
+        <v>12.00000000000001</v>
       </c>
       <c r="O18" t="n">
         <v>13727.85705090612</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>7742.374459490226</v>
       </c>
       <c r="Q18" t="n">
-        <v>8305.579282004299</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -2040,49 +2040,49 @@
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>262602.1465724847</v>
+        <v>257956.4987807318</v>
       </c>
       <c r="D19" t="n">
-        <v>333400.7893371283</v>
+        <v>328159.0657365563</v>
       </c>
       <c r="E19" t="n">
-        <v>431079.1918153797</v>
+        <v>430459.1229687599</v>
       </c>
       <c r="F19" t="n">
-        <v>557974.7127132927</v>
+        <v>549357.1831653762</v>
       </c>
       <c r="G19" t="n">
-        <v>702510.2413005477</v>
+        <v>704620.6184323882</v>
       </c>
       <c r="H19" t="n">
-        <v>154251.0848451381</v>
+        <v>115979.6656069598</v>
       </c>
       <c r="I19" t="n">
-        <v>195837.8258316413</v>
+        <v>147543.3993324965</v>
       </c>
       <c r="J19" t="n">
-        <v>253213.592727939</v>
+        <v>193538.4662737991</v>
       </c>
       <c r="K19" t="n">
-        <v>327751.3374340324</v>
+        <v>246996.1513024726</v>
       </c>
       <c r="L19" t="n">
-        <v>412650.727535155</v>
+        <v>316804.0506512793</v>
       </c>
       <c r="M19" t="n">
-        <v>8.61990232415191</v>
+        <v>7.91524332452075</v>
       </c>
       <c r="N19" t="n">
-        <v>3.000000000000001</v>
+        <v>12.00000000000001</v>
       </c>
       <c r="O19" t="n">
         <v>14002.41419192424</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>7051.091025607168</v>
       </c>
       <c r="Q19" t="n">
-        <v>8224.942589946004</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -2126,49 +2126,49 @@
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>278755.8304369233</v>
+        <v>274233.14321027</v>
       </c>
       <c r="D20" t="n">
-        <v>362839.8941515303</v>
+        <v>362410.7010924996</v>
       </c>
       <c r="E20" t="n">
-        <v>469775.1019564288</v>
+        <v>473425.1572276668</v>
       </c>
       <c r="F20" t="n">
-        <v>625010.9291729083</v>
+        <v>612237.7541532817</v>
       </c>
       <c r="G20" t="n">
-        <v>801550.9918505475</v>
+        <v>792042.904369875</v>
       </c>
       <c r="H20" t="n">
-        <v>158970.5549905315</v>
+        <v>110087.3195335458</v>
       </c>
       <c r="I20" t="n">
-        <v>206922.5216045355</v>
+        <v>145485.0503717387</v>
       </c>
       <c r="J20" t="n">
-        <v>267906.1763898985</v>
+        <v>190050.3562364066</v>
       </c>
       <c r="K20" t="n">
-        <v>356434.999512047</v>
+        <v>245774.8632531032</v>
       </c>
       <c r="L20" t="n">
-        <v>457113.330429606</v>
+        <v>317955.2962742641</v>
       </c>
       <c r="M20" t="n">
-        <v>7.613662735866384</v>
+        <v>7.201435740423685</v>
       </c>
       <c r="N20" t="n">
-        <v>3.000000000000001</v>
+        <v>12.00000000000001</v>
       </c>
       <c r="O20" t="n">
         <v>14282.46247576273</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>6421.529326892243</v>
       </c>
       <c r="Q20" t="n">
-        <v>8145.088778393127</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -2212,49 +2212,49 @@
         <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>307319.1366498884</v>
+        <v>301116.2927336057</v>
       </c>
       <c r="D21" t="n">
-        <v>393281.0491651461</v>
+        <v>394531.3023833575</v>
       </c>
       <c r="E21" t="n">
-        <v>518367.4041301937</v>
+        <v>514449.1477012201</v>
       </c>
       <c r="F21" t="n">
-        <v>685266.9903874536</v>
+        <v>678992.1848059139</v>
       </c>
       <c r="G21" t="n">
-        <v>904639.7569036495</v>
+        <v>886145.2130237883</v>
       </c>
       <c r="H21" t="n">
-        <v>170155.1547605201</v>
+        <v>107927.8655109268</v>
       </c>
       <c r="I21" t="n">
-        <v>217750.1815037051</v>
+        <v>141410.220473034</v>
       </c>
       <c r="J21" t="n">
-        <v>287007.4634273974</v>
+        <v>184391.8770427649</v>
       </c>
       <c r="K21" t="n">
-        <v>379415.7177217729</v>
+        <v>243368.3562567469</v>
       </c>
       <c r="L21" t="n">
-        <v>500877.0996705704</v>
+        <v>317617.3580849525</v>
       </c>
       <c r="M21" t="n">
-        <v>7.367694400766334</v>
+        <v>7.92231271981782</v>
       </c>
       <c r="N21" t="n">
-        <v>3.000000000000001</v>
+        <v>12.00000000000001</v>
       </c>
       <c r="O21" t="n">
         <v>14568.11172527799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>5848.178494134011</v>
       </c>
       <c r="Q21" t="n">
-        <v>8066.010246564067</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -2298,49 +2298,49 @@
         <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>330459.1035953209</v>
+        <v>325754.4265785016</v>
       </c>
       <c r="D22" t="n">
-        <v>431597.6951664446</v>
+        <v>423638.2351104902</v>
       </c>
       <c r="E22" t="n">
-        <v>569367.0527412032</v>
+        <v>563450.8645044703</v>
       </c>
       <c r="F22" t="n">
-        <v>763560.26671578</v>
+        <v>748211.0931270882</v>
       </c>
       <c r="G22" t="n">
-        <v>1011533.74211825</v>
+        <v>979308.728185003</v>
       </c>
       <c r="H22" t="n">
-        <v>177638.0518552226</v>
+        <v>104248.9372929317</v>
       </c>
       <c r="I22" t="n">
-        <v>232005.0285207426</v>
+        <v>135574.0158953111</v>
       </c>
       <c r="J22" t="n">
-        <v>306062.8469275108</v>
+        <v>180317.2851964898</v>
       </c>
       <c r="K22" t="n">
-        <v>410451.2684859982</v>
+        <v>239444.8239692144</v>
       </c>
       <c r="L22" t="n">
-        <v>543749.2306332495</v>
+        <v>313401.4026065017</v>
       </c>
       <c r="M22" t="n">
-        <v>8.223772884521699</v>
+        <v>7.32037272696079</v>
       </c>
       <c r="N22" t="n">
-        <v>3.000000000000001</v>
+        <v>12.00000000000001</v>
       </c>
       <c r="O22" t="n">
         <v>14859.47395978355</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>5326.0197000149</v>
       </c>
       <c r="Q22" t="n">
-        <v>7987.699467471215</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -2384,49 +2384,49 @@
         <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>357358.1871978257</v>
+        <v>363714.5556142299</v>
       </c>
       <c r="D23" t="n">
-        <v>463207.2140044973</v>
+        <v>456295.8493881218</v>
       </c>
       <c r="E23" t="n">
-        <v>632394.3872843417</v>
+        <v>619075.4011473791</v>
       </c>
       <c r="F23" t="n">
-        <v>861827.4349615262</v>
+        <v>820177.8864444671</v>
       </c>
       <c r="G23" t="n">
-        <v>1128670.468825955</v>
+        <v>1085876.389988035</v>
       </c>
       <c r="H23" t="n">
-        <v>186502.5580275402</v>
+        <v>103925.9419473006</v>
       </c>
       <c r="I23" t="n">
-        <v>241744.3713436618</v>
+        <v>130379.6486071916</v>
       </c>
       <c r="J23" t="n">
-        <v>330041.888323935</v>
+        <v>176891.4474483769</v>
       </c>
       <c r="K23" t="n">
-        <v>449781.2753612942</v>
+        <v>234353.4458475011</v>
       </c>
       <c r="L23" t="n">
-        <v>589044.6536478974</v>
+        <v>310272.7810198907</v>
       </c>
       <c r="M23" t="n">
-        <v>8.076456267302115</v>
+        <v>7.166836685230182</v>
       </c>
       <c r="N23" t="n">
-        <v>3.000000000000001</v>
+        <v>12.00000000000001</v>
       </c>
       <c r="O23" t="n">
         <v>15156.66343897921</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>4850.482226799285</v>
       </c>
       <c r="Q23" t="n">
-        <v>7910.148987204505</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -2470,49 +2470,49 @@
         <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>388537.584161737</v>
+        <v>392341.3654553156</v>
       </c>
       <c r="D24" t="n">
-        <v>507431.1895798766</v>
+        <v>501676.6769003075</v>
       </c>
       <c r="E24" t="n">
-        <v>685369.8177776027</v>
+        <v>680745.6160154019</v>
       </c>
       <c r="F24" t="n">
-        <v>946224.1553754825</v>
+        <v>905461.7627830061</v>
       </c>
       <c r="G24" t="n">
-        <v>1238805.123743539</v>
+        <v>1195325.842254449</v>
       </c>
       <c r="H24" t="n">
-        <v>196868.7878495599</v>
+        <v>100094.3040861474</v>
       </c>
       <c r="I24" t="n">
-        <v>257111.1966559872</v>
+        <v>127987.9774907558</v>
       </c>
       <c r="J24" t="n">
-        <v>347271.2312906743</v>
+        <v>173672.1250783275</v>
       </c>
       <c r="K24" t="n">
-        <v>479443.9716936138</v>
+        <v>231001.8086346887</v>
       </c>
       <c r="L24" t="n">
-        <v>627692.3341132773</v>
+        <v>304952.0618296205</v>
       </c>
       <c r="M24" t="n">
-        <v>7.571950723446255</v>
+        <v>7.908408477138871</v>
       </c>
       <c r="N24" t="n">
-        <v>3.000000000000001</v>
+        <v>12.00000000000001</v>
       </c>
       <c r="O24" t="n">
         <v>15459.7967077588</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>4417.403456549348</v>
       </c>
       <c r="Q24" t="n">
-        <v>7833.351424221934</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -2556,49 +2556,49 @@
         <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>408631.263229618</v>
+        <v>423708.5737257836</v>
       </c>
       <c r="D25" t="n">
-        <v>546529.0446468921</v>
+        <v>556207.0554988731</v>
       </c>
       <c r="E25" t="n">
-        <v>749043.1555779739</v>
+        <v>741271.90091988</v>
       </c>
       <c r="F25" t="n">
-        <v>1036473.88099102</v>
+        <v>1006308.317764131</v>
       </c>
       <c r="G25" t="n">
-        <v>1392575.598288678</v>
+        <v>1338261.139436261</v>
       </c>
       <c r="H25" t="n">
-        <v>201019.5041056793</v>
+        <v>96514.92879075168</v>
       </c>
       <c r="I25" t="n">
-        <v>268856.0749512078</v>
+        <v>126696.2428499962</v>
       </c>
       <c r="J25" t="n">
-        <v>368479.5982030088</v>
+        <v>168851.4445265136</v>
       </c>
       <c r="K25" t="n">
-        <v>509876.4688942238</v>
+        <v>229223.059558391</v>
       </c>
       <c r="L25" t="n">
-        <v>685054.9172013763</v>
+        <v>304837.3023004069</v>
       </c>
       <c r="M25" t="n">
-        <v>6.807509174010479</v>
+        <v>8.516070846501091</v>
       </c>
       <c r="N25" t="n">
-        <v>3.000000000000001</v>
+        <v>12.00000000000001</v>
       </c>
       <c r="O25" t="n">
         <v>15768.99264191397</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>4022.992433643156</v>
       </c>
       <c r="Q25" t="n">
-        <v>7757.299468646962</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -2642,49 +2642,49 @@
         <v>25</v>
       </c>
       <c r="C26" t="n">
-        <v>442144.1450649205</v>
+        <v>464390.9988780037</v>
       </c>
       <c r="D26" t="n">
-        <v>585205.942571013</v>
+        <v>603818.247020686</v>
       </c>
       <c r="E26" t="n">
-        <v>811679.8236197622</v>
+        <v>810688.8294570504</v>
       </c>
       <c r="F26" t="n">
-        <v>1111890.183161056</v>
+        <v>1080397.326414896</v>
       </c>
       <c r="G26" t="n">
-        <v>1585587.807608391</v>
+        <v>1472070.068182094</v>
       </c>
       <c r="H26" t="n">
-        <v>211170.5060994409</v>
+        <v>94448.05380208533</v>
       </c>
       <c r="I26" t="n">
-        <v>279497.6173369344</v>
+        <v>122804.8313147265</v>
       </c>
       <c r="J26" t="n">
-        <v>387662.8042181195</v>
+        <v>164878.2650100925</v>
       </c>
       <c r="K26" t="n">
-        <v>531044.9438850866</v>
+        <v>219731.7025080189</v>
       </c>
       <c r="L26" t="n">
-        <v>757285.5674671514</v>
+        <v>299390.2839116533</v>
       </c>
       <c r="M26" t="n">
-        <v>6.951170331767327</v>
+        <v>7.680004905476781</v>
       </c>
       <c r="N26" t="n">
-        <v>3.000000000000001</v>
+        <v>12.00000000000001</v>
       </c>
       <c r="O26" t="n">
         <v>16084.37249475226</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>3663.796680639301</v>
       </c>
       <c r="Q26" t="n">
-        <v>7681.98588157272</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -2728,49 +2728,49 @@
         <v>26</v>
       </c>
       <c r="C27" t="n">
-        <v>475829.7086446472</v>
+        <v>502381.1515200923</v>
       </c>
       <c r="D27" t="n">
-        <v>625148.8840858075</v>
+        <v>660115.4917523768</v>
       </c>
       <c r="E27" t="n">
-        <v>872570.6855660712</v>
+        <v>886106.3227654626</v>
       </c>
       <c r="F27" t="n">
-        <v>1224835.011720726</v>
+        <v>1205192.977331232</v>
       </c>
       <c r="G27" t="n">
-        <v>1662687.419169298</v>
+        <v>1688691.830821613</v>
       </c>
       <c r="H27" t="n">
-        <v>220639.7270571224</v>
+        <v>91227.23966627159</v>
       </c>
       <c r="I27" t="n">
-        <v>289878.2414146533</v>
+        <v>119870.1702707179</v>
       </c>
       <c r="J27" t="n">
-        <v>404606.4262143879</v>
+        <v>160907.776161842</v>
       </c>
       <c r="K27" t="n">
-        <v>567949.5369169787</v>
+        <v>218850.6241813225</v>
       </c>
       <c r="L27" t="n">
-        <v>770979.3896471373</v>
+        <v>306649.0331229653</v>
       </c>
       <c r="M27" t="n">
-        <v>7.240975246436357</v>
+        <v>8.391083541358245</v>
       </c>
       <c r="N27" t="n">
-        <v>3.000000000000001</v>
+        <v>12.00000000000001</v>
       </c>
       <c r="O27" t="n">
         <v>16406.05994464731</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>3336.671977010791</v>
       </c>
       <c r="Q27" t="n">
-        <v>7607.40349437299</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -2814,49 +2814,49 @@
         <v>27</v>
       </c>
       <c r="C28" t="n">
-        <v>501518.0315267135</v>
+        <v>547008.6986863756</v>
       </c>
       <c r="D28" t="n">
-        <v>677070.1713738814</v>
+        <v>693113.747341095</v>
       </c>
       <c r="E28" t="n">
-        <v>941401.295945406</v>
+        <v>977996.447707322</v>
       </c>
       <c r="F28" t="n">
-        <v>1319631.818714217</v>
+        <v>1350037.17417615</v>
       </c>
       <c r="G28" t="n">
-        <v>1907460.424389118</v>
+        <v>1836802.512091168</v>
       </c>
       <c r="H28" t="n">
-        <v>225777.9290624023</v>
+        <v>88688.51991803154</v>
       </c>
       <c r="I28" t="n">
-        <v>304809.5811378185</v>
+        <v>112377.0655460204</v>
       </c>
       <c r="J28" t="n">
-        <v>423808.5605181159</v>
+        <v>158566.1391501657</v>
       </c>
       <c r="K28" t="n">
-        <v>594083.8024251126</v>
+        <v>218886.4621340375</v>
       </c>
       <c r="L28" t="n">
-        <v>858717.8073658689</v>
+        <v>297807.5057495341</v>
       </c>
       <c r="M28" t="n">
-        <v>7.073494386079894</v>
+        <v>8.180295171860605</v>
       </c>
       <c r="N28" t="n">
-        <v>3.000000000000001</v>
+        <v>12.00000000000001</v>
       </c>
       <c r="O28" t="n">
         <v>16734.18114354025</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>3038.754836206257</v>
       </c>
       <c r="Q28" t="n">
-        <v>7533.545208019847</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -2900,49 +2900,49 @@
         <v>28</v>
       </c>
       <c r="C29" t="n">
-        <v>561418.7425024243</v>
+        <v>575036.2809039223</v>
       </c>
       <c r="D29" t="n">
-        <v>729830.2649260745</v>
+        <v>757406.6279958682</v>
       </c>
       <c r="E29" t="n">
-        <v>1029860.547381236</v>
+        <v>1042530.941626258</v>
       </c>
       <c r="F29" t="n">
-        <v>1447719.639780909</v>
+        <v>1449815.512833124</v>
       </c>
       <c r="G29" t="n">
-        <v>2038694.502214131</v>
+        <v>2012607.395258121</v>
       </c>
       <c r="H29" t="n">
-        <v>245383.0811419825</v>
+        <v>83243.51274847033</v>
       </c>
       <c r="I29" t="n">
-        <v>318991.8425593998</v>
+        <v>109643.8440270942</v>
       </c>
       <c r="J29" t="n">
-        <v>450128.1042677072</v>
+        <v>150919.0647823491</v>
       </c>
       <c r="K29" t="n">
-        <v>632764.5996564968</v>
+        <v>209878.4722517689</v>
       </c>
       <c r="L29" t="n">
-        <v>891065.9737341482</v>
+        <v>291349.4590314854</v>
       </c>
       <c r="M29" t="n">
-        <v>7.58829520925685</v>
+        <v>7.339661201686513</v>
       </c>
       <c r="N29" t="n">
-        <v>3.000000000000001</v>
+        <v>12.00000000000001</v>
       </c>
       <c r="O29" t="n">
         <v>17068.86476641105</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>2767.437440116412</v>
       </c>
       <c r="Q29" t="n">
-        <v>7460.403992408009</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -2986,49 +2986,49 @@
         <v>29</v>
       </c>
       <c r="C30" t="n">
-        <v>592469.0393599514</v>
+        <v>611417.6796744334</v>
       </c>
       <c r="D30" t="n">
-        <v>770835.1319282704</v>
+        <v>817565.3570082044</v>
       </c>
       <c r="E30" t="n">
-        <v>1103896.80789546</v>
+        <v>1136047.751968519</v>
       </c>
       <c r="F30" t="n">
-        <v>1607537.036272424</v>
+        <v>1660383.977105125</v>
       </c>
       <c r="G30" t="n">
-        <v>2298321.633389724</v>
+        <v>2263782.710218742</v>
       </c>
       <c r="H30" t="n">
-        <v>251412.0816285906</v>
+        <v>79026.93196253094</v>
       </c>
       <c r="I30" t="n">
-        <v>327101.0841678686</v>
+        <v>105671.9227968889</v>
       </c>
       <c r="J30" t="n">
-        <v>468434.5947865476</v>
+        <v>146836.3957823519</v>
       </c>
       <c r="K30" t="n">
-        <v>682152.4936069504</v>
+        <v>214607.8792818559</v>
       </c>
       <c r="L30" t="n">
-        <v>975284.4245275034</v>
+        <v>292598.3467041232</v>
       </c>
       <c r="M30" t="n">
-        <v>7.535645013228671</v>
+        <v>7.824050631413873</v>
       </c>
       <c r="N30" t="n">
-        <v>3.000000000000001</v>
+        <v>12.00000000000001</v>
       </c>
       <c r="O30" t="n">
         <v>17410.24206173927</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>2520.344811534589</v>
       </c>
       <c r="Q30" t="n">
-        <v>7387.972885685595</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -3072,49 +3072,49 @@
         <v>30</v>
       </c>
       <c r="C31" t="n">
-        <v>628703.3002774286</v>
+        <v>657091.2167433101</v>
       </c>
       <c r="D31" t="n">
-        <v>846802.8701722301</v>
+        <v>907639.657447247</v>
       </c>
       <c r="E31" t="n">
-        <v>1199329.191380407</v>
+        <v>1245987.935787716</v>
       </c>
       <c r="F31" t="n">
-        <v>1726348.928333578</v>
+        <v>1775064.309981061</v>
       </c>
       <c r="G31" t="n">
-        <v>2444133.229591014</v>
+        <v>2424889.717364854</v>
       </c>
       <c r="H31" t="n">
-        <v>259017.4353782536</v>
+        <v>75830.64824617446</v>
       </c>
       <c r="I31" t="n">
-        <v>348871.5704310258</v>
+        <v>104744.8236171561</v>
       </c>
       <c r="J31" t="n">
-        <v>494107.7471496463</v>
+        <v>143791.4104924113</v>
       </c>
       <c r="K31" t="n">
-        <v>711232.9007779085</v>
+        <v>204848.6935674485</v>
       </c>
       <c r="L31" t="n">
-        <v>1006950.529084348</v>
+        <v>279840.8417397732</v>
       </c>
       <c r="M31" t="n">
-        <v>7.159132565213362</v>
+        <v>7.963799625091207</v>
       </c>
       <c r="N31" t="n">
-        <v>3.000000000000001</v>
+        <v>12.00000000000001</v>
       </c>
       <c r="O31" t="n">
         <v>17758.44690297405</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>2295.314024790429</v>
       </c>
       <c r="Q31" t="n">
-        <v>7316.244993591564</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -3158,49 +3158,49 @@
         <v>31</v>
       </c>
       <c r="C32" t="n">
-        <v>677917.4647656337</v>
+        <v>694214.724206025</v>
       </c>
       <c r="D32" t="n">
-        <v>913786.4103438382</v>
+        <v>961997.0334559458</v>
       </c>
       <c r="E32" t="n">
-        <v>1300063.821528042</v>
+        <v>1362559.695274828</v>
       </c>
       <c r="F32" t="n">
-        <v>1880150.241176703</v>
+        <v>1918204.121104682</v>
       </c>
       <c r="G32" t="n">
-        <v>2737033.11915341</v>
+        <v>2730713.68259551</v>
       </c>
       <c r="H32" t="n">
-        <v>271158.2713864389</v>
+        <v>71531.10016375774</v>
       </c>
       <c r="I32" t="n">
-        <v>365502.8175604176</v>
+        <v>99123.08650047191</v>
       </c>
       <c r="J32" t="n">
-        <v>520008.8165001979</v>
+        <v>140396.6102177887</v>
       </c>
       <c r="K32" t="n">
-        <v>752035.9274421745</v>
+        <v>197649.5835322432</v>
       </c>
       <c r="L32" t="n">
-        <v>1094778.063541482</v>
+        <v>281369.6499619533</v>
       </c>
       <c r="M32" t="n">
-        <v>7.946421615459644</v>
+        <v>8.139403831849892</v>
       </c>
       <c r="N32" t="n">
-        <v>3.000000000000001</v>
+        <v>12.00000000000001</v>
       </c>
       <c r="O32" t="n">
         <v>18113.61584103354</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>2090.375272576999</v>
       </c>
       <c r="Q32" t="n">
-        <v>7245.213488799414</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -3244,49 +3244,49 @@
         <v>32</v>
       </c>
       <c r="C33" t="n">
-        <v>714234.6518410424</v>
+        <v>736458.1322120705</v>
       </c>
       <c r="D33" t="n">
-        <v>992183.9491426679</v>
+        <v>1057345.375594364</v>
       </c>
       <c r="E33" t="n">
-        <v>1398772.481661732</v>
+        <v>1464411.114560171</v>
       </c>
       <c r="F33" t="n">
-        <v>2064933.25414679</v>
+        <v>2120587.946024359</v>
       </c>
       <c r="G33" t="n">
-        <v>2990058.460933979</v>
+        <v>2924535.017281641</v>
       </c>
       <c r="H33" t="n">
-        <v>277363.7663737983</v>
+        <v>67753.404603419</v>
       </c>
       <c r="I33" t="n">
-        <v>385301.7721283651</v>
+        <v>97274.70701290308</v>
       </c>
       <c r="J33" t="n">
-        <v>543195.1569609195</v>
+        <v>134724.3440065211</v>
       </c>
       <c r="K33" t="n">
-        <v>801890.0556061566</v>
+        <v>195091.9499966202</v>
       </c>
       <c r="L33" t="n">
-        <v>1161150.43461524</v>
+        <v>269054.2688524369</v>
       </c>
       <c r="M33" t="n">
-        <v>7.669181374434891</v>
+        <v>8.041797835620196</v>
       </c>
       <c r="N33" t="n">
-        <v>3.000000000000001</v>
+        <v>12.00000000000001</v>
       </c>
       <c r="O33" t="n">
         <v>18475.88815785421</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>1903.734623239765</v>
       </c>
       <c r="Q33" t="n">
-        <v>7174.871610267381</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -3330,49 +3330,49 @@
         <v>33</v>
       </c>
       <c r="C34" t="n">
-        <v>763520.5942899635</v>
+        <v>782721.8126930122</v>
       </c>
       <c r="D34" t="n">
-        <v>1078312.206076249</v>
+        <v>1152056.678426296</v>
       </c>
       <c r="E34" t="n">
-        <v>1512375.347246699</v>
+        <v>1599738.337093651</v>
       </c>
       <c r="F34" t="n">
-        <v>2294726.426302882</v>
+        <v>2278498.881039904</v>
       </c>
       <c r="G34" t="n">
-        <v>3327795.721134044</v>
+        <v>3233933.616257265</v>
       </c>
       <c r="H34" t="n">
-        <v>287867.3039699587</v>
+        <v>64294.30044450537</v>
       </c>
       <c r="I34" t="n">
-        <v>406552.0038653773</v>
+        <v>94632.18861499924</v>
       </c>
       <c r="J34" t="n">
-        <v>570205.2008268404</v>
+        <v>131405.6355780039</v>
       </c>
       <c r="K34" t="n">
-        <v>865172.091792406</v>
+        <v>187160.3540931405</v>
       </c>
       <c r="L34" t="n">
-        <v>1254666.330639687</v>
+        <v>265641.6317642333</v>
       </c>
       <c r="M34" t="n">
-        <v>8.534053192872598</v>
+        <v>7.741907800254612</v>
       </c>
       <c r="N34" t="n">
-        <v>3.000000000000001</v>
+        <v>12.00000000000001</v>
       </c>
       <c r="O34" t="n">
         <v>18845.40592101129</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>1733.758317593358</v>
       </c>
       <c r="Q34" t="n">
-        <v>7105.212662594883</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -3416,49 +3416,49 @@
         <v>34</v>
       </c>
       <c r="C35" t="n">
-        <v>823416.7437657423</v>
+        <v>845362.3592502276</v>
       </c>
       <c r="D35" t="n">
-        <v>1154530.028598475</v>
+        <v>1218767.069450551</v>
       </c>
       <c r="E35" t="n">
-        <v>1622316.912726514</v>
+        <v>1714543.563799801</v>
       </c>
       <c r="F35" t="n">
-        <v>2480867.181909618</v>
+        <v>2477909.871138173</v>
       </c>
       <c r="G35" t="n">
-        <v>3599375.33498144</v>
+        <v>3480384.617428135</v>
       </c>
       <c r="H35" t="n">
-        <v>301407.499418141</v>
+        <v>61999.74771723177</v>
       </c>
       <c r="I35" t="n">
-        <v>422609.8285681943</v>
+        <v>89385.63446215294</v>
       </c>
       <c r="J35" t="n">
-        <v>593840.8316697635</v>
+        <v>125746.3941262683</v>
       </c>
       <c r="K35" t="n">
-        <v>908108.7788769078</v>
+        <v>181732.4667883995</v>
       </c>
       <c r="L35" t="n">
-        <v>1317532.983629407</v>
+        <v>255254.9990880381</v>
       </c>
       <c r="M35" t="n">
-        <v>8.156804660488257</v>
+        <v>8.045586053477894</v>
       </c>
       <c r="N35" t="n">
-        <v>3.000000000000001</v>
+        <v>12.00000000000001</v>
       </c>
       <c r="O35" t="n">
         <v>19222.31403943152</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>1578.958467808236</v>
       </c>
       <c r="Q35" t="n">
-        <v>7036.230015385224</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -3502,49 +3502,49 @@
         <v>35</v>
       </c>
       <c r="C36" t="n">
-        <v>867492.0904282234</v>
+        <v>910343.6401487865</v>
       </c>
       <c r="D36" t="n">
-        <v>1201195.051046614</v>
+        <v>1304298.087395181</v>
       </c>
       <c r="E36" t="n">
-        <v>1789953.742897828</v>
+        <v>1907966.824894645</v>
       </c>
       <c r="F36" t="n">
-        <v>2746145.421781865</v>
+        <v>2728983.559552623</v>
       </c>
       <c r="G36" t="n">
-        <v>3844736.281071111</v>
+        <v>3785546.97739877</v>
       </c>
       <c r="H36" t="n">
-        <v>308292.2866682824</v>
+        <v>59612.09099059999</v>
       </c>
       <c r="I36" t="n">
-        <v>426884.7786715645</v>
+        <v>85409.43533362773</v>
       </c>
       <c r="J36" t="n">
-        <v>636119.8430708698</v>
+        <v>124939.5139994347</v>
       </c>
       <c r="K36" t="n">
-        <v>975934.4908687847</v>
+        <v>178702.2055070478</v>
       </c>
       <c r="L36" t="n">
-        <v>1366355.443244233</v>
+        <v>247889.2155812761</v>
       </c>
       <c r="M36" t="n">
-        <v>7.277612020959046</v>
+        <v>7.929805455662557</v>
       </c>
       <c r="N36" t="n">
-        <v>3.000000000000001</v>
+        <v>12.00000000000001</v>
       </c>
       <c r="O36" t="n">
         <v>19606.76032022015</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>1437.980033182502</v>
       </c>
       <c r="Q36" t="n">
-        <v>6967.917102614491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -3588,49 +3588,49 @@
         <v>36</v>
       </c>
       <c r="C37" t="n">
-        <v>952384.0347038514</v>
+        <v>996636.2471171261</v>
       </c>
       <c r="D37" t="n">
-        <v>1293408.04451315</v>
+        <v>1406686.36702243</v>
       </c>
       <c r="E37" t="n">
-        <v>1943735.140807636</v>
+        <v>2051942.956870472</v>
       </c>
       <c r="F37" t="n">
-        <v>3004155.884231845</v>
+        <v>2952052.717760902</v>
       </c>
       <c r="G37" t="n">
-        <v>4164472.867356298</v>
+        <v>4048805.363158335</v>
       </c>
       <c r="H37" t="n">
-        <v>328603.3730791411</v>
+        <v>58270.3529542642</v>
       </c>
       <c r="I37" t="n">
-        <v>446267.7141861984</v>
+        <v>82244.7621581594</v>
       </c>
       <c r="J37" t="n">
-        <v>670651.6493007581</v>
+        <v>119970.9931128033</v>
       </c>
       <c r="K37" t="n">
-        <v>1036531.189984827</v>
+        <v>172597.729915102</v>
       </c>
       <c r="L37" t="n">
-        <v>1436878.172506715</v>
+        <v>236721.5904867925</v>
       </c>
       <c r="M37" t="n">
-        <v>8.101172177322125</v>
+        <v>7.64839718033401</v>
       </c>
       <c r="N37" t="n">
-        <v>3.000000000000001</v>
+        <v>12.00000000000001</v>
       </c>
       <c r="O37" t="n">
         <v>19998.89552662455</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>1309.588958791206</v>
       </c>
       <c r="Q37" t="n">
-        <v>6900.267422006583</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -3674,49 +3674,49 @@
         <v>37</v>
       </c>
       <c r="C38" t="n">
-        <v>1006783.426863425</v>
+        <v>1011085.900066879</v>
       </c>
       <c r="D38" t="n">
-        <v>1394228.160132084</v>
+        <v>1490675.208774027</v>
       </c>
       <c r="E38" t="n">
-        <v>2114017.818022942</v>
+        <v>2202226.471067634</v>
       </c>
       <c r="F38" t="n">
-        <v>3249775.420251501</v>
+        <v>3257957.472101906</v>
       </c>
       <c r="G38" t="n">
-        <v>4543627.434022485</v>
+        <v>4508036.539375824</v>
       </c>
       <c r="H38" t="n">
-        <v>337255.2692015227</v>
+        <v>52781.41171866735</v>
       </c>
       <c r="I38" t="n">
-        <v>467042.6438569854</v>
+        <v>77817.26748232573</v>
       </c>
       <c r="J38" t="n">
-        <v>708159.8974422331</v>
+        <v>114962.1630164956</v>
       </c>
       <c r="K38" t="n">
-        <v>1088619.314698046</v>
+        <v>170074.1694504345</v>
       </c>
       <c r="L38" t="n">
-        <v>1522037.662247443</v>
+        <v>235331.6692596079</v>
       </c>
       <c r="M38" t="n">
-        <v>7.894248433149419</v>
+        <v>7.354858885808619</v>
       </c>
       <c r="N38" t="n">
-        <v>3.000000000000001</v>
+        <v>12.00000000000001</v>
       </c>
       <c r="O38" t="n">
         <v>20398.87343715704</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>1192.661373184848</v>
       </c>
       <c r="Q38" t="n">
-        <v>6833.274534414289</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -3760,49 +3760,49 @@
         <v>38</v>
       </c>
       <c r="C39" t="n">
-        <v>1065643.032464787</v>
+        <v>1102266.836818549</v>
       </c>
       <c r="D39" t="n">
-        <v>1501868.791897233</v>
+        <v>1589920.435235645</v>
       </c>
       <c r="E39" t="n">
-        <v>2317753.699089382</v>
+        <v>2357937.816752613</v>
       </c>
       <c r="F39" t="n">
-        <v>3577245.182415337</v>
+        <v>3476631.207821677</v>
       </c>
       <c r="G39" t="n">
-        <v>5092669.827351208</v>
+        <v>4927575.698504136</v>
       </c>
       <c r="H39" t="n">
-        <v>346574.9832558078</v>
+        <v>51376.16304243558</v>
       </c>
       <c r="I39" t="n">
-        <v>488447.0085637271</v>
+        <v>74105.47861616666</v>
       </c>
       <c r="J39" t="n">
-        <v>753794.1177122393</v>
+        <v>109902.4244139069</v>
       </c>
       <c r="K39" t="n">
-        <v>1163413.686785853</v>
+        <v>162044.2217848103</v>
       </c>
       <c r="L39" t="n">
-        <v>1656269.413275524</v>
+        <v>229672.0939377823</v>
       </c>
       <c r="M39" t="n">
-        <v>7.992718681349478</v>
+        <v>7.194286956898639</v>
       </c>
       <c r="N39" t="n">
-        <v>3.000000000000001</v>
+        <v>12.00000000000001</v>
       </c>
       <c r="O39" t="n">
         <v>20806.85090590018</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>1086.173750579059</v>
       </c>
       <c r="Q39" t="n">
-        <v>6766.932063206384</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -3846,49 +3846,49 @@
         <v>39</v>
       </c>
       <c r="C40" t="n">
-        <v>1140044.94098464</v>
+        <v>1211558.72154335</v>
       </c>
       <c r="D40" t="n">
-        <v>1603353.138652585</v>
+        <v>1698519.860990216</v>
       </c>
       <c r="E40" t="n">
-        <v>2446004.056588801</v>
+        <v>2520751.108623343</v>
       </c>
       <c r="F40" t="n">
-        <v>3903423.554120329</v>
+        <v>3791504.433741139</v>
       </c>
       <c r="G40" t="n">
-        <v>5598395.417601358</v>
+        <v>5336956.16087708</v>
       </c>
       <c r="H40" t="n">
-        <v>359973.232711864</v>
+        <v>50419.82927359394</v>
       </c>
       <c r="I40" t="n">
-        <v>506264.4390150062</v>
+        <v>70685.0438910988</v>
       </c>
       <c r="J40" t="n">
-        <v>772334.4543910108</v>
+        <v>104902.7490604087</v>
       </c>
       <c r="K40" t="n">
-        <v>1232519.828741787</v>
+        <v>157786.0014872277</v>
       </c>
       <c r="L40" t="n">
-        <v>1767713.205001099</v>
+        <v>222101.0122640182</v>
       </c>
       <c r="M40" t="n">
-        <v>7.936814068587984</v>
+        <v>7.875962648915345</v>
       </c>
       <c r="N40" t="n">
-        <v>3.000000000000001</v>
+        <v>12.00000000000001</v>
       </c>
       <c r="O40" t="n">
         <v>21222.98792401818</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>989.1939514202135</v>
       </c>
       <c r="Q40" t="n">
-        <v>6701.23369366069</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -3932,49 +3932,49 @@
         <v>40</v>
       </c>
       <c r="C41" t="n">
-        <v>1249354.523803942</v>
+        <v>1302277.215612818</v>
       </c>
       <c r="D41" t="n">
-        <v>1754677.578823162</v>
+        <v>1819132.667019434</v>
       </c>
       <c r="E41" t="n">
-        <v>2693777.815629494</v>
+        <v>2763590.717662492</v>
       </c>
       <c r="F41" t="n">
-        <v>4238407.869998762</v>
+        <v>4124069.020504634</v>
       </c>
       <c r="G41" t="n">
-        <v>6287176.451973204</v>
+        <v>5941255.498038584</v>
       </c>
       <c r="H41" t="n">
-        <v>382998.1758237997</v>
+        <v>48388.51811199958</v>
       </c>
       <c r="I41" t="n">
-        <v>537908.4151406601</v>
+        <v>67593.23817608034</v>
       </c>
       <c r="J41" t="n">
-        <v>825796.0169059427</v>
+        <v>102686.3235358359</v>
       </c>
       <c r="K41" t="n">
-        <v>1299312.926537658</v>
+        <v>153237.4106690626</v>
       </c>
       <c r="L41" t="n">
-        <v>1927376.950504374</v>
+        <v>220758.3345759238</v>
       </c>
       <c r="M41" t="n">
-        <v>8.398502204703473</v>
+        <v>8.41660646018833</v>
       </c>
       <c r="N41" t="n">
-        <v>3.000000000000001</v>
+        <v>12.00000000000001</v>
       </c>
       <c r="O41" t="n">
         <v>21647.44768249855</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>900.8730629005514</v>
       </c>
       <c r="Q41" t="n">
-        <v>6636.173172363011</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -4018,49 +4018,49 @@
         <v>41</v>
       </c>
       <c r="C42" t="n">
-        <v>1338946.321323683</v>
+        <v>1374520.350179718</v>
       </c>
       <c r="D42" t="n">
-        <v>1856748.35144755</v>
+        <v>1961463.95923145</v>
       </c>
       <c r="E42" t="n">
-        <v>2919404.149643228</v>
+        <v>3016402.799598271</v>
       </c>
       <c r="F42" t="n">
-        <v>4537197.823128054</v>
+        <v>4501614.298736421</v>
       </c>
       <c r="G42" t="n">
-        <v>6708019.792879122</v>
+        <v>6555456.94006464</v>
       </c>
       <c r="H42" t="n">
-        <v>398507.9167288331</v>
+        <v>45600.75479335092</v>
       </c>
       <c r="I42" t="n">
-        <v>552620.2997395475</v>
+        <v>65073.05405061033</v>
       </c>
       <c r="J42" t="n">
-        <v>868896.4204432706</v>
+        <v>100071.4499457744</v>
       </c>
       <c r="K42" t="n">
-        <v>1350397.117110609</v>
+        <v>149344.4675330431</v>
       </c>
       <c r="L42" t="n">
-        <v>1996494.51995455</v>
+        <v>217482.2544047258</v>
       </c>
       <c r="M42" t="n">
-        <v>8.109294889727053</v>
+        <v>8.582328338011552</v>
       </c>
       <c r="N42" t="n">
-        <v>3.000000000000001</v>
+        <v>12.00000000000001</v>
       </c>
       <c r="O42" t="n">
         <v>22080.39663614852</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>820.4379679987164</v>
       </c>
       <c r="Q42" t="n">
-        <v>6571.744306611915</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -4104,49 +4104,49 @@
         <v>42</v>
       </c>
       <c r="C43" t="n">
-        <v>1399314.961874624</v>
+        <v>1478146.593720773</v>
       </c>
       <c r="D43" t="n">
-        <v>1989136.054288422</v>
+        <v>2121134.134912024</v>
       </c>
       <c r="E43" t="n">
-        <v>3160137.461392786</v>
+        <v>3213548.782725452</v>
       </c>
       <c r="F43" t="n">
-        <v>5009418.088952098</v>
+        <v>4982281.024528716</v>
       </c>
       <c r="G43" t="n">
-        <v>7169416.768634458</v>
+        <v>7171651.272081203</v>
       </c>
       <c r="H43" t="n">
-        <v>404344.9655573606</v>
+        <v>43784.49463692834</v>
       </c>
       <c r="I43" t="n">
-        <v>574779.2107379896</v>
+        <v>62830.56535041149</v>
       </c>
       <c r="J43" t="n">
-        <v>913150.8686733235</v>
+        <v>95189.2119769885</v>
       </c>
       <c r="K43" t="n">
-        <v>1447517.563827235</v>
+        <v>147581.2058999042</v>
       </c>
       <c r="L43" t="n">
-        <v>2071669.106214846</v>
+        <v>212433.0076558542</v>
       </c>
       <c r="M43" t="n">
-        <v>7.630781434536267</v>
+        <v>9.427745069305022</v>
       </c>
       <c r="N43" t="n">
-        <v>3.000000000000001</v>
+        <v>12.00000000000001</v>
       </c>
       <c r="O43" t="n">
         <v>22522.0045688715</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>747.1845779988308</v>
       </c>
       <c r="Q43" t="n">
-        <v>6507.940963829273</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -4190,49 +4190,49 @@
         <v>43</v>
       </c>
       <c r="C44" t="n">
-        <v>1474994.370245623</v>
+        <v>1563524.275680579</v>
       </c>
       <c r="D44" t="n">
-        <v>2087445.317363488</v>
+        <v>2273697.698977816</v>
       </c>
       <c r="E44" t="n">
-        <v>3398871.965854036</v>
+        <v>3542141.51984972</v>
       </c>
       <c r="F44" t="n">
-        <v>5364178.49797515</v>
+        <v>5303449.324616609</v>
       </c>
       <c r="G44" t="n">
-        <v>8056967.737397548</v>
+        <v>7760023.893399991</v>
       </c>
       <c r="H44" t="n">
-        <v>413799.2511410885</v>
+        <v>41351.32599382545</v>
       </c>
       <c r="I44" t="n">
-        <v>585618.0379719969</v>
+        <v>60133.64565185071</v>
       </c>
       <c r="J44" t="n">
-        <v>953529.5202249689</v>
+        <v>93680.82797423334</v>
       </c>
       <c r="K44" t="n">
-        <v>1504882.384791484</v>
+        <v>140263.0360942076</v>
       </c>
       <c r="L44" t="n">
-        <v>2260325.383918467</v>
+        <v>205233.3198320059</v>
       </c>
       <c r="M44" t="n">
-        <v>7.360421851206657</v>
+        <v>8.160948100352362</v>
       </c>
       <c r="N44" t="n">
-        <v>3.000000000000001</v>
+        <v>12.00000000000001</v>
       </c>
       <c r="O44" t="n">
         <v>22972.44466024893</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>680.4716692489353</v>
       </c>
       <c r="Q44" t="n">
-        <v>6444.75707097656</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -4276,49 +4276,49 @@
         <v>44</v>
       </c>
       <c r="C45" t="n">
-        <v>1527064.60968684</v>
+        <v>1663176.282740756</v>
       </c>
       <c r="D45" t="n">
-        <v>2268791.597885212</v>
+        <v>2441342.282378297</v>
       </c>
       <c r="E45" t="n">
-        <v>3640688.497495128</v>
+        <v>3788719.511511426</v>
       </c>
       <c r="F45" t="n">
-        <v>5746728.326838751</v>
+        <v>5805819.344816666</v>
       </c>
       <c r="G45" t="n">
-        <v>8794650.917333577</v>
+        <v>8581657.908925211</v>
       </c>
       <c r="H45" t="n">
-        <v>415929.3096986803</v>
+        <v>39273.99426739407</v>
       </c>
       <c r="I45" t="n">
-        <v>617954.8115859232</v>
+        <v>57649.48899155104</v>
       </c>
       <c r="J45" t="n">
-        <v>991620.815508003</v>
+        <v>89466.25196618284</v>
       </c>
       <c r="K45" t="n">
-        <v>1565246.637794891</v>
+        <v>137097.7436559544</v>
       </c>
       <c r="L45" t="n">
-        <v>2395414.746621343</v>
+        <v>202645.9774693652</v>
       </c>
       <c r="M45" t="n">
-        <v>7.995308444904733</v>
+        <v>7.594532528656125</v>
       </c>
       <c r="N45" t="n">
-        <v>3.000000000000001</v>
+        <v>12.00000000000001</v>
       </c>
       <c r="O45" t="n">
         <v>23431.89355345391</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>619.7152702088517</v>
       </c>
       <c r="Q45" t="n">
-        <v>6382.186613976791</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -4362,49 +4362,49 @@
         <v>45</v>
       </c>
       <c r="C46" t="n">
-        <v>1540923.132376553</v>
+        <v>1760118.813093655</v>
       </c>
       <c r="D46" t="n">
-        <v>2360409.72097757</v>
+        <v>2591533.909193018</v>
       </c>
       <c r="E46" t="n">
-        <v>3959630.430808924</v>
+        <v>4102278.455769861</v>
       </c>
       <c r="F46" t="n">
-        <v>6188760.63126447</v>
+        <v>6281573.117744679</v>
       </c>
       <c r="G46" t="n">
-        <v>9646111.012961427</v>
+        <v>9676394.83144355</v>
       </c>
       <c r="H46" t="n">
-        <v>407479.592452604</v>
+        <v>37109.98266041659</v>
       </c>
       <c r="I46" t="n">
-        <v>624183.4981357571</v>
+        <v>54639.36736463785</v>
       </c>
       <c r="J46" t="n">
-        <v>1047079.221739315</v>
+        <v>86491.59433404668</v>
       </c>
       <c r="K46" t="n">
-        <v>1636547.344139759</v>
+        <v>132439.3942872085</v>
       </c>
       <c r="L46" t="n">
-        <v>2550804.320947519</v>
+        <v>204015.1163313018</v>
       </c>
       <c r="M46" t="n">
-        <v>7.472782832846987</v>
+        <v>8.06154522842532</v>
       </c>
       <c r="N46" t="n">
-        <v>3.000000000000001</v>
+        <v>12.00000000000001</v>
       </c>
       <c r="O46" t="n">
         <v>23900.53142452298</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>564.3835496544899</v>
       </c>
       <c r="Q46" t="n">
-        <v>6320.223637142062</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -4448,49 +4448,49 @@
         <v>46</v>
       </c>
       <c r="C47" t="n">
-        <v>1687908.137483503</v>
+        <v>1884697.481044273</v>
       </c>
       <c r="D47" t="n">
-        <v>2527606.363102154</v>
+        <v>2803610.304659732</v>
       </c>
       <c r="E47" t="n">
-        <v>4279197.045789131</v>
+        <v>4311671.049517032</v>
       </c>
       <c r="F47" t="n">
-        <v>6820913.684456561</v>
+        <v>6748475.617047116</v>
       </c>
       <c r="G47" t="n">
-        <v>10406595.08490486</v>
+        <v>10735503.91686033</v>
       </c>
       <c r="H47" t="n">
-        <v>433347.6746768059</v>
+        <v>35479.08361223504</v>
       </c>
       <c r="I47" t="n">
-        <v>648928.8816283832</v>
+        <v>52777.44859086473</v>
       </c>
       <c r="J47" t="n">
-        <v>1098626.191850267</v>
+        <v>81166.4148824076</v>
       </c>
       <c r="K47" t="n">
-        <v>1751177.696635368</v>
+        <v>127038.8129025783</v>
       </c>
       <c r="L47" t="n">
-        <v>2671753.089637957</v>
+        <v>202093.8877016609</v>
       </c>
       <c r="M47" t="n">
-        <v>7.578799747910653</v>
+        <v>7.684723357394216</v>
       </c>
       <c r="N47" t="n">
-        <v>3.000000000000001</v>
+        <v>12.00000000000001</v>
       </c>
       <c r="O47" t="n">
         <v>24378.54205301345</v>
       </c>
       <c r="P47" t="n">
-        <v>0</v>
+        <v>513.9921612924819</v>
       </c>
       <c r="Q47" t="n">
-        <v>6258.862242606702</v>
+        <v>0</v>
       </c>
       <c r="R47" t="n">
         <v>0</v>
@@ -4534,49 +4534,49 @@
         <v>47</v>
       </c>
       <c r="C48" t="n">
-        <v>1772589.741020358</v>
+        <v>1984994.33236396</v>
       </c>
       <c r="D48" t="n">
-        <v>2738054.886062818</v>
+        <v>2998154.056495402</v>
       </c>
       <c r="E48" t="n">
-        <v>4627334.972503409</v>
+        <v>4656283.705145527</v>
       </c>
       <c r="F48" t="n">
-        <v>7229213.819569984</v>
+        <v>7395133.043029523</v>
       </c>
       <c r="G48" t="n">
-        <v>11557114.08122655</v>
+        <v>11842480.94514071</v>
       </c>
       <c r="H48" t="n">
-        <v>441833.5296583755</v>
+        <v>33363.5298218922</v>
       </c>
       <c r="I48" t="n">
-        <v>682484.1793404028</v>
+        <v>50392.58835333065</v>
       </c>
       <c r="J48" t="n">
-        <v>1153403.800383014</v>
+        <v>78262.2185479012</v>
       </c>
       <c r="K48" t="n">
-        <v>1801944.908423697</v>
+        <v>124296.4464911817</v>
       </c>
       <c r="L48" t="n">
-        <v>2880711.982589657</v>
+        <v>199046.8988935869</v>
       </c>
       <c r="M48" t="n">
-        <v>8.020646220836559</v>
+        <v>8.090563337609916</v>
       </c>
       <c r="N48" t="n">
-        <v>3.000000000000001</v>
+        <v>12.00000000000001</v>
       </c>
       <c r="O48" t="n">
         <v>24866.11289407371</v>
       </c>
       <c r="P48" t="n">
-        <v>0</v>
+        <v>468.1000040342244</v>
       </c>
       <c r="Q48" t="n">
-        <v>6198.096589765862</v>
+        <v>0</v>
       </c>
       <c r="R48" t="n">
         <v>0</v>
@@ -4620,49 +4620,49 @@
         <v>48</v>
       </c>
       <c r="C49" t="n">
-        <v>1872957.763807691</v>
+        <v>2141560.379144153</v>
       </c>
       <c r="D49" t="n">
-        <v>2923930.787459153</v>
+        <v>3140341.586615657</v>
       </c>
       <c r="E49" t="n">
-        <v>4973934.319464295</v>
+        <v>5043700.435082987</v>
       </c>
       <c r="F49" t="n">
-        <v>7869540.213570913</v>
+        <v>7991456.733802352</v>
       </c>
       <c r="G49" t="n">
-        <v>12347887.76499004</v>
+        <v>12642214.8497394</v>
       </c>
       <c r="H49" t="n">
-        <v>453253.533069487</v>
+        <v>32138.45699079034</v>
       </c>
       <c r="I49" t="n">
-        <v>707587.7446228326</v>
+        <v>47127.19473180171</v>
       </c>
       <c r="J49" t="n">
-        <v>1203686.141309188</v>
+        <v>75690.95463566847</v>
       </c>
       <c r="K49" t="n">
-        <v>1904419.295703701</v>
+        <v>119928.0165220972</v>
       </c>
       <c r="L49" t="n">
-        <v>2988174.033379794</v>
+        <v>189722.0746953927</v>
       </c>
       <c r="M49" t="n">
-        <v>7.68546056162919</v>
+        <v>7.621814599194368</v>
       </c>
       <c r="N49" t="n">
-        <v>3.000000000000001</v>
+        <v>12.00000000000001</v>
       </c>
       <c r="O49" t="n">
         <v>25363.43515195519</v>
       </c>
       <c r="P49" t="n">
-        <v>0</v>
+        <v>426.305360816883</v>
       </c>
       <c r="Q49" t="n">
-        <v>6137.920894719589</v>
+        <v>0</v>
       </c>
       <c r="R49" t="n">
         <v>0</v>
@@ -4706,49 +4706,49 @@
         <v>49</v>
       </c>
       <c r="C50" t="n">
-        <v>2034569.984924342</v>
+        <v>2194641.828198064</v>
       </c>
       <c r="D50" t="n">
-        <v>3154692.893872293</v>
+        <v>3364282.276386729</v>
       </c>
       <c r="E50" t="n">
-        <v>5250371.014323622</v>
+        <v>5378485.789445544</v>
       </c>
       <c r="F50" t="n">
-        <v>8378261.431006838</v>
+        <v>8668891.36345855</v>
       </c>
       <c r="G50" t="n">
-        <v>13313776.52934688</v>
+        <v>13888641.38925085</v>
       </c>
       <c r="H50" t="n">
-        <v>478022.8124256437</v>
+        <v>29406.29624407668</v>
       </c>
       <c r="I50" t="n">
-        <v>741196.0171643363</v>
+        <v>45078.46337247355</v>
       </c>
       <c r="J50" t="n">
-        <v>1233576.203886831</v>
+        <v>72067.04275697346</v>
       </c>
       <c r="K50" t="n">
-        <v>1968474.971204353</v>
+        <v>116155.6224192104</v>
       </c>
       <c r="L50" t="n">
-        <v>3128075.685635156</v>
+        <v>186095.7436755809</v>
       </c>
       <c r="M50" t="n">
-        <v>7.483132135216253</v>
+        <v>7.340061039183883</v>
       </c>
       <c r="N50" t="n">
-        <v>3.000000000000001</v>
+        <v>12.00000000000001</v>
       </c>
       <c r="O50" t="n">
         <v>25870.70385499428</v>
       </c>
       <c r="P50" t="n">
-        <v>0</v>
+        <v>388.2423821725185</v>
       </c>
       <c r="Q50" t="n">
-        <v>6078.329429722314</v>
+        <v>0</v>
       </c>
       <c r="R50" t="n">
         <v>0</v>
@@ -4792,49 +4792,49 @@
         <v>50</v>
       </c>
       <c r="C51" t="n">
-        <v>2178974.847763313</v>
+        <v>2361943.921625332</v>
       </c>
       <c r="D51" t="n">
-        <v>3346236.52514023</v>
+        <v>3552330.934412127</v>
       </c>
       <c r="E51" t="n">
-        <v>5586430.003425616</v>
+        <v>5790983.887539355</v>
       </c>
       <c r="F51" t="n">
-        <v>9268441.420160957</v>
+        <v>9336924.669875471</v>
       </c>
       <c r="G51" t="n">
-        <v>14126407.18042066</v>
+        <v>15254910.44307901</v>
       </c>
       <c r="H51" t="n">
-        <v>497039.589458612</v>
+        <v>28257.14208106373</v>
       </c>
       <c r="I51" t="n">
-        <v>763300.2420355498</v>
+        <v>42498.35019942703</v>
       </c>
       <c r="J51" t="n">
-        <v>1274304.23453128</v>
+        <v>69280.49942301193</v>
       </c>
       <c r="K51" t="n">
-        <v>2114197.106555311</v>
+        <v>111702.400967804</v>
       </c>
       <c r="L51" t="n">
-        <v>3222333.489846762</v>
+        <v>182502.2888466207</v>
       </c>
       <c r="M51" t="n">
-        <v>8.237678092187403</v>
+        <v>8.472259812800155</v>
       </c>
       <c r="N51" t="n">
-        <v>3.000000000000001</v>
+        <v>12.00000000000001</v>
       </c>
       <c r="O51" t="n">
         <v>26388.11793209419</v>
       </c>
       <c r="P51" t="n">
-        <v>0</v>
+        <v>353.5778837642578</v>
       </c>
       <c r="Q51" t="n">
-        <v>6019.31652263763</v>
+        <v>0</v>
       </c>
       <c r="R51" t="n">
         <v>0</v>
@@ -4878,40 +4878,40 @@
         <v>51</v>
       </c>
       <c r="C52" t="n">
-        <v>2316827.958964731</v>
+        <v>2380682.574306958</v>
       </c>
       <c r="D52" t="n">
-        <v>3523136.013665274</v>
+        <v>3819677.52544379</v>
       </c>
       <c r="E52" t="n">
-        <v>6000722.050277947</v>
+        <v>6299505.356711015</v>
       </c>
       <c r="F52" t="n">
-        <v>10034001.84646874</v>
+        <v>10120998.34816868</v>
       </c>
       <c r="G52" t="n">
-        <v>15813708.27169332</v>
+        <v>16201208.41634628</v>
       </c>
       <c r="H52" t="n">
-        <v>513092.0971793199</v>
+        <v>25429.75192722546</v>
       </c>
       <c r="I52" t="n">
-        <v>780244.9201740763</v>
+        <v>40800.67328686629</v>
       </c>
       <c r="J52" t="n">
-        <v>1328939.013125131</v>
+        <v>67289.46572477159</v>
       </c>
       <c r="K52" t="n">
-        <v>2222161.999808717</v>
+        <v>108109.5312863004</v>
       </c>
       <c r="L52" t="n">
-        <v>3502154.188837896</v>
+        <v>173056.5491575031</v>
       </c>
       <c r="M52" t="n">
-        <v>7.825165235361021</v>
+        <v>7.759638486606149</v>
       </c>
       <c r="N52" t="n">
-        <v>3.000000000000001</v>
+        <v>12.00000000000001</v>
       </c>
       <c r="O52" t="n">
         <v>0</v>
@@ -4920,10 +4920,10 @@
         <v>0</v>
       </c>
       <c r="Q52" t="n">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="R52" t="n">
-        <v>0</v>
+        <v>854.5364997978646</v>
       </c>
       <c r="S52" t="n">
         <v>100</v>
@@ -4964,40 +4964,40 @@
         <v>52</v>
       </c>
       <c r="C53" t="n">
-        <v>2464479.429852563</v>
+        <v>2357863.104203577</v>
       </c>
       <c r="D53" t="n">
-        <v>3772872.984542081</v>
+        <v>3953035.840760637</v>
       </c>
       <c r="E53" t="n">
-        <v>6302502.373758543</v>
+        <v>6530265.052300932</v>
       </c>
       <c r="F53" t="n">
-        <v>10858636.90850403</v>
+        <v>10981124.00524654</v>
       </c>
       <c r="G53" t="n">
-        <v>16931003.72775446</v>
+        <v>17583644.17064157</v>
       </c>
       <c r="H53" t="n">
-        <v>529894.6233816429</v>
+        <v>22487.5009382662</v>
       </c>
       <c r="I53" t="n">
-        <v>811215.9854100724</v>
+        <v>37701.04253280249</v>
       </c>
       <c r="J53" t="n">
-        <v>1355118.683990999</v>
+        <v>62280.69018466022</v>
       </c>
       <c r="K53" t="n">
-        <v>2334745.928641805</v>
+        <v>104729.5900813581</v>
       </c>
       <c r="L53" t="n">
-        <v>3640382.522619946</v>
+        <v>167699.3944561514</v>
       </c>
       <c r="M53" t="n">
-        <v>7.163561982002481</v>
+        <v>7.639818037894985</v>
       </c>
       <c r="N53" t="n">
-        <v>3.000000000000001</v>
+        <v>12.00000000000001</v>
       </c>
       <c r="O53" t="n">
         <v>0</v>
@@ -5006,10 +5006,10 @@
         <v>0</v>
       </c>
       <c r="Q53" t="n">
-        <v>0</v>
+        <v>82400</v>
       </c>
       <c r="R53" t="n">
-        <v>0</v>
+        <v>785.8683882069644</v>
       </c>
       <c r="S53" t="n">
         <v>100</v>
@@ -5050,40 +5050,40 @@
         <v>53</v>
       </c>
       <c r="C54" t="n">
-        <v>2485090.209947492</v>
+        <v>2360797.157579219</v>
       </c>
       <c r="D54" t="n">
-        <v>4060750.212520253</v>
+        <v>4090503.317290577</v>
       </c>
       <c r="E54" t="n">
-        <v>6744177.495024832</v>
+        <v>6828648.937675275</v>
       </c>
       <c r="F54" t="n">
-        <v>11445486.62427107</v>
+        <v>11871988.17453277</v>
       </c>
       <c r="G54" t="n">
-        <v>18031338.60911929</v>
+        <v>18519219.28311357</v>
       </c>
       <c r="H54" t="n">
-        <v>518763.3057526974</v>
+        <v>20103.11044892472</v>
       </c>
       <c r="I54" t="n">
-        <v>847682.7906088307</v>
+        <v>34832.23440657926</v>
       </c>
       <c r="J54" t="n">
-        <v>1407849.018074861</v>
+        <v>58148.6144924808</v>
       </c>
       <c r="K54" t="n">
-        <v>2389248.669278931</v>
+        <v>101094.6191436829</v>
       </c>
       <c r="L54" t="n">
-        <v>3764047.190951112</v>
+        <v>157698.3899192939</v>
       </c>
       <c r="M54" t="n">
-        <v>7.497698310581644</v>
+        <v>7.320708986710102</v>
       </c>
       <c r="N54" t="n">
-        <v>3.000000000000001</v>
+        <v>12.00000000000001</v>
       </c>
       <c r="O54" t="n">
         <v>0</v>
@@ -5092,10 +5092,10 @@
         <v>0</v>
       </c>
       <c r="Q54" t="n">
-        <v>0</v>
+        <v>84872</v>
       </c>
       <c r="R54" t="n">
-        <v>0</v>
+        <v>722.7182498689049</v>
       </c>
       <c r="S54" t="n">
         <v>100</v>
@@ -5136,40 +5136,40 @@
         <v>54</v>
       </c>
       <c r="C55" t="n">
-        <v>2590592.30960993</v>
+        <v>2387709.167276028</v>
       </c>
       <c r="D55" t="n">
-        <v>4223039.181015136</v>
+        <v>4211503.349340172</v>
       </c>
       <c r="E55" t="n">
-        <v>7002297.421211766</v>
+        <v>7189870.230378233</v>
       </c>
       <c r="F55" t="n">
-        <v>12276610.01066372</v>
+        <v>12648569.43215826</v>
       </c>
       <c r="G55" t="n">
-        <v>19377924.73749008</v>
+        <v>19772722.58551659</v>
       </c>
       <c r="H55" t="n">
-        <v>525035.8250602357</v>
+        <v>18153.81850830905</v>
       </c>
       <c r="I55" t="n">
-        <v>855884.1360105164</v>
+        <v>32020.17586517007</v>
       </c>
       <c r="J55" t="n">
-        <v>1419156.920301616</v>
+        <v>54664.78122605107</v>
       </c>
       <c r="K55" t="n">
-        <v>2488102.833464408</v>
+        <v>96167.42148002227</v>
       </c>
       <c r="L55" t="n">
-        <v>3927327.609505328</v>
+        <v>150332.5539609639</v>
       </c>
       <c r="M55" t="n">
-        <v>6.658626619408444</v>
+        <v>7.809889954288648</v>
       </c>
       <c r="N55" t="n">
-        <v>3.000000000000001</v>
+        <v>12.00000000000001</v>
       </c>
       <c r="O55" t="n">
         <v>0</v>
@@ -5178,10 +5178,10 @@
         <v>0</v>
       </c>
       <c r="Q55" t="n">
-        <v>0</v>
+        <v>87418.16</v>
       </c>
       <c r="R55" t="n">
-        <v>0</v>
+        <v>664.642676218725</v>
       </c>
       <c r="S55" t="n">
         <v>100</v>
@@ -5222,40 +5222,40 @@
         <v>55</v>
       </c>
       <c r="C56" t="n">
-        <v>2732884.242569405</v>
+        <v>2500140.420696857</v>
       </c>
       <c r="D56" t="n">
-        <v>4480866.742861345</v>
+        <v>4370860.000424447</v>
       </c>
       <c r="E56" t="n">
-        <v>7739519.338626834</v>
+        <v>7534657.240231401</v>
       </c>
       <c r="F56" t="n">
-        <v>13621215.40125728</v>
+        <v>13535395.39195623</v>
       </c>
       <c r="G56" t="n">
-        <v>21471573.34449916</v>
+        <v>21294709.54977351</v>
       </c>
       <c r="H56" t="n">
-        <v>537741.9005530323</v>
+        <v>16971.99680550365</v>
       </c>
       <c r="I56" t="n">
-        <v>881687.47175538</v>
+        <v>29671.22220432353</v>
       </c>
       <c r="J56" t="n">
-        <v>1522883.323666588</v>
+        <v>51148.39852720317</v>
       </c>
       <c r="K56" t="n">
-        <v>2680208.017456234</v>
+        <v>91883.91398011152</v>
       </c>
       <c r="L56" t="n">
-        <v>4224900.739769105</v>
+        <v>144557.3774420831</v>
       </c>
       <c r="M56" t="n">
-        <v>8.559559843477484</v>
+        <v>7.672113067429214</v>
       </c>
       <c r="N56" t="n">
-        <v>3.000000000000001</v>
+        <v>12.00000000000001</v>
       </c>
       <c r="O56" t="n">
         <v>0</v>
@@ -5264,10 +5264,10 @@
         <v>0</v>
       </c>
       <c r="Q56" t="n">
-        <v>0</v>
+        <v>90040.70479999998</v>
       </c>
       <c r="R56" t="n">
-        <v>0</v>
+        <v>611.2338897368627</v>
       </c>
       <c r="S56" t="n">
         <v>100</v>
@@ -5308,40 +5308,40 @@
         <v>56</v>
       </c>
       <c r="C57" t="n">
-        <v>2926176.701607889</v>
+        <v>2536027.348806471</v>
       </c>
       <c r="D57" t="n">
-        <v>4756019.327499934</v>
+        <v>4500120.017545495</v>
       </c>
       <c r="E57" t="n">
-        <v>8343294.789800979</v>
+        <v>7995093.322602727</v>
       </c>
       <c r="F57" t="n">
-        <v>14528166.70225544</v>
+        <v>14530261.28966352</v>
       </c>
       <c r="G57" t="n">
-        <v>22947118.12152567</v>
+        <v>22960592.35505346</v>
       </c>
       <c r="H57" t="n">
-        <v>559005.350345957</v>
+        <v>15371.0823694085</v>
       </c>
       <c r="I57" t="n">
-        <v>908571.3275484567</v>
+        <v>27275.61889049426</v>
       </c>
       <c r="J57" t="n">
-        <v>1593870.399025981</v>
+        <v>48458.95611917261</v>
       </c>
       <c r="K57" t="n">
-        <v>2775404.134964312</v>
+        <v>88069.17765991716</v>
       </c>
       <c r="L57" t="n">
-        <v>4383727.680527621</v>
+        <v>139166.1475993296</v>
       </c>
       <c r="M57" t="n">
-        <v>8.196501966642741</v>
+        <v>8.363112817043818</v>
       </c>
       <c r="N57" t="n">
-        <v>3.000000000000001</v>
+        <v>12.00000000000001</v>
       </c>
       <c r="O57" t="n">
         <v>0</v>
@@ -5350,10 +5350,10 @@
         <v>0</v>
       </c>
       <c r="Q57" t="n">
-        <v>0</v>
+        <v>92741.925944</v>
       </c>
       <c r="R57" t="n">
-        <v>0</v>
+        <v>562.1168807401508</v>
       </c>
       <c r="S57" t="n">
         <v>100</v>
@@ -5394,40 +5394,40 @@
         <v>57</v>
       </c>
       <c r="C58" t="n">
-        <v>3026758.66194362</v>
+        <v>2532756.510463884</v>
       </c>
       <c r="D58" t="n">
-        <v>5073071.561152183</v>
+        <v>4691395.820774866</v>
       </c>
       <c r="E58" t="n">
-        <v>8851181.754246717</v>
+        <v>8334704.172170411</v>
       </c>
       <c r="F58" t="n">
-        <v>15715852.65197222</v>
+        <v>15568105.00585434</v>
       </c>
       <c r="G58" t="n">
-        <v>25215745.75687246</v>
+        <v>25042544.70751237</v>
       </c>
       <c r="H58" t="n">
-        <v>561378.7714448163</v>
+        <v>13706.47994079</v>
       </c>
       <c r="I58" t="n">
-        <v>940912.3747654436</v>
+        <v>25388.35551151321</v>
       </c>
       <c r="J58" t="n">
-        <v>1641645.764992396</v>
+        <v>45104.79198308289</v>
       </c>
       <c r="K58" t="n">
-        <v>2914849.52695454</v>
+        <v>84249.67741560469</v>
       </c>
       <c r="L58" t="n">
-        <v>4676813.038330566</v>
+        <v>135522.3588535908</v>
       </c>
       <c r="M58" t="n">
-        <v>8.301303570100508</v>
+        <v>7.669319111946532</v>
       </c>
       <c r="N58" t="n">
-        <v>3.000000000000001</v>
+        <v>12.00000000000001</v>
       </c>
       <c r="O58" t="n">
         <v>0</v>
@@ -5436,10 +5436,10 @@
         <v>0</v>
       </c>
       <c r="Q58" t="n">
-        <v>0</v>
+        <v>95524.18372231998</v>
       </c>
       <c r="R58" t="n">
-        <v>0</v>
+        <v>516.9467742521028</v>
       </c>
       <c r="S58" t="n">
         <v>100</v>
@@ -5480,40 +5480,40 @@
         <v>58</v>
       </c>
       <c r="C59" t="n">
-        <v>3287845.553135313</v>
+        <v>2515984.182832171</v>
       </c>
       <c r="D59" t="n">
-        <v>5438160.677815325</v>
+        <v>4803935.255794782</v>
       </c>
       <c r="E59" t="n">
-        <v>9504941.464640222</v>
+        <v>8976542.946461394</v>
       </c>
       <c r="F59" t="n">
-        <v>16931476.06801332</v>
+        <v>16841116.04611653</v>
       </c>
       <c r="G59" t="n">
-        <v>26711349.44332841</v>
+        <v>27409682.66826195</v>
       </c>
       <c r="H59" t="n">
-        <v>592041.8069109241</v>
+        <v>12156.8869554281</v>
       </c>
       <c r="I59" t="n">
-        <v>979248.6970367176</v>
+        <v>23211.94952034735</v>
       </c>
       <c r="J59" t="n">
-        <v>1711553.243108366</v>
+        <v>43373.41172305611</v>
       </c>
       <c r="K59" t="n">
-        <v>3048848.105233101</v>
+        <v>81373.93922143818</v>
       </c>
       <c r="L59" t="n">
-        <v>4809908.292187477</v>
+        <v>132439.7887538089</v>
       </c>
       <c r="M59" t="n">
-        <v>8.173531984224903</v>
+        <v>7.250586185066155</v>
       </c>
       <c r="N59" t="n">
-        <v>3.000000000000001</v>
+        <v>12.00000000000001</v>
       </c>
       <c r="O59" t="n">
         <v>0</v>
@@ -5522,10 +5522,10 @@
         <v>0</v>
       </c>
       <c r="Q59" t="n">
-        <v>0</v>
+        <v>98389.90923398963</v>
       </c>
       <c r="R59" t="n">
-        <v>0</v>
+        <v>475.4064084639876</v>
       </c>
       <c r="S59" t="n">
         <v>100</v>
@@ -5566,40 +5566,40 @@
         <v>59</v>
       </c>
       <c r="C60" t="n">
-        <v>3418542.325133206</v>
+        <v>2539108.7486276</v>
       </c>
       <c r="D60" t="n">
-        <v>5839630.667105827</v>
+        <v>4977398.214856368</v>
       </c>
       <c r="E60" t="n">
-        <v>10506464.56049923</v>
+        <v>9605072.117126059</v>
       </c>
       <c r="F60" t="n">
-        <v>18713910.08933431</v>
+        <v>17773501.82913947</v>
       </c>
       <c r="G60" t="n">
-        <v>28887739.73233877</v>
+        <v>30058722.35630004</v>
       </c>
       <c r="H60" t="n">
-        <v>597646.9447626699</v>
+        <v>10954.12647607169</v>
       </c>
       <c r="I60" t="n">
-        <v>1020913.914412979</v>
+        <v>21473.30223519574</v>
       </c>
       <c r="J60" t="n">
-        <v>1836793.535851559</v>
+        <v>41437.83713070888</v>
       </c>
       <c r="K60" t="n">
-        <v>3271660.879324683</v>
+        <v>76677.76619032875</v>
       </c>
       <c r="L60" t="n">
-        <v>5050301.488210688</v>
+        <v>129678.1977447814</v>
       </c>
       <c r="M60" t="n">
-        <v>8.985531534702194</v>
+        <v>8.593418281288423</v>
       </c>
       <c r="N60" t="n">
-        <v>3.000000000000001</v>
+        <v>12.00000000000001</v>
       </c>
       <c r="O60" t="n">
         <v>0</v>
@@ -5608,10 +5608,10 @@
         <v>0</v>
       </c>
       <c r="Q60" t="n">
-        <v>0</v>
+        <v>101341.6065110093</v>
       </c>
       <c r="R60" t="n">
-        <v>0</v>
+        <v>437.2041077838457</v>
       </c>
       <c r="S60" t="n">
         <v>100</v>
@@ -5652,40 +5652,40 @@
         <v>60</v>
       </c>
       <c r="C61" t="n">
-        <v>3752678.828417365</v>
+        <v>2597573.620890773</v>
       </c>
       <c r="D61" t="n">
-        <v>6252580.318532109</v>
+        <v>5176703.16621324</v>
       </c>
       <c r="E61" t="n">
-        <v>10966733.71559848</v>
+        <v>10048869.34616373</v>
       </c>
       <c r="F61" t="n">
-        <v>19543259.4205596</v>
+        <v>18535795.19315858</v>
       </c>
       <c r="G61" t="n">
-        <v>31338781.70800559</v>
+        <v>32800077.32146705</v>
       </c>
       <c r="H61" t="n">
-        <v>636953.7733864679</v>
+        <v>10005.67268419502</v>
       </c>
       <c r="I61" t="n">
-        <v>1061269.778040289</v>
+        <v>19940.30007380634</v>
       </c>
       <c r="J61" t="n">
-        <v>1861417.600935755</v>
+        <v>38707.54488547487</v>
       </c>
       <c r="K61" t="n">
-        <v>3317137.810444038</v>
+        <v>71398.59219097714</v>
       </c>
       <c r="L61" t="n">
-        <v>5319228.256649764</v>
+        <v>126343.6135382157</v>
       </c>
       <c r="M61" t="n">
-        <v>7.999486169510408</v>
+        <v>7.846210477332372</v>
       </c>
       <c r="N61" t="n">
-        <v>3.000000000000001</v>
+        <v>12.00000000000001</v>
       </c>
       <c r="O61" t="n">
         <v>0</v>
@@ -5694,10 +5694,10 @@
         <v>0</v>
       </c>
       <c r="Q61" t="n">
-        <v>0</v>
+        <v>104381.8547063396</v>
       </c>
       <c r="R61" t="n">
-        <v>0</v>
+        <v>402.0716348369294</v>
       </c>
       <c r="S61" t="n">
         <v>100</v>
@@ -5738,40 +5738,40 @@
         <v>61</v>
       </c>
       <c r="C62" t="n">
-        <v>3926787.486463501</v>
+        <v>2669304.324083657</v>
       </c>
       <c r="D62" t="n">
-        <v>6399885.929403455</v>
+        <v>5462537.045495145</v>
       </c>
       <c r="E62" t="n">
-        <v>11685000.10239369</v>
+        <v>10722271.23868856</v>
       </c>
       <c r="F62" t="n">
-        <v>21448813.12202235</v>
+        <v>20179239.94754025</v>
       </c>
       <c r="G62" t="n">
-        <v>34238820.76719039</v>
+        <v>35098780.21143422</v>
       </c>
       <c r="H62" t="n">
-        <v>647092.9843837381</v>
+        <v>9180.334247620103</v>
       </c>
       <c r="I62" t="n">
-        <v>1054633.412184698</v>
+        <v>18786.88595571351</v>
       </c>
       <c r="J62" t="n">
-        <v>1925564.246816925</v>
+        <v>36876.28756926992</v>
       </c>
       <c r="K62" t="n">
-        <v>3534537.212024788</v>
+        <v>69400.91690180081</v>
       </c>
       <c r="L62" t="n">
-        <v>5642194.997411168</v>
+        <v>120712.5508760918</v>
       </c>
       <c r="M62" t="n">
-        <v>7.718178055604617</v>
+        <v>8.350769693989978</v>
       </c>
       <c r="N62" t="n">
-        <v>3.000000000000001</v>
+        <v>12.00000000000001</v>
       </c>
       <c r="O62" t="n">
         <v>0</v>
@@ -5780,10 +5780,10 @@
         <v>0</v>
       </c>
       <c r="Q62" t="n">
-        <v>0</v>
+        <v>107513.3103475298</v>
       </c>
       <c r="R62" t="n">
-        <v>0</v>
+        <v>369.7623070375331</v>
       </c>
       <c r="S62" t="n">
         <v>100</v>
@@ -5824,40 +5824,40 @@
         <v>62</v>
       </c>
       <c r="C63" t="n">
-        <v>4203533.49444517</v>
+        <v>2654357.731256627</v>
       </c>
       <c r="D63" t="n">
-        <v>6724401.522106444</v>
+        <v>5729958.211317849</v>
       </c>
       <c r="E63" t="n">
-        <v>12386312.95074478</v>
+        <v>11229459.38968266</v>
       </c>
       <c r="F63" t="n">
-        <v>23586196.63747416</v>
+        <v>21293997.18036404</v>
       </c>
       <c r="G63" t="n">
-        <v>37520439.02084398</v>
+        <v>37284762.41497113</v>
       </c>
       <c r="H63" t="n">
-        <v>672522.1312090555</v>
+        <v>8150.829976637546</v>
       </c>
       <c r="I63" t="n">
-        <v>1075835.091769466</v>
+        <v>17595.18493069862</v>
       </c>
       <c r="J63" t="n">
-        <v>1981682.69491967</v>
+        <v>34482.69731583145</v>
       </c>
       <c r="K63" t="n">
-        <v>3773548.908486492</v>
+        <v>65388.22875919515</v>
       </c>
       <c r="L63" t="n">
-        <v>6002884.394175139</v>
+        <v>114491.6359935713</v>
       </c>
       <c r="M63" t="n">
-        <v>8.271275633165107</v>
+        <v>7.573660977021736</v>
       </c>
       <c r="N63" t="n">
-        <v>3.000000000000001</v>
+        <v>12.00000000000001</v>
       </c>
       <c r="O63" t="n">
         <v>0</v>
@@ -5866,10 +5866,10 @@
         <v>0</v>
       </c>
       <c r="Q63" t="n">
-        <v>0</v>
+        <v>110738.7096579557</v>
       </c>
       <c r="R63" t="n">
-        <v>0</v>
+        <v>340.0492645077314</v>
       </c>
       <c r="S63" t="n">
         <v>100</v>
@@ -5910,40 +5910,40 @@
         <v>63</v>
       </c>
       <c r="C64" t="n">
-        <v>4552985.795246573</v>
+        <v>2765206.483767494</v>
       </c>
       <c r="D64" t="n">
-        <v>7195218.459975692</v>
+        <v>5769421.316209447</v>
       </c>
       <c r="E64" t="n">
-        <v>13333138.18037381</v>
+        <v>11512603.90206573</v>
       </c>
       <c r="F64" t="n">
-        <v>25046739.036714</v>
+        <v>22618138.89222803</v>
       </c>
       <c r="G64" t="n">
-        <v>40840960.20340827</v>
+        <v>40441792.1380864</v>
       </c>
       <c r="H64" t="n">
-        <v>707214.4715267909</v>
+        <v>7581.443887158846</v>
       </c>
       <c r="I64" t="n">
-        <v>1117632.000083132</v>
+        <v>15818.1836427004</v>
       </c>
       <c r="J64" t="n">
-        <v>2071033.975522447</v>
+        <v>31564.42782517945</v>
       </c>
       <c r="K64" t="n">
-        <v>3890505.507355715</v>
+        <v>62012.78343950619</v>
       </c>
       <c r="L64" t="n">
-        <v>6343819.064196281</v>
+        <v>110880.3916058025</v>
       </c>
       <c r="M64" t="n">
-        <v>7.789369277660237</v>
+        <v>7.001106504772206</v>
       </c>
       <c r="N64" t="n">
-        <v>3.000000000000001</v>
+        <v>12.00000000000001</v>
       </c>
       <c r="O64" t="n">
         <v>0</v>
@@ -5952,10 +5952,10 @@
         <v>0</v>
       </c>
       <c r="Q64" t="n">
-        <v>0</v>
+        <v>114060.8709476943</v>
       </c>
       <c r="R64" t="n">
-        <v>0</v>
+        <v>312.7238771812172</v>
       </c>
       <c r="S64" t="n">
         <v>100</v>
@@ -5996,40 +5996,40 @@
         <v>64</v>
       </c>
       <c r="C65" t="n">
-        <v>4653384.756198907</v>
+        <v>2890090.036936579</v>
       </c>
       <c r="D65" t="n">
-        <v>7692843.387673818</v>
+        <v>6109014.45328477</v>
       </c>
       <c r="E65" t="n">
-        <v>14160242.16622721</v>
+        <v>12341348.88623487</v>
       </c>
       <c r="F65" t="n">
-        <v>27806822.01895119</v>
+        <v>24457251.83450471</v>
       </c>
       <c r="G65" t="n">
-        <v>44654606.25237165</v>
+        <v>42588756.00824457</v>
       </c>
       <c r="H65" t="n">
-        <v>701756.7225483849</v>
+        <v>7074.857691619862</v>
       </c>
       <c r="I65" t="n">
-        <v>1160124.263445117</v>
+        <v>14954.69253229604</v>
       </c>
       <c r="J65" t="n">
-        <v>2135444.553521096</v>
+        <v>30211.26884520622</v>
       </c>
       <c r="K65" t="n">
-        <v>4193425.926904237</v>
+        <v>59870.6524868819</v>
       </c>
       <c r="L65" t="n">
-        <v>6734167.01436701</v>
+        <v>104256.0557527927</v>
       </c>
       <c r="M65" t="n">
-        <v>7.91187021477391</v>
+        <v>7.226788999165068</v>
       </c>
       <c r="N65" t="n">
-        <v>3.000000000000001</v>
+        <v>12.00000000000001</v>
       </c>
       <c r="O65" t="n">
         <v>0</v>
@@ -6038,10 +6038,10 @@
         <v>0</v>
       </c>
       <c r="Q65" t="n">
-        <v>0</v>
+        <v>117482.6970761251</v>
       </c>
       <c r="R65" t="n">
-        <v>0</v>
+        <v>287.5942799077265</v>
       </c>
       <c r="S65" t="n">
         <v>100</v>
@@ -6082,40 +6082,40 @@
         <v>65</v>
       </c>
       <c r="C66" t="n">
-        <v>5083823.244316209</v>
+        <v>2899474.069294117</v>
       </c>
       <c r="D66" t="n">
-        <v>7953815.633531709</v>
+        <v>6270966.410486408</v>
       </c>
       <c r="E66" t="n">
-        <v>14863857.96573504</v>
+        <v>12584219.2964322</v>
       </c>
       <c r="F66" t="n">
-        <v>29264530.32108909</v>
+        <v>26894381.54173773</v>
       </c>
       <c r="G66" t="n">
-        <v>46521787.36048265</v>
+        <v>47362396.54133125</v>
       </c>
       <c r="H66" t="n">
-        <v>744339.1062429432</v>
+        <v>6337.3477984337</v>
       </c>
       <c r="I66" t="n">
-        <v>1164544.032191357</v>
+        <v>13706.38061447565</v>
       </c>
       <c r="J66" t="n">
-        <v>2176265.818428426</v>
+        <v>27505.18630182711</v>
       </c>
       <c r="K66" t="n">
-        <v>4284715.124227104</v>
+        <v>58782.74665696915</v>
       </c>
       <c r="L66" t="n">
-        <v>6811406.290224688</v>
+        <v>103519.4563829371</v>
       </c>
       <c r="M66" t="n">
-        <v>7.520246500631249</v>
+        <v>8.549351660038788</v>
       </c>
       <c r="N66" t="n">
-        <v>3.000000000000001</v>
+        <v>12.00000000000001</v>
       </c>
       <c r="O66" t="n">
         <v>0</v>
@@ -6124,10 +6124,10 @@
         <v>0</v>
       </c>
       <c r="Q66" t="n">
-        <v>0</v>
+        <v>121007.1779884089</v>
       </c>
       <c r="R66" t="n">
-        <v>0</v>
+        <v>264.4840252722842</v>
       </c>
       <c r="S66" t="n">
         <v>100</v>
@@ -6168,40 +6168,40 @@
         <v>66</v>
       </c>
       <c r="C67" t="n">
-        <v>5350201.891604919</v>
+        <v>2812242.587365366</v>
       </c>
       <c r="D67" t="n">
-        <v>8583898.651850199</v>
+        <v>6566072.906803649</v>
       </c>
       <c r="E67" t="n">
-        <v>16045341.68861107</v>
+        <v>13448179.22289594</v>
       </c>
       <c r="F67" t="n">
-        <v>32151364.0312054</v>
+        <v>28877972.75529664</v>
       </c>
       <c r="G67" t="n">
-        <v>50716428.22824609</v>
+        <v>52514966.11210284</v>
       </c>
       <c r="H67" t="n">
-        <v>760524.7290370486</v>
+        <v>5488.113331618863</v>
       </c>
       <c r="I67" t="n">
-        <v>1220190.813083794</v>
+        <v>12813.74246237059</v>
       </c>
       <c r="J67" t="n">
-        <v>2280825.917837889</v>
+        <v>26244.22658655453</v>
       </c>
       <c r="K67" t="n">
-        <v>4570277.517260022</v>
+        <v>56355.58894545657</v>
       </c>
       <c r="L67" t="n">
-        <v>7209278.942638831</v>
+        <v>102483.3657395646</v>
       </c>
       <c r="M67" t="n">
-        <v>8.340985939127609</v>
+        <v>7.59923866092976</v>
       </c>
       <c r="N67" t="n">
-        <v>3.000000000000001</v>
+        <v>12.00000000000001</v>
       </c>
       <c r="O67" t="n">
         <v>0</v>
@@ -6210,10 +6210,10 @@
         <v>0</v>
       </c>
       <c r="Q67" t="n">
-        <v>0</v>
+        <v>124637.3933280612</v>
       </c>
       <c r="R67" t="n">
-        <v>0</v>
+        <v>243.2308446700472</v>
       </c>
       <c r="S67" t="n">
         <v>100</v>
@@ -6254,40 +6254,40 @@
         <v>67</v>
       </c>
       <c r="C68" t="n">
-        <v>5785188.189264354</v>
+        <v>2916174.093842846</v>
       </c>
       <c r="D68" t="n">
-        <v>9426414.81643926</v>
+        <v>6686038.239710406</v>
       </c>
       <c r="E68" t="n">
-        <v>17648022.89043059</v>
+        <v>14233814.66349368</v>
       </c>
       <c r="F68" t="n">
-        <v>34404773.53406473</v>
+        <v>29829011.55433608</v>
       </c>
       <c r="G68" t="n">
-        <v>55555248.96219178</v>
+        <v>55422719.10074522</v>
       </c>
       <c r="H68" t="n">
-        <v>798405.3448855929</v>
+        <v>5081.193282759517</v>
       </c>
       <c r="I68" t="n">
-        <v>1300925.696163199</v>
+        <v>11649.87120063231</v>
       </c>
       <c r="J68" t="n">
-        <v>2435577.779220833</v>
+        <v>24801.25024390454</v>
       </c>
       <c r="K68" t="n">
-        <v>4748152.381654611</v>
+        <v>51974.59694236504</v>
       </c>
       <c r="L68" t="n">
-        <v>7667098.503411687</v>
+        <v>96569.52532483147</v>
       </c>
       <c r="M68" t="n">
-        <v>8.943719567488742</v>
+        <v>7.900611764882782</v>
       </c>
       <c r="N68" t="n">
-        <v>3.000000000000001</v>
+        <v>12.00000000000001</v>
       </c>
       <c r="O68" t="n">
         <v>0</v>
@@ -6296,10 +6296,10 @@
         <v>0</v>
       </c>
       <c r="Q68" t="n">
-        <v>0</v>
+        <v>128376.5151279031</v>
       </c>
       <c r="R68" t="n">
-        <v>0</v>
+        <v>223.6855089376326</v>
       </c>
       <c r="S68" t="n">
         <v>100</v>
@@ -6340,40 +6340,40 @@
         <v>68</v>
       </c>
       <c r="C69" t="n">
-        <v>6061506.339721033</v>
+        <v>2836886.795270424</v>
       </c>
       <c r="D69" t="n">
-        <v>10035960.44006719</v>
+        <v>7212569.457521835</v>
       </c>
       <c r="E69" t="n">
-        <v>19275172.10279645</v>
+        <v>15241521.38785468</v>
       </c>
       <c r="F69" t="n">
-        <v>36133469.8613504</v>
+        <v>31947890.96275891</v>
       </c>
       <c r="G69" t="n">
-        <v>58843063.81207958</v>
+        <v>60278016.56205994</v>
       </c>
       <c r="H69" t="n">
-        <v>812174.3766382353</v>
+        <v>4413.430082474059</v>
       </c>
       <c r="I69" t="n">
-        <v>1344706.984955936</v>
+        <v>11220.81116131604</v>
       </c>
       <c r="J69" t="n">
-        <v>2582658.50265594</v>
+        <v>23711.69308129456</v>
       </c>
       <c r="K69" t="n">
-        <v>4841482.74631176</v>
+        <v>49702.29452994461</v>
       </c>
       <c r="L69" t="n">
-        <v>7884315.546762111</v>
+        <v>93776.32271065137</v>
       </c>
       <c r="M69" t="n">
-        <v>8.591022050473955</v>
+        <v>9.03182984807224</v>
       </c>
       <c r="N69" t="n">
-        <v>3.000000000000001</v>
+        <v>12.00000000000001</v>
       </c>
       <c r="O69" t="n">
         <v>0</v>
@@ -6382,10 +6382,10 @@
         <v>0</v>
       </c>
       <c r="Q69" t="n">
-        <v>0</v>
+        <v>132227.8105817402</v>
       </c>
       <c r="R69" t="n">
-        <v>0</v>
+        <v>205.7107805408585</v>
       </c>
       <c r="S69" t="n">
         <v>100</v>
@@ -6426,40 +6426,40 @@
         <v>69</v>
       </c>
       <c r="C70" t="n">
-        <v>6223315.079453163</v>
+        <v>2872396.058832542</v>
       </c>
       <c r="D70" t="n">
-        <v>10664455.10273335</v>
+        <v>7482460.743042208</v>
       </c>
       <c r="E70" t="n">
-        <v>20680067.3824694</v>
+        <v>15568562.37210185</v>
       </c>
       <c r="F70" t="n">
-        <v>40023373.3719418</v>
+        <v>34761844.2889156</v>
       </c>
       <c r="G70" t="n">
-        <v>65004340.51066303</v>
+        <v>64881136.31289756</v>
       </c>
       <c r="H70" t="n">
-        <v>809567.9093291272</v>
+        <v>3989.886528066609</v>
       </c>
       <c r="I70" t="n">
-        <v>1387299.294898115</v>
+        <v>10393.47245434716</v>
       </c>
       <c r="J70" t="n">
-        <v>2690193.040504438</v>
+        <v>21625.42908343241</v>
       </c>
       <c r="K70" t="n">
-        <v>5206491.763850898</v>
+        <v>48285.75564731318</v>
       </c>
       <c r="L70" t="n">
-        <v>8456172.855249407</v>
+        <v>90122.79866645474</v>
       </c>
       <c r="M70" t="n">
-        <v>7.79606171628094</v>
+        <v>7.481829548664789</v>
       </c>
       <c r="N70" t="n">
-        <v>3.000000000000001</v>
+        <v>12.00000000000001</v>
       </c>
       <c r="O70" t="n">
         <v>0</v>
@@ -6468,10 +6468,10 @@
         <v>0</v>
       </c>
       <c r="Q70" t="n">
-        <v>0</v>
+        <v>136194.6448991923</v>
       </c>
       <c r="R70" t="n">
-        <v>0</v>
+        <v>189.1804499616824</v>
       </c>
       <c r="S70" t="n">
         <v>100</v>
@@ -6512,40 +6512,40 @@
         <v>70</v>
       </c>
       <c r="C71" t="n">
-        <v>6418599.078505155</v>
+        <v>2856848.52569294</v>
       </c>
       <c r="D71" t="n">
-        <v>11239656.75211176</v>
+        <v>7840571.559106831</v>
       </c>
       <c r="E71" t="n">
-        <v>22092912.08472212</v>
+        <v>17073707.05335325</v>
       </c>
       <c r="F71" t="n">
-        <v>42848221.60916843</v>
+        <v>37112262.45124917</v>
       </c>
       <c r="G71" t="n">
-        <v>68220378.33399554</v>
+        <v>70088254.71649909</v>
       </c>
       <c r="H71" t="n">
-        <v>810652.1149053165</v>
+        <v>3543.116347792117</v>
       </c>
       <c r="I71" t="n">
-        <v>1419538.968779338</v>
+        <v>9724.021773386523</v>
       </c>
       <c r="J71" t="n">
-        <v>2790276.45859262</v>
+        <v>21175.12707940173</v>
       </c>
       <c r="K71" t="n">
-        <v>5411617.245845117</v>
+        <v>46027.31387821073</v>
       </c>
       <c r="L71" t="n">
-        <v>8616053.643433666</v>
+        <v>86924.74901658017</v>
       </c>
       <c r="M71" t="n">
-        <v>8.138415126124274</v>
+        <v>8.668224883872524</v>
       </c>
       <c r="N71" t="n">
-        <v>3.000000000000001</v>
+        <v>12.00000000000001</v>
       </c>
       <c r="O71" t="n">
         <v>0</v>
@@ -6554,10 +6554,10 @@
         <v>0</v>
       </c>
       <c r="Q71" t="n">
-        <v>0</v>
+        <v>140280.4842461681</v>
       </c>
       <c r="R71" t="n">
-        <v>0</v>
+        <v>173.9784495183329</v>
       </c>
       <c r="S71" t="n">
         <v>100</v>
@@ -6598,40 +6598,40 @@
         <v>71</v>
       </c>
       <c r="C72" t="n">
-        <v>6837014.601302045</v>
+        <v>2745190.084605208</v>
       </c>
       <c r="D72" t="n">
-        <v>12001802.80229365</v>
+        <v>7828403.338798087</v>
       </c>
       <c r="E72" t="n">
-        <v>23125887.5635878</v>
+        <v>17628155.72127074</v>
       </c>
       <c r="F72" t="n">
-        <v>45999589.4125352</v>
+        <v>40577273.87327498</v>
       </c>
       <c r="G72" t="n">
-        <v>77150699.84964544</v>
+        <v>76005734.95302515</v>
       </c>
       <c r="H72" t="n">
-        <v>838346.4957110337</v>
+        <v>3039.85311183136</v>
       </c>
       <c r="I72" t="n">
-        <v>1471646.604294453</v>
+        <v>8668.687965751085</v>
       </c>
       <c r="J72" t="n">
-        <v>2835668.479550861</v>
+        <v>19520.32550520417</v>
       </c>
       <c r="K72" t="n">
-        <v>5640414.250512376</v>
+        <v>44932.75454586503</v>
       </c>
       <c r="L72" t="n">
-        <v>9460125.893001093</v>
+        <v>84164.03337957208</v>
       </c>
       <c r="M72" t="n">
-        <v>8.569566101708622</v>
+        <v>6.920750897916385</v>
       </c>
       <c r="N72" t="n">
-        <v>3.000000000000001</v>
+        <v>12.00000000000001</v>
       </c>
       <c r="O72" t="n">
         <v>0</v>
@@ -6640,10 +6640,10 @@
         <v>0</v>
       </c>
       <c r="Q72" t="n">
-        <v>0</v>
+        <v>144488.8987735533</v>
       </c>
       <c r="R72" t="n">
-        <v>0</v>
+        <v>159.998038396324</v>
       </c>
       <c r="S72" t="n">
         <v>100</v>
@@ -6684,40 +6684,40 @@
         <v>72</v>
       </c>
       <c r="C73" t="n">
-        <v>6938026.325354249</v>
+        <v>2854686.277082479</v>
       </c>
       <c r="D73" t="n">
-        <v>12950037.63239252</v>
+        <v>8021376.199272061</v>
       </c>
       <c r="E73" t="n">
-        <v>25249017.83791666</v>
+        <v>18939041.20945203</v>
       </c>
       <c r="F73" t="n">
-        <v>49311180.32281056</v>
+        <v>43059575.99701837</v>
       </c>
       <c r="G73" t="n">
-        <v>83876396.32144849</v>
+        <v>82162653.20601238</v>
       </c>
       <c r="H73" t="n">
-        <v>825953.8171386758</v>
+        <v>2822.412856423979</v>
       </c>
       <c r="I73" t="n">
-        <v>1541667.977746966</v>
+        <v>7930.691191109354</v>
       </c>
       <c r="J73" t="n">
-        <v>3005829.278280371</v>
+        <v>18724.92743844739</v>
       </c>
       <c r="K73" t="n">
-        <v>5870366.543061418</v>
+        <v>42572.76950599172</v>
       </c>
       <c r="L73" t="n">
-        <v>9985264.751211433</v>
+        <v>81233.77009523982</v>
       </c>
       <c r="M73" t="n">
-        <v>7.591185289472427</v>
+        <v>6.959787734693355</v>
       </c>
       <c r="N73" t="n">
-        <v>3.000000000000001</v>
+        <v>12.00000000000001</v>
       </c>
       <c r="O73" t="n">
         <v>0</v>
@@ -6726,10 +6726,10 @@
         <v>0</v>
       </c>
       <c r="Q73" t="n">
-        <v>0</v>
+        <v>148823.5657367599</v>
       </c>
       <c r="R73" t="n">
-        <v>0</v>
+        <v>147.141053168048</v>
       </c>
       <c r="S73" t="n">
         <v>100</v>
@@ -6770,40 +6770,40 @@
         <v>73</v>
       </c>
       <c r="C74" t="n">
-        <v>7221213.639857206</v>
+        <v>2878915.374322922</v>
       </c>
       <c r="D74" t="n">
-        <v>14051562.91916469</v>
+        <v>8468500.682219626</v>
       </c>
       <c r="E74" t="n">
-        <v>26798638.19218206</v>
+        <v>19797669.93831078</v>
       </c>
       <c r="F74" t="n">
-        <v>51571354.01768489</v>
+        <v>46595670.54611179</v>
       </c>
       <c r="G74" t="n">
-        <v>89372594.63563085</v>
+        <v>85503601.04290339</v>
       </c>
       <c r="H74" t="n">
-        <v>834627.6925988247</v>
+        <v>2541.40003000047</v>
       </c>
       <c r="I74" t="n">
-        <v>1624079.29214258</v>
+        <v>7475.679236633893</v>
       </c>
       <c r="J74" t="n">
-        <v>3097385.934641028</v>
+        <v>17476.65090259747</v>
       </c>
       <c r="K74" t="n">
-        <v>5960615.81261133</v>
+        <v>41132.93484760063</v>
       </c>
       <c r="L74" t="n">
-        <v>10329682.2615238</v>
+        <v>75479.41707271906</v>
       </c>
       <c r="M74" t="n">
-        <v>6.9258328367442</v>
+        <v>7.47395747643013</v>
       </c>
       <c r="N74" t="n">
-        <v>3.000000000000001</v>
+        <v>12.00000000000001</v>
       </c>
       <c r="O74" t="n">
         <v>0</v>
@@ -6812,10 +6812,10 @@
         <v>0</v>
       </c>
       <c r="Q74" t="n">
-        <v>0</v>
+        <v>153288.2727088626</v>
       </c>
       <c r="R74" t="n">
-        <v>0</v>
+        <v>135.3172185384726</v>
       </c>
       <c r="S74" t="n">
         <v>100</v>
@@ -6856,40 +6856,40 @@
         <v>74</v>
       </c>
       <c r="C75" t="n">
-        <v>7695525.79991925</v>
+        <v>3029537.369976161</v>
       </c>
       <c r="D75" t="n">
-        <v>14439509.41392217</v>
+        <v>8921858.906883808</v>
       </c>
       <c r="E75" t="n">
-        <v>29338170.89924278</v>
+        <v>21788708.1854049</v>
       </c>
       <c r="F75" t="n">
-        <v>56363022.3237717</v>
+        <v>52011709.4001282</v>
       </c>
       <c r="G75" t="n">
-        <v>99792344.26744477</v>
+        <v>93213144.20797375</v>
       </c>
       <c r="H75" t="n">
-        <v>863542.4080025883</v>
+        <v>2387.824605136886</v>
       </c>
       <c r="I75" t="n">
-        <v>1620308.872176769</v>
+        <v>7032.042064424008</v>
       </c>
       <c r="J75" t="n">
-        <v>3292140.836561085</v>
+        <v>17173.451641452</v>
       </c>
       <c r="K75" t="n">
-        <v>6324695.840833146</v>
+        <v>40994.65505580902</v>
       </c>
       <c r="L75" t="n">
-        <v>11198055.01397147</v>
+        <v>73468.85417812952</v>
       </c>
       <c r="M75" t="n">
-        <v>8.022017733643938</v>
+        <v>8.838198821660683</v>
       </c>
       <c r="N75" t="n">
-        <v>3.000000000000001</v>
+        <v>12.00000000000001</v>
       </c>
       <c r="O75" t="n">
         <v>0</v>
@@ -6898,10 +6898,10 @@
         <v>0</v>
       </c>
       <c r="Q75" t="n">
-        <v>0</v>
+        <v>157886.9208901286</v>
       </c>
       <c r="R75" t="n">
-        <v>0</v>
+        <v>124.4435134773454</v>
       </c>
       <c r="S75" t="n">
         <v>100</v>
@@ -6942,40 +6942,40 @@
         <v>75</v>
       </c>
       <c r="C76" t="n">
-        <v>8035374.093793628</v>
+        <v>2871794.360680765</v>
       </c>
       <c r="D76" t="n">
-        <v>15115123.47796711</v>
+        <v>8892468.94761169</v>
       </c>
       <c r="E76" t="n">
-        <v>31355697.673306</v>
+        <v>23282040.06510898</v>
       </c>
       <c r="F76" t="n">
-        <v>61383508.78505823</v>
+        <v>54487845.23518123</v>
       </c>
       <c r="G76" t="n">
-        <v>106619162.6810906</v>
+        <v>102994242.8551144</v>
       </c>
       <c r="H76" t="n">
-        <v>875415.5317016862</v>
+        <v>2020.977250073865</v>
       </c>
       <c r="I76" t="n">
-        <v>1646720.32711226</v>
+        <v>6257.92629380724</v>
       </c>
       <c r="J76" t="n">
-        <v>3416053.120881552</v>
+        <v>16384.34629969105</v>
       </c>
       <c r="K76" t="n">
-        <v>6687439.359206886</v>
+        <v>38344.90976566409</v>
       </c>
       <c r="L76" t="n">
-        <v>11615647.24909903</v>
+        <v>72480.47581283879</v>
       </c>
       <c r="M76" t="n">
-        <v>8.263730106915526</v>
+        <v>8.348965234084313</v>
       </c>
       <c r="N76" t="n">
-        <v>3.000000000000001</v>
+        <v>12.00000000000001</v>
       </c>
       <c r="O76" t="n">
         <v>0</v>
@@ -6984,10 +6984,10 @@
         <v>0</v>
       </c>
       <c r="Q76" t="n">
-        <v>0</v>
+        <v>162623.5285168323</v>
       </c>
       <c r="R76" t="n">
-        <v>0</v>
+        <v>114.4435882872015</v>
       </c>
       <c r="S76" t="n">
         <v>100</v>
@@ -7028,40 +7028,40 @@
         <v>76</v>
       </c>
       <c r="C77" t="n">
-        <v>8602904.143367602</v>
+        <v>2854062.404753417</v>
       </c>
       <c r="D77" t="n">
-        <v>15444748.48423634</v>
+        <v>9491843.717403758</v>
       </c>
       <c r="E77" t="n">
-        <v>33715537.52523485</v>
+        <v>24438314.65986677</v>
       </c>
       <c r="F77" t="n">
-        <v>67579132.89409654</v>
+        <v>57678687.71215162</v>
       </c>
       <c r="G77" t="n">
-        <v>115334416.9471587</v>
+        <v>109161158.3550539</v>
       </c>
       <c r="H77" t="n">
-        <v>909946.8088312012</v>
+        <v>1793.302395232152</v>
       </c>
       <c r="I77" t="n">
-        <v>1633622.711845072</v>
+        <v>5964.041306609077</v>
       </c>
       <c r="J77" t="n">
-        <v>3566161.527298693</v>
+        <v>15355.40643469654</v>
       </c>
       <c r="K77" t="n">
-        <v>7147983.436264494</v>
+        <v>36241.43909950187</v>
       </c>
       <c r="L77" t="n">
-        <v>12199157.73795805</v>
+        <v>68589.58879749775</v>
       </c>
       <c r="M77" t="n">
-        <v>7.270066950606092</v>
+        <v>7.171659485722224</v>
       </c>
       <c r="N77" t="n">
-        <v>3.000000000000001</v>
+        <v>12.00000000000001</v>
       </c>
       <c r="O77" t="n">
         <v>0</v>
@@ -7070,10 +7070,10 @@
         <v>0</v>
       </c>
       <c r="Q77" t="n">
-        <v>0</v>
+        <v>167502.2343723373</v>
       </c>
       <c r="R77" t="n">
-        <v>0</v>
+        <v>105.2472285141229</v>
       </c>
       <c r="S77" t="n">
         <v>100</v>
@@ -7114,40 +7114,40 @@
         <v>77</v>
       </c>
       <c r="C78" t="n">
-        <v>8907635.884570345</v>
+        <v>3013393.718059509</v>
       </c>
       <c r="D78" t="n">
-        <v>16249521.67248796</v>
+        <v>10211398.79915254</v>
       </c>
       <c r="E78" t="n">
-        <v>35022814.1215603</v>
+        <v>25789165.29611517</v>
       </c>
       <c r="F78" t="n">
-        <v>73000431.45610395</v>
+        <v>61382679.65892816</v>
       </c>
       <c r="G78" t="n">
-        <v>127330952.7544697</v>
+        <v>115353355.1540603</v>
       </c>
       <c r="H78" t="n">
-        <v>914736.8056855866</v>
+        <v>1690.549609020663</v>
       </c>
       <c r="I78" t="n">
-        <v>1668684.681460496</v>
+        <v>5728.715814333721</v>
       </c>
       <c r="J78" t="n">
-        <v>3596538.692288654</v>
+        <v>14468.02754217986</v>
       </c>
       <c r="K78" t="n">
-        <v>7496509.999863679</v>
+        <v>34436.4111719411</v>
       </c>
       <c r="L78" t="n">
-        <v>13075782.45191643</v>
+        <v>64714.6001155456</v>
       </c>
       <c r="M78" t="n">
-        <v>7.586746520118918</v>
+        <v>7.612931910608274</v>
       </c>
       <c r="N78" t="n">
-        <v>3.000000000000001</v>
+        <v>12.00000000000001</v>
       </c>
       <c r="O78" t="n">
         <v>0</v>
@@ -7156,10 +7156,10 @@
         <v>0</v>
       </c>
       <c r="Q78" t="n">
-        <v>0</v>
+        <v>172527.3014035075</v>
       </c>
       <c r="R78" t="n">
-        <v>0</v>
+        <v>96.78986193709514</v>
       </c>
       <c r="S78" t="n">
         <v>100</v>
@@ -7200,40 +7200,40 @@
         <v>78</v>
       </c>
       <c r="C79" t="n">
-        <v>9429181.863354253</v>
+        <v>2917434.508530872</v>
       </c>
       <c r="D79" t="n">
-        <v>17115605.23673319</v>
+        <v>10716929.33421182</v>
       </c>
       <c r="E79" t="n">
-        <v>37381535.14410563</v>
+        <v>27277110.99156619</v>
       </c>
       <c r="F79" t="n">
-        <v>76820151.1813456</v>
+        <v>65672132.99450089</v>
       </c>
       <c r="G79" t="n">
-        <v>138473777.5331394</v>
+        <v>132322456.8877144</v>
       </c>
       <c r="H79" t="n">
-        <v>940092.2775948985</v>
+        <v>1461.352995159927</v>
       </c>
       <c r="I79" t="n">
-        <v>1706431.007757854</v>
+        <v>5368.146820664781</v>
       </c>
       <c r="J79" t="n">
-        <v>3726950.335976961</v>
+        <v>13663.1988585437</v>
       </c>
       <c r="K79" t="n">
-        <v>7658992.257846367</v>
+        <v>32895.39764112219</v>
       </c>
       <c r="L79" t="n">
-        <v>13805877.41278222</v>
+        <v>66280.77447303406</v>
       </c>
       <c r="M79" t="n">
-        <v>7.457523249173659</v>
+        <v>8.779895929775581</v>
       </c>
       <c r="N79" t="n">
-        <v>3.000000000000001</v>
+        <v>12.00000000000001</v>
       </c>
       <c r="O79" t="n">
         <v>0</v>
@@ -7242,10 +7242,10 @@
         <v>0</v>
       </c>
       <c r="Q79" t="n">
-        <v>0</v>
+        <v>177703.1204456128</v>
       </c>
       <c r="R79" t="n">
-        <v>0</v>
+        <v>89.01210517429284</v>
       </c>
       <c r="S79" t="n">
         <v>100</v>
@@ -7286,40 +7286,40 @@
         <v>79</v>
       </c>
       <c r="C80" t="n">
-        <v>9819035.178109737</v>
+        <v>2875279.819312377</v>
       </c>
       <c r="D80" t="n">
-        <v>18349084.38302621</v>
+        <v>11054805.66433544</v>
       </c>
       <c r="E80" t="n">
-        <v>38943397.51893707</v>
+        <v>28708913.42477507</v>
       </c>
       <c r="F80" t="n">
-        <v>81801520.50834596</v>
+        <v>69604597.41535074</v>
       </c>
       <c r="G80" t="n">
-        <v>150215592.3513297</v>
+        <v>140218576.2998669</v>
       </c>
       <c r="H80" t="n">
-        <v>950447.3502306108</v>
+        <v>1285.926398319602</v>
       </c>
       <c r="I80" t="n">
-        <v>1776125.486329349</v>
+        <v>4944.098427074719</v>
       </c>
       <c r="J80" t="n">
-        <v>3769581.05449792</v>
+        <v>12839.63716923354</v>
       </c>
       <c r="K80" t="n">
-        <v>7918093.478809562</v>
+        <v>31129.62733561471</v>
       </c>
       <c r="L80" t="n">
-        <v>14540329.99412556</v>
+        <v>62710.68561316983</v>
       </c>
       <c r="M80" t="n">
-        <v>7.632306329556818</v>
+        <v>7.30871764186528</v>
       </c>
       <c r="N80" t="n">
-        <v>3.000000000000001</v>
+        <v>12.00000000000001</v>
       </c>
       <c r="O80" t="n">
         <v>0</v>
@@ -7328,10 +7328,10 @@
         <v>0</v>
       </c>
       <c r="Q80" t="n">
-        <v>0</v>
+        <v>183034.2140589811</v>
       </c>
       <c r="R80" t="n">
-        <v>0</v>
+        <v>81.85934672278717</v>
       </c>
       <c r="S80" t="n">
         <v>100</v>
@@ -7372,40 +7372,40 @@
         <v>80</v>
       </c>
       <c r="C81" t="n">
-        <v>10667932.8606387</v>
+        <v>2642383.206220223</v>
       </c>
       <c r="D81" t="n">
-        <v>20055033.20947387</v>
+        <v>11671425.29318712</v>
       </c>
       <c r="E81" t="n">
-        <v>41262561.90425015</v>
+        <v>30560369.41239712</v>
       </c>
       <c r="F81" t="n">
-        <v>86002508.69665688</v>
+        <v>76004936.02175084</v>
       </c>
       <c r="G81" t="n">
-        <v>159480680.4837246</v>
+        <v>153580043.9363735</v>
       </c>
       <c r="H81" t="n">
-        <v>1002541.357235569</v>
+        <v>1055.148955954356</v>
       </c>
       <c r="I81" t="n">
-        <v>1884713.793748659</v>
+        <v>4660.600394225817</v>
       </c>
       <c r="J81" t="n">
-        <v>3877735.767079709</v>
+        <v>12203.27990397575</v>
       </c>
       <c r="K81" t="n">
-        <v>8082266.069796777</v>
+        <v>30350.07515259096</v>
       </c>
       <c r="L81" t="n">
-        <v>14987531.31967432</v>
+        <v>61327.14688521335</v>
       </c>
       <c r="M81" t="n">
-        <v>7.70683041093614</v>
+        <v>8.076131873378667</v>
       </c>
       <c r="N81" t="n">
-        <v>3.000000000000001</v>
+        <v>12.00000000000001</v>
       </c>
       <c r="O81" t="n">
         <v>0</v>
@@ -7414,10 +7414,10 @@
         <v>0</v>
       </c>
       <c r="Q81" t="n">
-        <v>0</v>
+        <v>188525.2404807505</v>
       </c>
       <c r="R81" t="n">
-        <v>0</v>
+        <v>75.28136350399176</v>
       </c>
       <c r="S81" t="n">
         <v>100</v>

--- a/output.xlsx
+++ b/output.xlsx
@@ -593,25 +593,25 @@
         <v>12730.71220356335</v>
       </c>
       <c r="H2" t="n">
-        <v>8667.830193693688</v>
+        <v>8754.508495630624</v>
       </c>
       <c r="I2" t="n">
-        <v>9657.123748905557</v>
+        <v>9753.694986394614</v>
       </c>
       <c r="J2" t="n">
-        <v>10732.68031217564</v>
+        <v>10840.0071152974</v>
       </c>
       <c r="K2" t="n">
-        <v>11678.07403908795</v>
+        <v>11794.85477947883</v>
       </c>
       <c r="L2" t="n">
-        <v>12604.66554808252</v>
+        <v>12730.71220356335</v>
       </c>
       <c r="M2" t="n">
         <v>7.845498892975857</v>
       </c>
       <c r="N2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>10000</v>
@@ -679,31 +679,31 @@
         <v>27369.12447300357</v>
       </c>
       <c r="H3" t="n">
-        <v>17896.48058134442</v>
+        <v>18256.19984102944</v>
       </c>
       <c r="I3" t="n">
-        <v>19883.1225594361</v>
+        <v>20282.77332288077</v>
       </c>
       <c r="J3" t="n">
-        <v>22278.65966465354</v>
+        <v>22726.46072391308</v>
       </c>
       <c r="K3" t="n">
-        <v>24684.92094949971</v>
+        <v>25181.08786058466</v>
       </c>
       <c r="L3" t="n">
-        <v>26829.84459661167</v>
+        <v>27369.12447300357</v>
       </c>
       <c r="M3" t="n">
         <v>8.411380876626803</v>
       </c>
       <c r="N3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>10200</v>
       </c>
       <c r="P3" t="n">
-        <v>10099.0099009901</v>
+        <v>10200</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -765,31 +765,31 @@
         <v>43918.8161901992</v>
       </c>
       <c r="H4" t="n">
-        <v>26971.43089090584</v>
+        <v>27788.69221833117</v>
       </c>
       <c r="I4" t="n">
-        <v>30339.13072493378</v>
+        <v>31258.43672503001</v>
       </c>
       <c r="J4" t="n">
-        <v>34531.49786908015</v>
+        <v>35577.83678601115</v>
       </c>
       <c r="K4" t="n">
-        <v>38832.99137067598</v>
+        <v>40009.66984219883</v>
       </c>
       <c r="L4" t="n">
-        <v>42627.17030285247</v>
+        <v>43918.8161901992</v>
       </c>
       <c r="M4" t="n">
         <v>7.987698210844626</v>
       </c>
       <c r="N4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>10404</v>
       </c>
       <c r="P4" t="n">
-        <v>10199.00009802961</v>
+        <v>10404</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -851,31 +851,31 @@
         <v>63801.42534044448</v>
       </c>
       <c r="H5" t="n">
-        <v>36600.50891708984</v>
+        <v>38086.63634716444</v>
       </c>
       <c r="I5" t="n">
-        <v>41560.7793539588</v>
+        <v>43248.31365445474</v>
       </c>
       <c r="J5" t="n">
-        <v>47781.02113396203</v>
+        <v>49721.12219389564</v>
       </c>
       <c r="K5" t="n">
-        <v>54648.47139329008</v>
+        <v>56867.41847222795</v>
       </c>
       <c r="L5" t="n">
-        <v>61311.91570215501</v>
+        <v>63801.42534044448</v>
       </c>
       <c r="M5" t="n">
         <v>8.637074536643812</v>
       </c>
       <c r="N5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>10612.08</v>
       </c>
       <c r="P5" t="n">
-        <v>10299.98029702</v>
+        <v>10612.08</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -937,31 +937,31 @@
         <v>83926.31598484414</v>
       </c>
       <c r="H6" t="n">
-        <v>46358.74616160459</v>
+        <v>48723.50812588121</v>
       </c>
       <c r="I6" t="n">
-        <v>53306.94183004949</v>
+        <v>56026.1316034781</v>
       </c>
       <c r="J6" t="n">
-        <v>62637.1708405488</v>
+        <v>65832.29606324744</v>
       </c>
       <c r="K6" t="n">
-        <v>71226.91735067355</v>
+        <v>74860.20597319998</v>
       </c>
       <c r="L6" t="n">
-        <v>79853.00994682101</v>
+        <v>83926.31598484414</v>
       </c>
       <c r="M6" t="n">
         <v>8.278593107079672</v>
       </c>
       <c r="N6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>10824.3216</v>
       </c>
       <c r="P6" t="n">
-        <v>10401.96029996079</v>
+        <v>10824.3216</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -1023,31 +1023,31 @@
         <v>110574.5523242104</v>
       </c>
       <c r="H7" t="n">
-        <v>56682.58204791497</v>
+        <v>60169.70303195624</v>
       </c>
       <c r="I7" t="n">
-        <v>64659.83786710826</v>
+        <v>68637.720830529</v>
       </c>
       <c r="J7" t="n">
-        <v>77198.857569657</v>
+        <v>81948.14291356746</v>
       </c>
       <c r="K7" t="n">
-        <v>90514.37506517884</v>
+        <v>96082.83305074406</v>
       </c>
       <c r="L7" t="n">
-        <v>104166.2301573894</v>
+        <v>110574.5523242104</v>
       </c>
       <c r="M7" t="n">
         <v>8.123724213564209</v>
       </c>
       <c r="N7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
         <v>11040.808032</v>
       </c>
       <c r="P7" t="n">
-        <v>10504.95000590099</v>
+        <v>11040.808032</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1109,31 +1109,31 @@
         <v>138318.0357231824</v>
       </c>
       <c r="H8" t="n">
-        <v>68620.81310888336</v>
+        <v>73570.79962436199</v>
       </c>
       <c r="I8" t="n">
-        <v>78930.92711572145</v>
+        <v>84624.63733534675</v>
       </c>
       <c r="J8" t="n">
-        <v>93568.13213595524</v>
+        <v>100317.7022935776</v>
       </c>
       <c r="K8" t="n">
-        <v>110588.2364697736</v>
+        <v>118565.557846414</v>
       </c>
       <c r="L8" t="n">
-        <v>129011.7292106388</v>
+        <v>138318.0357231824</v>
       </c>
       <c r="M8" t="n">
         <v>8.704323190360302</v>
       </c>
       <c r="N8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>11261.62419264</v>
       </c>
       <c r="P8" t="n">
-        <v>10608.95941190002</v>
+        <v>11261.62419264</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -1195,31 +1195,31 @@
         <v>172038.1240437221</v>
       </c>
       <c r="H9" t="n">
-        <v>79629.19913981449</v>
+        <v>86227.01225234187</v>
       </c>
       <c r="I9" t="n">
-        <v>92229.0808625606</v>
+        <v>99870.87866593817</v>
       </c>
       <c r="J9" t="n">
-        <v>110296.3868979169</v>
+        <v>119435.1821589584</v>
       </c>
       <c r="K9" t="n">
-        <v>133843.6478150791</v>
+        <v>144933.4915422815</v>
       </c>
       <c r="L9" t="n">
-        <v>158874.3211817082</v>
+        <v>172038.1240437221</v>
       </c>
       <c r="M9" t="n">
         <v>8.315864248557114</v>
       </c>
       <c r="N9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>11486.8566764928</v>
       </c>
       <c r="P9" t="n">
-        <v>10713.99861399804</v>
+        <v>11486.8566764928</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -1281,31 +1281,31 @@
         <v>205818.212276691</v>
       </c>
       <c r="H10" t="n">
-        <v>89980.26801835482</v>
+        <v>98410.09396386627</v>
       </c>
       <c r="I10" t="n">
-        <v>106481.2921906632</v>
+        <v>116457.0210853286</v>
       </c>
       <c r="J10" t="n">
-        <v>130282.1721995679</v>
+        <v>142487.6930279953</v>
       </c>
       <c r="K10" t="n">
-        <v>158555.6772328377</v>
+        <v>173410.0090900496</v>
       </c>
       <c r="L10" t="n">
-        <v>188187.7880384428</v>
+        <v>205818.212276691</v>
       </c>
       <c r="M10" t="n">
         <v>8.419786520719413</v>
       </c>
       <c r="N10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
         <v>11716.59381002266</v>
       </c>
       <c r="P10" t="n">
-        <v>10820.07780819604</v>
+        <v>11716.59381002266</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1367,31 +1367,31 @@
         <v>238067.4982079381</v>
       </c>
       <c r="H11" t="n">
-        <v>99439.98711493613</v>
+        <v>109843.6099177635</v>
       </c>
       <c r="I11" t="n">
-        <v>122603.9896340022</v>
+        <v>135431.0796134048</v>
       </c>
       <c r="J11" t="n">
-        <v>151669.9716404784</v>
+        <v>167538.0064345623</v>
       </c>
       <c r="K11" t="n">
-        <v>182725.0921324927</v>
+        <v>201842.1796373522</v>
       </c>
       <c r="L11" t="n">
-        <v>215519.4004640416</v>
+        <v>238067.4982079381</v>
       </c>
       <c r="M11" t="n">
         <v>7.819731979524278</v>
       </c>
       <c r="N11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>11950.92568622311</v>
       </c>
       <c r="P11" t="n">
-        <v>10927.2072914455</v>
+        <v>11950.92568622311</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -1453,31 +1453,31 @@
         <v>280918.8388382126</v>
       </c>
       <c r="H12" t="n">
-        <v>112868.399646907</v>
+        <v>125923.7008248249</v>
       </c>
       <c r="I12" t="n">
-        <v>140571.3220378855</v>
+        <v>156830.9744465655</v>
       </c>
       <c r="J12" t="n">
-        <v>169584.2189067843</v>
+        <v>189199.7451282612</v>
       </c>
       <c r="K12" t="n">
-        <v>209539.5965925471</v>
+        <v>233776.6952913245</v>
       </c>
       <c r="L12" t="n">
-        <v>251794.2179482519</v>
+        <v>280918.8388382126</v>
       </c>
       <c r="M12" t="n">
         <v>8.333821601589801</v>
       </c>
       <c r="N12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>12189.94419994757</v>
       </c>
       <c r="P12" t="n">
-        <v>11035.39746264793</v>
+        <v>12189.94419994757</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -1539,31 +1539,31 @@
         <v>329686.0679932541</v>
       </c>
       <c r="H13" t="n">
-        <v>127461.0818929042</v>
+        <v>143626.3374446252</v>
       </c>
       <c r="I13" t="n">
-        <v>156224.8398589517</v>
+        <v>176038.0598814253</v>
       </c>
       <c r="J13" t="n">
-        <v>194063.0794854085</v>
+        <v>218675.1353886483</v>
       </c>
       <c r="K13" t="n">
-        <v>236844.0985718021</v>
+        <v>266881.8585097501</v>
       </c>
       <c r="L13" t="n">
-        <v>292579.6456213281</v>
+        <v>329686.0679932541</v>
       </c>
       <c r="M13" t="n">
         <v>8.477437335482954</v>
       </c>
       <c r="N13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
         <v>12433.74308394652</v>
       </c>
       <c r="P13" t="n">
-        <v>11144.65882366424</v>
+        <v>12433.74308394652</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -1625,19 +1625,19 @@
         <v>382571.6380721667</v>
       </c>
       <c r="H14" t="n">
-        <v>126863.9768524702</v>
+        <v>142953.5045394462</v>
       </c>
       <c r="I14" t="n">
-        <v>155110.1069221934</v>
+        <v>174781.9509063736</v>
       </c>
       <c r="J14" t="n">
-        <v>196650.149190952</v>
+        <v>221590.3102875508</v>
       </c>
       <c r="K14" t="n">
-        <v>245400.3459833791</v>
+        <v>276523.252257117</v>
       </c>
       <c r="L14" t="n">
-        <v>303136.5212638974</v>
+        <v>341581.8197072917</v>
       </c>
       <c r="M14" t="n">
         <v>7.432671350392457</v>
@@ -1649,7 +1649,7 @@
         <v>12682.41794562546</v>
       </c>
       <c r="P14" t="n">
-        <v>11255.00198033419</v>
+        <v>12682.41794562546</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -1711,31 +1711,31 @@
         <v>434580.5819485765</v>
       </c>
       <c r="H15" t="n">
-        <v>124804.7092103797</v>
+        <v>139388.5297722032</v>
       </c>
       <c r="I15" t="n">
-        <v>156232.2342529489</v>
+        <v>174488.4593964812</v>
       </c>
       <c r="J15" t="n">
-        <v>195245.3191083848</v>
+        <v>218060.3452194014</v>
       </c>
       <c r="K15" t="n">
-        <v>245521.0171721552</v>
+        <v>274210.9158246117</v>
       </c>
       <c r="L15" t="n">
-        <v>307452.3284164092</v>
+        <v>343379.0944600004</v>
       </c>
       <c r="M15" t="n">
         <v>7.612142448383693</v>
       </c>
       <c r="N15" t="n">
-        <v>12.00000000000001</v>
+        <v>12.99999999999999</v>
       </c>
       <c r="O15" t="n">
         <v>12936.06630453796</v>
       </c>
       <c r="P15" t="n">
-        <v>10250.09108923292</v>
+        <v>11550.05920048032</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -1797,31 +1797,31 @@
         <v>495326.3351848602</v>
       </c>
       <c r="H16" t="n">
-        <v>123974.9246429848</v>
+        <v>136032.6282080534</v>
       </c>
       <c r="I16" t="n">
-        <v>156336.4618862224</v>
+        <v>171541.6230852647</v>
       </c>
       <c r="J16" t="n">
-        <v>195422.8169550102</v>
+        <v>214429.4862752768</v>
       </c>
       <c r="K16" t="n">
-        <v>247922.1896042491</v>
+        <v>272034.9065755187</v>
       </c>
       <c r="L16" t="n">
-        <v>312882.2063573591</v>
+        <v>343312.883414884</v>
       </c>
       <c r="M16" t="n">
         <v>8.073579272926901</v>
       </c>
       <c r="N16" t="n">
-        <v>12.00000000000001</v>
+        <v>14.00000000000001</v>
       </c>
       <c r="O16" t="n">
         <v>13194.78763062872</v>
       </c>
       <c r="P16" t="n">
-        <v>9334.904384837124</v>
+        <v>10425.71715441586</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -1883,31 +1883,31 @@
         <v>559269.5863851355</v>
       </c>
       <c r="H17" t="n">
-        <v>121946.4601574246</v>
+        <v>130316.2626845903</v>
       </c>
       <c r="I17" t="n">
-        <v>154790.6439997927</v>
+        <v>165414.7090334032</v>
       </c>
       <c r="J17" t="n">
-        <v>194322.5703868066</v>
+        <v>207659.9115331524</v>
       </c>
       <c r="K17" t="n">
-        <v>251283.8049773635</v>
+        <v>268530.6838389579</v>
       </c>
       <c r="L17" t="n">
-        <v>315422.4687466516</v>
+        <v>337071.5086009654</v>
       </c>
       <c r="M17" t="n">
         <v>7.614970187142285</v>
       </c>
       <c r="N17" t="n">
-        <v>12.00000000000001</v>
+        <v>14.99999999999999</v>
       </c>
       <c r="O17" t="n">
         <v>13458.6833832413</v>
       </c>
       <c r="P17" t="n">
-        <v>8501.430779048094</v>
+        <v>9328.273243424719</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -1969,31 +1969,31 @@
         <v>617188.5904139687</v>
       </c>
       <c r="H18" t="n">
-        <v>120413.8552470059</v>
+        <v>124241.2788160802</v>
       </c>
       <c r="I18" t="n">
-        <v>151525.5622244914</v>
+        <v>156341.8892741119</v>
       </c>
       <c r="J18" t="n">
-        <v>194041.0436739988</v>
+        <v>200208.749727444</v>
       </c>
       <c r="K18" t="n">
-        <v>248921.3242313524</v>
+        <v>256833.4315320772</v>
       </c>
       <c r="L18" t="n">
-        <v>310793.04406557</v>
+        <v>320671.7795277043</v>
       </c>
       <c r="M18" t="n">
         <v>7.423973161643585</v>
       </c>
       <c r="N18" t="n">
-        <v>12.00000000000001</v>
+        <v>16</v>
       </c>
       <c r="O18" t="n">
         <v>13727.85705090612</v>
       </c>
       <c r="P18" t="n">
-        <v>7742.374459490226</v>
+        <v>8273.772789820187</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -2055,31 +2055,31 @@
         <v>704620.6184323882</v>
       </c>
       <c r="H19" t="n">
-        <v>115979.6656069598</v>
+        <v>114552.2080513632</v>
       </c>
       <c r="I19" t="n">
-        <v>147543.3993324965</v>
+        <v>145727.4608310929</v>
       </c>
       <c r="J19" t="n">
-        <v>193538.4662737991</v>
+        <v>191156.4284869567</v>
       </c>
       <c r="K19" t="n">
-        <v>246996.1513024726</v>
+        <v>243956.1656245103</v>
       </c>
       <c r="L19" t="n">
-        <v>316804.0506512793</v>
+        <v>312904.8814876233</v>
       </c>
       <c r="M19" t="n">
         <v>7.91524332452075</v>
       </c>
       <c r="N19" t="n">
-        <v>12.00000000000001</v>
+        <v>17</v>
       </c>
       <c r="O19" t="n">
         <v>14002.41419192424</v>
       </c>
       <c r="P19" t="n">
-        <v>7051.091025607168</v>
+        <v>7275.214004841892</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -2141,31 +2141,31 @@
         <v>792042.904369875</v>
       </c>
       <c r="H20" t="n">
-        <v>110087.3195335458</v>
+        <v>103203.6186632208</v>
       </c>
       <c r="I20" t="n">
-        <v>145485.0503717387</v>
+        <v>136387.9484338715</v>
       </c>
       <c r="J20" t="n">
-        <v>190050.3562364066</v>
+        <v>178166.609696175</v>
       </c>
       <c r="K20" t="n">
-        <v>245774.8632531032</v>
+        <v>230406.6932654247</v>
       </c>
       <c r="L20" t="n">
-        <v>317955.2962742641</v>
+        <v>298073.7226383407</v>
       </c>
       <c r="M20" t="n">
         <v>7.201435740423685</v>
       </c>
       <c r="N20" t="n">
-        <v>12.00000000000001</v>
+        <v>18</v>
       </c>
       <c r="O20" t="n">
         <v>14282.46247576273</v>
       </c>
       <c r="P20" t="n">
-        <v>6421.529326892243</v>
+        <v>6342.49426063139</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -2227,31 +2227,31 @@
         <v>886145.2130237883</v>
       </c>
       <c r="H21" t="n">
-        <v>107927.8655109268</v>
+        <v>95227.47683669141</v>
       </c>
       <c r="I21" t="n">
-        <v>141410.220473034</v>
+        <v>124769.8027828034</v>
       </c>
       <c r="J21" t="n">
-        <v>184391.8770427649</v>
+        <v>162693.6020353911</v>
       </c>
       <c r="K21" t="n">
-        <v>243368.3562567469</v>
+        <v>214730.0365712942</v>
       </c>
       <c r="L21" t="n">
-        <v>317617.3580849525</v>
+        <v>280241.8028632632</v>
       </c>
       <c r="M21" t="n">
         <v>7.92231271981782</v>
       </c>
       <c r="N21" t="n">
-        <v>12.00000000000001</v>
+        <v>19</v>
       </c>
       <c r="O21" t="n">
         <v>14568.11172527799</v>
       </c>
       <c r="P21" t="n">
-        <v>5848.178494134011</v>
+        <v>5482.495038850863</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -2313,31 +2313,31 @@
         <v>979308.728185003</v>
       </c>
       <c r="H22" t="n">
-        <v>104248.9372929317</v>
+        <v>85849.36800175544</v>
       </c>
       <c r="I22" t="n">
-        <v>135574.0158953111</v>
+        <v>111645.6808510944</v>
       </c>
       <c r="J22" t="n">
-        <v>180317.2851964898</v>
+        <v>148491.9211254207</v>
       </c>
       <c r="K22" t="n">
-        <v>239444.8239692144</v>
+        <v>197183.6581056677</v>
       </c>
       <c r="L22" t="n">
-        <v>313401.4026065017</v>
+        <v>258087.1617811313</v>
       </c>
       <c r="M22" t="n">
         <v>7.32037272696079</v>
       </c>
       <c r="N22" t="n">
-        <v>12.00000000000001</v>
+        <v>20</v>
       </c>
       <c r="O22" t="n">
         <v>14859.47395978355</v>
       </c>
       <c r="P22" t="n">
-        <v>5326.0197000149</v>
+        <v>4699.28146187217</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -2399,31 +2399,31 @@
         <v>1085876.389988035</v>
       </c>
       <c r="H23" t="n">
-        <v>103925.9419473006</v>
+        <v>79217.67422916983</v>
       </c>
       <c r="I23" t="n">
-        <v>130379.6486071916</v>
+        <v>99382.04394351815</v>
       </c>
       <c r="J23" t="n">
-        <v>176891.4474483769</v>
+        <v>134835.7185446306</v>
       </c>
       <c r="K23" t="n">
-        <v>234353.4458475011</v>
+        <v>178636.1959273341</v>
       </c>
       <c r="L23" t="n">
-        <v>310272.7810198907</v>
+        <v>236505.8004619865</v>
       </c>
       <c r="M23" t="n">
         <v>7.166836685230182</v>
       </c>
       <c r="N23" t="n">
-        <v>12.00000000000001</v>
+        <v>21</v>
       </c>
       <c r="O23" t="n">
         <v>15156.66343897921</v>
       </c>
       <c r="P23" t="n">
-        <v>4850.482226799285</v>
+        <v>3994.389242591344</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -2485,31 +2485,31 @@
         <v>1195325.842254449</v>
       </c>
       <c r="H24" t="n">
-        <v>100094.3040861474</v>
+        <v>70043.15090248313</v>
       </c>
       <c r="I24" t="n">
-        <v>127987.9774907558</v>
+        <v>89562.35125400397</v>
       </c>
       <c r="J24" t="n">
-        <v>173672.1250783275</v>
+        <v>121530.8201148654</v>
       </c>
       <c r="K24" t="n">
-        <v>231001.8086346887</v>
+        <v>161648.5042647425</v>
       </c>
       <c r="L24" t="n">
-        <v>304952.0618296205</v>
+        <v>213396.7909539776</v>
       </c>
       <c r="M24" t="n">
         <v>7.908408477138871</v>
       </c>
       <c r="N24" t="n">
-        <v>12.00000000000001</v>
+        <v>22.00000000000001</v>
       </c>
       <c r="O24" t="n">
         <v>15459.7967077588</v>
       </c>
       <c r="P24" t="n">
-        <v>4417.403456549348</v>
+        <v>3367.171097060471</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -2571,31 +2571,31 @@
         <v>1338261.139436261</v>
       </c>
       <c r="H25" t="n">
-        <v>96514.92879075168</v>
+        <v>61498.38571447036</v>
       </c>
       <c r="I25" t="n">
-        <v>126696.2428499962</v>
+        <v>80729.62917742823</v>
       </c>
       <c r="J25" t="n">
-        <v>168851.4445265136</v>
+        <v>107590.5188351759</v>
       </c>
       <c r="K25" t="n">
-        <v>229223.059558391</v>
+        <v>146058.7321359941</v>
       </c>
       <c r="L25" t="n">
-        <v>304837.3023004069</v>
+        <v>194239.4014264186</v>
       </c>
       <c r="M25" t="n">
         <v>8.516070846501091</v>
       </c>
       <c r="N25" t="n">
-        <v>12.00000000000001</v>
+        <v>23</v>
       </c>
       <c r="O25" t="n">
         <v>15768.99264191397</v>
       </c>
       <c r="P25" t="n">
-        <v>4022.992433643156</v>
+        <v>2815.17583524728</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -2657,31 +2657,31 @@
         <v>1472070.068182094</v>
       </c>
       <c r="H26" t="n">
-        <v>94448.05380208533</v>
+        <v>54357.38706464023</v>
       </c>
       <c r="I26" t="n">
-        <v>122804.8313147265</v>
+        <v>70677.47275312363</v>
       </c>
       <c r="J26" t="n">
-        <v>164878.2650100925</v>
+        <v>94891.8618109423</v>
       </c>
       <c r="K26" t="n">
-        <v>219731.7025080189</v>
+        <v>126461.4856821649</v>
       </c>
       <c r="L26" t="n">
-        <v>299390.2839116533</v>
+        <v>172307.1348836937</v>
       </c>
       <c r="M26" t="n">
         <v>7.680004905476781</v>
       </c>
       <c r="N26" t="n">
-        <v>12.00000000000001</v>
+        <v>24.00000000000001</v>
       </c>
       <c r="O26" t="n">
         <v>16084.37249475226</v>
       </c>
       <c r="P26" t="n">
-        <v>3663.796680639301</v>
+        <v>2334.536058497746</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -2743,31 +2743,31 @@
         <v>1688691.830821613</v>
       </c>
       <c r="H27" t="n">
-        <v>91227.23966627159</v>
+        <v>47422.71680881152</v>
       </c>
       <c r="I27" t="n">
-        <v>119870.1702707179</v>
+        <v>62312.19051861727</v>
       </c>
       <c r="J27" t="n">
-        <v>160907.776161842</v>
+        <v>83644.79654512525</v>
       </c>
       <c r="K27" t="n">
-        <v>218850.6241813225</v>
+        <v>113765.2658564393</v>
       </c>
       <c r="L27" t="n">
-        <v>306649.0331229653</v>
+        <v>159405.5713039703</v>
       </c>
       <c r="M27" t="n">
         <v>8.391083541358245</v>
       </c>
       <c r="N27" t="n">
-        <v>12.00000000000001</v>
+        <v>24.00000000000001</v>
       </c>
       <c r="O27" t="n">
         <v>16406.05994464731</v>
       </c>
       <c r="P27" t="n">
-        <v>3336.671977010791</v>
+        <v>1920.344177151371</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -2829,31 +2829,31 @@
         <v>1836802.512091168</v>
       </c>
       <c r="H28" t="n">
-        <v>88688.51991803154</v>
+        <v>41641.43058170522</v>
       </c>
       <c r="I28" t="n">
-        <v>112377.0655460204</v>
+        <v>52763.78248543681</v>
       </c>
       <c r="J28" t="n">
-        <v>158566.1391501657</v>
+        <v>74450.68293092772</v>
       </c>
       <c r="K28" t="n">
-        <v>218886.4621340375</v>
+        <v>102772.5507952289</v>
       </c>
       <c r="L28" t="n">
-        <v>297807.5057495341</v>
+        <v>139827.9122127811</v>
       </c>
       <c r="M28" t="n">
         <v>8.180295171860605</v>
       </c>
       <c r="N28" t="n">
-        <v>12.00000000000001</v>
+        <v>24.00000000000001</v>
       </c>
       <c r="O28" t="n">
         <v>16734.18114354025</v>
       </c>
       <c r="P28" t="n">
-        <v>3038.754836206257</v>
+        <v>1579.637952172902</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -2915,31 +2915,31 @@
         <v>2012607.395258121</v>
       </c>
       <c r="H29" t="n">
-        <v>83243.51274847033</v>
+        <v>35302.46002799406</v>
       </c>
       <c r="I29" t="n">
-        <v>109643.8440270942</v>
+        <v>46498.48730888924</v>
       </c>
       <c r="J29" t="n">
-        <v>150919.0647823491</v>
+        <v>64002.75620323375</v>
       </c>
       <c r="K29" t="n">
-        <v>209878.4722517689</v>
+        <v>89006.65208341635</v>
       </c>
       <c r="L29" t="n">
-        <v>291349.4590314854</v>
+        <v>123557.4075629781</v>
       </c>
       <c r="M29" t="n">
         <v>7.339661201686513</v>
       </c>
       <c r="N29" t="n">
-        <v>12.00000000000001</v>
+        <v>24.00000000000001</v>
       </c>
       <c r="O29" t="n">
         <v>17068.86476641105</v>
       </c>
       <c r="P29" t="n">
-        <v>2767.437440116412</v>
+        <v>1299.379605819645</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -3001,31 +3001,31 @@
         <v>2263782.710218742</v>
       </c>
       <c r="H30" t="n">
-        <v>79026.93196253094</v>
+        <v>30270.94860864896</v>
       </c>
       <c r="I30" t="n">
-        <v>105671.9227968889</v>
+        <v>40477.20523780915</v>
       </c>
       <c r="J30" t="n">
-        <v>146836.3957823519</v>
+        <v>56245.09113822442</v>
       </c>
       <c r="K30" t="n">
-        <v>214607.8792818559</v>
+        <v>82204.68545877919</v>
       </c>
       <c r="L30" t="n">
-        <v>292598.3467041232</v>
+        <v>112078.6204917539</v>
       </c>
       <c r="M30" t="n">
         <v>7.824050631413873</v>
       </c>
       <c r="N30" t="n">
-        <v>12.00000000000001</v>
+        <v>24.00000000000001</v>
       </c>
       <c r="O30" t="n">
         <v>17410.24206173927</v>
       </c>
       <c r="P30" t="n">
-        <v>2520.344811534589</v>
+        <v>1068.844514464546</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -3087,31 +3087,31 @@
         <v>2424889.717364854</v>
       </c>
       <c r="H31" t="n">
-        <v>75830.64824617446</v>
+        <v>26235.66127208516</v>
       </c>
       <c r="I31" t="n">
-        <v>104744.8236171561</v>
+        <v>36239.30133767051</v>
       </c>
       <c r="J31" t="n">
-        <v>143791.4104924113</v>
+        <v>49748.52288308865</v>
       </c>
       <c r="K31" t="n">
-        <v>204848.6935674485</v>
+        <v>70872.9393822092</v>
       </c>
       <c r="L31" t="n">
-        <v>279840.8417397732</v>
+        <v>96818.49890225967</v>
       </c>
       <c r="M31" t="n">
         <v>7.963799625091207</v>
       </c>
       <c r="N31" t="n">
-        <v>12.00000000000001</v>
+        <v>24.00000000000001</v>
       </c>
       <c r="O31" t="n">
         <v>17758.44690297405</v>
       </c>
       <c r="P31" t="n">
-        <v>2295.314024790429</v>
+        <v>879.2108102853527</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -3173,31 +3173,31 @@
         <v>2730713.68259551</v>
       </c>
       <c r="H32" t="n">
-        <v>71531.10016375774</v>
+        <v>22353.13745110471</v>
       </c>
       <c r="I32" t="n">
-        <v>99123.08650047191</v>
+        <v>30975.50536829871</v>
       </c>
       <c r="J32" t="n">
-        <v>140396.6102177887</v>
+        <v>43873.29034060448</v>
       </c>
       <c r="K32" t="n">
-        <v>197649.5835322432</v>
+        <v>61764.57929118113</v>
       </c>
       <c r="L32" t="n">
-        <v>281369.6499619533</v>
+        <v>87926.71223803467</v>
       </c>
       <c r="M32" t="n">
         <v>8.139403831849892</v>
       </c>
       <c r="N32" t="n">
-        <v>12.00000000000001</v>
+        <v>24.00000000000001</v>
       </c>
       <c r="O32" t="n">
         <v>18113.61584103354</v>
       </c>
       <c r="P32" t="n">
-        <v>2090.375272576999</v>
+        <v>723.2217955573063</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -3259,31 +3259,31 @@
         <v>2924535.017281641</v>
       </c>
       <c r="H33" t="n">
-        <v>67753.404603419</v>
+        <v>19123.66136956802</v>
       </c>
       <c r="I33" t="n">
-        <v>97274.70701290308</v>
+        <v>27456.16353343858</v>
       </c>
       <c r="J33" t="n">
-        <v>134724.3440065211</v>
+        <v>38026.46889995383</v>
       </c>
       <c r="K33" t="n">
-        <v>195091.9499966202</v>
+        <v>55065.45994997564</v>
       </c>
       <c r="L33" t="n">
-        <v>269054.2688524369</v>
+        <v>75941.61146126485</v>
       </c>
       <c r="M33" t="n">
         <v>8.041797835620196</v>
       </c>
       <c r="N33" t="n">
-        <v>12.00000000000001</v>
+        <v>24.00000000000001</v>
       </c>
       <c r="O33" t="n">
         <v>18475.88815785421</v>
       </c>
       <c r="P33" t="n">
-        <v>1903.734623239765</v>
+        <v>594.9082511842361</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -3345,31 +3345,31 @@
         <v>3233933.616257265</v>
       </c>
       <c r="H34" t="n">
-        <v>64294.30044450537</v>
+        <v>16391.12394612841</v>
       </c>
       <c r="I34" t="n">
-        <v>94632.18861499924</v>
+        <v>24125.43448109659</v>
       </c>
       <c r="J34" t="n">
-        <v>131405.6355780039</v>
+        <v>33500.41986751121</v>
       </c>
       <c r="K34" t="n">
-        <v>187160.3540931405</v>
+        <v>47714.47143110054</v>
       </c>
       <c r="L34" t="n">
-        <v>265641.6317642333</v>
+        <v>67722.40900665184</v>
       </c>
       <c r="M34" t="n">
         <v>7.741907800254612</v>
       </c>
       <c r="N34" t="n">
-        <v>12.00000000000001</v>
+        <v>24.00000000000001</v>
       </c>
       <c r="O34" t="n">
         <v>18845.40592101129</v>
       </c>
       <c r="P34" t="n">
-        <v>1733.758317593358</v>
+        <v>489.3600130709037</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -3431,31 +3431,31 @@
         <v>3480384.617428135</v>
       </c>
       <c r="H35" t="n">
-        <v>61999.74771723177</v>
+        <v>14276.52528481589</v>
       </c>
       <c r="I35" t="n">
-        <v>89385.63446215294</v>
+        <v>20582.60424410667</v>
       </c>
       <c r="J35" t="n">
-        <v>125746.3941262683</v>
+        <v>28955.30451842699</v>
       </c>
       <c r="K35" t="n">
-        <v>181732.4667883995</v>
+        <v>41847.07603988284</v>
       </c>
       <c r="L35" t="n">
-        <v>255254.9990880381</v>
+        <v>58776.92382195296</v>
       </c>
       <c r="M35" t="n">
         <v>8.045586053477894</v>
       </c>
       <c r="N35" t="n">
-        <v>12.00000000000001</v>
+        <v>24.00000000000001</v>
       </c>
       <c r="O35" t="n">
         <v>19222.31403943152</v>
       </c>
       <c r="P35" t="n">
-        <v>1578.958467808236</v>
+        <v>402.5380752680014</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -3517,31 +3517,31 @@
         <v>3785546.97739877</v>
       </c>
       <c r="H36" t="n">
-        <v>59612.09099059999</v>
+        <v>12398.33280181199</v>
       </c>
       <c r="I36" t="n">
-        <v>85409.43533362773</v>
+        <v>17763.75540740781</v>
       </c>
       <c r="J36" t="n">
-        <v>124939.5139994347</v>
+        <v>25985.36050188044</v>
       </c>
       <c r="K36" t="n">
-        <v>178702.2055070478</v>
+        <v>37167.11458156282</v>
       </c>
       <c r="L36" t="n">
-        <v>247889.2155812761</v>
+        <v>51556.87280356287</v>
       </c>
       <c r="M36" t="n">
         <v>7.929805455662557</v>
       </c>
       <c r="N36" t="n">
-        <v>12.00000000000001</v>
+        <v>24.00000000000001</v>
       </c>
       <c r="O36" t="n">
         <v>19606.76032022015</v>
       </c>
       <c r="P36" t="n">
-        <v>1437.980033182502</v>
+        <v>331.1200296559367</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -3603,31 +3603,31 @@
         <v>4048805.363158335</v>
       </c>
       <c r="H37" t="n">
-        <v>58270.3529542642</v>
+        <v>10946.4404864628</v>
       </c>
       <c r="I37" t="n">
-        <v>82244.7621581594</v>
+        <v>15450.17918450238</v>
       </c>
       <c r="J37" t="n">
-        <v>119970.9931128033</v>
+        <v>22537.28130395745</v>
       </c>
       <c r="K37" t="n">
-        <v>172597.729915102</v>
+        <v>32423.53414432141</v>
       </c>
       <c r="L37" t="n">
-        <v>236721.5904867925</v>
+        <v>44469.5916662517</v>
       </c>
       <c r="M37" t="n">
         <v>7.64839718033401</v>
       </c>
       <c r="N37" t="n">
-        <v>12.00000000000001</v>
+        <v>24.00000000000001</v>
       </c>
       <c r="O37" t="n">
         <v>19998.89552662455</v>
       </c>
       <c r="P37" t="n">
-        <v>1309.588958791206</v>
+        <v>272.372927620206</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -3689,31 +3689,31 @@
         <v>4508036.539375824</v>
       </c>
       <c r="H38" t="n">
-        <v>52781.41171866735</v>
+        <v>8955.763387642361</v>
       </c>
       <c r="I38" t="n">
-        <v>77817.26748232573</v>
+        <v>13203.75890586697</v>
       </c>
       <c r="J38" t="n">
-        <v>114962.1630164956</v>
+        <v>19506.37349366636</v>
       </c>
       <c r="K38" t="n">
-        <v>170074.1694504345</v>
+        <v>28857.58395524668</v>
       </c>
       <c r="L38" t="n">
-        <v>235331.6692596079</v>
+        <v>39930.24587408992</v>
       </c>
       <c r="M38" t="n">
         <v>7.354858885808619</v>
       </c>
       <c r="N38" t="n">
-        <v>12.00000000000001</v>
+        <v>24.00000000000001</v>
       </c>
       <c r="O38" t="n">
         <v>20398.87343715704</v>
       </c>
       <c r="P38" t="n">
-        <v>1192.661373184848</v>
+        <v>224.0486985262984</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -3775,31 +3775,31 @@
         <v>4927575.698504136</v>
       </c>
       <c r="H39" t="n">
-        <v>51376.16304243558</v>
+        <v>7873.713588799275</v>
       </c>
       <c r="I39" t="n">
-        <v>74105.47861616666</v>
+        <v>11357.12126852758</v>
       </c>
       <c r="J39" t="n">
-        <v>109902.4244139069</v>
+        <v>16843.22380857855</v>
       </c>
       <c r="K39" t="n">
-        <v>162044.2217848103</v>
+        <v>24834.27557639148</v>
       </c>
       <c r="L39" t="n">
-        <v>229672.0939377823</v>
+        <v>35198.66373657031</v>
       </c>
       <c r="M39" t="n">
         <v>7.194286956898639</v>
       </c>
       <c r="N39" t="n">
-        <v>12.00000000000001</v>
+        <v>24.00000000000001</v>
       </c>
       <c r="O39" t="n">
         <v>20806.85090590018</v>
       </c>
       <c r="P39" t="n">
-        <v>1086.173750579059</v>
+        <v>184.2981229813099</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -3861,31 +3861,31 @@
         <v>5336956.16087708</v>
       </c>
       <c r="H40" t="n">
-        <v>50419.82927359394</v>
+        <v>6979.36087969299</v>
       </c>
       <c r="I40" t="n">
-        <v>70685.0438910988</v>
+        <v>9784.571610425681</v>
       </c>
       <c r="J40" t="n">
-        <v>104902.7490604087</v>
+        <v>14521.15474234486</v>
       </c>
       <c r="K40" t="n">
-        <v>157786.0014872277</v>
+        <v>21841.51477720067</v>
       </c>
       <c r="L40" t="n">
-        <v>222101.0122640182</v>
+        <v>30744.31505755887</v>
       </c>
       <c r="M40" t="n">
         <v>7.875962648915345</v>
       </c>
       <c r="N40" t="n">
-        <v>12.00000000000001</v>
+        <v>24.00000000000001</v>
       </c>
       <c r="O40" t="n">
         <v>21222.98792401818</v>
       </c>
       <c r="P40" t="n">
-        <v>989.1939514202135</v>
+        <v>151.6000689039808</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -3947,31 +3947,31 @@
         <v>5941255.498038584</v>
       </c>
       <c r="H41" t="n">
-        <v>48388.51811199958</v>
+        <v>6049.966135430117</v>
       </c>
       <c r="I41" t="n">
-        <v>67593.23817608034</v>
+        <v>8451.112327987132</v>
       </c>
       <c r="J41" t="n">
-        <v>102686.3235358359</v>
+        <v>12838.76432267861</v>
       </c>
       <c r="K41" t="n">
-        <v>153237.4106690626</v>
+        <v>19159.11421554621</v>
       </c>
       <c r="L41" t="n">
-        <v>220758.3345759238</v>
+        <v>27601.18516560003</v>
       </c>
       <c r="M41" t="n">
         <v>8.41660646018833</v>
       </c>
       <c r="N41" t="n">
-        <v>12.00000000000001</v>
+        <v>24.00000000000001</v>
       </c>
       <c r="O41" t="n">
         <v>21647.44768249855</v>
       </c>
       <c r="P41" t="n">
-        <v>900.8730629005514</v>
+        <v>124.7032824855326</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -4033,31 +4033,31 @@
         <v>6555456.94006464</v>
       </c>
       <c r="H42" t="n">
-        <v>45600.75479335092</v>
+        <v>5149.665147445655</v>
       </c>
       <c r="I42" t="n">
-        <v>65073.05405061033</v>
+        <v>7348.659907075424</v>
       </c>
       <c r="J42" t="n">
-        <v>100071.4499457744</v>
+        <v>11301.00719550476</v>
       </c>
       <c r="K42" t="n">
-        <v>149344.4675330431</v>
+        <v>16865.37871804877</v>
       </c>
       <c r="L42" t="n">
-        <v>217482.2544047258</v>
+        <v>24560.13701464494</v>
       </c>
       <c r="M42" t="n">
         <v>8.582328338011552</v>
       </c>
       <c r="N42" t="n">
-        <v>12.00000000000001</v>
+        <v>24.00000000000001</v>
       </c>
       <c r="O42" t="n">
         <v>22080.39663614852</v>
       </c>
       <c r="P42" t="n">
-        <v>820.4379679987164</v>
+        <v>102.5785065606801</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -4119,31 +4119,31 @@
         <v>7171651.272081203</v>
       </c>
       <c r="H43" t="n">
-        <v>43784.49463692834</v>
+        <v>4466.050586831346</v>
       </c>
       <c r="I43" t="n">
-        <v>62830.56535041149</v>
+        <v>6408.763777702377</v>
       </c>
       <c r="J43" t="n">
-        <v>95189.2119769885</v>
+        <v>9709.369481937378</v>
       </c>
       <c r="K43" t="n">
-        <v>147581.2058999042</v>
+        <v>15053.39131306652</v>
       </c>
       <c r="L43" t="n">
-        <v>212433.0076558542</v>
+        <v>21668.3226875388</v>
       </c>
       <c r="M43" t="n">
         <v>9.427745069305022</v>
       </c>
       <c r="N43" t="n">
-        <v>12.00000000000001</v>
+        <v>24.00000000000001</v>
       </c>
       <c r="O43" t="n">
         <v>22522.0045688715</v>
       </c>
       <c r="P43" t="n">
-        <v>747.1845779988308</v>
+        <v>84.37909410636584</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -4205,31 +4205,31 @@
         <v>7760023.893399991</v>
       </c>
       <c r="H44" t="n">
-        <v>41351.32599382545</v>
+        <v>3809.685057620868</v>
       </c>
       <c r="I44" t="n">
-        <v>60133.64565185071</v>
+        <v>5540.094441816239</v>
       </c>
       <c r="J44" t="n">
-        <v>93680.82797423334</v>
+        <v>8630.786122125297</v>
       </c>
       <c r="K44" t="n">
-        <v>140263.0360942076</v>
+        <v>12922.39075536366</v>
       </c>
       <c r="L44" t="n">
-        <v>205233.3198320059</v>
+        <v>18908.08318956123</v>
       </c>
       <c r="M44" t="n">
         <v>8.160948100352362</v>
       </c>
       <c r="N44" t="n">
-        <v>12.00000000000001</v>
+        <v>24.00000000000001</v>
       </c>
       <c r="O44" t="n">
         <v>22972.44466024893</v>
       </c>
       <c r="P44" t="n">
-        <v>680.4716692489353</v>
+        <v>69.40860966813965</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -4291,31 +4291,31 @@
         <v>8581657.908925211</v>
       </c>
       <c r="H45" t="n">
-        <v>39273.99426739407</v>
+        <v>3268.142946149567</v>
       </c>
       <c r="I45" t="n">
-        <v>57649.48899155104</v>
+        <v>4797.239860914353</v>
       </c>
       <c r="J45" t="n">
-        <v>89466.25196618284</v>
+        <v>7444.837372308375</v>
       </c>
       <c r="K45" t="n">
-        <v>137097.7436559544</v>
+        <v>11408.44042527683</v>
       </c>
       <c r="L45" t="n">
-        <v>202645.9774693652</v>
+        <v>16862.96579163893</v>
       </c>
       <c r="M45" t="n">
         <v>7.594532528656125</v>
       </c>
       <c r="N45" t="n">
-        <v>12.00000000000001</v>
+        <v>24.00000000000001</v>
       </c>
       <c r="O45" t="n">
         <v>23431.89355345391</v>
       </c>
       <c r="P45" t="n">
-        <v>619.7152702088517</v>
+        <v>57.09417892056648</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -4377,31 +4377,31 @@
         <v>9676394.83144355</v>
       </c>
       <c r="H46" t="n">
-        <v>37109.98266041659</v>
+        <v>2789.221861831971</v>
       </c>
       <c r="I46" t="n">
-        <v>54639.36736463785</v>
+        <v>4106.747215828675</v>
       </c>
       <c r="J46" t="n">
-        <v>86491.59433404668</v>
+        <v>6500.791121051875</v>
       </c>
       <c r="K46" t="n">
-        <v>132439.3942872085</v>
+        <v>9954.271800501007</v>
       </c>
       <c r="L46" t="n">
-        <v>204015.1163313018</v>
+        <v>15333.97166532311</v>
       </c>
       <c r="M46" t="n">
         <v>8.06154522842532</v>
       </c>
       <c r="N46" t="n">
-        <v>12.00000000000001</v>
+        <v>24.00000000000001</v>
       </c>
       <c r="O46" t="n">
         <v>23900.53142452298</v>
       </c>
       <c r="P46" t="n">
-        <v>564.3835496544899</v>
+        <v>46.9645665314337</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
@@ -4463,31 +4463,31 @@
         <v>10735503.91686033</v>
       </c>
       <c r="H47" t="n">
-        <v>35479.08361223504</v>
+        <v>2408.579804460301</v>
       </c>
       <c r="I47" t="n">
-        <v>52777.44859086473</v>
+        <v>3582.91939544519</v>
       </c>
       <c r="J47" t="n">
-        <v>81166.4148824076</v>
+        <v>5510.170156108421</v>
       </c>
       <c r="K47" t="n">
-        <v>127038.8129025783</v>
+        <v>8624.324192923683</v>
       </c>
       <c r="L47" t="n">
-        <v>202093.8877016609</v>
+        <v>13719.61186605249</v>
       </c>
       <c r="M47" t="n">
         <v>7.684723357394216</v>
       </c>
       <c r="N47" t="n">
-        <v>12.00000000000001</v>
+        <v>24.00000000000001</v>
       </c>
       <c r="O47" t="n">
         <v>24378.54205301345</v>
       </c>
       <c r="P47" t="n">
-        <v>513.9921612924819</v>
+        <v>38.63214343714709</v>
       </c>
       <c r="Q47" t="n">
         <v>0</v>
@@ -4549,31 +4549,31 @@
         <v>11842480.94514071</v>
       </c>
       <c r="H48" t="n">
-        <v>33363.5298218922</v>
+        <v>2045.770804147632</v>
       </c>
       <c r="I48" t="n">
-        <v>50392.58835333065</v>
+        <v>3089.951409488694</v>
       </c>
       <c r="J48" t="n">
-        <v>78262.2185479012</v>
+        <v>4798.849600981376</v>
       </c>
       <c r="K48" t="n">
-        <v>124296.4464911817</v>
+        <v>7621.556911046786</v>
       </c>
       <c r="L48" t="n">
-        <v>199046.8988935869</v>
+        <v>12205.07352149022</v>
       </c>
       <c r="M48" t="n">
         <v>8.090563337609916</v>
       </c>
       <c r="N48" t="n">
-        <v>12.00000000000001</v>
+        <v>24.00000000000001</v>
       </c>
       <c r="O48" t="n">
         <v>24866.11289407371</v>
       </c>
       <c r="P48" t="n">
-        <v>468.1000040342244</v>
+        <v>31.77805347249198</v>
       </c>
       <c r="Q48" t="n">
         <v>0</v>
@@ -4635,31 +4635,31 @@
         <v>12642214.8497394</v>
       </c>
       <c r="H49" t="n">
-        <v>32138.45699079034</v>
+        <v>1779.944018926336</v>
       </c>
       <c r="I49" t="n">
-        <v>47127.19473180171</v>
+        <v>2610.074541403313</v>
       </c>
       <c r="J49" t="n">
-        <v>75690.95463566847</v>
+        <v>4192.038903087039</v>
       </c>
       <c r="K49" t="n">
-        <v>119928.0165220972</v>
+        <v>6642.047431567008</v>
       </c>
       <c r="L49" t="n">
-        <v>189722.0746953927</v>
+        <v>10507.49487472688</v>
       </c>
       <c r="M49" t="n">
         <v>7.621814599194368</v>
       </c>
       <c r="N49" t="n">
-        <v>12.00000000000001</v>
+        <v>24.00000000000001</v>
       </c>
       <c r="O49" t="n">
         <v>25363.43515195519</v>
       </c>
       <c r="P49" t="n">
-        <v>426.305360816883</v>
+        <v>26.14001172737242</v>
       </c>
       <c r="Q49" t="n">
         <v>0</v>
@@ -4721,31 +4721,31 @@
         <v>13888641.38925085</v>
       </c>
       <c r="H50" t="n">
-        <v>29406.29624407668</v>
+        <v>1471.018000822787</v>
       </c>
       <c r="I50" t="n">
-        <v>45078.46337247355</v>
+        <v>2255.001123567079</v>
       </c>
       <c r="J50" t="n">
-        <v>72067.04275697346</v>
+        <v>3605.075466888403</v>
       </c>
       <c r="K50" t="n">
-        <v>116155.6224192104</v>
+        <v>5810.558733993954</v>
       </c>
       <c r="L50" t="n">
-        <v>186095.7436755809</v>
+        <v>9309.237265078033</v>
       </c>
       <c r="M50" t="n">
         <v>7.340061039183883</v>
       </c>
       <c r="N50" t="n">
-        <v>12.00000000000001</v>
+        <v>24.00000000000001</v>
       </c>
       <c r="O50" t="n">
         <v>25870.70385499428</v>
       </c>
       <c r="P50" t="n">
-        <v>388.2423821725185</v>
+        <v>21.50226771122571</v>
       </c>
       <c r="Q50" t="n">
         <v>0</v>
@@ -4807,31 +4807,31 @@
         <v>15254910.44307901</v>
       </c>
       <c r="H51" t="n">
-        <v>28257.14208106373</v>
+        <v>1276.739315067591</v>
       </c>
       <c r="I51" t="n">
-        <v>42498.35019942703</v>
+        <v>1920.198241190162</v>
       </c>
       <c r="J51" t="n">
-        <v>69280.49942301193</v>
+        <v>3130.293117652296</v>
       </c>
       <c r="K51" t="n">
-        <v>111702.400967804</v>
+        <v>5047.037187763285</v>
       </c>
       <c r="L51" t="n">
-        <v>182502.2888466207</v>
+        <v>8245.980665413799</v>
       </c>
       <c r="M51" t="n">
         <v>8.472259812800155</v>
       </c>
       <c r="N51" t="n">
-        <v>12.00000000000001</v>
+        <v>24.00000000000001</v>
       </c>
       <c r="O51" t="n">
         <v>26388.11793209419</v>
       </c>
       <c r="P51" t="n">
-        <v>353.5778837642578</v>
+        <v>17.68734924633082</v>
       </c>
       <c r="Q51" t="n">
         <v>0</v>
@@ -4893,25 +4893,25 @@
         <v>16201208.41634628</v>
       </c>
       <c r="H52" t="n">
-        <v>25429.75192722546</v>
+        <v>1037.797111798142</v>
       </c>
       <c r="I52" t="n">
-        <v>40800.67328686629</v>
+        <v>1665.089813605166</v>
       </c>
       <c r="J52" t="n">
-        <v>67289.46572477159</v>
+        <v>2746.106740775715</v>
       </c>
       <c r="K52" t="n">
-        <v>108109.5312863004</v>
+        <v>4411.987959924023</v>
       </c>
       <c r="L52" t="n">
-        <v>173056.5491575031</v>
+        <v>7062.4985806932</v>
       </c>
       <c r="M52" t="n">
         <v>7.759638486606149</v>
       </c>
       <c r="N52" t="n">
-        <v>12.00000000000001</v>
+        <v>24.00000000000001</v>
       </c>
       <c r="O52" t="n">
         <v>0</v>
@@ -4923,7 +4923,7 @@
         <v>80000</v>
       </c>
       <c r="R52" t="n">
-        <v>854.5364997978646</v>
+        <v>34.87393482855248</v>
       </c>
       <c r="S52" t="n">
         <v>100</v>
@@ -4979,25 +4979,25 @@
         <v>17583644.17064157</v>
       </c>
       <c r="H53" t="n">
-        <v>22487.5009382662</v>
+        <v>828.910929744395</v>
       </c>
       <c r="I53" t="n">
-        <v>37701.04253280249</v>
+        <v>1389.696716588897</v>
       </c>
       <c r="J53" t="n">
-        <v>62280.69018466022</v>
+        <v>2295.726187974965</v>
       </c>
       <c r="K53" t="n">
-        <v>104729.5900813581</v>
+        <v>3860.433497008277</v>
       </c>
       <c r="L53" t="n">
-        <v>167699.3944561514</v>
+        <v>6181.561097332769</v>
       </c>
       <c r="M53" t="n">
         <v>7.639818037894985</v>
       </c>
       <c r="N53" t="n">
-        <v>12.00000000000001</v>
+        <v>24.00000000000001</v>
       </c>
       <c r="O53" t="n">
         <v>0</v>
@@ -5009,7 +5009,7 @@
         <v>82400</v>
       </c>
       <c r="R53" t="n">
-        <v>785.8683882069644</v>
+        <v>28.96786522049116</v>
       </c>
       <c r="S53" t="n">
         <v>100</v>
@@ -5065,25 +5065,25 @@
         <v>18519219.28311357</v>
       </c>
       <c r="H54" t="n">
-        <v>20103.11044892472</v>
+        <v>669.3083882093005</v>
       </c>
       <c r="I54" t="n">
-        <v>34832.23440657926</v>
+        <v>1159.69649212384</v>
       </c>
       <c r="J54" t="n">
-        <v>58148.6144924808</v>
+        <v>1935.986748988291</v>
       </c>
       <c r="K54" t="n">
-        <v>101094.6191436829</v>
+        <v>3365.821262714632</v>
       </c>
       <c r="L54" t="n">
-        <v>157698.3899192939</v>
+        <v>5250.374336262478</v>
       </c>
       <c r="M54" t="n">
         <v>7.320708986710102</v>
       </c>
       <c r="N54" t="n">
-        <v>12.00000000000001</v>
+        <v>24.00000000000001</v>
       </c>
       <c r="O54" t="n">
         <v>0</v>
@@ -5095,7 +5095,7 @@
         <v>84872</v>
       </c>
       <c r="R54" t="n">
-        <v>722.7182498689049</v>
+        <v>24.06201707831121</v>
       </c>
       <c r="S54" t="n">
         <v>100</v>
@@ -5151,25 +5151,25 @@
         <v>19772722.58551659</v>
       </c>
       <c r="H55" t="n">
-        <v>18153.81850830905</v>
+        <v>545.9179018065539</v>
       </c>
       <c r="I55" t="n">
-        <v>32020.17586517007</v>
+        <v>962.9041524123245</v>
       </c>
       <c r="J55" t="n">
-        <v>54664.78122605107</v>
+        <v>1643.868074145454</v>
       </c>
       <c r="K55" t="n">
-        <v>96167.42148002227</v>
+        <v>2891.926948178484</v>
       </c>
       <c r="L55" t="n">
-        <v>150332.5539609639</v>
+        <v>4520.769687877325</v>
       </c>
       <c r="M55" t="n">
         <v>7.809889954288648</v>
       </c>
       <c r="N55" t="n">
-        <v>12.00000000000001</v>
+        <v>24.00000000000001</v>
       </c>
       <c r="O55" t="n">
         <v>0</v>
@@ -5181,7 +5181,7 @@
         <v>87418.16</v>
       </c>
       <c r="R55" t="n">
-        <v>664.642676218725</v>
+        <v>19.98699805698431</v>
       </c>
       <c r="S55" t="n">
         <v>100</v>
@@ -5237,25 +5237,25 @@
         <v>21294709.54977351</v>
       </c>
       <c r="H56" t="n">
-        <v>16971.99680550365</v>
+        <v>460.9869439936555</v>
       </c>
       <c r="I56" t="n">
-        <v>29671.22220432353</v>
+        <v>805.9184906334833</v>
       </c>
       <c r="J56" t="n">
-        <v>51148.39852720317</v>
+        <v>1389.273412989267</v>
       </c>
       <c r="K56" t="n">
-        <v>91883.91398011152</v>
+        <v>2495.716042919121</v>
       </c>
       <c r="L56" t="n">
-        <v>144557.3774420831</v>
+        <v>3926.412691590521</v>
       </c>
       <c r="M56" t="n">
         <v>7.672113067429214</v>
       </c>
       <c r="N56" t="n">
-        <v>12.00000000000001</v>
+        <v>24.00000000000001</v>
       </c>
       <c r="O56" t="n">
         <v>0</v>
@@ -5267,7 +5267,7 @@
         <v>90040.70479999998</v>
       </c>
       <c r="R56" t="n">
-        <v>611.2338897368627</v>
+        <v>16.60210322475311</v>
       </c>
       <c r="S56" t="n">
         <v>100</v>
@@ -5323,25 +5323,25 @@
         <v>22960592.35505346</v>
       </c>
       <c r="H57" t="n">
-        <v>15371.0823694085</v>
+        <v>377.0999471420315</v>
       </c>
       <c r="I57" t="n">
-        <v>27275.61889049426</v>
+        <v>669.1548581082376</v>
       </c>
       <c r="J57" t="n">
-        <v>48458.95611917261</v>
+        <v>1188.847301180731</v>
       </c>
       <c r="K57" t="n">
-        <v>88069.17765991716</v>
+        <v>2160.607915711464</v>
       </c>
       <c r="L57" t="n">
-        <v>139166.1475993296</v>
+        <v>3414.173813036878</v>
       </c>
       <c r="M57" t="n">
         <v>8.363112817043818</v>
       </c>
       <c r="N57" t="n">
-        <v>12.00000000000001</v>
+        <v>24.00000000000001</v>
       </c>
       <c r="O57" t="n">
         <v>0</v>
@@ -5353,7 +5353,7 @@
         <v>92741.925944</v>
       </c>
       <c r="R57" t="n">
-        <v>562.1168807401508</v>
+        <v>13.79045671088362</v>
       </c>
       <c r="S57" t="n">
         <v>100</v>
@@ -5409,25 +5409,25 @@
         <v>25042544.70751237</v>
       </c>
       <c r="H58" t="n">
-        <v>13706.47994079</v>
+        <v>303.7206313878769</v>
       </c>
       <c r="I58" t="n">
-        <v>25388.35551151321</v>
+        <v>562.5782403043625</v>
       </c>
       <c r="J58" t="n">
-        <v>45104.79198308289</v>
+        <v>999.4729470221082</v>
       </c>
       <c r="K58" t="n">
-        <v>84249.67741560469</v>
+        <v>1866.880871633741</v>
       </c>
       <c r="L58" t="n">
-        <v>135522.3588535908</v>
+        <v>3003.027515160443</v>
       </c>
       <c r="M58" t="n">
         <v>7.669319111946532</v>
       </c>
       <c r="N58" t="n">
-        <v>12.00000000000001</v>
+        <v>24.00000000000001</v>
       </c>
       <c r="O58" t="n">
         <v>0</v>
@@ -5439,7 +5439,7 @@
         <v>95524.18372231998</v>
       </c>
       <c r="R58" t="n">
-        <v>516.9467742521028</v>
+        <v>11.45497613887914</v>
       </c>
       <c r="S58" t="n">
         <v>100</v>
@@ -5495,25 +5495,25 @@
         <v>27409682.66826195</v>
       </c>
       <c r="H59" t="n">
-        <v>12156.8869554281</v>
+        <v>243.3139868700389</v>
       </c>
       <c r="I59" t="n">
-        <v>23211.94952034735</v>
+        <v>464.5755119323569</v>
       </c>
       <c r="J59" t="n">
-        <v>43373.41172305611</v>
+        <v>868.097052245793</v>
       </c>
       <c r="K59" t="n">
-        <v>81373.93922143818</v>
+        <v>1628.658525153747</v>
       </c>
       <c r="L59" t="n">
-        <v>132439.7887538089</v>
+        <v>2650.715856786564</v>
       </c>
       <c r="M59" t="n">
         <v>7.250586185066155</v>
       </c>
       <c r="N59" t="n">
-        <v>12.00000000000001</v>
+        <v>24.00000000000001</v>
       </c>
       <c r="O59" t="n">
         <v>0</v>
@@ -5525,7 +5525,7 @@
         <v>98389.90923398963</v>
       </c>
       <c r="R59" t="n">
-        <v>475.4064084639876</v>
+        <v>9.515020502456057</v>
       </c>
       <c r="S59" t="n">
         <v>100</v>
@@ -5581,25 +5581,25 @@
         <v>30058722.35630004</v>
       </c>
       <c r="H60" t="n">
-        <v>10954.12647607169</v>
+        <v>198.0244360722005</v>
       </c>
       <c r="I60" t="n">
-        <v>21473.30223519574</v>
+        <v>388.1860023271771</v>
       </c>
       <c r="J60" t="n">
-        <v>41437.83713070888</v>
+        <v>749.0970957643169</v>
       </c>
       <c r="K60" t="n">
-        <v>76677.76619032875</v>
+        <v>1386.150821088668</v>
       </c>
       <c r="L60" t="n">
-        <v>129678.1977447814</v>
+        <v>2344.271999722122</v>
       </c>
       <c r="M60" t="n">
         <v>8.593418281288423</v>
       </c>
       <c r="N60" t="n">
-        <v>12.00000000000001</v>
+        <v>24.00000000000001</v>
       </c>
       <c r="O60" t="n">
         <v>0</v>
@@ -5611,7 +5611,7 @@
         <v>101341.6065110093</v>
       </c>
       <c r="R60" t="n">
-        <v>437.2041077838457</v>
+        <v>7.903605739943342</v>
       </c>
       <c r="S60" t="n">
         <v>100</v>
@@ -5667,25 +5667,25 @@
         <v>32800077.32146705</v>
       </c>
       <c r="H61" t="n">
-        <v>10005.67268419502</v>
+        <v>163.3742712683635</v>
       </c>
       <c r="I61" t="n">
-        <v>19940.30007380634</v>
+        <v>325.5885032674041</v>
       </c>
       <c r="J61" t="n">
-        <v>38707.54488547487</v>
+        <v>632.0231670421363</v>
       </c>
       <c r="K61" t="n">
-        <v>71398.59219097714</v>
+        <v>1165.807970833738</v>
       </c>
       <c r="L61" t="n">
-        <v>126343.6135382157</v>
+        <v>2062.959327444597</v>
       </c>
       <c r="M61" t="n">
         <v>7.846210477332372</v>
       </c>
       <c r="N61" t="n">
-        <v>12.00000000000001</v>
+        <v>24.00000000000001</v>
       </c>
       <c r="O61" t="n">
         <v>0</v>
@@ -5697,7 +5697,7 @@
         <v>104381.8547063396</v>
       </c>
       <c r="R61" t="n">
-        <v>402.0716348369294</v>
+        <v>6.565091864630358</v>
       </c>
       <c r="S61" t="n">
         <v>100</v>
@@ -5753,25 +5753,25 @@
         <v>35098780.21143422</v>
       </c>
       <c r="H62" t="n">
-        <v>9180.334247620103</v>
+        <v>135.3917503929609</v>
       </c>
       <c r="I62" t="n">
-        <v>18786.88595571351</v>
+        <v>277.069364292088</v>
       </c>
       <c r="J62" t="n">
-        <v>36876.28756926992</v>
+        <v>543.8522157613108</v>
       </c>
       <c r="K62" t="n">
-        <v>69400.91690180081</v>
+        <v>1023.526090092757</v>
       </c>
       <c r="L62" t="n">
-        <v>120712.5508760918</v>
+        <v>1780.271079100445</v>
       </c>
       <c r="M62" t="n">
         <v>8.350769693989978</v>
       </c>
       <c r="N62" t="n">
-        <v>12.00000000000001</v>
+        <v>24.00000000000001</v>
       </c>
       <c r="O62" t="n">
         <v>0</v>
@@ -5783,7 +5783,7 @@
         <v>107513.3103475298</v>
       </c>
       <c r="R62" t="n">
-        <v>369.7623070375331</v>
+        <v>5.453261790781665</v>
       </c>
       <c r="S62" t="n">
         <v>100</v>
@@ -5839,25 +5839,25 @@
         <v>37284762.41497113</v>
       </c>
       <c r="H63" t="n">
-        <v>8150.829976637546</v>
+        <v>108.5755106862709</v>
       </c>
       <c r="I63" t="n">
-        <v>17595.18493069862</v>
+        <v>234.381798534102</v>
       </c>
       <c r="J63" t="n">
-        <v>34482.69731583145</v>
+        <v>459.3368382898108</v>
       </c>
       <c r="K63" t="n">
-        <v>65388.22875919515</v>
+        <v>871.022994069261</v>
       </c>
       <c r="L63" t="n">
-        <v>114491.6359935713</v>
+        <v>1525.119267968927</v>
       </c>
       <c r="M63" t="n">
         <v>7.573660977021736</v>
       </c>
       <c r="N63" t="n">
-        <v>12.00000000000001</v>
+        <v>24.00000000000001</v>
       </c>
       <c r="O63" t="n">
         <v>0</v>
@@ -5869,7 +5869,7 @@
         <v>110738.7096579557</v>
       </c>
       <c r="R63" t="n">
-        <v>340.0492645077314</v>
+        <v>4.529725519762189</v>
       </c>
       <c r="S63" t="n">
         <v>100</v>
@@ -5925,25 +5925,25 @@
         <v>40441792.1380864</v>
       </c>
       <c r="H64" t="n">
-        <v>7581.443887158846</v>
+        <v>91.2175302159619</v>
       </c>
       <c r="I64" t="n">
-        <v>15818.1836427004</v>
+        <v>190.3193726505816</v>
       </c>
       <c r="J64" t="n">
-        <v>31564.42782517945</v>
+        <v>379.7731925141042</v>
       </c>
       <c r="K64" t="n">
-        <v>62012.78343950619</v>
+        <v>746.1181578815185</v>
       </c>
       <c r="L64" t="n">
-        <v>110880.3916058025</v>
+        <v>1334.077732711453</v>
       </c>
       <c r="M64" t="n">
         <v>7.001106504772206</v>
       </c>
       <c r="N64" t="n">
-        <v>12.00000000000001</v>
+        <v>24.00000000000001</v>
       </c>
       <c r="O64" t="n">
         <v>0</v>
@@ -5955,7 +5955,7 @@
         <v>114060.8709476943</v>
       </c>
       <c r="R64" t="n">
-        <v>312.7238771812172</v>
+        <v>3.762594584963756</v>
       </c>
       <c r="S64" t="n">
         <v>100</v>
@@ -6011,25 +6011,25 @@
         <v>42588756.00824457</v>
       </c>
       <c r="H65" t="n">
-        <v>7074.857691619862</v>
+        <v>76.88478962242399</v>
       </c>
       <c r="I65" t="n">
-        <v>14954.69253229604</v>
+        <v>162.5175288791371</v>
       </c>
       <c r="J65" t="n">
-        <v>30211.26884520622</v>
+        <v>328.3157274161858</v>
       </c>
       <c r="K65" t="n">
-        <v>59870.6524868819</v>
+        <v>650.6339380456477</v>
       </c>
       <c r="L65" t="n">
-        <v>104256.0557527927</v>
+        <v>1132.984614363585</v>
       </c>
       <c r="M65" t="n">
         <v>7.226788999165068</v>
       </c>
       <c r="N65" t="n">
-        <v>12.00000000000001</v>
+        <v>24.00000000000001</v>
       </c>
       <c r="O65" t="n">
         <v>0</v>
@@ -6041,7 +6041,7 @@
         <v>117482.6970761251</v>
       </c>
       <c r="R65" t="n">
-        <v>287.5942799077265</v>
+        <v>3.125380985897314</v>
       </c>
       <c r="S65" t="n">
         <v>100</v>
@@ -6097,25 +6097,25 @@
         <v>47362396.54133125</v>
       </c>
       <c r="H66" t="n">
-        <v>6337.3477984337</v>
+        <v>62.20518720989427</v>
       </c>
       <c r="I66" t="n">
-        <v>13706.38061447565</v>
+        <v>134.5370333476488</v>
       </c>
       <c r="J66" t="n">
-        <v>27505.18630182711</v>
+        <v>269.9812788515484</v>
       </c>
       <c r="K66" t="n">
-        <v>58782.74665696915</v>
+        <v>576.9908606581911</v>
       </c>
       <c r="L66" t="n">
-        <v>103519.4563829371</v>
+        <v>1016.110740483364</v>
       </c>
       <c r="M66" t="n">
         <v>8.549351660038788</v>
       </c>
       <c r="N66" t="n">
-        <v>12.00000000000001</v>
+        <v>24.00000000000001</v>
       </c>
       <c r="O66" t="n">
         <v>0</v>
@@ -6127,7 +6127,7 @@
         <v>121007.1779884089</v>
       </c>
       <c r="R66" t="n">
-        <v>264.4840252722842</v>
+        <v>2.596082593124381</v>
       </c>
       <c r="S66" t="n">
         <v>100</v>
@@ -6183,25 +6183,25 @@
         <v>52514966.11210284</v>
       </c>
       <c r="H67" t="n">
-        <v>5488.113331618863</v>
+        <v>48.65623136436952</v>
       </c>
       <c r="I67" t="n">
-        <v>12813.74246237059</v>
+        <v>113.6034152757995</v>
       </c>
       <c r="J67" t="n">
-        <v>26244.22658655453</v>
+        <v>232.6747068828599</v>
       </c>
       <c r="K67" t="n">
-        <v>56355.58894545657</v>
+        <v>499.6344661119817</v>
       </c>
       <c r="L67" t="n">
-        <v>102483.3657395646</v>
+        <v>908.5917241713869</v>
       </c>
       <c r="M67" t="n">
         <v>7.59923866092976</v>
       </c>
       <c r="N67" t="n">
-        <v>12.00000000000001</v>
+        <v>24.00000000000001</v>
       </c>
       <c r="O67" t="n">
         <v>0</v>
@@ -6213,7 +6213,7 @@
         <v>124637.3933280612</v>
       </c>
       <c r="R67" t="n">
-        <v>243.2308446700472</v>
+        <v>2.156423444288802</v>
       </c>
       <c r="S67" t="n">
         <v>100</v>
@@ -6269,25 +6269,25 @@
         <v>55422719.10074522</v>
       </c>
       <c r="H68" t="n">
-        <v>5081.193282759517</v>
+        <v>40.68904057677026</v>
       </c>
       <c r="I68" t="n">
-        <v>11649.87120063231</v>
+        <v>93.28951992537492</v>
       </c>
       <c r="J68" t="n">
-        <v>24801.25024390454</v>
+        <v>198.60277328022</v>
       </c>
       <c r="K68" t="n">
-        <v>51974.59694236504</v>
+        <v>416.2007556619963</v>
       </c>
       <c r="L68" t="n">
-        <v>96569.52532483147</v>
+        <v>773.306803296323</v>
       </c>
       <c r="M68" t="n">
         <v>7.900611764882782</v>
       </c>
       <c r="N68" t="n">
-        <v>12.00000000000001</v>
+        <v>24.00000000000001</v>
       </c>
       <c r="O68" t="n">
         <v>0</v>
@@ -6299,7 +6299,7 @@
         <v>128376.5151279031</v>
       </c>
       <c r="R68" t="n">
-        <v>223.6855089376326</v>
+        <v>1.791222699691503</v>
       </c>
       <c r="S68" t="n">
         <v>100</v>
@@ -6355,25 +6355,25 @@
         <v>60278016.56205994</v>
       </c>
       <c r="H69" t="n">
-        <v>4413.430082474059</v>
+        <v>31.92157584702282</v>
       </c>
       <c r="I69" t="n">
-        <v>11220.81116131604</v>
+        <v>81.15818487154556</v>
       </c>
       <c r="J69" t="n">
-        <v>23711.69308129456</v>
+        <v>171.5025716985105</v>
       </c>
       <c r="K69" t="n">
-        <v>49702.29452994461</v>
+        <v>359.4880931520954</v>
       </c>
       <c r="L69" t="n">
-        <v>93776.32271065137</v>
+        <v>678.267910020877</v>
       </c>
       <c r="M69" t="n">
         <v>9.03182984807224</v>
       </c>
       <c r="N69" t="n">
-        <v>12.00000000000001</v>
+        <v>24.00000000000001</v>
       </c>
       <c r="O69" t="n">
         <v>0</v>
@@ -6385,7 +6385,7 @@
         <v>132227.8105817402</v>
       </c>
       <c r="R69" t="n">
-        <v>205.7107805408585</v>
+        <v>1.487870468292137</v>
       </c>
       <c r="S69" t="n">
         <v>100</v>
@@ -6441,25 +6441,25 @@
         <v>64881136.31289756</v>
       </c>
       <c r="H70" t="n">
-        <v>3989.886528066609</v>
+        <v>26.06543360215855</v>
       </c>
       <c r="I70" t="n">
-        <v>10393.47245434716</v>
+        <v>67.8992658685774</v>
       </c>
       <c r="J70" t="n">
-        <v>21625.42908343241</v>
+        <v>141.2762448072774</v>
       </c>
       <c r="K70" t="n">
-        <v>48285.75564731318</v>
+        <v>315.4448500982739</v>
       </c>
       <c r="L70" t="n">
-        <v>90122.79866645474</v>
+        <v>588.7610607862287</v>
       </c>
       <c r="M70" t="n">
         <v>7.481829548664789</v>
       </c>
       <c r="N70" t="n">
-        <v>12.00000000000001</v>
+        <v>24.00000000000001</v>
       </c>
       <c r="O70" t="n">
         <v>0</v>
@@ -6471,7 +6471,7 @@
         <v>136194.6448991923</v>
       </c>
       <c r="R70" t="n">
-        <v>189.1804499616824</v>
+        <v>1.23589240511363</v>
       </c>
       <c r="S70" t="n">
         <v>100</v>
@@ -6527,25 +6527,25 @@
         <v>70088254.71649909</v>
       </c>
       <c r="H71" t="n">
-        <v>3543.116347792117</v>
+        <v>20.90673240823436</v>
       </c>
       <c r="I71" t="n">
-        <v>9724.021773386523</v>
+        <v>57.37816689952077</v>
       </c>
       <c r="J71" t="n">
-        <v>21175.12707940173</v>
+        <v>124.9472701722815</v>
       </c>
       <c r="K71" t="n">
-        <v>46027.31387821073</v>
+        <v>271.5916273314608</v>
       </c>
       <c r="L71" t="n">
-        <v>86924.74901658017</v>
+        <v>512.9135735198273</v>
       </c>
       <c r="M71" t="n">
         <v>8.668224883872524</v>
       </c>
       <c r="N71" t="n">
-        <v>12.00000000000001</v>
+        <v>24.00000000000001</v>
       </c>
       <c r="O71" t="n">
         <v>0</v>
@@ -6557,7 +6557,7 @@
         <v>140280.4842461681</v>
       </c>
       <c r="R71" t="n">
-        <v>173.9784495183329</v>
+        <v>1.026588046183096</v>
       </c>
       <c r="S71" t="n">
         <v>100</v>
@@ -6613,25 +6613,25 @@
         <v>76005734.95302515</v>
       </c>
       <c r="H72" t="n">
-        <v>3039.85311183136</v>
+        <v>16.20129324900022</v>
       </c>
       <c r="I72" t="n">
-        <v>8668.687965751085</v>
+        <v>46.20090203391506</v>
       </c>
       <c r="J72" t="n">
-        <v>19520.32550520417</v>
+        <v>104.0361182567876</v>
       </c>
       <c r="K72" t="n">
-        <v>44932.75454586503</v>
+        <v>239.474970040359</v>
       </c>
       <c r="L72" t="n">
-        <v>84164.03337957208</v>
+        <v>448.5631823767991</v>
       </c>
       <c r="M72" t="n">
         <v>6.920750897916385</v>
       </c>
       <c r="N72" t="n">
-        <v>12.00000000000001</v>
+        <v>24.00000000000001</v>
       </c>
       <c r="O72" t="n">
         <v>0</v>
@@ -6643,7 +6643,7 @@
         <v>144488.8987735533</v>
       </c>
       <c r="R72" t="n">
-        <v>159.998038396324</v>
+        <v>0.8527303932004746</v>
       </c>
       <c r="S72" t="n">
         <v>100</v>
@@ -6699,25 +6699,25 @@
         <v>82162653.20601238</v>
       </c>
       <c r="H73" t="n">
-        <v>2822.412856423979</v>
+        <v>13.5866992940741</v>
       </c>
       <c r="I73" t="n">
-        <v>7930.691191109354</v>
+        <v>38.17723412168967</v>
       </c>
       <c r="J73" t="n">
-        <v>18724.92743844739</v>
+        <v>90.1391721733728</v>
       </c>
       <c r="K73" t="n">
-        <v>42572.76950599172</v>
+        <v>204.9393362410857</v>
       </c>
       <c r="L73" t="n">
-        <v>81233.77009523982</v>
+        <v>391.0479660322864</v>
       </c>
       <c r="M73" t="n">
         <v>6.959787734693355</v>
       </c>
       <c r="N73" t="n">
-        <v>12.00000000000001</v>
+        <v>24.00000000000001</v>
       </c>
       <c r="O73" t="n">
         <v>0</v>
@@ -6729,7 +6729,7 @@
         <v>148823.5657367599</v>
       </c>
       <c r="R73" t="n">
-        <v>147.141053168048</v>
+        <v>0.7083163749971686</v>
       </c>
       <c r="S73" t="n">
         <v>100</v>
@@ -6785,25 +6785,25 @@
         <v>85503601.04290339</v>
       </c>
       <c r="H74" t="n">
-        <v>2541.40003000047</v>
+        <v>11.05001302765272</v>
       </c>
       <c r="I74" t="n">
-        <v>7475.679236633893</v>
+        <v>32.50427007956797</v>
       </c>
       <c r="J74" t="n">
-        <v>17476.65090259747</v>
+        <v>75.98851730296269</v>
       </c>
       <c r="K74" t="n">
-        <v>41132.93484760063</v>
+        <v>178.8460929275638</v>
       </c>
       <c r="L74" t="n">
-        <v>75479.41707271906</v>
+        <v>328.1846746389722</v>
       </c>
       <c r="M74" t="n">
         <v>7.47395747643013</v>
       </c>
       <c r="N74" t="n">
-        <v>12.00000000000001</v>
+        <v>24.00000000000001</v>
       </c>
       <c r="O74" t="n">
         <v>0</v>
@@ -6815,7 +6815,7 @@
         <v>153288.2727088626</v>
       </c>
       <c r="R74" t="n">
-        <v>135.3172185384726</v>
+        <v>0.5883595695540998</v>
       </c>
       <c r="S74" t="n">
         <v>100</v>
@@ -6871,25 +6871,25 @@
         <v>93213144.20797375</v>
       </c>
       <c r="H75" t="n">
-        <v>2387.824605136886</v>
+        <v>9.377531245479426</v>
       </c>
       <c r="I75" t="n">
-        <v>7032.042064424008</v>
+        <v>27.61643130605125</v>
       </c>
       <c r="J75" t="n">
-        <v>17173.451641452</v>
+        <v>67.44405724524057</v>
       </c>
       <c r="K75" t="n">
-        <v>40994.65505580902</v>
+        <v>160.995350268393</v>
       </c>
       <c r="L75" t="n">
-        <v>73468.85417812952</v>
+        <v>288.5289288596997</v>
       </c>
       <c r="M75" t="n">
         <v>8.838198821660683</v>
       </c>
       <c r="N75" t="n">
-        <v>12.00000000000001</v>
+        <v>24.00000000000001</v>
       </c>
       <c r="O75" t="n">
         <v>0</v>
@@ -6901,7 +6901,7 @@
         <v>157886.9208901286</v>
       </c>
       <c r="R75" t="n">
-        <v>124.4435134773454</v>
+        <v>0.48871802954897</v>
       </c>
       <c r="S75" t="n">
         <v>100</v>
@@ -6957,25 +6957,25 @@
         <v>102994242.8551144</v>
       </c>
       <c r="H76" t="n">
-        <v>2020.977250073865</v>
+        <v>7.168756996121659</v>
       </c>
       <c r="I76" t="n">
-        <v>6257.92629380724</v>
+        <v>22.19795047089455</v>
       </c>
       <c r="J76" t="n">
-        <v>16384.34629969105</v>
+        <v>58.11811941895799</v>
       </c>
       <c r="K76" t="n">
-        <v>38344.90976566409</v>
+        <v>136.0160487398912</v>
       </c>
       <c r="L76" t="n">
-        <v>72480.47581283879</v>
+        <v>257.1008248838645</v>
       </c>
       <c r="M76" t="n">
         <v>8.348965234084313</v>
       </c>
       <c r="N76" t="n">
-        <v>12.00000000000001</v>
+        <v>24.00000000000001</v>
       </c>
       <c r="O76" t="n">
         <v>0</v>
@@ -6987,7 +6987,7 @@
         <v>162623.5285168323</v>
       </c>
       <c r="R76" t="n">
-        <v>114.4435882872015</v>
+        <v>0.4059512664801928</v>
       </c>
       <c r="S76" t="n">
         <v>100</v>
@@ -7043,25 +7043,25 @@
         <v>109161158.3550539</v>
       </c>
       <c r="H77" t="n">
-        <v>1793.302395232152</v>
+        <v>5.745559154968634</v>
       </c>
       <c r="I77" t="n">
-        <v>5964.041306609077</v>
+        <v>19.1081839966889</v>
       </c>
       <c r="J77" t="n">
-        <v>15355.40643469654</v>
+        <v>49.19716621898213</v>
       </c>
       <c r="K77" t="n">
-        <v>36241.43909950187</v>
+        <v>116.1138984484684</v>
       </c>
       <c r="L77" t="n">
-        <v>68589.58879749775</v>
+        <v>219.7540921702616</v>
       </c>
       <c r="M77" t="n">
         <v>7.171659485722224</v>
       </c>
       <c r="N77" t="n">
-        <v>12.00000000000001</v>
+        <v>24.00000000000001</v>
       </c>
       <c r="O77" t="n">
         <v>0</v>
@@ -7073,7 +7073,7 @@
         <v>167502.2343723373</v>
       </c>
       <c r="R77" t="n">
-        <v>105.2472285141229</v>
+        <v>0.3372014552214505</v>
       </c>
       <c r="S77" t="n">
         <v>100</v>
@@ -7129,25 +7129,25 @@
         <v>115353355.1540603</v>
       </c>
       <c r="H78" t="n">
-        <v>1690.549609020663</v>
+        <v>4.892186771718931</v>
       </c>
       <c r="I78" t="n">
-        <v>5728.715814333721</v>
+        <v>16.57800964625696</v>
       </c>
       <c r="J78" t="n">
-        <v>14468.02754217986</v>
+        <v>41.86821408673157</v>
       </c>
       <c r="K78" t="n">
-        <v>34436.4111719411</v>
+        <v>99.65360040421334</v>
       </c>
       <c r="L78" t="n">
-        <v>64714.6001155456</v>
+        <v>187.2739545370437</v>
       </c>
       <c r="M78" t="n">
         <v>7.612931910608274</v>
       </c>
       <c r="N78" t="n">
-        <v>12.00000000000001</v>
+        <v>24.00000000000001</v>
       </c>
       <c r="O78" t="n">
         <v>0</v>
@@ -7159,7 +7159,7 @@
         <v>172527.3014035075</v>
       </c>
       <c r="R78" t="n">
-        <v>96.78986193709514</v>
+        <v>0.2800947571597532</v>
       </c>
       <c r="S78" t="n">
         <v>100</v>
@@ -7215,25 +7215,25 @@
         <v>132322456.8877144</v>
       </c>
       <c r="H79" t="n">
-        <v>1461.352995159927</v>
+        <v>3.819676483686499</v>
       </c>
       <c r="I79" t="n">
-        <v>5368.146820664781</v>
+        <v>14.03123286418949</v>
       </c>
       <c r="J79" t="n">
-        <v>13663.1988585437</v>
+        <v>35.71279461209174</v>
       </c>
       <c r="K79" t="n">
-        <v>32895.39764112219</v>
+        <v>85.98181083384303</v>
       </c>
       <c r="L79" t="n">
-        <v>66280.77447303406</v>
+        <v>173.2443266026017</v>
       </c>
       <c r="M79" t="n">
         <v>8.779895929775581</v>
       </c>
       <c r="N79" t="n">
-        <v>12.00000000000001</v>
+        <v>24.00000000000001</v>
       </c>
       <c r="O79" t="n">
         <v>0</v>
@@ -7245,7 +7245,7 @@
         <v>177703.1204456128</v>
       </c>
       <c r="R79" t="n">
-        <v>89.01210517429284</v>
+        <v>0.232659354737537</v>
       </c>
       <c r="S79" t="n">
         <v>100</v>
@@ -7301,25 +7301,25 @@
         <v>140218576.2998669</v>
       </c>
       <c r="H80" t="n">
-        <v>1285.926398319602</v>
+        <v>3.035875072975907</v>
       </c>
       <c r="I80" t="n">
-        <v>4944.098427074719</v>
+        <v>11.67225837552566</v>
       </c>
       <c r="J80" t="n">
-        <v>12839.63716923354</v>
+        <v>30.31241483110382</v>
       </c>
       <c r="K80" t="n">
-        <v>31129.62733561471</v>
+        <v>73.49227746060608</v>
       </c>
       <c r="L80" t="n">
-        <v>62710.68561316983</v>
+        <v>148.050314163419</v>
       </c>
       <c r="M80" t="n">
         <v>7.30871764186528</v>
       </c>
       <c r="N80" t="n">
-        <v>12.00000000000001</v>
+        <v>24.00000000000001</v>
       </c>
       <c r="O80" t="n">
         <v>0</v>
@@ -7331,7 +7331,7 @@
         <v>183034.2140589811</v>
       </c>
       <c r="R80" t="n">
-        <v>81.85934672278717</v>
+        <v>0.1932573672416638</v>
       </c>
       <c r="S80" t="n">
         <v>100</v>
@@ -7387,25 +7387,25 @@
         <v>153580043.9363735</v>
       </c>
       <c r="H81" t="n">
-        <v>1055.148955954356</v>
+        <v>2.249976050895472</v>
       </c>
       <c r="I81" t="n">
-        <v>4660.600394225817</v>
+        <v>9.938160115334185</v>
       </c>
       <c r="J81" t="n">
-        <v>12203.27990397575</v>
+        <v>26.02200132159084</v>
       </c>
       <c r="K81" t="n">
-        <v>30350.07515259096</v>
+        <v>64.71782192538264</v>
       </c>
       <c r="L81" t="n">
-        <v>61327.14688521335</v>
+        <v>130.7726373445304</v>
       </c>
       <c r="M81" t="n">
         <v>8.076131873378667</v>
       </c>
       <c r="N81" t="n">
-        <v>12.00000000000001</v>
+        <v>24.00000000000001</v>
       </c>
       <c r="O81" t="n">
         <v>0</v>
@@ -7417,7 +7417,7 @@
         <v>188525.2404807505</v>
       </c>
       <c r="R81" t="n">
-        <v>75.28136350399176</v>
+        <v>0.1605282969829949</v>
       </c>
       <c r="S81" t="n">
         <v>100</v>

--- a/output.xlsx
+++ b/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB81"/>
+  <dimension ref="A1:AA81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Year</t>
+          <t>period</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -491,82 +491,77 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Avg_Effective_Return</t>
+          <t>Median_Inflation</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Avg_Inflation</t>
+          <t>Median_Nominal_Contribution</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Avg_Nominal_Contribution</t>
+          <t>Median_Real_Contribution</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>Avg_Real_Contribution</t>
+          <t>Median_Nominal_Drawdown</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>Avg_Nominal_Drawdown</t>
+          <t>Median_Real_Drawdown</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>Avg_Real_Drawdown</t>
+          <t>Median_Alloc_Asset1</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>Alloc_Asset1</t>
+          <t>Median_Alloc_Asset2</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>Alloc_Asset2</t>
+          <t>Median_Alloc_Asset3</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>Alloc_Asset3</t>
+          <t>Median_Alloc_Asset4</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>Alloc_Asset4</t>
+          <t>Median_Alloc_Asset5</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>Alloc_Asset5</t>
+          <t>Median_Alloc_Asset6</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>Alloc_Asset6</t>
+          <t>Median_Alloc_Asset7</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>Alloc_Asset7</t>
+          <t>Median_Alloc_Asset8</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>Alloc_Asset8</t>
+          <t>Median_Alloc_Asset9</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>Alloc_Asset9</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>Alloc_Asset10</t>
+          <t>Median_Alloc_Asset10</t>
         </is>
       </c>
     </row>
@@ -578,55 +573,55 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>8754.508495630624</v>
+        <v>94.95797576094547</v>
       </c>
       <c r="D2" t="n">
-        <v>9753.694986394614</v>
+        <v>100.7081285904549</v>
       </c>
       <c r="E2" t="n">
-        <v>10840.0071152974</v>
+        <v>107.3611625472201</v>
       </c>
       <c r="F2" t="n">
-        <v>11794.85477947883</v>
+        <v>113.4416139576472</v>
       </c>
       <c r="G2" t="n">
-        <v>12730.71220356335</v>
+        <v>119.270840201405</v>
       </c>
       <c r="H2" t="n">
-        <v>8754.508495630624</v>
+        <v>92.1922094766461</v>
       </c>
       <c r="I2" t="n">
-        <v>9753.694986394614</v>
+        <v>97.77488212665527</v>
       </c>
       <c r="J2" t="n">
-        <v>10840.0071152974</v>
+        <v>104.2341383953593</v>
       </c>
       <c r="K2" t="n">
-        <v>11794.85477947883</v>
+        <v>110.1374892792691</v>
       </c>
       <c r="L2" t="n">
-        <v>12730.71220356335</v>
+        <v>115.7969322343738</v>
       </c>
       <c r="M2" t="n">
-        <v>7.845498892975857</v>
+        <v>3</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="O2" t="n">
         <v>10000</v>
       </c>
       <c r="P2" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="S2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -650,9 +645,6 @@
         <v>0</v>
       </c>
       <c r="AA2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -664,55 +656,55 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>18256.19984102944</v>
+        <v>9842.046064375649</v>
       </c>
       <c r="D3" t="n">
-        <v>20282.77332288077</v>
+        <v>10448.7081016389</v>
       </c>
       <c r="E3" t="n">
-        <v>22726.46072391308</v>
+        <v>11138.92026237978</v>
       </c>
       <c r="F3" t="n">
-        <v>25181.08786058466</v>
+        <v>11803.77104946968</v>
       </c>
       <c r="G3" t="n">
-        <v>27369.12447300357</v>
+        <v>12519.1211273884</v>
       </c>
       <c r="H3" t="n">
-        <v>18256.19984102944</v>
+        <v>9277.072357786456</v>
       </c>
       <c r="I3" t="n">
-        <v>20282.77332288077</v>
+        <v>9848.909512337546</v>
       </c>
       <c r="J3" t="n">
-        <v>22726.46072391308</v>
+        <v>10499.50067148627</v>
       </c>
       <c r="K3" t="n">
-        <v>25181.08786058466</v>
+        <v>11126.18630358157</v>
       </c>
       <c r="L3" t="n">
-        <v>27369.12447300357</v>
+        <v>11800.47236062626</v>
       </c>
       <c r="M3" t="n">
-        <v>8.411380876626803</v>
+        <v>3</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>10300</v>
       </c>
       <c r="O3" t="n">
-        <v>10200</v>
+        <v>10000</v>
       </c>
       <c r="P3" t="n">
-        <v>10200</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>50.17446130108353</v>
       </c>
       <c r="S3" t="n">
-        <v>100</v>
+        <v>49.82553869891647</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -736,9 +728,6 @@
         <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -750,55 +739,55 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>27788.69221833117</v>
+        <v>20209.38397178083</v>
       </c>
       <c r="D4" t="n">
-        <v>31258.43672503001</v>
+        <v>21572.11959503071</v>
       </c>
       <c r="E4" t="n">
-        <v>35577.83678601115</v>
+        <v>23119.25687725758</v>
       </c>
       <c r="F4" t="n">
-        <v>40009.66984219883</v>
+        <v>24786.0075131883</v>
       </c>
       <c r="G4" t="n">
-        <v>43918.8161901992</v>
+        <v>26360.51267533392</v>
       </c>
       <c r="H4" t="n">
-        <v>27788.69221833117</v>
+        <v>18494.44918244066</v>
       </c>
       <c r="I4" t="n">
-        <v>31258.43672503001</v>
+        <v>19741.54532196121</v>
       </c>
       <c r="J4" t="n">
-        <v>35577.83678601115</v>
+        <v>21157.39510166545</v>
       </c>
       <c r="K4" t="n">
-        <v>40009.66984219883</v>
+        <v>22682.70804435902</v>
       </c>
       <c r="L4" t="n">
-        <v>43918.8161901992</v>
+        <v>24123.60331110508</v>
       </c>
       <c r="M4" t="n">
-        <v>7.987698210844626</v>
+        <v>3</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>10609</v>
       </c>
       <c r="O4" t="n">
-        <v>10404</v>
+        <v>10000</v>
       </c>
       <c r="P4" t="n">
-        <v>10404</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>50.95241738382788</v>
       </c>
       <c r="S4" t="n">
-        <v>100</v>
+        <v>49.04758261617212</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -822,9 +811,6 @@
         <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -836,55 +822,55 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>38086.63634716444</v>
+        <v>31023.44165553869</v>
       </c>
       <c r="D5" t="n">
-        <v>43248.31365445474</v>
+        <v>33352.12896688369</v>
       </c>
       <c r="E5" t="n">
-        <v>49721.12219389564</v>
+        <v>36565.46197060573</v>
       </c>
       <c r="F5" t="n">
-        <v>56867.41847222795</v>
+        <v>39104.6517270184</v>
       </c>
       <c r="G5" t="n">
-        <v>63801.42534044448</v>
+        <v>41911.23283414267</v>
       </c>
       <c r="H5" t="n">
-        <v>38086.63634716444</v>
+        <v>27563.92609271418</v>
       </c>
       <c r="I5" t="n">
-        <v>43248.31365445474</v>
+        <v>29632.93460748982</v>
       </c>
       <c r="J5" t="n">
-        <v>49721.12219389564</v>
+        <v>32487.93936193687</v>
       </c>
       <c r="K5" t="n">
-        <v>56867.41847222795</v>
+        <v>34743.97657270973</v>
       </c>
       <c r="L5" t="n">
-        <v>63801.42534044448</v>
+        <v>37237.58753531451</v>
       </c>
       <c r="M5" t="n">
-        <v>8.637074536643812</v>
+        <v>3</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>10927.27</v>
       </c>
       <c r="O5" t="n">
-        <v>10612.08</v>
+        <v>10000</v>
       </c>
       <c r="P5" t="n">
-        <v>10612.08</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>51.15671869060436</v>
       </c>
       <c r="S5" t="n">
-        <v>100</v>
+        <v>48.84328130939564</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -908,9 +894,6 @@
         <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -922,55 +905,55 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>48723.50812588121</v>
+        <v>42789.43659679507</v>
       </c>
       <c r="D6" t="n">
-        <v>56026.1316034781</v>
+        <v>46735.2201453766</v>
       </c>
       <c r="E6" t="n">
-        <v>65832.29606324744</v>
+        <v>50886.94440353689</v>
       </c>
       <c r="F6" t="n">
-        <v>74860.20597319998</v>
+        <v>55610.71731162586</v>
       </c>
       <c r="G6" t="n">
-        <v>83926.31598484414</v>
+        <v>59496.07679557942</v>
       </c>
       <c r="H6" t="n">
-        <v>48723.50812588121</v>
+        <v>36910.54388724465</v>
       </c>
       <c r="I6" t="n">
-        <v>56026.1316034781</v>
+        <v>40314.2114375296</v>
       </c>
       <c r="J6" t="n">
-        <v>65832.29606324744</v>
+        <v>43895.52525295949</v>
       </c>
       <c r="K6" t="n">
-        <v>74860.20597319998</v>
+        <v>47970.29325891296</v>
       </c>
       <c r="L6" t="n">
-        <v>83926.31598484414</v>
+        <v>51321.83848026163</v>
       </c>
       <c r="M6" t="n">
-        <v>8.278593107079672</v>
+        <v>3</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>11255.0881</v>
       </c>
       <c r="O6" t="n">
-        <v>10824.3216</v>
+        <v>10000</v>
       </c>
       <c r="P6" t="n">
-        <v>10824.3216</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>51.28771320612688</v>
       </c>
       <c r="S6" t="n">
-        <v>100</v>
+        <v>48.71228679387312</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -994,9 +977,6 @@
         <v>0</v>
       </c>
       <c r="AA6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1008,55 +988,55 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>60169.70303195624</v>
+        <v>55635.51204397345</v>
       </c>
       <c r="D7" t="n">
-        <v>68637.720830529</v>
+        <v>60968.43142090062</v>
       </c>
       <c r="E7" t="n">
-        <v>81948.14291356746</v>
+        <v>66608.20746728002</v>
       </c>
       <c r="F7" t="n">
-        <v>96082.83305074406</v>
+        <v>72972.05395753929</v>
       </c>
       <c r="G7" t="n">
-        <v>110574.5523242104</v>
+        <v>79050.11762699597</v>
       </c>
       <c r="H7" t="n">
-        <v>60169.70303195624</v>
+        <v>46593.8654493616</v>
       </c>
       <c r="I7" t="n">
-        <v>68637.720830529</v>
+        <v>51060.10146970131</v>
       </c>
       <c r="J7" t="n">
-        <v>81948.14291356746</v>
+        <v>55783.32511976564</v>
       </c>
       <c r="K7" t="n">
-        <v>96082.83305074406</v>
+        <v>61112.94636730931</v>
       </c>
       <c r="L7" t="n">
-        <v>110574.5523242104</v>
+        <v>66203.22900160015</v>
       </c>
       <c r="M7" t="n">
-        <v>8.123724213564209</v>
+        <v>3</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>11592.740743</v>
       </c>
       <c r="O7" t="n">
-        <v>11040.808032</v>
+        <v>10000</v>
       </c>
       <c r="P7" t="n">
-        <v>11040.808032</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="S7" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1080,9 +1060,6 @@
         <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1094,55 +1071,55 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>73570.79962436199</v>
+        <v>69233.10513325801</v>
       </c>
       <c r="D8" t="n">
-        <v>84624.63733534675</v>
+        <v>75638.63367666476</v>
       </c>
       <c r="E8" t="n">
-        <v>100317.7022935776</v>
+        <v>83762.14601394899</v>
       </c>
       <c r="F8" t="n">
-        <v>118565.557846414</v>
+        <v>92015.29896966877</v>
       </c>
       <c r="G8" t="n">
-        <v>138318.0357231824</v>
+        <v>100344.4937120549</v>
       </c>
       <c r="H8" t="n">
-        <v>73570.79962436199</v>
+        <v>56292.85008779405</v>
       </c>
       <c r="I8" t="n">
-        <v>84624.63733534675</v>
+        <v>61501.13097210563</v>
       </c>
       <c r="J8" t="n">
-        <v>100317.7022935776</v>
+        <v>68106.28989584444</v>
       </c>
       <c r="K8" t="n">
-        <v>118565.557846414</v>
+        <v>74816.85850595852</v>
       </c>
       <c r="L8" t="n">
-        <v>138318.0357231824</v>
+        <v>81589.25604731831</v>
       </c>
       <c r="M8" t="n">
-        <v>8.704323190360302</v>
+        <v>3</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>11940.52296529</v>
       </c>
       <c r="O8" t="n">
-        <v>11261.62419264</v>
+        <v>9999.999999999998</v>
       </c>
       <c r="P8" t="n">
-        <v>11261.62419264</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>50.53102256639247</v>
       </c>
       <c r="S8" t="n">
-        <v>100</v>
+        <v>49.46897743360753</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1166,9 +1143,6 @@
         <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1180,55 +1154,55 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>86227.01225234187</v>
+        <v>83653.36815839572</v>
       </c>
       <c r="D9" t="n">
-        <v>99870.87866593817</v>
+        <v>92156.52648770821</v>
       </c>
       <c r="E9" t="n">
-        <v>119435.1821589584</v>
+        <v>102026.5125235775</v>
       </c>
       <c r="F9" t="n">
-        <v>144933.4915422815</v>
+        <v>113478.0512025277</v>
       </c>
       <c r="G9" t="n">
-        <v>172038.1240437221</v>
+        <v>124647.6270082736</v>
       </c>
       <c r="H9" t="n">
-        <v>86227.01225234187</v>
+        <v>66036.74130570093</v>
       </c>
       <c r="I9" t="n">
-        <v>99870.87866593817</v>
+        <v>72749.21301169365</v>
       </c>
       <c r="J9" t="n">
-        <v>119435.1821589584</v>
+        <v>80540.67113095842</v>
       </c>
       <c r="K9" t="n">
-        <v>144933.4915422815</v>
+        <v>89580.62151122498</v>
       </c>
       <c r="L9" t="n">
-        <v>172038.1240437221</v>
+        <v>98397.98779565028</v>
       </c>
       <c r="M9" t="n">
-        <v>8.315864248557114</v>
+        <v>3</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>12298.7386542487</v>
       </c>
       <c r="O9" t="n">
-        <v>11486.8566764928</v>
+        <v>9999.999999999998</v>
       </c>
       <c r="P9" t="n">
-        <v>11486.8566764928</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>50.78502103258071</v>
       </c>
       <c r="S9" t="n">
-        <v>100</v>
+        <v>49.2149789674193</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1252,9 +1226,6 @@
         <v>0</v>
       </c>
       <c r="AA9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1266,55 +1237,55 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>98410.09396386627</v>
+        <v>98838.1376638201</v>
       </c>
       <c r="D10" t="n">
-        <v>116457.0210853286</v>
+        <v>109315.0009266981</v>
       </c>
       <c r="E10" t="n">
-        <v>142487.6930279953</v>
+        <v>121383.7992500096</v>
       </c>
       <c r="F10" t="n">
-        <v>173410.0090900496</v>
+        <v>137731.4656418529</v>
       </c>
       <c r="G10" t="n">
-        <v>205818.212276691</v>
+        <v>150680.1274329654</v>
       </c>
       <c r="H10" t="n">
-        <v>98410.09396386627</v>
+        <v>75751.20249923454</v>
       </c>
       <c r="I10" t="n">
-        <v>116457.0210853286</v>
+        <v>83780.8458063805</v>
       </c>
       <c r="J10" t="n">
-        <v>142487.6930279953</v>
+        <v>93030.57478064709</v>
       </c>
       <c r="K10" t="n">
-        <v>173410.0090900496</v>
+        <v>105559.6998381274</v>
       </c>
       <c r="L10" t="n">
-        <v>205818.212276691</v>
+        <v>115483.7708962946</v>
       </c>
       <c r="M10" t="n">
-        <v>8.419786520719413</v>
+        <v>3</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>12667.70081387616</v>
       </c>
       <c r="O10" t="n">
-        <v>11716.59381002266</v>
+        <v>9999.999999999998</v>
       </c>
       <c r="P10" t="n">
-        <v>11716.59381002266</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>51.16145304503151</v>
       </c>
       <c r="S10" t="n">
-        <v>100</v>
+        <v>48.83854695496849</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1338,9 +1309,6 @@
         <v>0</v>
       </c>
       <c r="AA10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1352,55 +1320,55 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>109843.6099177635</v>
+        <v>116337.0605719699</v>
       </c>
       <c r="D11" t="n">
-        <v>135431.0796134048</v>
+        <v>128319.4624574143</v>
       </c>
       <c r="E11" t="n">
-        <v>167538.0064345623</v>
+        <v>144827.083441378</v>
       </c>
       <c r="F11" t="n">
-        <v>201842.1796373522</v>
+        <v>162909.0161774968</v>
       </c>
       <c r="G11" t="n">
-        <v>238067.4982079381</v>
+        <v>180219.0424119948</v>
       </c>
       <c r="H11" t="n">
-        <v>109843.6099177635</v>
+        <v>86565.6988485745</v>
       </c>
       <c r="I11" t="n">
-        <v>135431.0796134048</v>
+        <v>95481.73117738076</v>
       </c>
       <c r="J11" t="n">
-        <v>167538.0064345623</v>
+        <v>107764.9515009696</v>
       </c>
       <c r="K11" t="n">
-        <v>201842.1796373522</v>
+        <v>121219.6076194875</v>
       </c>
       <c r="L11" t="n">
-        <v>238067.4982079381</v>
+        <v>134099.8928072801</v>
       </c>
       <c r="M11" t="n">
-        <v>7.819731979524278</v>
+        <v>3</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>13047.73183829245</v>
       </c>
       <c r="O11" t="n">
-        <v>11950.92568622311</v>
+        <v>9999.999999999998</v>
       </c>
       <c r="P11" t="n">
-        <v>11950.92568622311</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>51.55336959880263</v>
       </c>
       <c r="S11" t="n">
-        <v>100</v>
+        <v>48.44663040119738</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1424,9 +1392,6 @@
         <v>0</v>
       </c>
       <c r="AA11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1438,55 +1403,55 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>125923.7008248249</v>
+        <v>132792.3773568975</v>
       </c>
       <c r="D12" t="n">
-        <v>156830.9744465655</v>
+        <v>148520.6131306715</v>
       </c>
       <c r="E12" t="n">
-        <v>189199.7451282612</v>
+        <v>168820.3906612072</v>
       </c>
       <c r="F12" t="n">
-        <v>233776.6952913245</v>
+        <v>191006.3137595605</v>
       </c>
       <c r="G12" t="n">
-        <v>280918.8388382126</v>
+        <v>215680.8680257631</v>
       </c>
       <c r="H12" t="n">
-        <v>125923.7008248249</v>
+        <v>95932.03877275446</v>
       </c>
       <c r="I12" t="n">
-        <v>156830.9744465655</v>
+        <v>107294.4509390906</v>
       </c>
       <c r="J12" t="n">
-        <v>189199.7451282612</v>
+        <v>121959.4421373711</v>
       </c>
       <c r="K12" t="n">
-        <v>233776.6952913245</v>
+        <v>137987.0250246054</v>
       </c>
       <c r="L12" t="n">
-        <v>280918.8388382126</v>
+        <v>155812.4480171009</v>
       </c>
       <c r="M12" t="n">
-        <v>8.333821601589801</v>
+        <v>3</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>13439.16379344122</v>
       </c>
       <c r="O12" t="n">
-        <v>12189.94419994757</v>
+        <v>9999.999999999998</v>
       </c>
       <c r="P12" t="n">
-        <v>12189.94419994757</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="S12" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -1510,9 +1475,6 @@
         <v>0</v>
       </c>
       <c r="AA12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1524,55 +1486,55 @@
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>143626.3374446252</v>
+        <v>152043.170799281</v>
       </c>
       <c r="D13" t="n">
-        <v>176038.0598814253</v>
+        <v>169929.501216721</v>
       </c>
       <c r="E13" t="n">
-        <v>218675.1353886483</v>
+        <v>194920.9409705144</v>
       </c>
       <c r="F13" t="n">
-        <v>266881.8585097501</v>
+        <v>222078.7011679992</v>
       </c>
       <c r="G13" t="n">
-        <v>329686.0679932541</v>
+        <v>250533.0774190772</v>
       </c>
       <c r="H13" t="n">
-        <v>143626.3374446252</v>
+        <v>106640.0209193594</v>
       </c>
       <c r="I13" t="n">
-        <v>176038.0598814253</v>
+        <v>119185.1332046354</v>
       </c>
       <c r="J13" t="n">
-        <v>218675.1353886483</v>
+        <v>136713.6262250009</v>
       </c>
       <c r="K13" t="n">
-        <v>266881.8585097501</v>
+        <v>155761.5328186223</v>
       </c>
       <c r="L13" t="n">
-        <v>329686.0679932541</v>
+        <v>175718.8598245692</v>
       </c>
       <c r="M13" t="n">
-        <v>8.477437335482954</v>
+        <v>3</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>13842.33870724446</v>
       </c>
       <c r="O13" t="n">
-        <v>12433.74308394652</v>
+        <v>9999.999999999998</v>
       </c>
       <c r="P13" t="n">
-        <v>12433.74308394652</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>50.3117120993839</v>
       </c>
       <c r="S13" t="n">
-        <v>100</v>
+        <v>49.6882879006161</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1596,9 +1558,6 @@
         <v>0</v>
       </c>
       <c r="AA13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1610,55 +1569,55 @@
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>160107.9250841798</v>
+        <v>174987.1775054524</v>
       </c>
       <c r="D14" t="n">
-        <v>195755.7850151385</v>
+        <v>193903.2140837837</v>
       </c>
       <c r="E14" t="n">
-        <v>248181.1475220569</v>
+        <v>224601.5629281722</v>
       </c>
       <c r="F14" t="n">
-        <v>309706.042527971</v>
+        <v>256427.9675728306</v>
       </c>
       <c r="G14" t="n">
-        <v>382571.6380721667</v>
+        <v>291996.6162446457</v>
       </c>
       <c r="H14" t="n">
-        <v>142953.5045394462</v>
+        <v>119157.7530039619</v>
       </c>
       <c r="I14" t="n">
-        <v>174781.9509063736</v>
+        <v>132038.6534593365</v>
       </c>
       <c r="J14" t="n">
-        <v>221590.3102875508</v>
+        <v>152942.7352405009</v>
       </c>
       <c r="K14" t="n">
-        <v>276523.252257117</v>
+        <v>174614.968130446</v>
       </c>
       <c r="L14" t="n">
-        <v>341581.8197072917</v>
+        <v>198835.4871052651</v>
       </c>
       <c r="M14" t="n">
-        <v>7.432671350392457</v>
+        <v>3</v>
       </c>
       <c r="N14" t="n">
-        <v>12.00000000000001</v>
+        <v>14257.60886846179</v>
       </c>
       <c r="O14" t="n">
-        <v>12682.41794562546</v>
+        <v>9999.999999999998</v>
       </c>
       <c r="P14" t="n">
-        <v>12682.41794562546</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>50.72079836606717</v>
       </c>
       <c r="S14" t="n">
-        <v>100</v>
+        <v>49.27920163393283</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1682,9 +1641,6 @@
         <v>0</v>
       </c>
       <c r="AA14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1696,55 +1652,55 @@
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>176410.1232797004</v>
+        <v>195554.3865849769</v>
       </c>
       <c r="D15" t="n">
-        <v>220832.5942121867</v>
+        <v>223242.8896615563</v>
       </c>
       <c r="E15" t="n">
-        <v>275977.1729096745</v>
+        <v>255627.0036205882</v>
       </c>
       <c r="F15" t="n">
-        <v>347041.3350676285</v>
+        <v>291729.2014324297</v>
       </c>
       <c r="G15" t="n">
-        <v>434580.5819485765</v>
+        <v>333887.8539881871</v>
       </c>
       <c r="H15" t="n">
-        <v>139388.5297722032</v>
+        <v>129284.4869772659</v>
       </c>
       <c r="I15" t="n">
-        <v>174488.4593964812</v>
+        <v>147589.8493776561</v>
       </c>
       <c r="J15" t="n">
-        <v>218060.3452194014</v>
+        <v>168999.5637416315</v>
       </c>
       <c r="K15" t="n">
-        <v>274210.9158246117</v>
+        <v>192867.3695442258</v>
       </c>
       <c r="L15" t="n">
-        <v>343379.0944600004</v>
+        <v>220739.2054181577</v>
       </c>
       <c r="M15" t="n">
-        <v>7.612142448383693</v>
+        <v>3</v>
       </c>
       <c r="N15" t="n">
-        <v>12.99999999999999</v>
+        <v>14685.33713451564</v>
       </c>
       <c r="O15" t="n">
-        <v>12936.06630453796</v>
+        <v>9999.999999999998</v>
       </c>
       <c r="P15" t="n">
-        <v>11550.05920048032</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>51.35225861002976</v>
       </c>
       <c r="S15" t="n">
-        <v>100</v>
+        <v>48.64774138997024</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -1768,9 +1724,6 @@
         <v>0</v>
       </c>
       <c r="AA15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1782,55 +1735,55 @@
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>196265.6994565281</v>
+        <v>215675.3025345862</v>
       </c>
       <c r="D16" t="n">
-        <v>247497.5091214506</v>
+        <v>251588.5820082207</v>
       </c>
       <c r="E16" t="n">
-        <v>309375.4319261889</v>
+        <v>286774.1673950205</v>
       </c>
       <c r="F16" t="n">
-        <v>392487.6106486533</v>
+        <v>329918.0134775987</v>
       </c>
       <c r="G16" t="n">
-        <v>495326.3351848602</v>
+        <v>374644.1640121383</v>
       </c>
       <c r="H16" t="n">
-        <v>136032.6282080534</v>
+        <v>138433.7696902257</v>
       </c>
       <c r="I16" t="n">
-        <v>171541.6230852647</v>
+        <v>161485.1371905752</v>
       </c>
       <c r="J16" t="n">
-        <v>214429.4862752768</v>
+        <v>184069.4255472401</v>
       </c>
       <c r="K16" t="n">
-        <v>272034.9065755187</v>
+        <v>211761.8186119879</v>
       </c>
       <c r="L16" t="n">
-        <v>343312.883414884</v>
+        <v>240469.8326936463</v>
       </c>
       <c r="M16" t="n">
-        <v>8.073579272926901</v>
+        <v>3</v>
       </c>
       <c r="N16" t="n">
-        <v>14.00000000000001</v>
+        <v>15125.89724855111</v>
       </c>
       <c r="O16" t="n">
-        <v>13194.78763062872</v>
+        <v>9999.999999999998</v>
       </c>
       <c r="P16" t="n">
-        <v>10425.71715441586</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>51.79538762051232</v>
       </c>
       <c r="S16" t="n">
-        <v>100</v>
+        <v>48.20461237948768</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1854,9 +1807,6 @@
         <v>0</v>
       </c>
       <c r="AA16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1868,55 +1818,55 @@
         <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>216220.9515522926</v>
+        <v>236739.8904950892</v>
       </c>
       <c r="D17" t="n">
-        <v>274456.349891757</v>
+        <v>277200.0327276683</v>
       </c>
       <c r="E17" t="n">
-        <v>344549.6574716649</v>
+        <v>321178.0996598122</v>
       </c>
       <c r="F17" t="n">
-        <v>445546.5402746932</v>
+        <v>377311.1905617528</v>
       </c>
       <c r="G17" t="n">
-        <v>559269.5863851355</v>
+        <v>428517.9976759313</v>
       </c>
       <c r="H17" t="n">
-        <v>130316.2626845903</v>
+        <v>147528.4729511297</v>
       </c>
       <c r="I17" t="n">
-        <v>165414.7090334032</v>
+        <v>172741.8959466164</v>
       </c>
       <c r="J17" t="n">
-        <v>207659.9115331524</v>
+        <v>200147.5733095379</v>
       </c>
       <c r="K17" t="n">
-        <v>268530.6838389579</v>
+        <v>235127.8597558646</v>
       </c>
       <c r="L17" t="n">
-        <v>337071.5086009654</v>
+        <v>267038.249012442</v>
       </c>
       <c r="M17" t="n">
-        <v>7.614970187142285</v>
+        <v>3</v>
       </c>
       <c r="N17" t="n">
-        <v>14.99999999999999</v>
+        <v>15579.67416600765</v>
       </c>
       <c r="O17" t="n">
-        <v>13458.6833832413</v>
+        <v>9999.999999999998</v>
       </c>
       <c r="P17" t="n">
-        <v>9328.273243424719</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="S17" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1940,9 +1890,6 @@
         <v>0</v>
       </c>
       <c r="AA17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1954,55 +1901,55 @@
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>239123.9411733162</v>
+        <v>265248.0162252512</v>
       </c>
       <c r="D18" t="n">
-        <v>300907.1468835301</v>
+        <v>306171.0166852693</v>
       </c>
       <c r="E18" t="n">
-        <v>385336.5463428587</v>
+        <v>359406.2023882772</v>
       </c>
       <c r="F18" t="n">
-        <v>494320.5910165551</v>
+        <v>420572.9330804794</v>
       </c>
       <c r="G18" t="n">
-        <v>617188.5904139687</v>
+        <v>481345.2060745307</v>
       </c>
       <c r="H18" t="n">
-        <v>124241.2788160802</v>
+        <v>160479.4120439776</v>
       </c>
       <c r="I18" t="n">
-        <v>156341.8892741119</v>
+        <v>185238.5003356016</v>
       </c>
       <c r="J18" t="n">
-        <v>200208.749727444</v>
+        <v>217446.6631835218</v>
       </c>
       <c r="K18" t="n">
-        <v>256833.4315320772</v>
+        <v>254453.5411908622</v>
       </c>
       <c r="L18" t="n">
-        <v>320671.7795277043</v>
+        <v>291221.7658036313</v>
       </c>
       <c r="M18" t="n">
-        <v>7.423973161643585</v>
+        <v>3</v>
       </c>
       <c r="N18" t="n">
-        <v>16</v>
+        <v>16047.06439098788</v>
       </c>
       <c r="O18" t="n">
-        <v>13727.85705090612</v>
+        <v>9999.999999999998</v>
       </c>
       <c r="P18" t="n">
-        <v>8273.772789820187</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>50.32174778066279</v>
       </c>
       <c r="S18" t="n">
-        <v>100</v>
+        <v>49.67825221933721</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -2026,9 +1973,6 @@
         <v>0</v>
       </c>
       <c r="AA18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2040,55 +1984,55 @@
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>257956.4987807318</v>
+        <v>292532.5479197225</v>
       </c>
       <c r="D19" t="n">
-        <v>328159.0657365563</v>
+        <v>339177.3522395378</v>
       </c>
       <c r="E19" t="n">
-        <v>430459.1229687599</v>
+        <v>401897.3007919617</v>
       </c>
       <c r="F19" t="n">
-        <v>549357.1831653762</v>
+        <v>466627.1802211367</v>
       </c>
       <c r="G19" t="n">
-        <v>704620.6184323882</v>
+        <v>555402.2729767447</v>
       </c>
       <c r="H19" t="n">
-        <v>114552.2080513632</v>
+        <v>171832.0412002967</v>
       </c>
       <c r="I19" t="n">
-        <v>145727.4608310929</v>
+        <v>199230.9477310728</v>
       </c>
       <c r="J19" t="n">
-        <v>191156.4284869567</v>
+        <v>236072.3073007373</v>
       </c>
       <c r="K19" t="n">
-        <v>243956.1656245103</v>
+        <v>274094.2894290868</v>
       </c>
       <c r="L19" t="n">
-        <v>312904.8814876233</v>
+        <v>326240.3002043662</v>
       </c>
       <c r="M19" t="n">
-        <v>7.91524332452075</v>
+        <v>3</v>
       </c>
       <c r="N19" t="n">
-        <v>17</v>
+        <v>16528.47632271752</v>
       </c>
       <c r="O19" t="n">
-        <v>14002.41419192424</v>
+        <v>9999.999999999998</v>
       </c>
       <c r="P19" t="n">
-        <v>7275.214004841892</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>50.60355759261504</v>
       </c>
       <c r="S19" t="n">
-        <v>100</v>
+        <v>49.39644240738497</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2112,9 +2056,6 @@
         <v>0</v>
       </c>
       <c r="AA19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2126,55 +2067,55 @@
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>274233.14321027</v>
+        <v>324182.8817203128</v>
       </c>
       <c r="D20" t="n">
-        <v>362410.7010924996</v>
+        <v>375580.9115723368</v>
       </c>
       <c r="E20" t="n">
-        <v>473425.1572276668</v>
+        <v>449078.8027199451</v>
       </c>
       <c r="F20" t="n">
-        <v>612237.7541532817</v>
+        <v>526195.3509177134</v>
       </c>
       <c r="G20" t="n">
-        <v>792042.904369875</v>
+        <v>614756.205531614</v>
       </c>
       <c r="H20" t="n">
-        <v>103203.6186632208</v>
+        <v>184876.9675767173</v>
       </c>
       <c r="I20" t="n">
-        <v>136387.9484338715</v>
+        <v>214188.5458069887</v>
       </c>
       <c r="J20" t="n">
-        <v>178166.609696175</v>
+        <v>256103.3661286135</v>
       </c>
       <c r="K20" t="n">
-        <v>230406.6932654247</v>
+        <v>300081.8560017691</v>
       </c>
       <c r="L20" t="n">
-        <v>298073.7226383407</v>
+        <v>350586.873910599</v>
       </c>
       <c r="M20" t="n">
-        <v>7.201435740423685</v>
+        <v>3</v>
       </c>
       <c r="N20" t="n">
-        <v>18</v>
+        <v>17024.33061239904</v>
       </c>
       <c r="O20" t="n">
-        <v>14282.46247576273</v>
+        <v>10000</v>
       </c>
       <c r="P20" t="n">
-        <v>6342.49426063139</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>51.25271993157202</v>
       </c>
       <c r="S20" t="n">
-        <v>100</v>
+        <v>48.74728006842798</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2198,9 +2139,6 @@
         <v>0</v>
       </c>
       <c r="AA20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2212,55 +2150,55 @@
         <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>301116.2927336057</v>
+        <v>353147.3305912628</v>
       </c>
       <c r="D21" t="n">
-        <v>394531.3023833575</v>
+        <v>419042.9961817112</v>
       </c>
       <c r="E21" t="n">
-        <v>514449.1477012201</v>
+        <v>494649.2265490111</v>
       </c>
       <c r="F21" t="n">
-        <v>678992.1848059139</v>
+        <v>584844.0086891638</v>
       </c>
       <c r="G21" t="n">
-        <v>886145.2130237883</v>
+        <v>699738.7143682535</v>
       </c>
       <c r="H21" t="n">
-        <v>95227.47683669141</v>
+        <v>195529.1146040082</v>
       </c>
       <c r="I21" t="n">
-        <v>124769.8027828034</v>
+        <v>232013.9469474102</v>
       </c>
       <c r="J21" t="n">
-        <v>162693.6020353911</v>
+        <v>273875.2835672107</v>
       </c>
       <c r="K21" t="n">
-        <v>214730.0365712942</v>
+        <v>323813.9475923319</v>
       </c>
       <c r="L21" t="n">
-        <v>280241.8028632632</v>
+        <v>387428.3604112188</v>
       </c>
       <c r="M21" t="n">
-        <v>7.92231271981782</v>
+        <v>3</v>
       </c>
       <c r="N21" t="n">
-        <v>19</v>
+        <v>17535.06053077102</v>
       </c>
       <c r="O21" t="n">
-        <v>14568.11172527799</v>
+        <v>10000</v>
       </c>
       <c r="P21" t="n">
-        <v>5482.495038850863</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>51.49796224214552</v>
       </c>
       <c r="S21" t="n">
-        <v>100</v>
+        <v>48.50203775785448</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -2284,9 +2222,6 @@
         <v>0</v>
       </c>
       <c r="AA21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2298,55 +2233,55 @@
         <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>325754.4265785016</v>
+        <v>393232.9842536404</v>
       </c>
       <c r="D22" t="n">
-        <v>423638.2351104902</v>
+        <v>459136.9261232042</v>
       </c>
       <c r="E22" t="n">
-        <v>563450.8645044703</v>
+        <v>546071.2498566324</v>
       </c>
       <c r="F22" t="n">
-        <v>748211.0931270882</v>
+        <v>652152.8252648783</v>
       </c>
       <c r="G22" t="n">
-        <v>979308.728185003</v>
+        <v>778631.3720665803</v>
       </c>
       <c r="H22" t="n">
-        <v>85849.36800175544</v>
+        <v>211382.1059491042</v>
       </c>
       <c r="I22" t="n">
-        <v>111645.6808510944</v>
+        <v>246808.7221806411</v>
       </c>
       <c r="J22" t="n">
-        <v>148491.9211254207</v>
+        <v>293540.2049551895</v>
       </c>
       <c r="K22" t="n">
-        <v>197183.6581056677</v>
+        <v>350564.2790031847</v>
       </c>
       <c r="L22" t="n">
-        <v>258087.1617811313</v>
+        <v>418552.7302544701</v>
       </c>
       <c r="M22" t="n">
-        <v>7.32037272696079</v>
+        <v>3</v>
       </c>
       <c r="N22" t="n">
-        <v>20</v>
+        <v>18061.11234669415</v>
       </c>
       <c r="O22" t="n">
-        <v>14859.47395978355</v>
+        <v>10000</v>
       </c>
       <c r="P22" t="n">
-        <v>4699.28146187217</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="S22" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2370,9 +2305,6 @@
         <v>0</v>
       </c>
       <c r="AA22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2384,55 +2316,55 @@
         <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>363714.5556142299</v>
+        <v>422878.1789068815</v>
       </c>
       <c r="D23" t="n">
-        <v>456295.8493881218</v>
+        <v>505479.2978618172</v>
       </c>
       <c r="E23" t="n">
-        <v>619075.4011473791</v>
+        <v>597049.9732688155</v>
       </c>
       <c r="F23" t="n">
-        <v>820177.8864444671</v>
+        <v>720172.9884278147</v>
       </c>
       <c r="G23" t="n">
-        <v>1085876.389988035</v>
+        <v>865311.5295669133</v>
       </c>
       <c r="H23" t="n">
-        <v>79217.67422916983</v>
+        <v>220696.9503583855</v>
       </c>
       <c r="I23" t="n">
-        <v>99382.04394351815</v>
+        <v>263805.8549054768</v>
       </c>
       <c r="J23" t="n">
-        <v>134835.7185446306</v>
+        <v>311595.9037011426</v>
       </c>
       <c r="K23" t="n">
-        <v>178636.1959273341</v>
+        <v>375852.8819986771</v>
       </c>
       <c r="L23" t="n">
-        <v>236505.8004619865</v>
+        <v>451599.5982082112</v>
       </c>
       <c r="M23" t="n">
-        <v>7.166836685230182</v>
+        <v>3</v>
       </c>
       <c r="N23" t="n">
-        <v>21</v>
+        <v>18602.94571709498</v>
       </c>
       <c r="O23" t="n">
-        <v>15156.66343897921</v>
+        <v>10000</v>
       </c>
       <c r="P23" t="n">
-        <v>3994.389242591344</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>50.69358721401768</v>
       </c>
       <c r="S23" t="n">
-        <v>100</v>
+        <v>49.30641278598232</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2456,9 +2388,6 @@
         <v>0</v>
       </c>
       <c r="AA23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2470,55 +2399,55 @@
         <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>392341.3654553156</v>
+        <v>470617.3343688862</v>
       </c>
       <c r="D24" t="n">
-        <v>501676.6769003075</v>
+        <v>549771.8175272017</v>
       </c>
       <c r="E24" t="n">
-        <v>680745.6160154019</v>
+        <v>655485.8942154798</v>
       </c>
       <c r="F24" t="n">
-        <v>905461.7627830061</v>
+        <v>788723.2585243988</v>
       </c>
       <c r="G24" t="n">
-        <v>1195325.842254449</v>
+        <v>954101.828284297</v>
       </c>
       <c r="H24" t="n">
-        <v>70043.15090248313</v>
+        <v>238457.9199926929</v>
       </c>
       <c r="I24" t="n">
-        <v>89562.35125400397</v>
+        <v>278564.8434602286</v>
       </c>
       <c r="J24" t="n">
-        <v>121530.8201148654</v>
+        <v>332129.293811043</v>
       </c>
       <c r="K24" t="n">
-        <v>161648.5042647425</v>
+        <v>399639.5668888933</v>
       </c>
       <c r="L24" t="n">
-        <v>213396.7909539776</v>
+        <v>483435.5235533382</v>
       </c>
       <c r="M24" t="n">
-        <v>7.908408477138871</v>
+        <v>3</v>
       </c>
       <c r="N24" t="n">
-        <v>22.00000000000001</v>
+        <v>19161.03408860783</v>
       </c>
       <c r="O24" t="n">
-        <v>15459.7967077588</v>
+        <v>10000</v>
       </c>
       <c r="P24" t="n">
-        <v>3367.171097060471</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>50.93713661265215</v>
       </c>
       <c r="S24" t="n">
-        <v>100</v>
+        <v>49.06286338734786</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -2542,9 +2471,6 @@
         <v>0</v>
       </c>
       <c r="AA24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2556,55 +2482,55 @@
         <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>423708.5737257836</v>
+        <v>517413.6715225824</v>
       </c>
       <c r="D25" t="n">
-        <v>556207.0554988731</v>
+        <v>604195.4579833514</v>
       </c>
       <c r="E25" t="n">
-        <v>741271.90091988</v>
+        <v>725580.6935547824</v>
       </c>
       <c r="F25" t="n">
-        <v>1006308.317764131</v>
+        <v>865891.0058377454</v>
       </c>
       <c r="G25" t="n">
-        <v>1338261.139436261</v>
+        <v>1060204.663150359</v>
       </c>
       <c r="H25" t="n">
-        <v>61498.38571447036</v>
+        <v>254533.2406652473</v>
       </c>
       <c r="I25" t="n">
-        <v>80729.62917742823</v>
+        <v>297224.1291251107</v>
       </c>
       <c r="J25" t="n">
-        <v>107590.5188351759</v>
+        <v>356937.6215962163</v>
       </c>
       <c r="K25" t="n">
-        <v>146058.7321359941</v>
+        <v>425960.9977645375</v>
       </c>
       <c r="L25" t="n">
-        <v>194239.4014264186</v>
+        <v>521550.4412281264</v>
       </c>
       <c r="M25" t="n">
-        <v>8.516070846501091</v>
+        <v>3</v>
       </c>
       <c r="N25" t="n">
-        <v>23</v>
+        <v>19735.86511126606</v>
       </c>
       <c r="O25" t="n">
-        <v>15768.99264191397</v>
+        <v>10000</v>
       </c>
       <c r="P25" t="n">
-        <v>2815.17583524728</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>51.33741602485226</v>
       </c>
       <c r="S25" t="n">
-        <v>100</v>
+        <v>48.66258397514774</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2628,9 +2554,6 @@
         <v>0</v>
       </c>
       <c r="AA25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2642,55 +2565,55 @@
         <v>25</v>
       </c>
       <c r="C26" t="n">
-        <v>464390.9988780037</v>
+        <v>559244.0758396409</v>
       </c>
       <c r="D26" t="n">
-        <v>603818.247020686</v>
+        <v>661840.9866630252</v>
       </c>
       <c r="E26" t="n">
-        <v>810688.8294570504</v>
+        <v>794158.941075258</v>
       </c>
       <c r="F26" t="n">
-        <v>1080397.326414896</v>
+        <v>961165.0546712454</v>
       </c>
       <c r="G26" t="n">
-        <v>1472070.068182094</v>
+        <v>1177281.535140715</v>
       </c>
       <c r="H26" t="n">
-        <v>54357.38706464023</v>
+        <v>267098.0851976021</v>
       </c>
       <c r="I26" t="n">
-        <v>70677.47275312363</v>
+        <v>316098.9411958923</v>
       </c>
       <c r="J26" t="n">
-        <v>94891.8618109423</v>
+        <v>379294.7331364849</v>
       </c>
       <c r="K26" t="n">
-        <v>126461.4856821649</v>
+        <v>459057.7830906738</v>
       </c>
       <c r="L26" t="n">
-        <v>172307.1348836937</v>
+        <v>562276.2177721212</v>
       </c>
       <c r="M26" t="n">
-        <v>7.680004905476781</v>
+        <v>3</v>
       </c>
       <c r="N26" t="n">
-        <v>24.00000000000001</v>
+        <v>20327.94106460405</v>
       </c>
       <c r="O26" t="n">
-        <v>16084.37249475226</v>
+        <v>10000</v>
       </c>
       <c r="P26" t="n">
-        <v>2334.536058497746</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>51.23441312619216</v>
       </c>
       <c r="S26" t="n">
-        <v>100</v>
+        <v>48.76558687380784</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2714,9 +2637,6 @@
         <v>0</v>
       </c>
       <c r="AA26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2728,55 +2648,55 @@
         <v>26</v>
       </c>
       <c r="C27" t="n">
-        <v>502381.1515200923</v>
+        <v>608506.6239704222</v>
       </c>
       <c r="D27" t="n">
-        <v>660115.4917523768</v>
+        <v>719079.410176056</v>
       </c>
       <c r="E27" t="n">
-        <v>886106.3227654626</v>
+        <v>867019.2890189698</v>
       </c>
       <c r="F27" t="n">
-        <v>1205192.977331232</v>
+        <v>1071802.922113368</v>
       </c>
       <c r="G27" t="n">
-        <v>1688691.830821613</v>
+        <v>1292816.104703785</v>
       </c>
       <c r="H27" t="n">
-        <v>47422.71680881152</v>
+        <v>282161.3131464891</v>
       </c>
       <c r="I27" t="n">
-        <v>62312.19051861727</v>
+        <v>333433.3311082264</v>
       </c>
       <c r="J27" t="n">
-        <v>83644.79654512525</v>
+        <v>402032.2729055766</v>
       </c>
       <c r="K27" t="n">
-        <v>113765.2658564393</v>
+        <v>496989.36383715</v>
       </c>
       <c r="L27" t="n">
-        <v>159405.5713039703</v>
+        <v>599472.0112987297</v>
       </c>
       <c r="M27" t="n">
-        <v>8.391083541358245</v>
+        <v>3</v>
       </c>
       <c r="N27" t="n">
-        <v>24.00000000000001</v>
+        <v>20937.77929654217</v>
       </c>
       <c r="O27" t="n">
-        <v>16406.05994464731</v>
+        <v>10000</v>
       </c>
       <c r="P27" t="n">
-        <v>1920.344177151371</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="S27" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -2800,9 +2720,6 @@
         <v>0</v>
       </c>
       <c r="AA27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2814,55 +2731,55 @@
         <v>27</v>
       </c>
       <c r="C28" t="n">
-        <v>547008.6986863756</v>
+        <v>650939.0544156225</v>
       </c>
       <c r="D28" t="n">
-        <v>693113.747341095</v>
+        <v>782259.2068399461</v>
       </c>
       <c r="E28" t="n">
-        <v>977996.447707322</v>
+        <v>948287.3205770197</v>
       </c>
       <c r="F28" t="n">
-        <v>1350037.17417615</v>
+        <v>1184397.540125445</v>
       </c>
       <c r="G28" t="n">
-        <v>1836802.512091168</v>
+        <v>1439410.098346882</v>
       </c>
       <c r="H28" t="n">
-        <v>41641.43058170522</v>
+        <v>293045.6382682811</v>
       </c>
       <c r="I28" t="n">
-        <v>52763.78248543681</v>
+        <v>352164.5336911738</v>
       </c>
       <c r="J28" t="n">
-        <v>74450.68293092772</v>
+        <v>426908.5734450003</v>
       </c>
       <c r="K28" t="n">
-        <v>102772.5507952289</v>
+        <v>533202.8102400997</v>
       </c>
       <c r="L28" t="n">
-        <v>139827.9122127811</v>
+        <v>648006.6730341627</v>
       </c>
       <c r="M28" t="n">
-        <v>8.180295171860605</v>
+        <v>3</v>
       </c>
       <c r="N28" t="n">
-        <v>24.00000000000001</v>
+        <v>21565.91267543843</v>
       </c>
       <c r="O28" t="n">
-        <v>16734.18114354025</v>
+        <v>10000</v>
       </c>
       <c r="P28" t="n">
-        <v>1579.637952172902</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>50.47503152640734</v>
       </c>
       <c r="S28" t="n">
-        <v>100</v>
+        <v>49.52496847359266</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2886,9 +2803,6 @@
         <v>0</v>
       </c>
       <c r="AA28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2900,55 +2814,55 @@
         <v>28</v>
       </c>
       <c r="C29" t="n">
-        <v>575036.2809039223</v>
+        <v>710558.5884411953</v>
       </c>
       <c r="D29" t="n">
-        <v>757406.6279958682</v>
+        <v>846636.2267690494</v>
       </c>
       <c r="E29" t="n">
-        <v>1042530.941626258</v>
+        <v>1027126.090855365</v>
       </c>
       <c r="F29" t="n">
-        <v>1449815.512833124</v>
+        <v>1292610.997907801</v>
       </c>
       <c r="G29" t="n">
-        <v>2012607.395258121</v>
+        <v>1581689.900836452</v>
       </c>
       <c r="H29" t="n">
-        <v>35302.46002799406</v>
+        <v>310568.640773238</v>
       </c>
       <c r="I29" t="n">
-        <v>46498.48730888924</v>
+        <v>370045.0131126758</v>
       </c>
       <c r="J29" t="n">
-        <v>64002.75620323375</v>
+        <v>448932.9368876938</v>
       </c>
       <c r="K29" t="n">
-        <v>89006.65208341635</v>
+        <v>564970.2180779245</v>
       </c>
       <c r="L29" t="n">
-        <v>123557.4075629781</v>
+        <v>691319.886380048</v>
       </c>
       <c r="M29" t="n">
-        <v>7.339661201686513</v>
+        <v>3</v>
       </c>
       <c r="N29" t="n">
-        <v>24.00000000000001</v>
+        <v>22212.89005570159</v>
       </c>
       <c r="O29" t="n">
-        <v>17068.86476641105</v>
+        <v>10000</v>
       </c>
       <c r="P29" t="n">
-        <v>1299.379605819645</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>51.01072059823268</v>
       </c>
       <c r="S29" t="n">
-        <v>100</v>
+        <v>48.98927940176731</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2972,9 +2886,6 @@
         <v>0</v>
       </c>
       <c r="AA29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2986,55 +2897,55 @@
         <v>29</v>
       </c>
       <c r="C30" t="n">
-        <v>611417.6796744334</v>
+        <v>773410.8815861508</v>
       </c>
       <c r="D30" t="n">
-        <v>817565.3570082044</v>
+        <v>928206.8795188722</v>
       </c>
       <c r="E30" t="n">
-        <v>1136047.751968519</v>
+        <v>1133740.001481296</v>
       </c>
       <c r="F30" t="n">
-        <v>1660383.977105125</v>
+        <v>1419753.176410924</v>
       </c>
       <c r="G30" t="n">
-        <v>2263782.710218742</v>
+        <v>1714840.273203115</v>
       </c>
       <c r="H30" t="n">
-        <v>30270.94860864896</v>
+        <v>328194.0941653892</v>
       </c>
       <c r="I30" t="n">
-        <v>40477.20523780915</v>
+        <v>393881.212786952</v>
       </c>
       <c r="J30" t="n">
-        <v>56245.09113822442</v>
+        <v>481098.4454241531</v>
       </c>
       <c r="K30" t="n">
-        <v>82204.68545877919</v>
+        <v>602467.09577581</v>
       </c>
       <c r="L30" t="n">
-        <v>112078.6204917539</v>
+        <v>727686.2318616525</v>
       </c>
       <c r="M30" t="n">
-        <v>7.824050631413873</v>
+        <v>3</v>
       </c>
       <c r="N30" t="n">
-        <v>24.00000000000001</v>
+        <v>22879.27675737263</v>
       </c>
       <c r="O30" t="n">
-        <v>17410.24206173927</v>
+        <v>10000</v>
       </c>
       <c r="P30" t="n">
-        <v>1068.844514464546</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>51.79694835385252</v>
       </c>
       <c r="S30" t="n">
-        <v>100</v>
+        <v>48.20305164614747</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -3058,9 +2969,6 @@
         <v>0</v>
       </c>
       <c r="AA30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3072,55 +2980,55 @@
         <v>30</v>
       </c>
       <c r="C31" t="n">
-        <v>657091.2167433101</v>
+        <v>826432.7338718503</v>
       </c>
       <c r="D31" t="n">
-        <v>907639.657447247</v>
+        <v>1003645.026112345</v>
       </c>
       <c r="E31" t="n">
-        <v>1245987.935787716</v>
+        <v>1223470.1695617</v>
       </c>
       <c r="F31" t="n">
-        <v>1775064.309981061</v>
+        <v>1568764.371550306</v>
       </c>
       <c r="G31" t="n">
-        <v>2424889.717364854</v>
+        <v>1911099.247454796</v>
       </c>
       <c r="H31" t="n">
-        <v>26235.66127208516</v>
+        <v>340479.343985735</v>
       </c>
       <c r="I31" t="n">
-        <v>36239.30133767051</v>
+        <v>413488.462012282</v>
       </c>
       <c r="J31" t="n">
-        <v>49748.52288308865</v>
+        <v>504053.5105221014</v>
       </c>
       <c r="K31" t="n">
-        <v>70872.9393822092</v>
+        <v>646310.1498790181</v>
       </c>
       <c r="L31" t="n">
-        <v>96818.49890225967</v>
+        <v>787347.5860721886</v>
       </c>
       <c r="M31" t="n">
-        <v>7.963799625091207</v>
+        <v>3</v>
       </c>
       <c r="N31" t="n">
-        <v>24.00000000000001</v>
+        <v>23565.65506009381</v>
       </c>
       <c r="O31" t="n">
-        <v>17758.44690297405</v>
+        <v>10000</v>
       </c>
       <c r="P31" t="n">
-        <v>879.2108102853527</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>51.74201791481349</v>
       </c>
       <c r="S31" t="n">
-        <v>100</v>
+        <v>48.25798208518651</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3144,9 +3052,6 @@
         <v>0</v>
       </c>
       <c r="AA31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3158,55 +3063,55 @@
         <v>31</v>
       </c>
       <c r="C32" t="n">
-        <v>694214.724206025</v>
+        <v>879288.7692972944</v>
       </c>
       <c r="D32" t="n">
-        <v>961997.0334559458</v>
+        <v>1081051.640178069</v>
       </c>
       <c r="E32" t="n">
-        <v>1362559.695274828</v>
+        <v>1345847.777237124</v>
       </c>
       <c r="F32" t="n">
-        <v>1918204.121104682</v>
+        <v>1712515.670836587</v>
       </c>
       <c r="G32" t="n">
-        <v>2730713.68259551</v>
+        <v>2069198.271695966</v>
       </c>
       <c r="H32" t="n">
-        <v>22353.13745110471</v>
+        <v>351704.2046034191</v>
       </c>
       <c r="I32" t="n">
-        <v>30975.50536829871</v>
+        <v>432406.7593265227</v>
       </c>
       <c r="J32" t="n">
-        <v>43873.29034060448</v>
+        <v>538321.8102384543</v>
       </c>
       <c r="K32" t="n">
-        <v>61764.57929118113</v>
+        <v>684984.2542215281</v>
       </c>
       <c r="L32" t="n">
-        <v>87926.71223803467</v>
+        <v>827652.709467898</v>
       </c>
       <c r="M32" t="n">
-        <v>8.139403831849892</v>
+        <v>3</v>
       </c>
       <c r="N32" t="n">
-        <v>24.00000000000001</v>
+        <v>24272.62471189663</v>
       </c>
       <c r="O32" t="n">
-        <v>18113.61584103354</v>
+        <v>10000</v>
       </c>
       <c r="P32" t="n">
-        <v>723.2217955573063</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="S32" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3230,9 +3135,6 @@
         <v>0</v>
       </c>
       <c r="AA32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3244,55 +3146,55 @@
         <v>32</v>
       </c>
       <c r="C33" t="n">
-        <v>736458.1322120705</v>
+        <v>955848.6401075005</v>
       </c>
       <c r="D33" t="n">
-        <v>1057345.375594364</v>
+        <v>1173838.906307128</v>
       </c>
       <c r="E33" t="n">
-        <v>1464411.114560171</v>
+        <v>1464690.922869958</v>
       </c>
       <c r="F33" t="n">
-        <v>2120587.946024359</v>
+        <v>1861768.366879088</v>
       </c>
       <c r="G33" t="n">
-        <v>2924535.017281641</v>
+        <v>2276949.046588596</v>
       </c>
       <c r="H33" t="n">
-        <v>19123.66136956802</v>
+        <v>371191.4259831981</v>
       </c>
       <c r="I33" t="n">
-        <v>27456.16353343858</v>
+        <v>455845.119429889</v>
       </c>
       <c r="J33" t="n">
-        <v>38026.46889995383</v>
+        <v>568793.7289146536</v>
       </c>
       <c r="K33" t="n">
-        <v>55065.45994997564</v>
+        <v>722993.6058438462</v>
       </c>
       <c r="L33" t="n">
-        <v>75941.61146126485</v>
+        <v>884223.639633206</v>
       </c>
       <c r="M33" t="n">
-        <v>8.041797835620196</v>
+        <v>3</v>
       </c>
       <c r="N33" t="n">
-        <v>24.00000000000001</v>
+        <v>25000.80345325353</v>
       </c>
       <c r="O33" t="n">
-        <v>18475.88815785421</v>
+        <v>10000</v>
       </c>
       <c r="P33" t="n">
-        <v>594.9082511842361</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>50.66128604418623</v>
       </c>
       <c r="S33" t="n">
-        <v>100</v>
+        <v>49.33871395581376</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -3316,9 +3218,6 @@
         <v>0</v>
       </c>
       <c r="AA33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3330,55 +3229,55 @@
         <v>33</v>
       </c>
       <c r="C34" t="n">
-        <v>782721.8126930122</v>
+        <v>1042811.214461092</v>
       </c>
       <c r="D34" t="n">
-        <v>1152056.678426296</v>
+        <v>1265766.856274142</v>
       </c>
       <c r="E34" t="n">
-        <v>1599738.337093651</v>
+        <v>1603679.273671556</v>
       </c>
       <c r="F34" t="n">
-        <v>2278498.881039904</v>
+        <v>2035929.602971142</v>
       </c>
       <c r="G34" t="n">
-        <v>3233933.616257265</v>
+        <v>2507883.196670122</v>
       </c>
       <c r="H34" t="n">
-        <v>16391.12394612841</v>
+        <v>393167.1982413466</v>
       </c>
       <c r="I34" t="n">
-        <v>24125.43448109659</v>
+        <v>477227.3270624958</v>
       </c>
       <c r="J34" t="n">
-        <v>33500.41986751121</v>
+        <v>604629.1775189657</v>
       </c>
       <c r="K34" t="n">
-        <v>47714.47143110054</v>
+        <v>767598.8968247207</v>
       </c>
       <c r="L34" t="n">
-        <v>67722.40900665184</v>
+        <v>945537.788890103</v>
       </c>
       <c r="M34" t="n">
-        <v>7.741907800254612</v>
+        <v>3</v>
       </c>
       <c r="N34" t="n">
-        <v>24.00000000000001</v>
+        <v>25750.82755685113</v>
       </c>
       <c r="O34" t="n">
-        <v>18845.40592101129</v>
+        <v>10000</v>
       </c>
       <c r="P34" t="n">
-        <v>489.3600130709037</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>51.22932430724111</v>
       </c>
       <c r="S34" t="n">
-        <v>100</v>
+        <v>48.77067569275889</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3402,9 +3301,6 @@
         <v>0</v>
       </c>
       <c r="AA34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3416,55 +3312,55 @@
         <v>34</v>
       </c>
       <c r="C35" t="n">
-        <v>845362.3592502276</v>
+        <v>1127120.489914828</v>
       </c>
       <c r="D35" t="n">
-        <v>1218767.069450551</v>
+        <v>1358933.256645489</v>
       </c>
       <c r="E35" t="n">
-        <v>1714543.563799801</v>
+        <v>1730251.225964113</v>
       </c>
       <c r="F35" t="n">
-        <v>2477909.871138173</v>
+        <v>2211894.003610853</v>
       </c>
       <c r="G35" t="n">
-        <v>3480384.617428135</v>
+        <v>2750579.26378591</v>
       </c>
       <c r="H35" t="n">
-        <v>14276.52528481589</v>
+        <v>412576.7067287469</v>
       </c>
       <c r="I35" t="n">
-        <v>20582.60424410667</v>
+        <v>497430.5876857351</v>
       </c>
       <c r="J35" t="n">
-        <v>28955.30451842699</v>
+        <v>633349.6365376109</v>
       </c>
       <c r="K35" t="n">
-        <v>41847.07603988284</v>
+        <v>809652.5187930777</v>
       </c>
       <c r="L35" t="n">
-        <v>58776.92382195296</v>
+        <v>1006835.510846694</v>
       </c>
       <c r="M35" t="n">
-        <v>8.045586053477894</v>
+        <v>3</v>
       </c>
       <c r="N35" t="n">
-        <v>24.00000000000001</v>
+        <v>26523.35238355667</v>
       </c>
       <c r="O35" t="n">
-        <v>19222.31403943152</v>
+        <v>10000</v>
       </c>
       <c r="P35" t="n">
-        <v>402.5380752680014</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>51.91336687692431</v>
       </c>
       <c r="S35" t="n">
-        <v>100</v>
+        <v>48.08663312307569</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3488,9 +3384,6 @@
         <v>0</v>
       </c>
       <c r="AA35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3502,55 +3395,55 @@
         <v>35</v>
       </c>
       <c r="C36" t="n">
-        <v>910343.6401487865</v>
+        <v>1216491.182692898</v>
       </c>
       <c r="D36" t="n">
-        <v>1304298.087395181</v>
+        <v>1480381.791104101</v>
       </c>
       <c r="E36" t="n">
-        <v>1907966.824894645</v>
+        <v>1862001.164646931</v>
       </c>
       <c r="F36" t="n">
-        <v>2728983.559552623</v>
+        <v>2397765.886110777</v>
       </c>
       <c r="G36" t="n">
-        <v>3785546.97739877</v>
+        <v>3005341.301160064</v>
       </c>
       <c r="H36" t="n">
-        <v>12398.33280181199</v>
+        <v>432320.7699093451</v>
       </c>
       <c r="I36" t="n">
-        <v>17763.75540740781</v>
+        <v>526103.1109762409</v>
       </c>
       <c r="J36" t="n">
-        <v>25985.36050188044</v>
+        <v>661724.3006154001</v>
       </c>
       <c r="K36" t="n">
-        <v>37167.11458156282</v>
+        <v>852126.1877550854</v>
       </c>
       <c r="L36" t="n">
-        <v>51556.87280356287</v>
+        <v>1068048.403180142</v>
       </c>
       <c r="M36" t="n">
-        <v>7.929805455662557</v>
+        <v>3</v>
       </c>
       <c r="N36" t="n">
-        <v>24.00000000000001</v>
+        <v>27319.05295506337</v>
       </c>
       <c r="O36" t="n">
-        <v>19606.76032022015</v>
+        <v>10000</v>
       </c>
       <c r="P36" t="n">
-        <v>331.1200296559367</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>52.0996860889113</v>
       </c>
       <c r="S36" t="n">
-        <v>100</v>
+        <v>47.90031391108869</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -3574,9 +3467,6 @@
         <v>0</v>
       </c>
       <c r="AA36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3588,55 +3478,55 @@
         <v>36</v>
       </c>
       <c r="C37" t="n">
-        <v>996636.2471171261</v>
+        <v>1276313.943519942</v>
       </c>
       <c r="D37" t="n">
-        <v>1406686.36702243</v>
+        <v>1592005.28714818</v>
       </c>
       <c r="E37" t="n">
-        <v>2051942.956870472</v>
+        <v>2035872.703554284</v>
       </c>
       <c r="F37" t="n">
-        <v>2952052.717760902</v>
+        <v>2613401.611861834</v>
       </c>
       <c r="G37" t="n">
-        <v>4048805.363158335</v>
+        <v>3317193.669025548</v>
       </c>
       <c r="H37" t="n">
-        <v>10946.4404864628</v>
+        <v>440369.6950663479</v>
       </c>
       <c r="I37" t="n">
-        <v>15450.17918450238</v>
+        <v>549293.4449278029</v>
       </c>
       <c r="J37" t="n">
-        <v>22537.28130395745</v>
+        <v>702442.0960140466</v>
       </c>
       <c r="K37" t="n">
-        <v>32423.53414432141</v>
+        <v>901708.2957877412</v>
       </c>
       <c r="L37" t="n">
-        <v>44469.5916662517</v>
+        <v>1144539.376006572</v>
       </c>
       <c r="M37" t="n">
-        <v>7.64839718033401</v>
+        <v>3</v>
       </c>
       <c r="N37" t="n">
-        <v>24.00000000000001</v>
+        <v>28138.62454371528</v>
       </c>
       <c r="O37" t="n">
-        <v>19998.89552662455</v>
+        <v>10000</v>
       </c>
       <c r="P37" t="n">
-        <v>272.372927620206</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="S37" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3660,9 +3550,6 @@
         <v>0</v>
       </c>
       <c r="AA37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3674,55 +3561,55 @@
         <v>37</v>
       </c>
       <c r="C38" t="n">
-        <v>1011085.900066879</v>
+        <v>1381435.722877745</v>
       </c>
       <c r="D38" t="n">
-        <v>1490675.208774027</v>
+        <v>1722289.803987423</v>
       </c>
       <c r="E38" t="n">
-        <v>2202226.471067634</v>
+        <v>2204468.653856439</v>
       </c>
       <c r="F38" t="n">
-        <v>3257957.472101906</v>
+        <v>2842466.401919287</v>
       </c>
       <c r="G38" t="n">
-        <v>4508036.539375824</v>
+        <v>3653793.741639742</v>
       </c>
       <c r="H38" t="n">
-        <v>8955.763387642361</v>
+        <v>462757.3956548006</v>
       </c>
       <c r="I38" t="n">
-        <v>13203.75890586697</v>
+        <v>576937.696815714</v>
       </c>
       <c r="J38" t="n">
-        <v>19506.37349366636</v>
+        <v>738459.3840791609</v>
       </c>
       <c r="K38" t="n">
-        <v>28857.58395524668</v>
+        <v>952177.7434916166</v>
       </c>
       <c r="L38" t="n">
-        <v>39930.24587408992</v>
+        <v>1223958.558577576</v>
       </c>
       <c r="M38" t="n">
-        <v>7.354858885808619</v>
+        <v>3</v>
       </c>
       <c r="N38" t="n">
-        <v>24.00000000000001</v>
+        <v>28982.78328002674</v>
       </c>
       <c r="O38" t="n">
-        <v>20398.87343715704</v>
+        <v>10000</v>
       </c>
       <c r="P38" t="n">
-        <v>224.0486985262984</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>50.67176604997796</v>
       </c>
       <c r="S38" t="n">
-        <v>100</v>
+        <v>49.32823395002204</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3746,9 +3633,6 @@
         <v>0</v>
       </c>
       <c r="AA38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3760,55 +3644,55 @@
         <v>38</v>
       </c>
       <c r="C39" t="n">
-        <v>1102266.836818549</v>
+        <v>1462355.898533756</v>
       </c>
       <c r="D39" t="n">
-        <v>1589920.435235645</v>
+        <v>1825865.11308456</v>
       </c>
       <c r="E39" t="n">
-        <v>2357937.816752613</v>
+        <v>2370330.338636267</v>
       </c>
       <c r="F39" t="n">
-        <v>3476631.207821677</v>
+        <v>3107461.886400963</v>
       </c>
       <c r="G39" t="n">
-        <v>4927575.698504136</v>
+        <v>3928444.516645477</v>
       </c>
       <c r="H39" t="n">
-        <v>7873.713588799275</v>
+        <v>475596.3822858435</v>
       </c>
       <c r="I39" t="n">
-        <v>11357.12126852758</v>
+        <v>593819.0854877617</v>
       </c>
       <c r="J39" t="n">
-        <v>16843.22380857855</v>
+        <v>770893.4158969815</v>
       </c>
       <c r="K39" t="n">
-        <v>24834.27557639148</v>
+        <v>1010627.872972146</v>
       </c>
       <c r="L39" t="n">
-        <v>35198.66373657031</v>
+        <v>1277632.894974862</v>
       </c>
       <c r="M39" t="n">
-        <v>7.194286956898639</v>
+        <v>3</v>
       </c>
       <c r="N39" t="n">
-        <v>24.00000000000001</v>
+        <v>29852.26677842754</v>
       </c>
       <c r="O39" t="n">
-        <v>20806.85090590018</v>
+        <v>10000</v>
       </c>
       <c r="P39" t="n">
-        <v>184.2981229813099</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>50.67924531296116</v>
       </c>
       <c r="S39" t="n">
-        <v>100</v>
+        <v>49.32075468703884</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -3832,9 +3716,6 @@
         <v>0</v>
       </c>
       <c r="AA39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3846,55 +3727,55 @@
         <v>39</v>
       </c>
       <c r="C40" t="n">
-        <v>1211558.72154335</v>
+        <v>1563589.916351067</v>
       </c>
       <c r="D40" t="n">
-        <v>1698519.860990216</v>
+        <v>1979901.183052667</v>
       </c>
       <c r="E40" t="n">
-        <v>2520751.108623343</v>
+        <v>2548710.827475972</v>
       </c>
       <c r="F40" t="n">
-        <v>3791504.433741139</v>
+        <v>3319709.280409873</v>
       </c>
       <c r="G40" t="n">
-        <v>5336956.16087708</v>
+        <v>4326290.822568416</v>
       </c>
       <c r="H40" t="n">
-        <v>6979.36087969299</v>
+        <v>493709.0605730342</v>
       </c>
       <c r="I40" t="n">
-        <v>9784.571610425681</v>
+        <v>625160.8192725758</v>
       </c>
       <c r="J40" t="n">
-        <v>14521.15474234486</v>
+        <v>804764.4814965384</v>
       </c>
       <c r="K40" t="n">
-        <v>21841.51477720067</v>
+        <v>1048209.976968635</v>
       </c>
       <c r="L40" t="n">
-        <v>30744.31505755887</v>
+        <v>1366041.668240344</v>
       </c>
       <c r="M40" t="n">
-        <v>7.875962648915345</v>
+        <v>3</v>
       </c>
       <c r="N40" t="n">
-        <v>24.00000000000001</v>
+        <v>30747.83478178036</v>
       </c>
       <c r="O40" t="n">
-        <v>21222.98792401818</v>
+        <v>10000</v>
       </c>
       <c r="P40" t="n">
-        <v>151.6000689039808</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>50.8648694030544</v>
       </c>
       <c r="S40" t="n">
-        <v>100</v>
+        <v>49.13513059694559</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3918,9 +3799,6 @@
         <v>0</v>
       </c>
       <c r="AA40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3932,55 +3810,55 @@
         <v>40</v>
       </c>
       <c r="C41" t="n">
-        <v>1302277.215612818</v>
+        <v>1690257.109737083</v>
       </c>
       <c r="D41" t="n">
-        <v>1819132.667019434</v>
+        <v>2110650.924624954</v>
       </c>
       <c r="E41" t="n">
-        <v>2763590.717662492</v>
+        <v>2753826.940270774</v>
       </c>
       <c r="F41" t="n">
-        <v>4124069.020504634</v>
+        <v>3564678.531642232</v>
       </c>
       <c r="G41" t="n">
-        <v>5941255.498038584</v>
+        <v>4671685.67746535</v>
       </c>
       <c r="H41" t="n">
-        <v>6049.966135430117</v>
+        <v>518159.8796564651</v>
       </c>
       <c r="I41" t="n">
-        <v>8451.112327987132</v>
+        <v>647034.4794293392</v>
       </c>
       <c r="J41" t="n">
-        <v>12838.76432267861</v>
+        <v>844204.486847206</v>
       </c>
       <c r="K41" t="n">
-        <v>19159.11421554621</v>
+        <v>1092776.589034454</v>
       </c>
       <c r="L41" t="n">
-        <v>27601.18516560003</v>
+        <v>1432137.202372017</v>
       </c>
       <c r="M41" t="n">
-        <v>8.41660646018833</v>
+        <v>3</v>
       </c>
       <c r="N41" t="n">
-        <v>24.00000000000001</v>
+        <v>31670.26982523377</v>
       </c>
       <c r="O41" t="n">
-        <v>21647.44768249855</v>
+        <v>10000</v>
       </c>
       <c r="P41" t="n">
-        <v>124.7032824855326</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>51.40486495431834</v>
       </c>
       <c r="S41" t="n">
-        <v>100</v>
+        <v>48.59513504568167</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -4004,9 +3882,6 @@
         <v>0</v>
       </c>
       <c r="AA41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4018,55 +3893,55 @@
         <v>41</v>
       </c>
       <c r="C42" t="n">
-        <v>1374520.350179718</v>
+        <v>1796261.477826199</v>
       </c>
       <c r="D42" t="n">
-        <v>1961463.95923145</v>
+        <v>2279512.189997839</v>
       </c>
       <c r="E42" t="n">
-        <v>3016402.799598271</v>
+        <v>2994242.785672025</v>
       </c>
       <c r="F42" t="n">
-        <v>4501614.298736421</v>
+        <v>3915434.881159769</v>
       </c>
       <c r="G42" t="n">
-        <v>6555456.94006464</v>
+        <v>5167178.626173161</v>
       </c>
       <c r="H42" t="n">
-        <v>5149.665147445655</v>
+        <v>534617.7124719303</v>
       </c>
       <c r="I42" t="n">
-        <v>7348.659907075424</v>
+        <v>678446.6557972019</v>
       </c>
       <c r="J42" t="n">
-        <v>11301.00719550476</v>
+        <v>891170.4940634731</v>
       </c>
       <c r="K42" t="n">
-        <v>16865.37871804877</v>
+        <v>1165343.055751362</v>
       </c>
       <c r="L42" t="n">
-        <v>24560.13701464494</v>
+        <v>1537897.044032603</v>
       </c>
       <c r="M42" t="n">
-        <v>8.582328338011552</v>
+        <v>3</v>
       </c>
       <c r="N42" t="n">
-        <v>24.00000000000001</v>
+        <v>32620.37791999079</v>
       </c>
       <c r="O42" t="n">
-        <v>22080.39663614852</v>
+        <v>10000</v>
       </c>
       <c r="P42" t="n">
-        <v>102.5785065606801</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="S42" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -4090,9 +3965,6 @@
         <v>0</v>
       </c>
       <c r="AA42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4104,55 +3976,55 @@
         <v>42</v>
       </c>
       <c r="C43" t="n">
-        <v>1478146.593720773</v>
+        <v>1915884.071422089</v>
       </c>
       <c r="D43" t="n">
-        <v>2121134.134912024</v>
+        <v>2476345.275670725</v>
       </c>
       <c r="E43" t="n">
-        <v>3213548.782725452</v>
+        <v>3193526.91574027</v>
       </c>
       <c r="F43" t="n">
-        <v>4982281.024528716</v>
+        <v>4257105.642621064</v>
       </c>
       <c r="G43" t="n">
-        <v>7171651.272081203</v>
+        <v>5555845.998167073</v>
       </c>
       <c r="H43" t="n">
-        <v>4466.050586831346</v>
+        <v>553612.3746102491</v>
       </c>
       <c r="I43" t="n">
-        <v>6408.763777702377</v>
+        <v>715562.8092890544</v>
       </c>
       <c r="J43" t="n">
-        <v>9709.369481937378</v>
+        <v>922799.0594923694</v>
       </c>
       <c r="K43" t="n">
-        <v>15053.39131306652</v>
+        <v>1230129.943107039</v>
       </c>
       <c r="L43" t="n">
-        <v>21668.3226875388</v>
+        <v>1605412.948462525</v>
       </c>
       <c r="M43" t="n">
-        <v>9.427745069305022</v>
+        <v>3</v>
       </c>
       <c r="N43" t="n">
-        <v>24.00000000000001</v>
+        <v>33598.98925759051</v>
       </c>
       <c r="O43" t="n">
-        <v>22522.0045688715</v>
+        <v>10000</v>
       </c>
       <c r="P43" t="n">
-        <v>84.37909410636584</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>50.46780429006793</v>
       </c>
       <c r="S43" t="n">
-        <v>100</v>
+        <v>49.53219570993207</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -4176,9 +4048,6 @@
         <v>0</v>
       </c>
       <c r="AA43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4190,55 +4059,55 @@
         <v>43</v>
       </c>
       <c r="C44" t="n">
-        <v>1563524.275680579</v>
+        <v>2063185.375517385</v>
       </c>
       <c r="D44" t="n">
-        <v>2273697.698977816</v>
+        <v>2647751.51778507</v>
       </c>
       <c r="E44" t="n">
-        <v>3542141.51984972</v>
+        <v>3447382.19257579</v>
       </c>
       <c r="F44" t="n">
-        <v>5303449.324616609</v>
+        <v>4566068.118395276</v>
       </c>
       <c r="G44" t="n">
-        <v>7760023.893399991</v>
+        <v>5969481.116324893</v>
       </c>
       <c r="H44" t="n">
-        <v>3809.685057620868</v>
+        <v>578812.0826604712</v>
       </c>
       <c r="I44" t="n">
-        <v>5540.094441816239</v>
+        <v>742807.984470267</v>
       </c>
       <c r="J44" t="n">
-        <v>8630.786122125297</v>
+        <v>967138.7216531776</v>
       </c>
       <c r="K44" t="n">
-        <v>12922.39075536366</v>
+        <v>1280978.155690538</v>
       </c>
       <c r="L44" t="n">
-        <v>18908.08318956123</v>
+        <v>1674695.758482635</v>
       </c>
       <c r="M44" t="n">
-        <v>8.160948100352362</v>
+        <v>3</v>
       </c>
       <c r="N44" t="n">
-        <v>24.00000000000001</v>
+        <v>34606.95893531822</v>
       </c>
       <c r="O44" t="n">
-        <v>22972.44466024893</v>
+        <v>10000</v>
       </c>
       <c r="P44" t="n">
-        <v>69.40860966813965</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>50.93900238560317</v>
       </c>
       <c r="S44" t="n">
-        <v>100</v>
+        <v>49.06099761439683</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4262,9 +4131,6 @@
         <v>0</v>
       </c>
       <c r="AA44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4276,55 +4142,55 @@
         <v>44</v>
       </c>
       <c r="C45" t="n">
-        <v>1663176.282740756</v>
+        <v>2199025.841386517</v>
       </c>
       <c r="D45" t="n">
-        <v>2441342.282378297</v>
+        <v>2842582.868925193</v>
       </c>
       <c r="E45" t="n">
-        <v>3788719.511511426</v>
+        <v>3726073.896954154</v>
       </c>
       <c r="F45" t="n">
-        <v>5805819.344816666</v>
+        <v>4942468.44278497</v>
       </c>
       <c r="G45" t="n">
-        <v>8581657.908925211</v>
+        <v>6471071.05922135</v>
       </c>
       <c r="H45" t="n">
-        <v>3268.142946149567</v>
+        <v>598952.5881324837</v>
       </c>
       <c r="I45" t="n">
-        <v>4797.239860914353</v>
+        <v>774239.362849101</v>
       </c>
       <c r="J45" t="n">
-        <v>7444.837372308375</v>
+        <v>1014877.388956209</v>
       </c>
       <c r="K45" t="n">
-        <v>11408.44042527683</v>
+        <v>1346188.939600032</v>
       </c>
       <c r="L45" t="n">
-        <v>16862.96579163893</v>
+        <v>1762537.158938547</v>
       </c>
       <c r="M45" t="n">
-        <v>7.594532528656125</v>
+        <v>3</v>
       </c>
       <c r="N45" t="n">
-        <v>24.00000000000001</v>
+        <v>35645.16770337777</v>
       </c>
       <c r="O45" t="n">
-        <v>23431.89355345391</v>
+        <v>10000</v>
       </c>
       <c r="P45" t="n">
-        <v>57.09417892056648</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>51.61813073684991</v>
       </c>
       <c r="S45" t="n">
-        <v>100</v>
+        <v>48.38186926315009</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -4348,9 +4214,6 @@
         <v>0</v>
       </c>
       <c r="AA45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4362,55 +4225,55 @@
         <v>45</v>
       </c>
       <c r="C46" t="n">
-        <v>1760118.813093655</v>
+        <v>2378882.422951548</v>
       </c>
       <c r="D46" t="n">
-        <v>2591533.909193018</v>
+        <v>2996055.612411204</v>
       </c>
       <c r="E46" t="n">
-        <v>4102278.455769861</v>
+        <v>3996228.826676298</v>
       </c>
       <c r="F46" t="n">
-        <v>6281573.117744679</v>
+        <v>5340889.049569755</v>
       </c>
       <c r="G46" t="n">
-        <v>9676394.83144355</v>
+        <v>6960815.247053157</v>
       </c>
       <c r="H46" t="n">
-        <v>2789.221861831971</v>
+        <v>629068.3940229682</v>
       </c>
       <c r="I46" t="n">
-        <v>4106.747215828675</v>
+        <v>792272.822868053</v>
       </c>
       <c r="J46" t="n">
-        <v>6500.791121051875</v>
+        <v>1056757.251174474</v>
       </c>
       <c r="K46" t="n">
-        <v>9954.271800501007</v>
+        <v>1412337.349947343</v>
       </c>
       <c r="L46" t="n">
-        <v>15333.97166532311</v>
+        <v>1840708.404209982</v>
       </c>
       <c r="M46" t="n">
-        <v>8.06154522842532</v>
+        <v>3</v>
       </c>
       <c r="N46" t="n">
-        <v>24.00000000000001</v>
+        <v>36714.52273447911</v>
       </c>
       <c r="O46" t="n">
-        <v>23900.53142452298</v>
+        <v>10000</v>
       </c>
       <c r="P46" t="n">
-        <v>46.9645665314337</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>51.78115762400225</v>
       </c>
       <c r="S46" t="n">
-        <v>100</v>
+        <v>48.21884237599776</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4434,9 +4297,6 @@
         <v>0</v>
       </c>
       <c r="AA46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4448,55 +4308,55 @@
         <v>46</v>
       </c>
       <c r="C47" t="n">
-        <v>1884697.481044273</v>
+        <v>2523803.874123275</v>
       </c>
       <c r="D47" t="n">
-        <v>2803610.304659732</v>
+        <v>3197403.071639944</v>
       </c>
       <c r="E47" t="n">
-        <v>4311671.049517032</v>
+        <v>4308766.880960803</v>
       </c>
       <c r="F47" t="n">
-        <v>6748475.617047116</v>
+        <v>5881809.256106667</v>
       </c>
       <c r="G47" t="n">
-        <v>10735503.91686033</v>
+        <v>7578404.194622496</v>
       </c>
       <c r="H47" t="n">
-        <v>2408.579804460301</v>
+        <v>647952.643810466</v>
       </c>
       <c r="I47" t="n">
-        <v>3582.91939544519</v>
+        <v>820890.1629951344</v>
       </c>
       <c r="J47" t="n">
-        <v>5510.170156108421</v>
+        <v>1106217.848663608</v>
       </c>
       <c r="K47" t="n">
-        <v>8624.324192923683</v>
+        <v>1510075.28634019</v>
       </c>
       <c r="L47" t="n">
-        <v>13719.61186605249</v>
+        <v>1945653.180152826</v>
       </c>
       <c r="M47" t="n">
-        <v>7.684723357394216</v>
+        <v>3</v>
       </c>
       <c r="N47" t="n">
-        <v>24.00000000000001</v>
+        <v>37815.95841651348</v>
       </c>
       <c r="O47" t="n">
-        <v>24378.54205301345</v>
+        <v>10000</v>
       </c>
       <c r="P47" t="n">
-        <v>38.63214343714709</v>
+        <v>0</v>
       </c>
       <c r="Q47" t="n">
         <v>0</v>
       </c>
       <c r="R47" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="S47" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="T47" t="n">
         <v>0</v>
@@ -4520,9 +4380,6 @@
         <v>0</v>
       </c>
       <c r="AA47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4534,55 +4391,55 @@
         <v>47</v>
       </c>
       <c r="C48" t="n">
-        <v>1984994.33236396</v>
+        <v>2697034.687239896</v>
       </c>
       <c r="D48" t="n">
-        <v>2998154.056495402</v>
+        <v>3388205.465394208</v>
       </c>
       <c r="E48" t="n">
-        <v>4656283.705145527</v>
+        <v>4579473.726340355</v>
       </c>
       <c r="F48" t="n">
-        <v>7395133.043029523</v>
+        <v>6307863.003577277</v>
       </c>
       <c r="G48" t="n">
-        <v>11842480.94514071</v>
+        <v>8557800.47761941</v>
       </c>
       <c r="H48" t="n">
-        <v>2045.770804147632</v>
+        <v>672259.5352426731</v>
       </c>
       <c r="I48" t="n">
-        <v>3089.951409488694</v>
+        <v>844539.9097938979</v>
       </c>
       <c r="J48" t="n">
-        <v>4798.849600981376</v>
+        <v>1141473.965274131</v>
       </c>
       <c r="K48" t="n">
-        <v>7621.556911046786</v>
+        <v>1572290.141918418</v>
       </c>
       <c r="L48" t="n">
-        <v>12205.07352149022</v>
+        <v>2133106.777974571</v>
       </c>
       <c r="M48" t="n">
-        <v>8.090563337609916</v>
+        <v>3</v>
       </c>
       <c r="N48" t="n">
-        <v>24.00000000000001</v>
+        <v>38950.43716900889</v>
       </c>
       <c r="O48" t="n">
-        <v>24866.11289407371</v>
+        <v>10000</v>
       </c>
       <c r="P48" t="n">
-        <v>31.77805347249198</v>
+        <v>0</v>
       </c>
       <c r="Q48" t="n">
         <v>0</v>
       </c>
       <c r="R48" t="n">
-        <v>0</v>
+        <v>50.08916168071971</v>
       </c>
       <c r="S48" t="n">
-        <v>100</v>
+        <v>49.91083831928029</v>
       </c>
       <c r="T48" t="n">
         <v>0</v>
@@ -4606,9 +4463,6 @@
         <v>0</v>
       </c>
       <c r="AA48" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4620,55 +4474,55 @@
         <v>48</v>
       </c>
       <c r="C49" t="n">
-        <v>2141560.379144153</v>
+        <v>2874857.393069129</v>
       </c>
       <c r="D49" t="n">
-        <v>3140341.586615657</v>
+        <v>3650686.156027896</v>
       </c>
       <c r="E49" t="n">
-        <v>5043700.435082987</v>
+        <v>4898858.902993403</v>
       </c>
       <c r="F49" t="n">
-        <v>7991456.733802352</v>
+        <v>6858943.670696691</v>
       </c>
       <c r="G49" t="n">
-        <v>12642214.8497394</v>
+        <v>9173837.258907299</v>
       </c>
       <c r="H49" t="n">
-        <v>1779.944018926336</v>
+        <v>695712.0420219519</v>
       </c>
       <c r="I49" t="n">
-        <v>2610.074541403313</v>
+        <v>883461.6723996804</v>
       </c>
       <c r="J49" t="n">
-        <v>4192.038903087039</v>
+        <v>1185517.98054249</v>
       </c>
       <c r="K49" t="n">
-        <v>6642.047431567008</v>
+        <v>1659856.144084985</v>
       </c>
       <c r="L49" t="n">
-        <v>10507.49487472688</v>
+        <v>2220057.616756364</v>
       </c>
       <c r="M49" t="n">
-        <v>7.621814599194368</v>
+        <v>3</v>
       </c>
       <c r="N49" t="n">
-        <v>24.00000000000001</v>
+        <v>40118.95028407915</v>
       </c>
       <c r="O49" t="n">
-        <v>25363.43515195519</v>
+        <v>10000</v>
       </c>
       <c r="P49" t="n">
-        <v>26.14001172737242</v>
+        <v>0</v>
       </c>
       <c r="Q49" t="n">
         <v>0</v>
       </c>
       <c r="R49" t="n">
-        <v>0</v>
+        <v>50.29437930815809</v>
       </c>
       <c r="S49" t="n">
-        <v>100</v>
+        <v>49.70562069184191</v>
       </c>
       <c r="T49" t="n">
         <v>0</v>
@@ -4692,9 +4546,6 @@
         <v>0</v>
       </c>
       <c r="AA49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4706,55 +4557,55 @@
         <v>49</v>
       </c>
       <c r="C50" t="n">
-        <v>2194641.828198064</v>
+        <v>3030114.558495133</v>
       </c>
       <c r="D50" t="n">
-        <v>3364282.276386729</v>
+        <v>3938854.173114388</v>
       </c>
       <c r="E50" t="n">
-        <v>5378485.789445544</v>
+        <v>5227834.168967985</v>
       </c>
       <c r="F50" t="n">
-        <v>8668891.36345855</v>
+        <v>7305803.880789273</v>
       </c>
       <c r="G50" t="n">
-        <v>13888641.38925085</v>
+        <v>9975412.083741786</v>
       </c>
       <c r="H50" t="n">
-        <v>1471.018000822787</v>
+        <v>711926.3008677451</v>
       </c>
       <c r="I50" t="n">
-        <v>2255.001123567079</v>
+        <v>925434.9388412114</v>
       </c>
       <c r="J50" t="n">
-        <v>3605.075466888403</v>
+        <v>1228281.165485631</v>
       </c>
       <c r="K50" t="n">
-        <v>5810.558733993954</v>
+        <v>1716500.756426394</v>
       </c>
       <c r="L50" t="n">
-        <v>9309.237265078033</v>
+        <v>2343725.983725411</v>
       </c>
       <c r="M50" t="n">
-        <v>7.340061039183883</v>
+        <v>3</v>
       </c>
       <c r="N50" t="n">
-        <v>24.00000000000001</v>
+        <v>41322.51879260153</v>
       </c>
       <c r="O50" t="n">
-        <v>25870.70385499428</v>
+        <v>10000</v>
       </c>
       <c r="P50" t="n">
-        <v>21.50226771122571</v>
+        <v>0</v>
       </c>
       <c r="Q50" t="n">
         <v>0</v>
       </c>
       <c r="R50" t="n">
-        <v>0</v>
+        <v>50.37231896497272</v>
       </c>
       <c r="S50" t="n">
-        <v>100</v>
+        <v>49.62768103502728</v>
       </c>
       <c r="T50" t="n">
         <v>0</v>
@@ -4778,9 +4629,6 @@
         <v>0</v>
       </c>
       <c r="AA50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4792,55 +4640,55 @@
         <v>50</v>
       </c>
       <c r="C51" t="n">
-        <v>2361943.921625332</v>
+        <v>3313676.307476745</v>
       </c>
       <c r="D51" t="n">
-        <v>3552330.934412127</v>
+        <v>4162678.872662534</v>
       </c>
       <c r="E51" t="n">
-        <v>5790983.887539355</v>
+        <v>5638579.06983402</v>
       </c>
       <c r="F51" t="n">
-        <v>9336924.669875471</v>
+        <v>7771536.637010755</v>
       </c>
       <c r="G51" t="n">
-        <v>15254910.44307901</v>
+        <v>10561191.045943</v>
       </c>
       <c r="H51" t="n">
-        <v>1276.739315067591</v>
+        <v>755873.0258670134</v>
       </c>
       <c r="I51" t="n">
-        <v>1920.198241190162</v>
+        <v>949536.5217455535</v>
       </c>
       <c r="J51" t="n">
-        <v>3130.293117652296</v>
+        <v>1286199.805783463</v>
       </c>
       <c r="K51" t="n">
-        <v>5047.037187763285</v>
+        <v>1772742.527747605</v>
       </c>
       <c r="L51" t="n">
-        <v>8245.980665413799</v>
+        <v>2409082.448591749</v>
       </c>
       <c r="M51" t="n">
-        <v>8.472259812800155</v>
+        <v>3</v>
       </c>
       <c r="N51" t="n">
-        <v>24.00000000000001</v>
+        <v>42562.19435637957</v>
       </c>
       <c r="O51" t="n">
-        <v>26388.11793209419</v>
+        <v>10000</v>
       </c>
       <c r="P51" t="n">
-        <v>17.68734924633082</v>
+        <v>0</v>
       </c>
       <c r="Q51" t="n">
         <v>0</v>
       </c>
       <c r="R51" t="n">
-        <v>0</v>
+        <v>50.92240116455741</v>
       </c>
       <c r="S51" t="n">
-        <v>100</v>
+        <v>49.07759883544259</v>
       </c>
       <c r="T51" t="n">
         <v>0</v>
@@ -4864,9 +4712,6 @@
         <v>0</v>
       </c>
       <c r="AA51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4878,55 +4723,55 @@
         <v>51</v>
       </c>
       <c r="C52" t="n">
-        <v>2380682.574306958</v>
+        <v>3077498.681096833</v>
       </c>
       <c r="D52" t="n">
-        <v>3819677.52544379</v>
+        <v>4044673.351524281</v>
       </c>
       <c r="E52" t="n">
-        <v>6299505.356711015</v>
+        <v>5636103.116733858</v>
       </c>
       <c r="F52" t="n">
-        <v>10120998.34816868</v>
+        <v>8020324.742941135</v>
       </c>
       <c r="G52" t="n">
-        <v>16201208.41634628</v>
+        <v>11068886.50243089</v>
       </c>
       <c r="H52" t="n">
-        <v>1037.797111798142</v>
+        <v>681552.6574774915</v>
       </c>
       <c r="I52" t="n">
-        <v>1665.089813605166</v>
+        <v>895746.2397278048</v>
       </c>
       <c r="J52" t="n">
-        <v>2746.106740775715</v>
+        <v>1248189.34306028</v>
       </c>
       <c r="K52" t="n">
-        <v>4411.987959924023</v>
+        <v>1776206.656386221</v>
       </c>
       <c r="L52" t="n">
-        <v>7062.4985806932</v>
+        <v>2451350.851061872</v>
       </c>
       <c r="M52" t="n">
-        <v>7.759638486606149</v>
+        <v>3</v>
       </c>
       <c r="N52" t="n">
-        <v>24.00000000000001</v>
+        <v>0</v>
       </c>
       <c r="O52" t="n">
         <v>0</v>
       </c>
       <c r="P52" t="n">
-        <v>0</v>
+        <v>361233.8559414647</v>
       </c>
       <c r="Q52" t="n">
         <v>80000</v>
       </c>
       <c r="R52" t="n">
-        <v>34.87393482855248</v>
+        <v>50</v>
       </c>
       <c r="S52" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="T52" t="n">
         <v>0</v>
@@ -4950,9 +4795,6 @@
         <v>0</v>
       </c>
       <c r="AA52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4964,55 +4806,55 @@
         <v>52</v>
       </c>
       <c r="C53" t="n">
-        <v>2357863.104203577</v>
+        <v>2846793.724023063</v>
       </c>
       <c r="D53" t="n">
-        <v>3953035.840760637</v>
+        <v>3933094.428093295</v>
       </c>
       <c r="E53" t="n">
-        <v>6530265.052300932</v>
+        <v>5673444.127620227</v>
       </c>
       <c r="F53" t="n">
-        <v>10981124.00524654</v>
+        <v>8116788.48980656</v>
       </c>
       <c r="G53" t="n">
-        <v>17583644.17064157</v>
+        <v>11607057.28148036</v>
       </c>
       <c r="H53" t="n">
-        <v>828.910929744395</v>
+        <v>612097.0903484762</v>
       </c>
       <c r="I53" t="n">
-        <v>1389.696716588897</v>
+        <v>845665.6466488</v>
       </c>
       <c r="J53" t="n">
-        <v>2295.726187974965</v>
+        <v>1219863.108965761</v>
       </c>
       <c r="K53" t="n">
-        <v>3860.433497008277</v>
+        <v>1745213.422264924</v>
       </c>
       <c r="L53" t="n">
-        <v>6181.561097332769</v>
+        <v>2495665.888802791</v>
       </c>
       <c r="M53" t="n">
-        <v>7.639818037894985</v>
+        <v>3</v>
       </c>
       <c r="N53" t="n">
-        <v>24.00000000000001</v>
+        <v>0</v>
       </c>
       <c r="O53" t="n">
         <v>0</v>
       </c>
       <c r="P53" t="n">
-        <v>0</v>
+        <v>372070.8716197087</v>
       </c>
       <c r="Q53" t="n">
-        <v>82400</v>
+        <v>80000.00000000001</v>
       </c>
       <c r="R53" t="n">
-        <v>28.96786522049116</v>
+        <v>50.66738600573393</v>
       </c>
       <c r="S53" t="n">
-        <v>100</v>
+        <v>49.33261399426607</v>
       </c>
       <c r="T53" t="n">
         <v>0</v>
@@ -5036,9 +4878,6 @@
         <v>0</v>
       </c>
       <c r="AA53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5050,55 +4889,55 @@
         <v>53</v>
       </c>
       <c r="C54" t="n">
-        <v>2360797.157579219</v>
+        <v>2649308.654787848</v>
       </c>
       <c r="D54" t="n">
-        <v>4090503.317290577</v>
+        <v>3747502.080437821</v>
       </c>
       <c r="E54" t="n">
-        <v>6828648.937675275</v>
+        <v>5693557.682912617</v>
       </c>
       <c r="F54" t="n">
-        <v>11871988.17453277</v>
+        <v>8241316.421016185</v>
       </c>
       <c r="G54" t="n">
-        <v>18519219.28311357</v>
+        <v>12028633.62911903</v>
       </c>
       <c r="H54" t="n">
-        <v>669.3083882093005</v>
+        <v>553043.9539842762</v>
       </c>
       <c r="I54" t="n">
-        <v>1159.69649212384</v>
+        <v>782292.1517219737</v>
       </c>
       <c r="J54" t="n">
-        <v>1935.986748988291</v>
+        <v>1188531.826031307</v>
       </c>
       <c r="K54" t="n">
-        <v>3365.821262714632</v>
+        <v>1720377.205305025</v>
       </c>
       <c r="L54" t="n">
-        <v>5250.374336262478</v>
+        <v>2510980.776533541</v>
       </c>
       <c r="M54" t="n">
-        <v>7.320708986710102</v>
+        <v>3</v>
       </c>
       <c r="N54" t="n">
-        <v>24.00000000000001</v>
+        <v>0</v>
       </c>
       <c r="O54" t="n">
         <v>0</v>
       </c>
       <c r="P54" t="n">
-        <v>0</v>
+        <v>383232.9977682999</v>
       </c>
       <c r="Q54" t="n">
-        <v>84872</v>
+        <v>80000.00000000001</v>
       </c>
       <c r="R54" t="n">
-        <v>24.06201707831121</v>
+        <v>50.96001958396486</v>
       </c>
       <c r="S54" t="n">
-        <v>100</v>
+        <v>49.03998041603514</v>
       </c>
       <c r="T54" t="n">
         <v>0</v>
@@ -5122,9 +4961,6 @@
         <v>0</v>
       </c>
       <c r="AA54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5136,55 +4972,55 @@
         <v>54</v>
       </c>
       <c r="C55" t="n">
-        <v>2387709.167276028</v>
+        <v>2336731.192431778</v>
       </c>
       <c r="D55" t="n">
-        <v>4211503.349340172</v>
+        <v>3600097.106220625</v>
       </c>
       <c r="E55" t="n">
-        <v>7189870.230378233</v>
+        <v>5654345.625502052</v>
       </c>
       <c r="F55" t="n">
-        <v>12648569.43215826</v>
+        <v>8458881.614123784</v>
       </c>
       <c r="G55" t="n">
-        <v>19772722.58551659</v>
+        <v>12587977.46994773</v>
       </c>
       <c r="H55" t="n">
-        <v>545.9179018065539</v>
+        <v>473585.7452410712</v>
       </c>
       <c r="I55" t="n">
-        <v>962.9041524123245</v>
+        <v>729632.3498876287</v>
       </c>
       <c r="J55" t="n">
-        <v>1643.868074145454</v>
+        <v>1145967.279239014</v>
       </c>
       <c r="K55" t="n">
-        <v>2891.926948178484</v>
+        <v>1714363.109503348</v>
       </c>
       <c r="L55" t="n">
-        <v>4520.769687877325</v>
+        <v>2551207.734330384</v>
       </c>
       <c r="M55" t="n">
-        <v>7.809889954288648</v>
+        <v>3</v>
       </c>
       <c r="N55" t="n">
-        <v>24.00000000000001</v>
+        <v>0</v>
       </c>
       <c r="O55" t="n">
         <v>0</v>
       </c>
       <c r="P55" t="n">
-        <v>0</v>
+        <v>394729.987701349</v>
       </c>
       <c r="Q55" t="n">
-        <v>87418.16</v>
+        <v>80000</v>
       </c>
       <c r="R55" t="n">
-        <v>19.98699805698431</v>
+        <v>51.23801456758605</v>
       </c>
       <c r="S55" t="n">
-        <v>100</v>
+        <v>48.76198543241394</v>
       </c>
       <c r="T55" t="n">
         <v>0</v>
@@ -5208,9 +5044,6 @@
         <v>0</v>
       </c>
       <c r="AA55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5222,55 +5055,55 @@
         <v>55</v>
       </c>
       <c r="C56" t="n">
-        <v>2500140.420696857</v>
+        <v>2081492.068902762</v>
       </c>
       <c r="D56" t="n">
-        <v>4370860.000424447</v>
+        <v>3414621.188244029</v>
       </c>
       <c r="E56" t="n">
-        <v>7534657.240231401</v>
+        <v>5548645.580869023</v>
       </c>
       <c r="F56" t="n">
-        <v>13535395.39195623</v>
+        <v>8691933.267020324</v>
       </c>
       <c r="G56" t="n">
-        <v>21294709.54977351</v>
+        <v>12990054.68966932</v>
       </c>
       <c r="H56" t="n">
-        <v>460.9869439936555</v>
+        <v>409569.3054549157</v>
       </c>
       <c r="I56" t="n">
-        <v>805.9184906334833</v>
+        <v>671885.3505879387</v>
       </c>
       <c r="J56" t="n">
-        <v>1389.273412989267</v>
+        <v>1091791.292757588</v>
       </c>
       <c r="K56" t="n">
-        <v>2495.716042919121</v>
+        <v>1710287.117793623</v>
       </c>
       <c r="L56" t="n">
-        <v>3926.412691590521</v>
+        <v>2556016.309912626</v>
       </c>
       <c r="M56" t="n">
-        <v>7.672113067429214</v>
+        <v>3</v>
       </c>
       <c r="N56" t="n">
-        <v>24.00000000000001</v>
+        <v>0</v>
       </c>
       <c r="O56" t="n">
         <v>0</v>
       </c>
       <c r="P56" t="n">
-        <v>0</v>
+        <v>406571.8873323894</v>
       </c>
       <c r="Q56" t="n">
-        <v>90040.70479999998</v>
+        <v>80000</v>
       </c>
       <c r="R56" t="n">
-        <v>16.60210322475311</v>
+        <v>51.87206799685288</v>
       </c>
       <c r="S56" t="n">
-        <v>100</v>
+        <v>48.12793200314712</v>
       </c>
       <c r="T56" t="n">
         <v>0</v>
@@ -5294,9 +5127,6 @@
         <v>0</v>
       </c>
       <c r="AA56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5308,55 +5138,55 @@
         <v>56</v>
       </c>
       <c r="C57" t="n">
-        <v>2536027.348806471</v>
+        <v>1846134.052459337</v>
       </c>
       <c r="D57" t="n">
-        <v>4500120.017545495</v>
+        <v>3254391.81916431</v>
       </c>
       <c r="E57" t="n">
-        <v>7995093.322602727</v>
+        <v>5544793.486560415</v>
       </c>
       <c r="F57" t="n">
-        <v>14530261.28966352</v>
+        <v>8739219.364886478</v>
       </c>
       <c r="G57" t="n">
-        <v>22960592.35505346</v>
+        <v>13749701.63839802</v>
       </c>
       <c r="H57" t="n">
-        <v>377.0999471420315</v>
+        <v>352678.2276044935</v>
       </c>
       <c r="I57" t="n">
-        <v>669.1548581082376</v>
+        <v>621706.282479567</v>
       </c>
       <c r="J57" t="n">
-        <v>1188.847301180731</v>
+        <v>1059255.657338643</v>
       </c>
       <c r="K57" t="n">
-        <v>2160.607915711464</v>
+        <v>1669506.281057517</v>
       </c>
       <c r="L57" t="n">
-        <v>3414.173813036878</v>
+        <v>2626689.214394209</v>
       </c>
       <c r="M57" t="n">
-        <v>8.363112817043818</v>
+        <v>3</v>
       </c>
       <c r="N57" t="n">
-        <v>24.00000000000001</v>
+        <v>0</v>
       </c>
       <c r="O57" t="n">
         <v>0</v>
       </c>
       <c r="P57" t="n">
-        <v>0</v>
+        <v>418769.0439523611</v>
       </c>
       <c r="Q57" t="n">
-        <v>92741.925944</v>
+        <v>80000</v>
       </c>
       <c r="R57" t="n">
-        <v>13.79045671088362</v>
+        <v>50</v>
       </c>
       <c r="S57" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="T57" t="n">
         <v>0</v>
@@ -5380,9 +5210,6 @@
         <v>0</v>
       </c>
       <c r="AA57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5394,55 +5221,55 @@
         <v>57</v>
       </c>
       <c r="C58" t="n">
-        <v>2532756.510463884</v>
+        <v>1554785.539545521</v>
       </c>
       <c r="D58" t="n">
-        <v>4691395.820774866</v>
+        <v>3012308.121383045</v>
       </c>
       <c r="E58" t="n">
-        <v>8334704.172170411</v>
+        <v>5440297.709380392</v>
       </c>
       <c r="F58" t="n">
-        <v>15568105.00585434</v>
+        <v>9022571.601844244</v>
       </c>
       <c r="G58" t="n">
-        <v>25042544.70751237</v>
+        <v>14501890.81912265</v>
       </c>
       <c r="H58" t="n">
-        <v>303.7206313878769</v>
+        <v>288369.0751510893</v>
       </c>
       <c r="I58" t="n">
-        <v>562.5782403043625</v>
+        <v>558698.6017938273</v>
       </c>
       <c r="J58" t="n">
-        <v>999.4729470221082</v>
+        <v>1009022.517317207</v>
       </c>
       <c r="K58" t="n">
-        <v>1866.880871633741</v>
+        <v>1673433.770852312</v>
       </c>
       <c r="L58" t="n">
-        <v>3003.027515160443</v>
+        <v>2689693.6825608</v>
       </c>
       <c r="M58" t="n">
-        <v>7.669319111946532</v>
+        <v>3</v>
       </c>
       <c r="N58" t="n">
-        <v>24.00000000000001</v>
+        <v>0</v>
       </c>
       <c r="O58" t="n">
         <v>0</v>
       </c>
       <c r="P58" t="n">
-        <v>0</v>
+        <v>431332.1152709319</v>
       </c>
       <c r="Q58" t="n">
-        <v>95524.18372231998</v>
+        <v>80000</v>
       </c>
       <c r="R58" t="n">
-        <v>11.45497613887914</v>
+        <v>50.45752344698401</v>
       </c>
       <c r="S58" t="n">
-        <v>100</v>
+        <v>49.54247655301599</v>
       </c>
       <c r="T58" t="n">
         <v>0</v>
@@ -5466,9 +5293,6 @@
         <v>0</v>
       </c>
       <c r="AA58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5480,55 +5304,55 @@
         <v>58</v>
       </c>
       <c r="C59" t="n">
-        <v>2515984.182832171</v>
+        <v>1153885.848524836</v>
       </c>
       <c r="D59" t="n">
-        <v>4803935.255794782</v>
+        <v>2757991.426850852</v>
       </c>
       <c r="E59" t="n">
-        <v>8976542.946461394</v>
+        <v>5409711.737831119</v>
       </c>
       <c r="F59" t="n">
-        <v>16841116.04611653</v>
+        <v>9297107.75218863</v>
       </c>
       <c r="G59" t="n">
-        <v>27409682.66826195</v>
+        <v>14412931.05012393</v>
       </c>
       <c r="H59" t="n">
-        <v>243.3139868700389</v>
+        <v>207780.0345816529</v>
       </c>
       <c r="I59" t="n">
-        <v>464.5755119323569</v>
+        <v>496631.06171168</v>
       </c>
       <c r="J59" t="n">
-        <v>868.097052245793</v>
+        <v>974125.901102192</v>
       </c>
       <c r="K59" t="n">
-        <v>1628.658525153747</v>
+        <v>1674128.660758533</v>
       </c>
       <c r="L59" t="n">
-        <v>2650.715856786564</v>
+        <v>2595334.118921965</v>
       </c>
       <c r="M59" t="n">
-        <v>7.250586185066155</v>
+        <v>3</v>
       </c>
       <c r="N59" t="n">
-        <v>24.00000000000001</v>
+        <v>0</v>
       </c>
       <c r="O59" t="n">
         <v>0</v>
       </c>
       <c r="P59" t="n">
-        <v>0</v>
+        <v>444272.0787290599</v>
       </c>
       <c r="Q59" t="n">
-        <v>98389.90923398963</v>
+        <v>79999.99999999999</v>
       </c>
       <c r="R59" t="n">
-        <v>9.515020502456057</v>
+        <v>51.19317090416545</v>
       </c>
       <c r="S59" t="n">
-        <v>100</v>
+        <v>48.80682909583454</v>
       </c>
       <c r="T59" t="n">
         <v>0</v>
@@ -5552,9 +5376,6 @@
         <v>0</v>
       </c>
       <c r="AA59" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5566,55 +5387,55 @@
         <v>59</v>
       </c>
       <c r="C60" t="n">
-        <v>2539108.7486276</v>
+        <v>759444.7452104356</v>
       </c>
       <c r="D60" t="n">
-        <v>4977398.214856368</v>
+        <v>2501839.569660418</v>
       </c>
       <c r="E60" t="n">
-        <v>9605072.117126059</v>
+        <v>5219641.752315176</v>
       </c>
       <c r="F60" t="n">
-        <v>17773501.82913947</v>
+        <v>9256624.17025806</v>
       </c>
       <c r="G60" t="n">
-        <v>30058722.35630004</v>
+        <v>15767506.98281714</v>
       </c>
       <c r="H60" t="n">
-        <v>198.0244360722005</v>
+        <v>132769.9904003369</v>
       </c>
       <c r="I60" t="n">
-        <v>388.1860023271771</v>
+        <v>437384.3097103206</v>
       </c>
       <c r="J60" t="n">
-        <v>749.0970957643169</v>
+        <v>912524.3011011365</v>
       </c>
       <c r="K60" t="n">
-        <v>1386.150821088668</v>
+        <v>1618290.086244712</v>
       </c>
       <c r="L60" t="n">
-        <v>2344.271999722122</v>
+        <v>2756555.712510459</v>
       </c>
       <c r="M60" t="n">
-        <v>8.593418281288423</v>
+        <v>3</v>
       </c>
       <c r="N60" t="n">
-        <v>24.00000000000001</v>
+        <v>0</v>
       </c>
       <c r="O60" t="n">
         <v>0</v>
       </c>
       <c r="P60" t="n">
-        <v>0</v>
+        <v>457600.2410909317</v>
       </c>
       <c r="Q60" t="n">
-        <v>101341.6065110093</v>
+        <v>80000</v>
       </c>
       <c r="R60" t="n">
-        <v>7.903605739943342</v>
+        <v>50.96334849082957</v>
       </c>
       <c r="S60" t="n">
-        <v>100</v>
+        <v>49.03665150917044</v>
       </c>
       <c r="T60" t="n">
         <v>0</v>
@@ -5638,9 +5459,6 @@
         <v>0</v>
       </c>
       <c r="AA60" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5652,55 +5470,55 @@
         <v>60</v>
       </c>
       <c r="C61" t="n">
-        <v>2597573.620890773</v>
+        <v>400895.6416070898</v>
       </c>
       <c r="D61" t="n">
-        <v>5176703.16621324</v>
+        <v>2152945.374016924</v>
       </c>
       <c r="E61" t="n">
-        <v>10048869.34616373</v>
+        <v>5069180.312182098</v>
       </c>
       <c r="F61" t="n">
-        <v>18535795.19315858</v>
+        <v>9414790.890621847</v>
       </c>
       <c r="G61" t="n">
-        <v>32800077.32146705</v>
+        <v>15792465.09988838</v>
       </c>
       <c r="H61" t="n">
-        <v>163.3742712683635</v>
+        <v>68045.25602408554</v>
       </c>
       <c r="I61" t="n">
-        <v>325.5885032674041</v>
+        <v>365426.0709684436</v>
       </c>
       <c r="J61" t="n">
-        <v>632.0231670421363</v>
+        <v>860407.6382370542</v>
       </c>
       <c r="K61" t="n">
-        <v>1165.807970833738</v>
+        <v>1598001.549723663</v>
       </c>
       <c r="L61" t="n">
-        <v>2062.959327444597</v>
+        <v>2680503.900380482</v>
       </c>
       <c r="M61" t="n">
-        <v>7.846210477332372</v>
+        <v>3</v>
       </c>
       <c r="N61" t="n">
-        <v>24.00000000000001</v>
+        <v>0</v>
       </c>
       <c r="O61" t="n">
         <v>0</v>
       </c>
       <c r="P61" t="n">
-        <v>0</v>
+        <v>471328.2483236596</v>
       </c>
       <c r="Q61" t="n">
-        <v>104381.8547063396</v>
+        <v>79999.99999999999</v>
       </c>
       <c r="R61" t="n">
-        <v>6.565091864630358</v>
+        <v>51.65621032288421</v>
       </c>
       <c r="S61" t="n">
-        <v>100</v>
+        <v>48.34378967711579</v>
       </c>
       <c r="T61" t="n">
         <v>0</v>
@@ -5724,9 +5542,6 @@
         <v>0</v>
       </c>
       <c r="AA61" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5738,55 +5553,55 @@
         <v>61</v>
       </c>
       <c r="C62" t="n">
-        <v>2669304.324083657</v>
+        <v>205780.6734242356</v>
       </c>
       <c r="D62" t="n">
-        <v>5462537.045495145</v>
+        <v>1747379.471549225</v>
       </c>
       <c r="E62" t="n">
-        <v>10722271.23868856</v>
+        <v>4923157.219702564</v>
       </c>
       <c r="F62" t="n">
-        <v>20179239.94754025</v>
+        <v>9544659.757844985</v>
       </c>
       <c r="G62" t="n">
-        <v>35098780.21143422</v>
+        <v>16578306.70494244</v>
       </c>
       <c r="H62" t="n">
-        <v>135.3917503929609</v>
+        <v>33910.47530675217</v>
       </c>
       <c r="I62" t="n">
-        <v>277.069364292088</v>
+        <v>287949.6282886448</v>
       </c>
       <c r="J62" t="n">
-        <v>543.8522157613108</v>
+        <v>811284.1626570387</v>
       </c>
       <c r="K62" t="n">
-        <v>1023.526090092757</v>
+        <v>1572858.828984833</v>
       </c>
       <c r="L62" t="n">
-        <v>1780.271079100445</v>
+        <v>2731929.343951232</v>
       </c>
       <c r="M62" t="n">
-        <v>8.350769693989978</v>
+        <v>3</v>
       </c>
       <c r="N62" t="n">
-        <v>24.00000000000001</v>
+        <v>0</v>
       </c>
       <c r="O62" t="n">
         <v>0</v>
       </c>
       <c r="P62" t="n">
-        <v>0</v>
+        <v>485468.0957733694</v>
       </c>
       <c r="Q62" t="n">
-        <v>107513.3103475298</v>
+        <v>79999.99999999999</v>
       </c>
       <c r="R62" t="n">
-        <v>5.453261790781665</v>
+        <v>50</v>
       </c>
       <c r="S62" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="T62" t="n">
         <v>0</v>
@@ -5810,9 +5625,6 @@
         <v>0</v>
       </c>
       <c r="AA62" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5824,55 +5636,55 @@
         <v>62</v>
       </c>
       <c r="C63" t="n">
-        <v>2654357.731256627</v>
+        <v>69396.00819889283</v>
       </c>
       <c r="D63" t="n">
-        <v>5729958.211317849</v>
+        <v>1360033.235463885</v>
       </c>
       <c r="E63" t="n">
-        <v>11229459.38968266</v>
+        <v>4782605.87014712</v>
       </c>
       <c r="F63" t="n">
-        <v>21293997.18036404</v>
+        <v>10016982.69710155</v>
       </c>
       <c r="G63" t="n">
-        <v>37284762.41497113</v>
+        <v>17187644.7804523</v>
       </c>
       <c r="H63" t="n">
-        <v>108.5755106862709</v>
+        <v>11102.64766368433</v>
       </c>
       <c r="I63" t="n">
-        <v>234.381798534102</v>
+        <v>217591.3314924222</v>
       </c>
       <c r="J63" t="n">
-        <v>459.3368382898108</v>
+        <v>765167.7563113646</v>
       </c>
       <c r="K63" t="n">
-        <v>871.022994069261</v>
+        <v>1602614.219832247</v>
       </c>
       <c r="L63" t="n">
-        <v>1525.119267968927</v>
+        <v>2749846.412188437</v>
       </c>
       <c r="M63" t="n">
-        <v>7.573660977021736</v>
+        <v>3</v>
       </c>
       <c r="N63" t="n">
-        <v>24.00000000000001</v>
+        <v>0</v>
       </c>
       <c r="O63" t="n">
         <v>0</v>
       </c>
       <c r="P63" t="n">
-        <v>0</v>
+        <v>500032.1386465705</v>
       </c>
       <c r="Q63" t="n">
-        <v>110738.7096579557</v>
+        <v>79999.99999999999</v>
       </c>
       <c r="R63" t="n">
-        <v>4.529725519762189</v>
+        <v>50.41952973482836</v>
       </c>
       <c r="S63" t="n">
-        <v>100</v>
+        <v>49.58047026517165</v>
       </c>
       <c r="T63" t="n">
         <v>0</v>
@@ -5896,9 +5708,6 @@
         <v>0</v>
       </c>
       <c r="AA63" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5910,55 +5719,55 @@
         <v>63</v>
       </c>
       <c r="C64" t="n">
-        <v>2765206.483767494</v>
+        <v>27260.85592194629</v>
       </c>
       <c r="D64" t="n">
-        <v>5769421.316209447</v>
+        <v>914385.1603124054</v>
       </c>
       <c r="E64" t="n">
-        <v>11512603.90206573</v>
+        <v>4471584.810734843</v>
       </c>
       <c r="F64" t="n">
-        <v>22618138.89222803</v>
+        <v>10200435.58357478</v>
       </c>
       <c r="G64" t="n">
-        <v>40441792.1380864</v>
+        <v>17700886.3594639</v>
       </c>
       <c r="H64" t="n">
-        <v>91.2175302159619</v>
+        <v>4234.423888239506</v>
       </c>
       <c r="I64" t="n">
-        <v>190.3193726505816</v>
+        <v>142031.2838659442</v>
       </c>
       <c r="J64" t="n">
-        <v>379.7731925141042</v>
+        <v>694570.4711208756</v>
       </c>
       <c r="K64" t="n">
-        <v>746.1181578815185</v>
+        <v>1584431.839895567</v>
       </c>
       <c r="L64" t="n">
-        <v>1334.077732711453</v>
+        <v>2749475.521169751</v>
       </c>
       <c r="M64" t="n">
-        <v>7.001106504772206</v>
+        <v>3</v>
       </c>
       <c r="N64" t="n">
-        <v>24.00000000000001</v>
+        <v>0</v>
       </c>
       <c r="O64" t="n">
         <v>0</v>
       </c>
       <c r="P64" t="n">
-        <v>0</v>
+        <v>515033.1028059676</v>
       </c>
       <c r="Q64" t="n">
-        <v>114060.8709476943</v>
+        <v>79999.99999999997</v>
       </c>
       <c r="R64" t="n">
-        <v>3.762594584963756</v>
+        <v>50.96222593668632</v>
       </c>
       <c r="S64" t="n">
-        <v>100</v>
+        <v>49.03777406331368</v>
       </c>
       <c r="T64" t="n">
         <v>0</v>
@@ -5982,9 +5791,6 @@
         <v>0</v>
       </c>
       <c r="AA64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5996,55 +5802,55 @@
         <v>64</v>
       </c>
       <c r="C65" t="n">
-        <v>2890090.036936579</v>
+        <v>4935.95125441755</v>
       </c>
       <c r="D65" t="n">
-        <v>6109014.45328477</v>
+        <v>466556.5103818482</v>
       </c>
       <c r="E65" t="n">
-        <v>12341348.88623487</v>
+        <v>4188616.750412696</v>
       </c>
       <c r="F65" t="n">
-        <v>24457251.83450471</v>
+        <v>10319463.93568907</v>
       </c>
       <c r="G65" t="n">
-        <v>42588756.00824457</v>
+        <v>18557110.0431332</v>
       </c>
       <c r="H65" t="n">
-        <v>76.88478962242399</v>
+        <v>744.3693475688578</v>
       </c>
       <c r="I65" t="n">
-        <v>162.5175288791371</v>
+        <v>70359.35878137439</v>
       </c>
       <c r="J65" t="n">
-        <v>328.3157274161858</v>
+        <v>631667.0803688078</v>
       </c>
       <c r="K65" t="n">
-        <v>650.6339380456477</v>
+        <v>1556233.487961311</v>
       </c>
       <c r="L65" t="n">
-        <v>1132.984614363585</v>
+        <v>2798517.080817597</v>
       </c>
       <c r="M65" t="n">
-        <v>7.226788999165068</v>
+        <v>3</v>
       </c>
       <c r="N65" t="n">
-        <v>24.00000000000001</v>
+        <v>0</v>
       </c>
       <c r="O65" t="n">
         <v>0</v>
       </c>
       <c r="P65" t="n">
-        <v>0</v>
+        <v>530484.0958901467</v>
       </c>
       <c r="Q65" t="n">
-        <v>117482.6970761251</v>
+        <v>79999.99999999999</v>
       </c>
       <c r="R65" t="n">
-        <v>3.125380985897314</v>
+        <v>51.21588605516858</v>
       </c>
       <c r="S65" t="n">
-        <v>100</v>
+        <v>48.78411394483141</v>
       </c>
       <c r="T65" t="n">
         <v>0</v>
@@ -6068,9 +5874,6 @@
         <v>0</v>
       </c>
       <c r="AA65" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6082,55 +5885,55 @@
         <v>65</v>
       </c>
       <c r="C66" t="n">
-        <v>2899474.069294117</v>
+        <v>1987.470109880987</v>
       </c>
       <c r="D66" t="n">
-        <v>6270966.410486408</v>
+        <v>304220.8854997881</v>
       </c>
       <c r="E66" t="n">
-        <v>12584219.2964322</v>
+        <v>3894339.657143486</v>
       </c>
       <c r="F66" t="n">
-        <v>26894381.54173773</v>
+        <v>10373510.1067857</v>
       </c>
       <c r="G66" t="n">
-        <v>47362396.54133125</v>
+        <v>19029100.46460079</v>
       </c>
       <c r="H66" t="n">
-        <v>62.20518720989427</v>
+        <v>290.9919669074482</v>
       </c>
       <c r="I66" t="n">
-        <v>134.5370333476488</v>
+        <v>44541.96991732871</v>
       </c>
       <c r="J66" t="n">
-        <v>269.9812788515484</v>
+        <v>570182.9431315168</v>
       </c>
       <c r="K66" t="n">
-        <v>576.9908606581911</v>
+        <v>1518819.374792319</v>
       </c>
       <c r="L66" t="n">
-        <v>1016.110740483364</v>
+        <v>2786112.528255936</v>
       </c>
       <c r="M66" t="n">
-        <v>8.549351660038788</v>
+        <v>3</v>
       </c>
       <c r="N66" t="n">
-        <v>24.00000000000001</v>
+        <v>0</v>
       </c>
       <c r="O66" t="n">
         <v>0</v>
       </c>
       <c r="P66" t="n">
-        <v>0</v>
+        <v>546398.6187668511</v>
       </c>
       <c r="Q66" t="n">
-        <v>121007.1779884089</v>
+        <v>79999.99999999999</v>
       </c>
       <c r="R66" t="n">
-        <v>2.596082593124381</v>
+        <v>51.38824090846647</v>
       </c>
       <c r="S66" t="n">
-        <v>100</v>
+        <v>48.61175909153353</v>
       </c>
       <c r="T66" t="n">
         <v>0</v>
@@ -6154,9 +5957,6 @@
         <v>0</v>
       </c>
       <c r="AA66" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6168,55 +5968,55 @@
         <v>66</v>
       </c>
       <c r="C67" t="n">
-        <v>2812242.587365366</v>
+        <v>666.6356385502201</v>
       </c>
       <c r="D67" t="n">
-        <v>6566072.906803649</v>
+        <v>150550.6509843307</v>
       </c>
       <c r="E67" t="n">
-        <v>13448179.22289594</v>
+        <v>3628490.832325303</v>
       </c>
       <c r="F67" t="n">
-        <v>28877972.75529664</v>
+        <v>10753889.10476838</v>
       </c>
       <c r="G67" t="n">
-        <v>52514966.11210284</v>
+        <v>19772922.53072422</v>
       </c>
       <c r="H67" t="n">
-        <v>48.65623136436952</v>
+        <v>94.76144987544789</v>
       </c>
       <c r="I67" t="n">
-        <v>113.6034152757995</v>
+        <v>21400.59298058811</v>
       </c>
       <c r="J67" t="n">
-        <v>232.6747068828599</v>
+        <v>515785.5839791164</v>
       </c>
       <c r="K67" t="n">
-        <v>499.6344661119817</v>
+        <v>1528652.33185529</v>
       </c>
       <c r="L67" t="n">
-        <v>908.5917241713869</v>
+        <v>2810697.026881476</v>
       </c>
       <c r="M67" t="n">
-        <v>7.59923866092976</v>
+        <v>3</v>
       </c>
       <c r="N67" t="n">
-        <v>24.00000000000001</v>
+        <v>0</v>
       </c>
       <c r="O67" t="n">
         <v>0</v>
       </c>
       <c r="P67" t="n">
-        <v>0</v>
+        <v>562790.5773298567</v>
       </c>
       <c r="Q67" t="n">
-        <v>124637.3933280612</v>
+        <v>79999.99999999999</v>
       </c>
       <c r="R67" t="n">
-        <v>2.156423444288802</v>
+        <v>50</v>
       </c>
       <c r="S67" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="T67" t="n">
         <v>0</v>
@@ -6240,9 +6040,6 @@
         <v>0</v>
       </c>
       <c r="AA67" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6254,55 +6051,55 @@
         <v>67</v>
       </c>
       <c r="C68" t="n">
-        <v>2916174.093842846</v>
+        <v>191.1222416903749</v>
       </c>
       <c r="D68" t="n">
-        <v>6686038.239710406</v>
+        <v>33935.24237647468</v>
       </c>
       <c r="E68" t="n">
-        <v>14233814.66349368</v>
+        <v>3412470.125475961</v>
       </c>
       <c r="F68" t="n">
-        <v>29829011.55433608</v>
+        <v>10849249.93051399</v>
       </c>
       <c r="G68" t="n">
-        <v>55422719.10074522</v>
+        <v>20438739.77142737</v>
       </c>
       <c r="H68" t="n">
-        <v>40.68904057677026</v>
+        <v>26.37650052167364</v>
       </c>
       <c r="I68" t="n">
-        <v>93.28951992537492</v>
+        <v>4683.353074605985</v>
       </c>
       <c r="J68" t="n">
-        <v>198.60277328022</v>
+        <v>470950.0016781422</v>
       </c>
       <c r="K68" t="n">
-        <v>416.2007556619963</v>
+        <v>1497289.085357047</v>
       </c>
       <c r="L68" t="n">
-        <v>773.306803296323</v>
+        <v>2820720.526691873</v>
       </c>
       <c r="M68" t="n">
-        <v>7.900611764882782</v>
+        <v>3</v>
       </c>
       <c r="N68" t="n">
-        <v>24.00000000000001</v>
+        <v>0</v>
       </c>
       <c r="O68" t="n">
         <v>0</v>
       </c>
       <c r="P68" t="n">
-        <v>0</v>
+        <v>579674.2946497524</v>
       </c>
       <c r="Q68" t="n">
-        <v>128376.5151279031</v>
+        <v>80000</v>
       </c>
       <c r="R68" t="n">
-        <v>1.791222699691503</v>
+        <v>50.63537422346554</v>
       </c>
       <c r="S68" t="n">
-        <v>100</v>
+        <v>49.36462577653445</v>
       </c>
       <c r="T68" t="n">
         <v>0</v>
@@ -6326,9 +6123,6 @@
         <v>0</v>
       </c>
       <c r="AA68" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6340,55 +6134,55 @@
         <v>68</v>
       </c>
       <c r="C69" t="n">
-        <v>2836886.795270424</v>
+        <v>76.51186064909619</v>
       </c>
       <c r="D69" t="n">
-        <v>7212569.457521835</v>
+        <v>20277.41986419353</v>
       </c>
       <c r="E69" t="n">
-        <v>15241521.38785468</v>
+        <v>2991938.123927111</v>
       </c>
       <c r="F69" t="n">
-        <v>31947890.96275891</v>
+        <v>11010791.16361644</v>
       </c>
       <c r="G69" t="n">
-        <v>60278016.56205994</v>
+        <v>21785437.46229696</v>
       </c>
       <c r="H69" t="n">
-        <v>31.92157584702282</v>
+        <v>10.25173764496485</v>
       </c>
       <c r="I69" t="n">
-        <v>81.15818487154556</v>
+        <v>2716.948546290078</v>
       </c>
       <c r="J69" t="n">
-        <v>171.5025716985105</v>
+        <v>400886.4042287724</v>
       </c>
       <c r="K69" t="n">
-        <v>359.4880931520954</v>
+        <v>1475323.450707723</v>
       </c>
       <c r="L69" t="n">
-        <v>678.267910020877</v>
+        <v>2919006.118130465</v>
       </c>
       <c r="M69" t="n">
-        <v>9.03182984807224</v>
+        <v>3</v>
       </c>
       <c r="N69" t="n">
-        <v>24.00000000000001</v>
+        <v>0</v>
       </c>
       <c r="O69" t="n">
         <v>0</v>
       </c>
       <c r="P69" t="n">
-        <v>0</v>
+        <v>597064.523489245</v>
       </c>
       <c r="Q69" t="n">
-        <v>132227.8105817402</v>
+        <v>79999.99999999999</v>
       </c>
       <c r="R69" t="n">
-        <v>1.487870468292137</v>
+        <v>51.13925943054991</v>
       </c>
       <c r="S69" t="n">
-        <v>100</v>
+        <v>48.86074056945009</v>
       </c>
       <c r="T69" t="n">
         <v>0</v>
@@ -6412,9 +6206,6 @@
         <v>0</v>
       </c>
       <c r="AA69" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6426,55 +6217,55 @@
         <v>69</v>
       </c>
       <c r="C70" t="n">
-        <v>2872396.058832542</v>
+        <v>26.31623783411009</v>
       </c>
       <c r="D70" t="n">
-        <v>7482460.743042208</v>
+        <v>3967.459627599062</v>
       </c>
       <c r="E70" t="n">
-        <v>15568562.37210185</v>
+        <v>2536013.21022516</v>
       </c>
       <c r="F70" t="n">
-        <v>34761844.2889156</v>
+        <v>11166007.54866887</v>
       </c>
       <c r="G70" t="n">
-        <v>64881136.31289756</v>
+        <v>22743470.0470461</v>
       </c>
       <c r="H70" t="n">
-        <v>26.06543360215855</v>
+        <v>3.423381489249717</v>
       </c>
       <c r="I70" t="n">
-        <v>67.8992658685774</v>
+        <v>516.1120648812334</v>
       </c>
       <c r="J70" t="n">
-        <v>141.2762448072774</v>
+        <v>329900.5251094297</v>
       </c>
       <c r="K70" t="n">
-        <v>315.4448500982739</v>
+        <v>1452544.386925595</v>
       </c>
       <c r="L70" t="n">
-        <v>588.7610607862287</v>
+        <v>2958613.417737258</v>
       </c>
       <c r="M70" t="n">
-        <v>7.481829548664789</v>
+        <v>3</v>
       </c>
       <c r="N70" t="n">
-        <v>24.00000000000001</v>
+        <v>0</v>
       </c>
       <c r="O70" t="n">
         <v>0</v>
       </c>
       <c r="P70" t="n">
-        <v>0</v>
+        <v>614976.4591939223</v>
       </c>
       <c r="Q70" t="n">
-        <v>136194.6448991923</v>
+        <v>79999.99999999999</v>
       </c>
       <c r="R70" t="n">
-        <v>1.23589240511363</v>
+        <v>51.66729824217099</v>
       </c>
       <c r="S70" t="n">
-        <v>100</v>
+        <v>48.33270175782901</v>
       </c>
       <c r="T70" t="n">
         <v>0</v>
@@ -6498,9 +6289,6 @@
         <v>0</v>
       </c>
       <c r="AA70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6512,55 +6300,55 @@
         <v>70</v>
       </c>
       <c r="C71" t="n">
-        <v>2856848.52569294</v>
+        <v>6.604670678854614</v>
       </c>
       <c r="D71" t="n">
-        <v>7840571.559106831</v>
+        <v>1824.814270639459</v>
       </c>
       <c r="E71" t="n">
-        <v>17073707.05335325</v>
+        <v>2094324.676661876</v>
       </c>
       <c r="F71" t="n">
-        <v>37112262.45124917</v>
+        <v>11126697.48048751</v>
       </c>
       <c r="G71" t="n">
-        <v>70088254.71649909</v>
+        <v>23755692.92367592</v>
       </c>
       <c r="H71" t="n">
-        <v>20.90673240823436</v>
+        <v>0.8341524666958252</v>
       </c>
       <c r="I71" t="n">
-        <v>57.37816689952077</v>
+        <v>230.4692238462409</v>
       </c>
       <c r="J71" t="n">
-        <v>124.9472701722815</v>
+        <v>264507.6764678907</v>
       </c>
       <c r="K71" t="n">
-        <v>271.5916273314608</v>
+        <v>1405272.511049175</v>
       </c>
       <c r="L71" t="n">
-        <v>512.9135735198273</v>
+        <v>3000281.28787631</v>
       </c>
       <c r="M71" t="n">
-        <v>8.668224883872524</v>
+        <v>3</v>
       </c>
       <c r="N71" t="n">
-        <v>24.00000000000001</v>
+        <v>0</v>
       </c>
       <c r="O71" t="n">
         <v>0</v>
       </c>
       <c r="P71" t="n">
-        <v>0</v>
+        <v>633425.7529697401</v>
       </c>
       <c r="Q71" t="n">
-        <v>140280.4842461681</v>
+        <v>80000</v>
       </c>
       <c r="R71" t="n">
-        <v>1.026588046183096</v>
+        <v>51.75180790025169</v>
       </c>
       <c r="S71" t="n">
-        <v>100</v>
+        <v>48.24819209974832</v>
       </c>
       <c r="T71" t="n">
         <v>0</v>
@@ -6584,9 +6372,6 @@
         <v>0</v>
       </c>
       <c r="AA71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6598,55 +6383,55 @@
         <v>71</v>
       </c>
       <c r="C72" t="n">
-        <v>2745190.084605208</v>
+        <v>2.21930536343858</v>
       </c>
       <c r="D72" t="n">
-        <v>7828403.338798087</v>
+        <v>711.2599061696549</v>
       </c>
       <c r="E72" t="n">
-        <v>17628155.72127074</v>
+        <v>1496615.112848398</v>
       </c>
       <c r="F72" t="n">
-        <v>40577273.87327498</v>
+        <v>11095036.76259807</v>
       </c>
       <c r="G72" t="n">
-        <v>76005734.95302515</v>
+        <v>25288074.46675532</v>
       </c>
       <c r="H72" t="n">
-        <v>16.20129324900022</v>
+        <v>0.2721285506684616</v>
       </c>
       <c r="I72" t="n">
-        <v>46.20090203391506</v>
+        <v>87.21383303226123</v>
       </c>
       <c r="J72" t="n">
-        <v>104.0361182567876</v>
+        <v>183513.1425703969</v>
       </c>
       <c r="K72" t="n">
-        <v>239.474970040359</v>
+        <v>1360460.044642555</v>
       </c>
       <c r="L72" t="n">
-        <v>448.5631823767991</v>
+        <v>3100793.233416032</v>
       </c>
       <c r="M72" t="n">
-        <v>6.920750897916385</v>
+        <v>3</v>
       </c>
       <c r="N72" t="n">
-        <v>24.00000000000001</v>
+        <v>0</v>
       </c>
       <c r="O72" t="n">
         <v>0</v>
       </c>
       <c r="P72" t="n">
-        <v>0</v>
+        <v>652428.5255588323</v>
       </c>
       <c r="Q72" t="n">
-        <v>144488.8987735533</v>
+        <v>80000</v>
       </c>
       <c r="R72" t="n">
-        <v>0.8527303932004746</v>
+        <v>50</v>
       </c>
       <c r="S72" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="T72" t="n">
         <v>0</v>
@@ -6670,9 +6455,6 @@
         <v>0</v>
       </c>
       <c r="AA72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6684,55 +6466,55 @@
         <v>72</v>
       </c>
       <c r="C73" t="n">
-        <v>2854686.277082479</v>
+        <v>0.448259763263525</v>
       </c>
       <c r="D73" t="n">
-        <v>8021376.199272061</v>
+        <v>128.0550448598227</v>
       </c>
       <c r="E73" t="n">
-        <v>18939041.20945203</v>
+        <v>978003.0518090979</v>
       </c>
       <c r="F73" t="n">
-        <v>43059575.99701837</v>
+        <v>11324659.32276967</v>
       </c>
       <c r="G73" t="n">
-        <v>82162653.20601238</v>
+        <v>25638203.76372423</v>
       </c>
       <c r="H73" t="n">
-        <v>13.5866992940741</v>
+        <v>0.05336414783901579</v>
       </c>
       <c r="I73" t="n">
-        <v>38.17723412168967</v>
+        <v>15.24461686161655</v>
       </c>
       <c r="J73" t="n">
-        <v>90.1391721733728</v>
+        <v>116428.695414867</v>
       </c>
       <c r="K73" t="n">
-        <v>204.9393362410857</v>
+        <v>1348170.957676369</v>
       </c>
       <c r="L73" t="n">
-        <v>391.0479660322864</v>
+        <v>3052160.840878039</v>
       </c>
       <c r="M73" t="n">
-        <v>6.959787734693355</v>
+        <v>3</v>
       </c>
       <c r="N73" t="n">
-        <v>24.00000000000001</v>
+        <v>0</v>
       </c>
       <c r="O73" t="n">
         <v>0</v>
       </c>
       <c r="P73" t="n">
-        <v>0</v>
+        <v>672001.3813255973</v>
       </c>
       <c r="Q73" t="n">
-        <v>148823.5657367599</v>
+        <v>80000</v>
       </c>
       <c r="R73" t="n">
-        <v>0.7083163749971686</v>
+        <v>50.28959901650299</v>
       </c>
       <c r="S73" t="n">
-        <v>100</v>
+        <v>49.71040098349701</v>
       </c>
       <c r="T73" t="n">
         <v>0</v>
@@ -6756,9 +6538,6 @@
         <v>0</v>
       </c>
       <c r="AA73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6770,55 +6549,55 @@
         <v>73</v>
       </c>
       <c r="C74" t="n">
-        <v>2878915.374322922</v>
+        <v>0.2233101160473355</v>
       </c>
       <c r="D74" t="n">
-        <v>8468500.682219626</v>
+        <v>60.66806950054585</v>
       </c>
       <c r="E74" t="n">
-        <v>19797669.93831078</v>
+        <v>493563.7989044115</v>
       </c>
       <c r="F74" t="n">
-        <v>46595670.54611179</v>
+        <v>10988965.03818128</v>
       </c>
       <c r="G74" t="n">
-        <v>85503601.04290339</v>
+        <v>25323644.78032584</v>
       </c>
       <c r="H74" t="n">
-        <v>11.05001302765272</v>
+        <v>0.0258101776496186</v>
       </c>
       <c r="I74" t="n">
-        <v>32.50427007956797</v>
+        <v>7.012013961501768</v>
       </c>
       <c r="J74" t="n">
-        <v>75.98851730296269</v>
+        <v>57046.09158164239</v>
       </c>
       <c r="K74" t="n">
-        <v>178.8460929275638</v>
+        <v>1270104.305354378</v>
       </c>
       <c r="L74" t="n">
-        <v>328.1846746389722</v>
+        <v>2926906.232843927</v>
       </c>
       <c r="M74" t="n">
-        <v>7.47395747643013</v>
+        <v>3</v>
       </c>
       <c r="N74" t="n">
-        <v>24.00000000000001</v>
+        <v>0</v>
       </c>
       <c r="O74" t="n">
         <v>0</v>
       </c>
       <c r="P74" t="n">
-        <v>0</v>
+        <v>692161.4227653652</v>
       </c>
       <c r="Q74" t="n">
-        <v>153288.2727088626</v>
+        <v>80000</v>
       </c>
       <c r="R74" t="n">
-        <v>0.5883595695540998</v>
+        <v>50.61001595837483</v>
       </c>
       <c r="S74" t="n">
-        <v>100</v>
+        <v>49.38998404162515</v>
       </c>
       <c r="T74" t="n">
         <v>0</v>
@@ -6842,9 +6621,6 @@
         <v>0</v>
       </c>
       <c r="AA74" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6856,55 +6632,55 @@
         <v>74</v>
       </c>
       <c r="C75" t="n">
-        <v>3029537.369976161</v>
+        <v>0.06173963401165445</v>
       </c>
       <c r="D75" t="n">
-        <v>8921858.906883808</v>
+        <v>21.99380614650094</v>
       </c>
       <c r="E75" t="n">
-        <v>21788708.1854049</v>
+        <v>350299.8145623179</v>
       </c>
       <c r="F75" t="n">
-        <v>52011709.4001282</v>
+        <v>11249418.17499298</v>
       </c>
       <c r="G75" t="n">
-        <v>93213144.20797375</v>
+        <v>26719008.34969657</v>
       </c>
       <c r="H75" t="n">
-        <v>9.377531245479426</v>
+        <v>0.006928024622330812</v>
       </c>
       <c r="I75" t="n">
-        <v>27.61643130605125</v>
+        <v>2.468003462621208</v>
       </c>
       <c r="J75" t="n">
-        <v>67.44405724524057</v>
+        <v>39308.39207805376</v>
       </c>
       <c r="K75" t="n">
-        <v>160.995350268393</v>
+        <v>1262337.351862748</v>
       </c>
       <c r="L75" t="n">
-        <v>288.5289288596997</v>
+        <v>2998235.26158282</v>
       </c>
       <c r="M75" t="n">
-        <v>8.838198821660683</v>
+        <v>3</v>
       </c>
       <c r="N75" t="n">
-        <v>24.00000000000001</v>
+        <v>0</v>
       </c>
       <c r="O75" t="n">
         <v>0</v>
       </c>
       <c r="P75" t="n">
-        <v>0</v>
+        <v>502534.459014466</v>
       </c>
       <c r="Q75" t="n">
-        <v>157886.9208901286</v>
+        <v>56391.18471231473</v>
       </c>
       <c r="R75" t="n">
-        <v>0.48871802954897</v>
+        <v>51.33594878628276</v>
       </c>
       <c r="S75" t="n">
-        <v>100</v>
+        <v>48.66405121371724</v>
       </c>
       <c r="T75" t="n">
         <v>0</v>
@@ -6928,9 +6704,6 @@
         <v>0</v>
       </c>
       <c r="AA75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6942,55 +6715,55 @@
         <v>75</v>
       </c>
       <c r="C76" t="n">
-        <v>2871794.360680765</v>
+        <v>0.02559752294650698</v>
       </c>
       <c r="D76" t="n">
-        <v>8892468.94761169</v>
+        <v>6.871142133242365</v>
       </c>
       <c r="E76" t="n">
-        <v>23282040.06510898</v>
+        <v>88779.14380563528</v>
       </c>
       <c r="F76" t="n">
-        <v>54487845.23518123</v>
+        <v>10906455.03923895</v>
       </c>
       <c r="G76" t="n">
-        <v>102994242.8551144</v>
+        <v>28160389.08870958</v>
       </c>
       <c r="H76" t="n">
-        <v>7.168756996121659</v>
+        <v>0.00278872755629018</v>
       </c>
       <c r="I76" t="n">
-        <v>22.19795047089455</v>
+        <v>0.7485780342966455</v>
       </c>
       <c r="J76" t="n">
-        <v>58.11811941895799</v>
+        <v>9672.062616059044</v>
       </c>
       <c r="K76" t="n">
-        <v>136.0160487398912</v>
+        <v>1188206.05309843</v>
       </c>
       <c r="L76" t="n">
-        <v>257.1008248838645</v>
+        <v>3067939.550699927</v>
       </c>
       <c r="M76" t="n">
-        <v>8.348965234084313</v>
+        <v>3</v>
       </c>
       <c r="N76" t="n">
-        <v>24.00000000000001</v>
+        <v>0</v>
       </c>
       <c r="O76" t="n">
         <v>0</v>
       </c>
       <c r="P76" t="n">
-        <v>0</v>
+        <v>358900.2154499446</v>
       </c>
       <c r="Q76" t="n">
-        <v>162623.5285168323</v>
+        <v>39100.45994979064</v>
       </c>
       <c r="R76" t="n">
-        <v>0.4059512664801928</v>
+        <v>51.50842571449017</v>
       </c>
       <c r="S76" t="n">
-        <v>100</v>
+        <v>48.49157428550983</v>
       </c>
       <c r="T76" t="n">
         <v>0</v>
@@ -7014,9 +6787,6 @@
         <v>0</v>
       </c>
       <c r="AA76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7028,55 +6798,55 @@
         <v>76</v>
       </c>
       <c r="C77" t="n">
-        <v>2854062.404753417</v>
+        <v>0.007919450952404964</v>
       </c>
       <c r="D77" t="n">
-        <v>9491843.717403758</v>
+        <v>2.248764583682652</v>
       </c>
       <c r="E77" t="n">
-        <v>24438314.65986677</v>
+        <v>40278.40024645143</v>
       </c>
       <c r="F77" t="n">
-        <v>57678687.71215162</v>
+        <v>10852775.27798547</v>
       </c>
       <c r="G77" t="n">
-        <v>109161158.3550539</v>
+        <v>29573324.2912395</v>
       </c>
       <c r="H77" t="n">
-        <v>5.745559154968634</v>
+        <v>0.0008376565636142517</v>
       </c>
       <c r="I77" t="n">
-        <v>19.1081839966889</v>
+        <v>0.2378564404105575</v>
       </c>
       <c r="J77" t="n">
-        <v>49.19716621898213</v>
+        <v>4260.328972436656</v>
       </c>
       <c r="K77" t="n">
-        <v>116.1138984484684</v>
+        <v>1147920.291402816</v>
       </c>
       <c r="L77" t="n">
-        <v>219.7540921702616</v>
+        <v>3128031.141215257</v>
       </c>
       <c r="M77" t="n">
-        <v>7.171659485722224</v>
+        <v>3</v>
       </c>
       <c r="N77" t="n">
-        <v>24.00000000000001</v>
+        <v>0</v>
       </c>
       <c r="O77" t="n">
         <v>0</v>
       </c>
       <c r="P77" t="n">
-        <v>0</v>
+        <v>93484.7699099392</v>
       </c>
       <c r="Q77" t="n">
-        <v>167502.2343723373</v>
+        <v>9888.07577490561</v>
       </c>
       <c r="R77" t="n">
-        <v>0.3372014552214505</v>
+        <v>50</v>
       </c>
       <c r="S77" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="T77" t="n">
         <v>0</v>
@@ -7100,9 +6870,6 @@
         <v>0</v>
       </c>
       <c r="AA77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7114,55 +6881,55 @@
         <v>77</v>
       </c>
       <c r="C78" t="n">
-        <v>3013393.718059509</v>
+        <v>0.002063580907802081</v>
       </c>
       <c r="D78" t="n">
-        <v>10211398.79915254</v>
+        <v>0.9882547464862866</v>
       </c>
       <c r="E78" t="n">
-        <v>25789165.29611517</v>
+        <v>14143.3011936553</v>
       </c>
       <c r="F78" t="n">
-        <v>61382679.65892816</v>
+        <v>10569325.19845629</v>
       </c>
       <c r="G78" t="n">
-        <v>115353355.1540603</v>
+        <v>30178752.00987333</v>
       </c>
       <c r="H78" t="n">
-        <v>4.892186771718931</v>
+        <v>0.0002119118284960845</v>
       </c>
       <c r="I78" t="n">
-        <v>16.57800964625696</v>
+        <v>0.1014851753842303</v>
       </c>
       <c r="J78" t="n">
-        <v>41.86821408673157</v>
+        <v>1452.394139520603</v>
       </c>
       <c r="K78" t="n">
-        <v>99.65360040421334</v>
+        <v>1085377.859577208</v>
       </c>
       <c r="L78" t="n">
-        <v>187.2739545370437</v>
+        <v>3099095.604132964</v>
       </c>
       <c r="M78" t="n">
-        <v>7.612931910608274</v>
+        <v>3</v>
       </c>
       <c r="N78" t="n">
-        <v>24.00000000000001</v>
+        <v>0</v>
       </c>
       <c r="O78" t="n">
         <v>0</v>
       </c>
       <c r="P78" t="n">
-        <v>0</v>
+        <v>40730.10977374626</v>
       </c>
       <c r="Q78" t="n">
-        <v>172527.3014035075</v>
+        <v>4182.628364299943</v>
       </c>
       <c r="R78" t="n">
-        <v>0.2800947571597532</v>
+        <v>50.44624850229565</v>
       </c>
       <c r="S78" t="n">
-        <v>100</v>
+        <v>49.55136375762895</v>
       </c>
       <c r="T78" t="n">
         <v>0</v>
@@ -7186,9 +6953,6 @@
         <v>0</v>
       </c>
       <c r="AA78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7200,55 +6964,55 @@
         <v>78</v>
       </c>
       <c r="C79" t="n">
-        <v>2917434.508530872</v>
+        <v>0.0008127039381964719</v>
       </c>
       <c r="D79" t="n">
-        <v>10716929.33421182</v>
+        <v>0.2053455623073104</v>
       </c>
       <c r="E79" t="n">
-        <v>27277110.99156619</v>
+        <v>3909.510548244688</v>
       </c>
       <c r="F79" t="n">
-        <v>65672132.99450089</v>
+        <v>10790735.13423405</v>
       </c>
       <c r="G79" t="n">
-        <v>132322456.8877144</v>
+        <v>31711393.08763573</v>
       </c>
       <c r="H79" t="n">
-        <v>3.819676483686499</v>
+        <v>8.102682792011398e-05</v>
       </c>
       <c r="I79" t="n">
-        <v>14.03123286418949</v>
+        <v>0.02047301453731987</v>
       </c>
       <c r="J79" t="n">
-        <v>35.71279461209174</v>
+        <v>389.7793815881721</v>
       </c>
       <c r="K79" t="n">
-        <v>85.98181083384303</v>
+        <v>1075839.549631588</v>
       </c>
       <c r="L79" t="n">
-        <v>173.2443266026017</v>
+        <v>3161635.461643081</v>
       </c>
       <c r="M79" t="n">
-        <v>8.779895929775581</v>
+        <v>3</v>
       </c>
       <c r="N79" t="n">
-        <v>24.00000000000001</v>
+        <v>0</v>
       </c>
       <c r="O79" t="n">
         <v>0</v>
       </c>
       <c r="P79" t="n">
-        <v>0</v>
+        <v>14576.34353663557</v>
       </c>
       <c r="Q79" t="n">
-        <v>177703.1204456128</v>
+        <v>1453.265849884328</v>
       </c>
       <c r="R79" t="n">
-        <v>0.232659354737537</v>
+        <v>50.46408332642349</v>
       </c>
       <c r="S79" t="n">
-        <v>100</v>
+        <v>49.515633276363</v>
       </c>
       <c r="T79" t="n">
         <v>0</v>
@@ -7272,9 +7036,6 @@
         <v>0</v>
       </c>
       <c r="AA79" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7286,55 +7047,55 @@
         <v>79</v>
       </c>
       <c r="C80" t="n">
-        <v>2875279.819312377</v>
+        <v>0.0002682711723734975</v>
       </c>
       <c r="D80" t="n">
-        <v>11054805.66433544</v>
+        <v>0.08811183407712925</v>
       </c>
       <c r="E80" t="n">
-        <v>28708913.42477507</v>
+        <v>1586.320211798978</v>
       </c>
       <c r="F80" t="n">
-        <v>69604597.41535074</v>
+        <v>10634358.62228658</v>
       </c>
       <c r="G80" t="n">
-        <v>140218576.2998669</v>
+        <v>33324968.02288119</v>
       </c>
       <c r="H80" t="n">
-        <v>3.035875072975907</v>
+        <v>2.596768626454152e-05</v>
       </c>
       <c r="I80" t="n">
-        <v>11.67225837552566</v>
+        <v>0.008528909175238193</v>
       </c>
       <c r="J80" t="n">
-        <v>30.31241483110382</v>
+        <v>153.55010085745</v>
       </c>
       <c r="K80" t="n">
-        <v>73.49227746060608</v>
+        <v>1029367.732227649</v>
       </c>
       <c r="L80" t="n">
-        <v>148.050314163419</v>
+        <v>3225737.252116125</v>
       </c>
       <c r="M80" t="n">
-        <v>7.30871764186528</v>
+        <v>3</v>
       </c>
       <c r="N80" t="n">
-        <v>24.00000000000001</v>
+        <v>0</v>
       </c>
       <c r="O80" t="n">
         <v>0</v>
       </c>
       <c r="P80" t="n">
-        <v>0</v>
+        <v>3672.348136509837</v>
       </c>
       <c r="Q80" t="n">
-        <v>183034.2140589811</v>
+        <v>355.4701141362066</v>
       </c>
       <c r="R80" t="n">
-        <v>0.1932573672416638</v>
+        <v>50.90603718668234</v>
       </c>
       <c r="S80" t="n">
-        <v>100</v>
+        <v>49.07292363550617</v>
       </c>
       <c r="T80" t="n">
         <v>0</v>
@@ -7358,9 +7119,6 @@
         <v>0</v>
       </c>
       <c r="AA80" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7372,55 +7130,55 @@
         <v>80</v>
       </c>
       <c r="C81" t="n">
-        <v>2642383.206220223</v>
+        <v>8.822900533048215e-05</v>
       </c>
       <c r="D81" t="n">
-        <v>11671425.29318712</v>
+        <v>0.02887461474819281</v>
       </c>
       <c r="E81" t="n">
-        <v>30560369.41239712</v>
+        <v>575.2845362925117</v>
       </c>
       <c r="F81" t="n">
-        <v>76004936.02175084</v>
+        <v>10004701.70275653</v>
       </c>
       <c r="G81" t="n">
-        <v>153580043.9363735</v>
+        <v>33993270.10156573</v>
       </c>
       <c r="H81" t="n">
-        <v>2.249976050895472</v>
+        <v>8.291505759089493e-06</v>
       </c>
       <c r="I81" t="n">
-        <v>9.938160115334185</v>
+        <v>0.002713552460206828</v>
       </c>
       <c r="J81" t="n">
-        <v>26.02200132159084</v>
+        <v>54.06357045415444</v>
       </c>
       <c r="K81" t="n">
-        <v>64.71782192538264</v>
+        <v>940212.8186264221</v>
       </c>
       <c r="L81" t="n">
-        <v>130.7726373445304</v>
+        <v>3194588.828941938</v>
       </c>
       <c r="M81" t="n">
-        <v>8.076131873378667</v>
+        <v>3</v>
       </c>
       <c r="N81" t="n">
-        <v>24.00000000000001</v>
+        <v>0</v>
       </c>
       <c r="O81" t="n">
         <v>0</v>
       </c>
       <c r="P81" t="n">
-        <v>0</v>
+        <v>1646.679558754222</v>
       </c>
       <c r="Q81" t="n">
-        <v>188525.2404807505</v>
+        <v>154.750164003815</v>
       </c>
       <c r="R81" t="n">
-        <v>0.1605282969829949</v>
+        <v>51.59937982525197</v>
       </c>
       <c r="S81" t="n">
-        <v>100</v>
+        <v>48.35396399312027</v>
       </c>
       <c r="T81" t="n">
         <v>0</v>
@@ -7444,9 +7202,6 @@
         <v>0</v>
       </c>
       <c r="AA81" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB81" t="n">
         <v>0</v>
       </c>
     </row>

--- a/output.xlsx
+++ b/output.xlsx
@@ -573,34 +573,34 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>94.95797576094547</v>
+        <v>9340.695067527296</v>
       </c>
       <c r="D2" t="n">
-        <v>100.7081285904549</v>
+        <v>10025.62450891527</v>
       </c>
       <c r="E2" t="n">
-        <v>107.3611625472201</v>
+        <v>10769.52667648377</v>
       </c>
       <c r="F2" t="n">
-        <v>113.4416139576472</v>
+        <v>11508.91735786182</v>
       </c>
       <c r="G2" t="n">
-        <v>119.270840201405</v>
+        <v>12139.79333883005</v>
       </c>
       <c r="H2" t="n">
-        <v>92.1922094766461</v>
+        <v>9068.635987890579</v>
       </c>
       <c r="I2" t="n">
-        <v>97.77488212665527</v>
+        <v>9733.616028073078</v>
       </c>
       <c r="J2" t="n">
-        <v>104.2341383953593</v>
+        <v>10455.85114221725</v>
       </c>
       <c r="K2" t="n">
-        <v>110.1374892792691</v>
+        <v>11173.70617268138</v>
       </c>
       <c r="L2" t="n">
-        <v>115.7969322343738</v>
+        <v>11786.20712507772</v>
       </c>
       <c r="M2" t="n">
         <v>3</v>
@@ -618,10 +618,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>50</v>
+        <v>70.47423076259574</v>
       </c>
       <c r="S2" t="n">
-        <v>50</v>
+        <v>29.52576923740426</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>9842.046064375649</v>
+        <v>19191.69780790155</v>
       </c>
       <c r="D3" t="n">
-        <v>10448.7081016389</v>
+        <v>20809.54695781103</v>
       </c>
       <c r="E3" t="n">
-        <v>11138.92026237978</v>
+        <v>22518.67567727917</v>
       </c>
       <c r="F3" t="n">
-        <v>11803.77104946968</v>
+        <v>24323.63914033101</v>
       </c>
       <c r="G3" t="n">
-        <v>12519.1211273884</v>
+        <v>26185.2016962302</v>
       </c>
       <c r="H3" t="n">
-        <v>9277.072357786456</v>
+        <v>18090.01584305925</v>
       </c>
       <c r="I3" t="n">
-        <v>9848.909512337546</v>
+        <v>19614.99383335944</v>
       </c>
       <c r="J3" t="n">
-        <v>10499.50067148627</v>
+        <v>21226.01157251313</v>
       </c>
       <c r="K3" t="n">
-        <v>11126.18630358157</v>
+        <v>22927.36274892168</v>
       </c>
       <c r="L3" t="n">
-        <v>11800.47236062626</v>
+        <v>24682.06399870883</v>
       </c>
       <c r="M3" t="n">
         <v>3</v>
@@ -701,10 +701,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>50.17446130108353</v>
+        <v>70.29733172112773</v>
       </c>
       <c r="S3" t="n">
-        <v>49.82553869891647</v>
+        <v>29.70266827887226</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -739,34 +739,34 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>20209.38397178083</v>
+        <v>29650.769643455</v>
       </c>
       <c r="D4" t="n">
-        <v>21572.11959503071</v>
+        <v>32316.3074120097</v>
       </c>
       <c r="E4" t="n">
-        <v>23119.25687725758</v>
+        <v>35201.40209837134</v>
       </c>
       <c r="F4" t="n">
-        <v>24786.0075131883</v>
+        <v>38727.41966199785</v>
       </c>
       <c r="G4" t="n">
-        <v>26360.51267533392</v>
+        <v>42012.80265600305</v>
       </c>
       <c r="H4" t="n">
-        <v>18494.44918244066</v>
+        <v>27134.6545326097</v>
       </c>
       <c r="I4" t="n">
-        <v>19741.54532196121</v>
+        <v>29573.99918919337</v>
       </c>
       <c r="J4" t="n">
-        <v>21157.39510166545</v>
+        <v>32214.26952786135</v>
       </c>
       <c r="K4" t="n">
-        <v>22682.70804435902</v>
+        <v>35441.07509194688</v>
       </c>
       <c r="L4" t="n">
-        <v>24123.60331110508</v>
+        <v>38447.66593669145</v>
       </c>
       <c r="M4" t="n">
         <v>3</v>
@@ -784,10 +784,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>50.95241738382788</v>
+        <v>70.90847289977856</v>
       </c>
       <c r="S4" t="n">
-        <v>49.04758261617212</v>
+        <v>29.09152710022144</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -822,34 +822,34 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>31023.44165553869</v>
+        <v>40516.96432717272</v>
       </c>
       <c r="D5" t="n">
-        <v>33352.12896688369</v>
+        <v>44658.16785430696</v>
       </c>
       <c r="E5" t="n">
-        <v>36565.46197060573</v>
+        <v>49633.37549900892</v>
       </c>
       <c r="F5" t="n">
-        <v>39104.6517270184</v>
+        <v>54531.06231399453</v>
       </c>
       <c r="G5" t="n">
-        <v>41911.23283414267</v>
+        <v>59333.43287521479</v>
       </c>
       <c r="H5" t="n">
-        <v>27563.92609271418</v>
+        <v>35998.79802555496</v>
       </c>
       <c r="I5" t="n">
-        <v>29632.93460748982</v>
+        <v>39678.2037221965</v>
       </c>
       <c r="J5" t="n">
-        <v>32487.93936193687</v>
+        <v>44098.61127520532</v>
       </c>
       <c r="K5" t="n">
-        <v>34743.97657270973</v>
+        <v>48450.14257506747</v>
       </c>
       <c r="L5" t="n">
-        <v>37237.58753531451</v>
+        <v>52716.98661800327</v>
       </c>
       <c r="M5" t="n">
         <v>3</v>
@@ -867,10 +867,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>51.15671869060436</v>
+        <v>71.368002087275</v>
       </c>
       <c r="S5" t="n">
-        <v>48.84328130939564</v>
+        <v>28.631997912725</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -905,34 +905,34 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>42789.43659679507</v>
+        <v>52033.38704090449</v>
       </c>
       <c r="D6" t="n">
-        <v>46735.2201453766</v>
+        <v>57686.94704249352</v>
       </c>
       <c r="E6" t="n">
-        <v>50886.94440353689</v>
+        <v>64900.05583756411</v>
       </c>
       <c r="F6" t="n">
-        <v>55610.71731162586</v>
+        <v>72895.02170588038</v>
       </c>
       <c r="G6" t="n">
-        <v>59496.07679557942</v>
+        <v>79356.64142494525</v>
       </c>
       <c r="H6" t="n">
-        <v>36910.54388724465</v>
+        <v>44884.45674274534</v>
       </c>
       <c r="I6" t="n">
-        <v>40314.2114375296</v>
+        <v>49761.26726315898</v>
       </c>
       <c r="J6" t="n">
-        <v>43895.52525295949</v>
+        <v>55983.35827250554</v>
       </c>
       <c r="K6" t="n">
-        <v>47970.29325891296</v>
+        <v>62879.88606136672</v>
       </c>
       <c r="L6" t="n">
-        <v>51321.83848026163</v>
+        <v>68453.735992382</v>
       </c>
       <c r="M6" t="n">
         <v>3</v>
@@ -950,10 +950,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>51.28771320612688</v>
+        <v>71.11441128995779</v>
       </c>
       <c r="S6" t="n">
-        <v>48.71228679387312</v>
+        <v>28.88558871004222</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -988,34 +988,34 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>55635.51204397345</v>
+        <v>65643.5629505304</v>
       </c>
       <c r="D7" t="n">
-        <v>60968.43142090062</v>
+        <v>72610.31707040047</v>
       </c>
       <c r="E7" t="n">
-        <v>66608.20746728002</v>
+        <v>81716.56307130383</v>
       </c>
       <c r="F7" t="n">
-        <v>72972.05395753929</v>
+        <v>91677.1997434989</v>
       </c>
       <c r="G7" t="n">
-        <v>79050.11762699597</v>
+        <v>101375.3414105297</v>
       </c>
       <c r="H7" t="n">
-        <v>46593.8654493616</v>
+        <v>54975.45052369162</v>
       </c>
       <c r="I7" t="n">
-        <v>51060.10146970131</v>
+        <v>60809.9974192688</v>
       </c>
       <c r="J7" t="n">
-        <v>55783.32511976564</v>
+        <v>68436.33508251383</v>
       </c>
       <c r="K7" t="n">
-        <v>61112.94636730931</v>
+        <v>76778.21148202309</v>
       </c>
       <c r="L7" t="n">
-        <v>66203.22900160015</v>
+        <v>84900.25244724916</v>
       </c>
       <c r="M7" t="n">
         <v>3</v>
@@ -1033,10 +1033,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>50</v>
+        <v>71.94670763038768</v>
       </c>
       <c r="S7" t="n">
-        <v>50</v>
+        <v>28.05329236961231</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1071,34 +1071,34 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>69233.10513325801</v>
+        <v>79424.77661561265</v>
       </c>
       <c r="D8" t="n">
-        <v>75638.63367666476</v>
+        <v>87935.59518573066</v>
       </c>
       <c r="E8" t="n">
-        <v>83762.14601394899</v>
+        <v>99255.43358931669</v>
       </c>
       <c r="F8" t="n">
-        <v>92015.29896966877</v>
+        <v>112710.4779575873</v>
       </c>
       <c r="G8" t="n">
-        <v>100344.4937120549</v>
+        <v>125862.297934162</v>
       </c>
       <c r="H8" t="n">
-        <v>56292.85008779405</v>
+        <v>64579.61165649674</v>
       </c>
       <c r="I8" t="n">
-        <v>61501.13097210563</v>
+        <v>71499.68599044307</v>
       </c>
       <c r="J8" t="n">
-        <v>68106.28989584444</v>
+        <v>80703.75050617737</v>
       </c>
       <c r="K8" t="n">
-        <v>74816.85850595852</v>
+        <v>91643.93286676644</v>
       </c>
       <c r="L8" t="n">
-        <v>81589.25604731831</v>
+        <v>102337.5660484352</v>
       </c>
       <c r="M8" t="n">
         <v>3</v>
@@ -1116,10 +1116,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>50.53102256639247</v>
+        <v>72.21683980364811</v>
       </c>
       <c r="S8" t="n">
-        <v>49.46897743360753</v>
+        <v>27.78316019635189</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1154,34 +1154,34 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>83653.36815839572</v>
+        <v>93083.9710653356</v>
       </c>
       <c r="D9" t="n">
-        <v>92156.52648770821</v>
+        <v>104833.8288004518</v>
       </c>
       <c r="E9" t="n">
-        <v>102026.5125235775</v>
+        <v>119712.4258507212</v>
       </c>
       <c r="F9" t="n">
-        <v>113478.0512025277</v>
+        <v>137109.7602862078</v>
       </c>
       <c r="G9" t="n">
-        <v>124647.6270082736</v>
+        <v>154731.0232360712</v>
       </c>
       <c r="H9" t="n">
-        <v>66036.74130570093</v>
+        <v>73481.3463255871</v>
       </c>
       <c r="I9" t="n">
-        <v>72749.21301169365</v>
+        <v>82756.79252356285</v>
       </c>
       <c r="J9" t="n">
-        <v>80540.67113095842</v>
+        <v>94502.09442868158</v>
       </c>
       <c r="K9" t="n">
-        <v>89580.62151122498</v>
+        <v>108235.7108845025</v>
       </c>
       <c r="L9" t="n">
-        <v>98397.98779565028</v>
+        <v>122146.0985773987</v>
       </c>
       <c r="M9" t="n">
         <v>3</v>
@@ -1199,10 +1199,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>50.78502103258071</v>
+        <v>72.09378149955702</v>
       </c>
       <c r="S9" t="n">
-        <v>49.2149789674193</v>
+        <v>27.90621850044299</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1237,34 +1237,34 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>98838.1376638201</v>
+        <v>110760.4927177179</v>
       </c>
       <c r="D10" t="n">
-        <v>109315.0009266981</v>
+        <v>122017.0470177715</v>
       </c>
       <c r="E10" t="n">
-        <v>121383.7992500096</v>
+        <v>140250.6836848601</v>
       </c>
       <c r="F10" t="n">
-        <v>137731.4656418529</v>
+        <v>162911.6993241386</v>
       </c>
       <c r="G10" t="n">
-        <v>150680.1274329654</v>
+        <v>184857.5395739738</v>
       </c>
       <c r="H10" t="n">
-        <v>75751.20249923454</v>
+        <v>84888.6949014834</v>
       </c>
       <c r="I10" t="n">
-        <v>83780.8458063805</v>
+        <v>93515.90646557912</v>
       </c>
       <c r="J10" t="n">
-        <v>93030.57478064709</v>
+        <v>107490.47069871</v>
       </c>
       <c r="K10" t="n">
-        <v>105559.6998381274</v>
+        <v>124858.2522565537</v>
       </c>
       <c r="L10" t="n">
-        <v>115483.7708962946</v>
+        <v>141677.9114293677</v>
       </c>
       <c r="M10" t="n">
         <v>3</v>
@@ -1282,10 +1282,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>51.16145304503151</v>
+        <v>72.79419664543654</v>
       </c>
       <c r="S10" t="n">
-        <v>48.83854695496849</v>
+        <v>27.20580335456345</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1320,34 +1320,34 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>116337.0605719699</v>
+        <v>127587.1807472021</v>
       </c>
       <c r="D11" t="n">
-        <v>128319.4624574143</v>
+        <v>144108.1521071781</v>
       </c>
       <c r="E11" t="n">
-        <v>144827.083441378</v>
+        <v>165690.3710373309</v>
       </c>
       <c r="F11" t="n">
-        <v>162909.0161774968</v>
+        <v>191861.2702257366</v>
       </c>
       <c r="G11" t="n">
-        <v>180219.0424119948</v>
+        <v>219619.1527681525</v>
       </c>
       <c r="H11" t="n">
-        <v>86565.6988485745</v>
+        <v>94936.84481282166</v>
       </c>
       <c r="I11" t="n">
-        <v>95481.73117738076</v>
+        <v>107229.9990699628</v>
       </c>
       <c r="J11" t="n">
-        <v>107764.9515009696</v>
+        <v>123289.1968458585</v>
       </c>
       <c r="K11" t="n">
-        <v>121219.6076194875</v>
+        <v>142762.8036793268</v>
       </c>
       <c r="L11" t="n">
-        <v>134099.8928072801</v>
+        <v>163417.2751695565</v>
       </c>
       <c r="M11" t="n">
         <v>3</v>
@@ -1365,10 +1365,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>51.55336959880263</v>
+        <v>73.1001778412533</v>
       </c>
       <c r="S11" t="n">
-        <v>48.44663040119738</v>
+        <v>26.89982215874671</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1403,34 +1403,34 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>132792.3773568975</v>
+        <v>144661.8606493959</v>
       </c>
       <c r="D12" t="n">
-        <v>148520.6131306715</v>
+        <v>163995.0044908234</v>
       </c>
       <c r="E12" t="n">
-        <v>168820.3906612072</v>
+        <v>191429.309811998</v>
       </c>
       <c r="F12" t="n">
-        <v>191006.3137595605</v>
+        <v>223311.4114803359</v>
       </c>
       <c r="G12" t="n">
-        <v>215680.8680257631</v>
+        <v>259459.7753631261</v>
       </c>
       <c r="H12" t="n">
-        <v>95932.03877275446</v>
+        <v>104506.8060454888</v>
       </c>
       <c r="I12" t="n">
-        <v>107294.4509390906</v>
+        <v>118473.4805000803</v>
       </c>
       <c r="J12" t="n">
-        <v>121959.4421373711</v>
+        <v>138292.6063728035</v>
       </c>
       <c r="K12" t="n">
-        <v>137987.0250246054</v>
+        <v>161324.9149606957</v>
       </c>
       <c r="L12" t="n">
-        <v>155812.4480171009</v>
+        <v>187439.2621438576</v>
       </c>
       <c r="M12" t="n">
         <v>3</v>
@@ -1448,10 +1448,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>50</v>
+        <v>73.08087703018282</v>
       </c>
       <c r="S12" t="n">
-        <v>50</v>
+        <v>26.91912296981718</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -1486,34 +1486,34 @@
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>152043.170799281</v>
+        <v>161779.5560992611</v>
       </c>
       <c r="D13" t="n">
-        <v>169929.501216721</v>
+        <v>187410.0645844028</v>
       </c>
       <c r="E13" t="n">
-        <v>194920.9409705144</v>
+        <v>218673.8013131959</v>
       </c>
       <c r="F13" t="n">
-        <v>222078.7011679992</v>
+        <v>258294.8068375874</v>
       </c>
       <c r="G13" t="n">
-        <v>250533.0774190772</v>
+        <v>307418.9238817143</v>
       </c>
       <c r="H13" t="n">
-        <v>106640.0209193594</v>
+        <v>113468.9256745721</v>
       </c>
       <c r="I13" t="n">
-        <v>119185.1332046354</v>
+        <v>131445.6486451657</v>
       </c>
       <c r="J13" t="n">
-        <v>136713.6262250009</v>
+        <v>153373.4045663913</v>
       </c>
       <c r="K13" t="n">
-        <v>155761.5328186223</v>
+        <v>181162.7806742141</v>
       </c>
       <c r="L13" t="n">
-        <v>175718.8598245692</v>
+        <v>215617.4480012095</v>
       </c>
       <c r="M13" t="n">
         <v>3</v>
@@ -1531,10 +1531,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>50.3117120993839</v>
+        <v>73.75407857297282</v>
       </c>
       <c r="S13" t="n">
-        <v>49.6882879006161</v>
+        <v>26.24592142702719</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1569,34 +1569,34 @@
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>174987.1775054524</v>
+        <v>183864.345055317</v>
       </c>
       <c r="D14" t="n">
-        <v>193903.2140837837</v>
+        <v>210545.9016154902</v>
       </c>
       <c r="E14" t="n">
-        <v>224601.5629281722</v>
+        <v>249678.3296919139</v>
       </c>
       <c r="F14" t="n">
-        <v>256427.9675728306</v>
+        <v>296624.4867644642</v>
       </c>
       <c r="G14" t="n">
-        <v>291996.6162446457</v>
+        <v>357366.7343029683</v>
       </c>
       <c r="H14" t="n">
-        <v>119157.7530039619</v>
+        <v>125202.6721423861</v>
       </c>
       <c r="I14" t="n">
-        <v>132038.6534593365</v>
+        <v>143371.5138351398</v>
       </c>
       <c r="J14" t="n">
-        <v>152942.7352405009</v>
+        <v>170018.7931709671</v>
       </c>
       <c r="K14" t="n">
-        <v>174614.968130446</v>
+        <v>201986.8417370505</v>
       </c>
       <c r="L14" t="n">
-        <v>198835.4871052651</v>
+        <v>243349.3565925921</v>
       </c>
       <c r="M14" t="n">
         <v>3</v>
@@ -1614,10 +1614,10 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>50.72079836606717</v>
+        <v>74.08478037145841</v>
       </c>
       <c r="S14" t="n">
-        <v>49.27920163393283</v>
+        <v>25.91521962854159</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1652,34 +1652,34 @@
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>195554.3865849769</v>
+        <v>204937.1483834884</v>
       </c>
       <c r="D15" t="n">
-        <v>223242.8896615563</v>
+        <v>238517.2144317018</v>
       </c>
       <c r="E15" t="n">
-        <v>255627.0036205882</v>
+        <v>284482.0263767339</v>
       </c>
       <c r="F15" t="n">
-        <v>291729.2014324297</v>
+        <v>338650.1905172745</v>
       </c>
       <c r="G15" t="n">
-        <v>333887.8539881871</v>
+        <v>407462.2938551707</v>
       </c>
       <c r="H15" t="n">
-        <v>129284.4869772659</v>
+        <v>135487.5978700166</v>
       </c>
       <c r="I15" t="n">
-        <v>147589.8493776561</v>
+        <v>157687.9774550557</v>
       </c>
       <c r="J15" t="n">
-        <v>168999.5637416315</v>
+        <v>188076.1330730208</v>
       </c>
       <c r="K15" t="n">
-        <v>192867.3695442258</v>
+        <v>223887.6708948378</v>
       </c>
       <c r="L15" t="n">
-        <v>220739.2054181577</v>
+        <v>269380.5776673518</v>
       </c>
       <c r="M15" t="n">
         <v>3</v>
@@ -1697,10 +1697,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>51.35225861002976</v>
+        <v>74.30996297599631</v>
       </c>
       <c r="S15" t="n">
-        <v>48.64774138997024</v>
+        <v>25.69003702400368</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -1735,34 +1735,34 @@
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>215675.3025345862</v>
+        <v>230131.314001222</v>
       </c>
       <c r="D16" t="n">
-        <v>251588.5820082207</v>
+        <v>267986.8900185119</v>
       </c>
       <c r="E16" t="n">
-        <v>286774.1673950205</v>
+        <v>319421.8070712197</v>
       </c>
       <c r="F16" t="n">
-        <v>329918.0134775987</v>
+        <v>380149.7989638921</v>
       </c>
       <c r="G16" t="n">
-        <v>374644.1640121383</v>
+        <v>456438.2306795685</v>
       </c>
       <c r="H16" t="n">
-        <v>138433.7696902257</v>
+        <v>147712.5333617898</v>
       </c>
       <c r="I16" t="n">
-        <v>161485.1371905752</v>
+        <v>172010.587104072</v>
       </c>
       <c r="J16" t="n">
-        <v>184069.4255472401</v>
+        <v>205024.7031277116</v>
       </c>
       <c r="K16" t="n">
-        <v>211761.8186119879</v>
+        <v>244003.6902654344</v>
       </c>
       <c r="L16" t="n">
-        <v>240469.8326936463</v>
+        <v>292970.3316102999</v>
       </c>
       <c r="M16" t="n">
         <v>3</v>
@@ -1780,10 +1780,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.79538762051232</v>
+        <v>74.74650287790473</v>
       </c>
       <c r="S16" t="n">
-        <v>48.20461237948768</v>
+        <v>25.25349712209527</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1818,34 +1818,34 @@
         <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>236739.8904950892</v>
+        <v>251421.8819467216</v>
       </c>
       <c r="D17" t="n">
-        <v>277200.0327276683</v>
+        <v>295549.0704187886</v>
       </c>
       <c r="E17" t="n">
-        <v>321178.0996598122</v>
+        <v>356633.2973765443</v>
       </c>
       <c r="F17" t="n">
-        <v>377311.1905617528</v>
+        <v>427262.7216931469</v>
       </c>
       <c r="G17" t="n">
-        <v>428517.9976759313</v>
+        <v>512157.1429717413</v>
       </c>
       <c r="H17" t="n">
-        <v>147528.4729511297</v>
+        <v>156677.8046256993</v>
       </c>
       <c r="I17" t="n">
-        <v>172741.8959466164</v>
+        <v>184176.4096022264</v>
       </c>
       <c r="J17" t="n">
-        <v>200147.5733095379</v>
+        <v>222242.0803501178</v>
       </c>
       <c r="K17" t="n">
-        <v>235127.8597558646</v>
+        <v>266256.0025203737</v>
       </c>
       <c r="L17" t="n">
-        <v>267038.249012442</v>
+        <v>319159.3991854183</v>
       </c>
       <c r="M17" t="n">
         <v>3</v>
@@ -1863,10 +1863,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>50</v>
+        <v>74.65404190823277</v>
       </c>
       <c r="S17" t="n">
-        <v>50</v>
+        <v>25.34595809176723</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1901,34 +1901,34 @@
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>265248.0162252512</v>
+        <v>277293.1805586215</v>
       </c>
       <c r="D18" t="n">
-        <v>306171.0166852693</v>
+        <v>325885.2388851464</v>
       </c>
       <c r="E18" t="n">
-        <v>359406.2023882772</v>
+        <v>397476.1235977376</v>
       </c>
       <c r="F18" t="n">
-        <v>420572.9330804794</v>
+        <v>481449.4150035146</v>
       </c>
       <c r="G18" t="n">
-        <v>481345.2060745307</v>
+        <v>577347.3609067734</v>
       </c>
       <c r="H18" t="n">
-        <v>160479.4120439776</v>
+        <v>167766.9345585695</v>
       </c>
       <c r="I18" t="n">
-        <v>185238.5003356016</v>
+        <v>197165.9289835654</v>
       </c>
       <c r="J18" t="n">
-        <v>217446.6631835218</v>
+        <v>240479.59160726</v>
       </c>
       <c r="K18" t="n">
-        <v>254453.5411908622</v>
+        <v>291284.8139194704</v>
       </c>
       <c r="L18" t="n">
-        <v>291221.7658036313</v>
+        <v>349304.6483136741</v>
       </c>
       <c r="M18" t="n">
         <v>3</v>
@@ -1946,10 +1946,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>50.32174778066279</v>
+        <v>74.84703142433077</v>
       </c>
       <c r="S18" t="n">
-        <v>49.67825221933721</v>
+        <v>25.15296857566924</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -1984,34 +1984,34 @@
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>292532.5479197225</v>
+        <v>300175.5705921822</v>
       </c>
       <c r="D19" t="n">
-        <v>339177.3522395378</v>
+        <v>359559.1356251109</v>
       </c>
       <c r="E19" t="n">
-        <v>401897.3007919617</v>
+        <v>442370.7743447263</v>
       </c>
       <c r="F19" t="n">
-        <v>466627.1802211367</v>
+        <v>536088.912711127</v>
       </c>
       <c r="G19" t="n">
-        <v>555402.2729767447</v>
+        <v>650912.4019950064</v>
       </c>
       <c r="H19" t="n">
-        <v>171832.0412002967</v>
+        <v>176321.5115039885</v>
       </c>
       <c r="I19" t="n">
-        <v>199230.9477310728</v>
+        <v>211203.0973853617</v>
       </c>
       <c r="J19" t="n">
-        <v>236072.3073007373</v>
+        <v>259846.2074171315</v>
       </c>
       <c r="K19" t="n">
-        <v>274094.2894290868</v>
+        <v>314895.7365293918</v>
       </c>
       <c r="L19" t="n">
-        <v>326240.3002043662</v>
+        <v>382342.4349624285</v>
       </c>
       <c r="M19" t="n">
         <v>3</v>
@@ -2029,10 +2029,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>50.60355759261504</v>
+        <v>75.28269355252903</v>
       </c>
       <c r="S19" t="n">
-        <v>49.39644240738497</v>
+        <v>24.71730644747097</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2067,34 +2067,34 @@
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>324182.8817203128</v>
+        <v>334292.450748589</v>
       </c>
       <c r="D20" t="n">
-        <v>375580.9115723368</v>
+        <v>399091.1260245555</v>
       </c>
       <c r="E20" t="n">
-        <v>449078.8027199451</v>
+        <v>492297.8932944384</v>
       </c>
       <c r="F20" t="n">
-        <v>526195.3509177134</v>
+        <v>600829.2184497513</v>
       </c>
       <c r="G20" t="n">
-        <v>614756.205531614</v>
+        <v>749436.1879100215</v>
       </c>
       <c r="H20" t="n">
-        <v>184876.9675767173</v>
+        <v>190642.3135306338</v>
       </c>
       <c r="I20" t="n">
-        <v>214188.5458069887</v>
+        <v>227596.0925964408</v>
       </c>
       <c r="J20" t="n">
-        <v>256103.3661286135</v>
+        <v>280750.609574766</v>
       </c>
       <c r="K20" t="n">
-        <v>300081.8560017691</v>
+        <v>342644.5077822225</v>
       </c>
       <c r="L20" t="n">
-        <v>350586.873910599</v>
+        <v>427392.985952281</v>
       </c>
       <c r="M20" t="n">
         <v>3</v>
@@ -2112,10 +2112,10 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>51.25271993157202</v>
+        <v>75.85846838459446</v>
       </c>
       <c r="S20" t="n">
-        <v>48.74728006842798</v>
+        <v>24.14153161540553</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2150,34 +2150,34 @@
         <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>353147.3305912628</v>
+        <v>364820.0281375161</v>
       </c>
       <c r="D21" t="n">
-        <v>419042.9961817112</v>
+        <v>440716.6661707794</v>
       </c>
       <c r="E21" t="n">
-        <v>494649.2265490111</v>
+        <v>540744.3917376755</v>
       </c>
       <c r="F21" t="n">
-        <v>584844.0086891638</v>
+        <v>670347.2075561701</v>
       </c>
       <c r="G21" t="n">
-        <v>699738.7143682535</v>
+        <v>825565.1083862166</v>
       </c>
       <c r="H21" t="n">
-        <v>195529.1146040082</v>
+        <v>201992.0042213189</v>
       </c>
       <c r="I21" t="n">
-        <v>232013.9469474102</v>
+        <v>244014.1325245933</v>
       </c>
       <c r="J21" t="n">
-        <v>273875.2835672107</v>
+        <v>299397.0589173882</v>
       </c>
       <c r="K21" t="n">
-        <v>323813.9475923319</v>
+        <v>371154.9957103657</v>
       </c>
       <c r="L21" t="n">
-        <v>387428.3604112188</v>
+        <v>457095.3840156614</v>
       </c>
       <c r="M21" t="n">
         <v>3</v>
@@ -2195,10 +2195,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>51.49796224214552</v>
+        <v>76.01092604968282</v>
       </c>
       <c r="S21" t="n">
-        <v>48.50203775785448</v>
+        <v>23.98907395031717</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -2233,34 +2233,34 @@
         <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>393232.9842536404</v>
+        <v>408833.1883030257</v>
       </c>
       <c r="D22" t="n">
-        <v>459136.9261232042</v>
+        <v>482201.5973345004</v>
       </c>
       <c r="E22" t="n">
-        <v>546071.2498566324</v>
+        <v>598521.7981384615</v>
       </c>
       <c r="F22" t="n">
-        <v>652152.8252648783</v>
+        <v>747809.7420697815</v>
       </c>
       <c r="G22" t="n">
-        <v>778631.3720665803</v>
+        <v>931030.1715174323</v>
       </c>
       <c r="H22" t="n">
-        <v>211382.1059491042</v>
+        <v>219767.9843398849</v>
       </c>
       <c r="I22" t="n">
-        <v>246808.7221806411</v>
+        <v>259207.119489354</v>
       </c>
       <c r="J22" t="n">
-        <v>293540.2049551895</v>
+        <v>321734.9592051201</v>
       </c>
       <c r="K22" t="n">
-        <v>350564.2790031847</v>
+        <v>401984.5853673539</v>
       </c>
       <c r="L22" t="n">
-        <v>418552.7302544701</v>
+        <v>500474.594548686</v>
       </c>
       <c r="M22" t="n">
         <v>3</v>
@@ -2278,10 +2278,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>50</v>
+        <v>76.17686669566666</v>
       </c>
       <c r="S22" t="n">
-        <v>50</v>
+        <v>23.82313330433334</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2316,34 +2316,34 @@
         <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>422878.1789068815</v>
+        <v>439558.4283649023</v>
       </c>
       <c r="D23" t="n">
-        <v>505479.2978618172</v>
+        <v>524442.9375882393</v>
       </c>
       <c r="E23" t="n">
-        <v>597049.9732688155</v>
+        <v>656794.4356750129</v>
       </c>
       <c r="F23" t="n">
-        <v>720172.9884278147</v>
+        <v>826270.840782071</v>
       </c>
       <c r="G23" t="n">
-        <v>865311.5295669133</v>
+        <v>1030947.064711188</v>
       </c>
       <c r="H23" t="n">
-        <v>220696.9503583855</v>
+        <v>229402.2474633774</v>
       </c>
       <c r="I23" t="n">
-        <v>263805.8549054768</v>
+        <v>273702.8362681356</v>
       </c>
       <c r="J23" t="n">
-        <v>311595.9037011426</v>
+        <v>342776.0906001985</v>
       </c>
       <c r="K23" t="n">
-        <v>375852.8819986771</v>
+        <v>431224.5555021112</v>
       </c>
       <c r="L23" t="n">
-        <v>451599.5982082112</v>
+        <v>538043.5418796821</v>
       </c>
       <c r="M23" t="n">
         <v>3</v>
@@ -2361,10 +2361,10 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>50.69358721401768</v>
+        <v>76.23870238350102</v>
       </c>
       <c r="S23" t="n">
-        <v>49.30641278598232</v>
+        <v>23.76129761649898</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2399,34 +2399,34 @@
         <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>470617.3343688862</v>
+        <v>485099.7247567295</v>
       </c>
       <c r="D24" t="n">
-        <v>549771.8175272017</v>
+        <v>572114.4061132483</v>
       </c>
       <c r="E24" t="n">
-        <v>655485.8942154798</v>
+        <v>715828.1031392552</v>
       </c>
       <c r="F24" t="n">
-        <v>788723.2585243988</v>
+        <v>913797.3641266132</v>
       </c>
       <c r="G24" t="n">
-        <v>954101.828284297</v>
+        <v>1140257.754870721</v>
       </c>
       <c r="H24" t="n">
-        <v>238457.9199926929</v>
+        <v>245796.0276997506</v>
       </c>
       <c r="I24" t="n">
-        <v>278564.8434602286</v>
+        <v>289885.6487353378</v>
       </c>
       <c r="J24" t="n">
-        <v>332129.293811043</v>
+        <v>362704.1931547406</v>
       </c>
       <c r="K24" t="n">
-        <v>399639.5668888933</v>
+        <v>463013.5841397595</v>
       </c>
       <c r="L24" t="n">
-        <v>483435.5235533382</v>
+        <v>577759.1954759633</v>
       </c>
       <c r="M24" t="n">
         <v>3</v>
@@ -2444,10 +2444,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>50.93713661265215</v>
+        <v>76.18535893611097</v>
       </c>
       <c r="S24" t="n">
-        <v>49.06286338734786</v>
+        <v>23.81464106388903</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -2482,34 +2482,34 @@
         <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>517413.6715225824</v>
+        <v>526594.5943149452</v>
       </c>
       <c r="D25" t="n">
-        <v>604195.4579833514</v>
+        <v>631892.4768078775</v>
       </c>
       <c r="E25" t="n">
-        <v>725580.6935547824</v>
+        <v>795824.8886525694</v>
       </c>
       <c r="F25" t="n">
-        <v>865891.0058377454</v>
+        <v>1001573.900120422</v>
       </c>
       <c r="G25" t="n">
-        <v>1060204.663150359</v>
+        <v>1279394.279701764</v>
       </c>
       <c r="H25" t="n">
-        <v>254533.2406652473</v>
+        <v>259049.6463175388</v>
       </c>
       <c r="I25" t="n">
-        <v>297224.1291251107</v>
+        <v>310849.2270809256</v>
       </c>
       <c r="J25" t="n">
-        <v>356937.6215962163</v>
+        <v>391493.110946832</v>
       </c>
       <c r="K25" t="n">
-        <v>425960.9977645375</v>
+        <v>492707.990906373</v>
       </c>
       <c r="L25" t="n">
-        <v>521550.4412281264</v>
+        <v>629377.2082650833</v>
       </c>
       <c r="M25" t="n">
         <v>3</v>
@@ -2527,10 +2527,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>51.33741602485226</v>
+        <v>76.61752506391835</v>
       </c>
       <c r="S25" t="n">
-        <v>48.66258397514774</v>
+        <v>23.38247493608164</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2565,34 +2565,34 @@
         <v>25</v>
       </c>
       <c r="C26" t="n">
-        <v>559244.0758396409</v>
+        <v>575957.5115597383</v>
       </c>
       <c r="D26" t="n">
-        <v>661840.9866630252</v>
+        <v>683048.5141322545</v>
       </c>
       <c r="E26" t="n">
-        <v>794158.941075258</v>
+        <v>865639.7614464534</v>
       </c>
       <c r="F26" t="n">
-        <v>961165.0546712454</v>
+        <v>1103222.490322971</v>
       </c>
       <c r="G26" t="n">
-        <v>1177281.535140715</v>
+        <v>1430372.928481709</v>
       </c>
       <c r="H26" t="n">
-        <v>267098.0851976021</v>
+        <v>275080.5151790174</v>
       </c>
       <c r="I26" t="n">
-        <v>316098.9411958923</v>
+        <v>326227.7744254658</v>
       </c>
       <c r="J26" t="n">
-        <v>379294.7331364849</v>
+        <v>413434.3710411601</v>
       </c>
       <c r="K26" t="n">
-        <v>459057.7830906738</v>
+        <v>526905.2055129679</v>
       </c>
       <c r="L26" t="n">
-        <v>562276.2177721212</v>
+        <v>683154.0767639728</v>
       </c>
       <c r="M26" t="n">
         <v>3</v>
@@ -2610,10 +2610,10 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>51.23441312619216</v>
+        <v>76.91421854432113</v>
       </c>
       <c r="S26" t="n">
-        <v>48.76558687380784</v>
+        <v>23.08578145567886</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2648,34 +2648,34 @@
         <v>26</v>
       </c>
       <c r="C27" t="n">
-        <v>608506.6239704222</v>
+        <v>617001.7160060531</v>
       </c>
       <c r="D27" t="n">
-        <v>719079.410176056</v>
+        <v>748303.8746564918</v>
       </c>
       <c r="E27" t="n">
-        <v>867019.2890189698</v>
+        <v>941187.4574818683</v>
       </c>
       <c r="F27" t="n">
-        <v>1071802.922113368</v>
+        <v>1218101.944843562</v>
       </c>
       <c r="G27" t="n">
-        <v>1292816.104703785</v>
+        <v>1622986.306112516</v>
       </c>
       <c r="H27" t="n">
-        <v>282161.3131464891</v>
+        <v>286100.442532516</v>
       </c>
       <c r="I27" t="n">
-        <v>333433.3311082264</v>
+        <v>346984.5612000183</v>
       </c>
       <c r="J27" t="n">
-        <v>402032.2729055766</v>
+        <v>436423.6615655934</v>
       </c>
       <c r="K27" t="n">
-        <v>496989.36383715</v>
+        <v>564827.4493065468</v>
       </c>
       <c r="L27" t="n">
-        <v>599472.0112987297</v>
+        <v>752570.1928492672</v>
       </c>
       <c r="M27" t="n">
         <v>3</v>
@@ -2693,10 +2693,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>50</v>
+        <v>77.57386209167844</v>
       </c>
       <c r="S27" t="n">
-        <v>50</v>
+        <v>22.42613790832156</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -2731,34 +2731,34 @@
         <v>27</v>
       </c>
       <c r="C28" t="n">
-        <v>650939.0544156225</v>
+        <v>664024.7064678363</v>
       </c>
       <c r="D28" t="n">
-        <v>782259.2068399461</v>
+        <v>813839.0489788231</v>
       </c>
       <c r="E28" t="n">
-        <v>948287.3205770197</v>
+        <v>1028408.174646537</v>
       </c>
       <c r="F28" t="n">
-        <v>1184397.540125445</v>
+        <v>1388127.379346886</v>
       </c>
       <c r="G28" t="n">
-        <v>1439410.098346882</v>
+        <v>1792185.064479356</v>
       </c>
       <c r="H28" t="n">
-        <v>293045.6382682811</v>
+        <v>298936.6556097436</v>
       </c>
       <c r="I28" t="n">
-        <v>352164.5336911738</v>
+        <v>366381.4330048996</v>
       </c>
       <c r="J28" t="n">
-        <v>426908.5734450003</v>
+        <v>462978.1050856848</v>
       </c>
       <c r="K28" t="n">
-        <v>533202.8102400997</v>
+        <v>624919.7541904652</v>
       </c>
       <c r="L28" t="n">
-        <v>648006.6730341627</v>
+        <v>806822.1019350606</v>
       </c>
       <c r="M28" t="n">
         <v>3</v>
@@ -2776,10 +2776,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>50.47503152640734</v>
+        <v>77.81810326555566</v>
       </c>
       <c r="S28" t="n">
-        <v>49.52496847359266</v>
+        <v>22.18189673444434</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2814,34 +2814,34 @@
         <v>28</v>
       </c>
       <c r="C29" t="n">
-        <v>710558.5884411953</v>
+        <v>718305.2255886383</v>
       </c>
       <c r="D29" t="n">
-        <v>846636.2267690494</v>
+        <v>874311.1756548944</v>
       </c>
       <c r="E29" t="n">
-        <v>1027126.090855365</v>
+        <v>1129216.343004329</v>
       </c>
       <c r="F29" t="n">
-        <v>1292610.997907801</v>
+        <v>1486395.089711491</v>
       </c>
       <c r="G29" t="n">
-        <v>1581689.900836452</v>
+        <v>2035905.973662024</v>
       </c>
       <c r="H29" t="n">
-        <v>310568.640773238</v>
+        <v>313954.5157856317</v>
       </c>
       <c r="I29" t="n">
-        <v>370045.0131126758</v>
+        <v>382141.0899158584</v>
       </c>
       <c r="J29" t="n">
-        <v>448932.9368876938</v>
+        <v>493554.212827313</v>
       </c>
       <c r="K29" t="n">
-        <v>564970.2180779245</v>
+        <v>649668.739739561</v>
       </c>
       <c r="L29" t="n">
-        <v>691319.886380048</v>
+        <v>889847.1727284703</v>
       </c>
       <c r="M29" t="n">
         <v>3</v>
@@ -2859,10 +2859,10 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>51.01072059823268</v>
+        <v>77.8878133566065</v>
       </c>
       <c r="S29" t="n">
-        <v>48.98927940176731</v>
+        <v>22.11218664339349</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2897,34 +2897,34 @@
         <v>29</v>
       </c>
       <c r="C30" t="n">
-        <v>773410.8815861508</v>
+        <v>778859.5446912202</v>
       </c>
       <c r="D30" t="n">
-        <v>928206.8795188722</v>
+        <v>955858.4280367921</v>
       </c>
       <c r="E30" t="n">
-        <v>1133740.001481296</v>
+        <v>1228552.218142644</v>
       </c>
       <c r="F30" t="n">
-        <v>1419753.176410924</v>
+        <v>1633851.027173557</v>
       </c>
       <c r="G30" t="n">
-        <v>1714840.273203115</v>
+        <v>2246387.79419009</v>
       </c>
       <c r="H30" t="n">
-        <v>328194.0941653892</v>
+        <v>330506.2145334311</v>
       </c>
       <c r="I30" t="n">
-        <v>393881.212786952</v>
+        <v>405615.0468125314</v>
       </c>
       <c r="J30" t="n">
-        <v>481098.4454241531</v>
+        <v>521331.6646661268</v>
       </c>
       <c r="K30" t="n">
-        <v>602467.09577581</v>
+        <v>693318.7399234778</v>
       </c>
       <c r="L30" t="n">
-        <v>727686.2318616525</v>
+        <v>953246.4887827937</v>
       </c>
       <c r="M30" t="n">
         <v>3</v>
@@ -2942,10 +2942,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>51.79694835385252</v>
+        <v>78.37009759526262</v>
       </c>
       <c r="S30" t="n">
-        <v>48.20305164614747</v>
+        <v>21.62990240473736</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -2980,34 +2980,34 @@
         <v>30</v>
       </c>
       <c r="C31" t="n">
-        <v>826432.7338718503</v>
+        <v>834428.3003414791</v>
       </c>
       <c r="D31" t="n">
-        <v>1003645.026112345</v>
+        <v>1033642.464995427</v>
       </c>
       <c r="E31" t="n">
-        <v>1223470.1695617</v>
+        <v>1358684.45926679</v>
       </c>
       <c r="F31" t="n">
-        <v>1568764.371550306</v>
+        <v>1803647.500002108</v>
       </c>
       <c r="G31" t="n">
-        <v>1911099.247454796</v>
+        <v>2389357.138138811</v>
       </c>
       <c r="H31" t="n">
-        <v>340479.343985735</v>
+        <v>343773.4115060514</v>
       </c>
       <c r="I31" t="n">
-        <v>413488.462012282</v>
+        <v>425847.0096514997</v>
       </c>
       <c r="J31" t="n">
-        <v>504053.5105221014</v>
+        <v>559760.0075779461</v>
       </c>
       <c r="K31" t="n">
-        <v>646310.1498790181</v>
+        <v>743078.888834834</v>
       </c>
       <c r="L31" t="n">
-        <v>787347.5860721886</v>
+        <v>984383.5046680084</v>
       </c>
       <c r="M31" t="n">
         <v>3</v>
@@ -3025,10 +3025,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>51.74201791481349</v>
+        <v>78.69282348342992</v>
       </c>
       <c r="S31" t="n">
-        <v>48.25798208518651</v>
+        <v>21.30717651657007</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3063,34 +3063,34 @@
         <v>31</v>
       </c>
       <c r="C32" t="n">
-        <v>879288.7692972944</v>
+        <v>885432.4797722569</v>
       </c>
       <c r="D32" t="n">
-        <v>1081051.640178069</v>
+        <v>1117094.795586954</v>
       </c>
       <c r="E32" t="n">
-        <v>1345847.777237124</v>
+        <v>1456710.382680899</v>
       </c>
       <c r="F32" t="n">
-        <v>1712515.670836587</v>
+        <v>1980951.734747959</v>
       </c>
       <c r="G32" t="n">
-        <v>2069198.271695966</v>
+        <v>2595210.420878232</v>
       </c>
       <c r="H32" t="n">
-        <v>351704.2046034191</v>
+        <v>354161.6098169956</v>
       </c>
       <c r="I32" t="n">
-        <v>432406.7593265227</v>
+        <v>446823.5581611195</v>
       </c>
       <c r="J32" t="n">
-        <v>538321.8102384543</v>
+        <v>582665.4272950285</v>
       </c>
       <c r="K32" t="n">
-        <v>684984.2542215281</v>
+        <v>792355.2290837134</v>
       </c>
       <c r="L32" t="n">
-        <v>827652.709467898</v>
+        <v>1038050.807339354</v>
       </c>
       <c r="M32" t="n">
         <v>3</v>
@@ -3108,10 +3108,10 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>50</v>
+        <v>79.17994214676999</v>
       </c>
       <c r="S32" t="n">
-        <v>50</v>
+        <v>20.82005785323002</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3146,34 +3146,34 @@
         <v>32</v>
       </c>
       <c r="C33" t="n">
-        <v>955848.6401075005</v>
+        <v>972987.0375118315</v>
       </c>
       <c r="D33" t="n">
-        <v>1173838.906307128</v>
+        <v>1218533.862986268</v>
       </c>
       <c r="E33" t="n">
-        <v>1464690.922869958</v>
+        <v>1584240.996675062</v>
       </c>
       <c r="F33" t="n">
-        <v>1861768.366879088</v>
+        <v>2162381.002084966</v>
       </c>
       <c r="G33" t="n">
-        <v>2276949.046588596</v>
+        <v>2856373.480278352</v>
       </c>
       <c r="H33" t="n">
-        <v>371191.4259831981</v>
+        <v>377846.9004010567</v>
       </c>
       <c r="I33" t="n">
-        <v>455845.119429889</v>
+        <v>473201.8263475464</v>
       </c>
       <c r="J33" t="n">
-        <v>568793.7289146536</v>
+        <v>615219.4500069832</v>
       </c>
       <c r="K33" t="n">
-        <v>722993.6058438462</v>
+        <v>839732.6250237941</v>
       </c>
       <c r="L33" t="n">
-        <v>884223.639633206</v>
+        <v>1109235.605718776</v>
       </c>
       <c r="M33" t="n">
         <v>3</v>
@@ -3191,10 +3191,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>50.66128604418623</v>
+        <v>79.22022939398381</v>
       </c>
       <c r="S33" t="n">
-        <v>49.33871395581376</v>
+        <v>20.77977060601619</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -3229,34 +3229,34 @@
         <v>33</v>
       </c>
       <c r="C34" t="n">
-        <v>1042811.214461092</v>
+        <v>1032469.073148688</v>
       </c>
       <c r="D34" t="n">
-        <v>1265766.856274142</v>
+        <v>1316553.885847428</v>
       </c>
       <c r="E34" t="n">
-        <v>1603679.273671556</v>
+        <v>1740361.893527569</v>
       </c>
       <c r="F34" t="n">
-        <v>2035929.602971142</v>
+        <v>2371462.043985879</v>
       </c>
       <c r="G34" t="n">
-        <v>2507883.196670122</v>
+        <v>3113546.315401314</v>
       </c>
       <c r="H34" t="n">
-        <v>393167.1982413466</v>
+        <v>389267.9395191288</v>
       </c>
       <c r="I34" t="n">
-        <v>477227.3270624958</v>
+        <v>496375.3702053268</v>
       </c>
       <c r="J34" t="n">
-        <v>604629.1775189657</v>
+        <v>656162.1126771737</v>
       </c>
       <c r="K34" t="n">
-        <v>767598.8968247207</v>
+        <v>894103.4337183118</v>
       </c>
       <c r="L34" t="n">
-        <v>945537.788890103</v>
+        <v>1173888.681331089</v>
       </c>
       <c r="M34" t="n">
         <v>3</v>
@@ -3274,10 +3274,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>51.22932430724111</v>
+        <v>79.84492752148685</v>
       </c>
       <c r="S34" t="n">
-        <v>48.77067569275889</v>
+        <v>20.15507247851313</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3312,34 +3312,34 @@
         <v>34</v>
       </c>
       <c r="C35" t="n">
-        <v>1127120.489914828</v>
+        <v>1140807.515999868</v>
       </c>
       <c r="D35" t="n">
-        <v>1358933.256645489</v>
+        <v>1426152.4594682</v>
       </c>
       <c r="E35" t="n">
-        <v>1730251.225964113</v>
+        <v>1903384.545558591</v>
       </c>
       <c r="F35" t="n">
-        <v>2211894.003610853</v>
+        <v>2585885.424588384</v>
       </c>
       <c r="G35" t="n">
-        <v>2750579.26378591</v>
+        <v>3432204.867906165</v>
       </c>
       <c r="H35" t="n">
-        <v>412576.7067287469</v>
+        <v>417586.77281982</v>
       </c>
       <c r="I35" t="n">
-        <v>497430.5876857351</v>
+        <v>522035.8340437545</v>
       </c>
       <c r="J35" t="n">
-        <v>633349.6365376109</v>
+        <v>696724.2051506819</v>
       </c>
       <c r="K35" t="n">
-        <v>809652.5187930777</v>
+        <v>946550.1709894051</v>
       </c>
       <c r="L35" t="n">
-        <v>1006835.510846694</v>
+        <v>1256341.086768908</v>
       </c>
       <c r="M35" t="n">
         <v>3</v>
@@ -3357,10 +3357,10 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>51.91336687692431</v>
+        <v>79.7908653884239</v>
       </c>
       <c r="S35" t="n">
-        <v>48.08663312307569</v>
+        <v>20.20913461157609</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3395,34 +3395,34 @@
         <v>35</v>
       </c>
       <c r="C36" t="n">
-        <v>1216491.182692898</v>
+        <v>1220771.456632152</v>
       </c>
       <c r="D36" t="n">
-        <v>1480381.791104101</v>
+        <v>1552022.915096256</v>
       </c>
       <c r="E36" t="n">
-        <v>1862001.164646931</v>
+        <v>2049088.240729221</v>
       </c>
       <c r="F36" t="n">
-        <v>2397765.886110777</v>
+        <v>2851620.634771733</v>
       </c>
       <c r="G36" t="n">
-        <v>3005341.301160064</v>
+        <v>3871811.240602293</v>
       </c>
       <c r="H36" t="n">
-        <v>432320.7699093451</v>
+        <v>433841.9082054278</v>
       </c>
       <c r="I36" t="n">
-        <v>526103.1109762409</v>
+        <v>551563.1770433849</v>
       </c>
       <c r="J36" t="n">
-        <v>661724.3006154001</v>
+        <v>728211.9413995603</v>
       </c>
       <c r="K36" t="n">
-        <v>852126.1877550854</v>
+        <v>1013418.630445687</v>
       </c>
       <c r="L36" t="n">
-        <v>1068048.403180142</v>
+        <v>1375977.434357949</v>
       </c>
       <c r="M36" t="n">
         <v>3</v>
@@ -3440,10 +3440,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>52.0996860889113</v>
+        <v>80.33609397156147</v>
       </c>
       <c r="S36" t="n">
-        <v>47.90031391108869</v>
+        <v>19.66390602843853</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -3478,34 +3478,34 @@
         <v>36</v>
       </c>
       <c r="C37" t="n">
-        <v>1276313.943519942</v>
+        <v>1289796.470942721</v>
       </c>
       <c r="D37" t="n">
-        <v>1592005.28714818</v>
+        <v>1685539.96820896</v>
       </c>
       <c r="E37" t="n">
-        <v>2035872.703554284</v>
+        <v>2236120.982559776</v>
       </c>
       <c r="F37" t="n">
-        <v>2613401.611861834</v>
+        <v>3058795.450380614</v>
       </c>
       <c r="G37" t="n">
-        <v>3317193.669025548</v>
+        <v>4292179.612583884</v>
       </c>
       <c r="H37" t="n">
-        <v>440369.6950663479</v>
+        <v>445021.6041989229</v>
       </c>
       <c r="I37" t="n">
-        <v>549293.4449278029</v>
+        <v>581565.9427611073</v>
       </c>
       <c r="J37" t="n">
-        <v>702442.0960140466</v>
+        <v>771534.2453327395</v>
       </c>
       <c r="K37" t="n">
-        <v>901708.2957877412</v>
+        <v>1055383.611997182</v>
       </c>
       <c r="L37" t="n">
-        <v>1144539.376006572</v>
+        <v>1480941.140508685</v>
       </c>
       <c r="M37" t="n">
         <v>3</v>
@@ -3523,10 +3523,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>50</v>
+        <v>80.71720643306415</v>
       </c>
       <c r="S37" t="n">
-        <v>50</v>
+        <v>19.28279356693585</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3561,34 +3561,34 @@
         <v>37</v>
       </c>
       <c r="C38" t="n">
-        <v>1381435.722877745</v>
+        <v>1361089.022749078</v>
       </c>
       <c r="D38" t="n">
-        <v>1722289.803987423</v>
+        <v>1818351.932065581</v>
       </c>
       <c r="E38" t="n">
-        <v>2204468.653856439</v>
+        <v>2446296.164163338</v>
       </c>
       <c r="F38" t="n">
-        <v>2842466.401919287</v>
+        <v>3412371.773323796</v>
       </c>
       <c r="G38" t="n">
-        <v>3653793.741639742</v>
+        <v>4731392.851309804</v>
       </c>
       <c r="H38" t="n">
-        <v>462757.3956548006</v>
+        <v>455941.5982884946</v>
       </c>
       <c r="I38" t="n">
-        <v>576937.696815714</v>
+        <v>609116.8706088332</v>
       </c>
       <c r="J38" t="n">
-        <v>738459.3840791609</v>
+        <v>819467.4737166467</v>
       </c>
       <c r="K38" t="n">
-        <v>952177.7434916166</v>
+        <v>1143086.318587276</v>
       </c>
       <c r="L38" t="n">
-        <v>1223958.558577576</v>
+        <v>1584935.873187661</v>
       </c>
       <c r="M38" t="n">
         <v>3</v>
@@ -3606,10 +3606,10 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>50.67176604997796</v>
+        <v>81.23087773024855</v>
       </c>
       <c r="S38" t="n">
-        <v>49.32823395002204</v>
+        <v>18.76912226975144</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3644,34 +3644,34 @@
         <v>38</v>
       </c>
       <c r="C39" t="n">
-        <v>1462355.898533756</v>
+        <v>1455216.338458752</v>
       </c>
       <c r="D39" t="n">
-        <v>1825865.11308456</v>
+        <v>1929712.753487776</v>
       </c>
       <c r="E39" t="n">
-        <v>2370330.338636267</v>
+        <v>2627486.368381417</v>
       </c>
       <c r="F39" t="n">
-        <v>3107461.886400963</v>
+        <v>3662538.205798328</v>
       </c>
       <c r="G39" t="n">
-        <v>3928444.516645477</v>
+        <v>5150835.53570026</v>
       </c>
       <c r="H39" t="n">
-        <v>475596.3822858435</v>
+        <v>473274.4106329859</v>
       </c>
       <c r="I39" t="n">
-        <v>593819.0854877617</v>
+        <v>627593.0540095228</v>
       </c>
       <c r="J39" t="n">
-        <v>770893.4158969815</v>
+        <v>854527.2820115242</v>
       </c>
       <c r="K39" t="n">
-        <v>1010627.872972146</v>
+        <v>1191153.208605299</v>
       </c>
       <c r="L39" t="n">
-        <v>1277632.894974862</v>
+        <v>1675186.422802165</v>
       </c>
       <c r="M39" t="n">
         <v>3</v>
@@ -3689,10 +3689,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>50.67924531296116</v>
+        <v>81.0580698900863</v>
       </c>
       <c r="S39" t="n">
-        <v>49.32075468703884</v>
+        <v>18.94193010991369</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -3727,34 +3727,34 @@
         <v>39</v>
       </c>
       <c r="C40" t="n">
-        <v>1563589.916351067</v>
+        <v>1546460.392417428</v>
       </c>
       <c r="D40" t="n">
-        <v>1979901.183052667</v>
+        <v>2049336.296653393</v>
       </c>
       <c r="E40" t="n">
-        <v>2548710.827475972</v>
+        <v>2821334.634422173</v>
       </c>
       <c r="F40" t="n">
-        <v>3319709.280409873</v>
+        <v>3946280.123382547</v>
       </c>
       <c r="G40" t="n">
-        <v>4326290.822568416</v>
+        <v>5548525.479214423</v>
       </c>
       <c r="H40" t="n">
-        <v>493709.0605730342</v>
+        <v>488300.3526497467</v>
       </c>
       <c r="I40" t="n">
-        <v>625160.8192725758</v>
+        <v>647085.2026087109</v>
       </c>
       <c r="J40" t="n">
-        <v>804764.4814965384</v>
+        <v>890846.4152630086</v>
       </c>
       <c r="K40" t="n">
-        <v>1048209.976968635</v>
+        <v>1246051.942455599</v>
       </c>
       <c r="L40" t="n">
-        <v>1366041.668240344</v>
+        <v>1751966.595116772</v>
       </c>
       <c r="M40" t="n">
         <v>3</v>
@@ -3772,10 +3772,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>50.8648694030544</v>
+        <v>81.39133902909361</v>
       </c>
       <c r="S40" t="n">
-        <v>49.13513059694559</v>
+        <v>18.60866097090637</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3810,34 +3810,34 @@
         <v>40</v>
       </c>
       <c r="C41" t="n">
-        <v>1690257.109737083</v>
+        <v>1683122.98744974</v>
       </c>
       <c r="D41" t="n">
-        <v>2110650.924624954</v>
+        <v>2213695.088931543</v>
       </c>
       <c r="E41" t="n">
-        <v>2753826.940270774</v>
+        <v>3020079.681001337</v>
       </c>
       <c r="F41" t="n">
-        <v>3564678.531642232</v>
+        <v>4254279.29220636</v>
       </c>
       <c r="G41" t="n">
-        <v>4671685.67746535</v>
+        <v>6121308.655024987</v>
       </c>
       <c r="H41" t="n">
-        <v>518159.8796564651</v>
+        <v>515972.865666363</v>
       </c>
       <c r="I41" t="n">
-        <v>647034.4794293392</v>
+        <v>678623.3728993441</v>
       </c>
       <c r="J41" t="n">
-        <v>844204.486847206</v>
+        <v>925826.0858929348</v>
       </c>
       <c r="K41" t="n">
-        <v>1092776.589034454</v>
+        <v>1304178.419588207</v>
       </c>
       <c r="L41" t="n">
-        <v>1432137.202372017</v>
+        <v>1876529.042685817</v>
       </c>
       <c r="M41" t="n">
         <v>3</v>
@@ -3855,10 +3855,10 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>51.40486495431834</v>
+        <v>81.15496925091566</v>
       </c>
       <c r="S41" t="n">
-        <v>48.59513504568167</v>
+        <v>18.84503074908435</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3893,34 +3893,34 @@
         <v>41</v>
       </c>
       <c r="C42" t="n">
-        <v>1796261.477826199</v>
+        <v>1795458.993381857</v>
       </c>
       <c r="D42" t="n">
-        <v>2279512.189997839</v>
+        <v>2375630.176278371</v>
       </c>
       <c r="E42" t="n">
-        <v>2994242.785672025</v>
+        <v>3267304.825680466</v>
       </c>
       <c r="F42" t="n">
-        <v>3915434.881159769</v>
+        <v>4703434.613082133</v>
       </c>
       <c r="G42" t="n">
-        <v>5167178.626173161</v>
+        <v>6863400.580969741</v>
       </c>
       <c r="H42" t="n">
-        <v>534617.7124719303</v>
+        <v>534378.8706311267</v>
       </c>
       <c r="I42" t="n">
-        <v>678446.6557972019</v>
+        <v>707054.0598901147</v>
       </c>
       <c r="J42" t="n">
-        <v>891170.4940634731</v>
+        <v>972441.4031122483</v>
       </c>
       <c r="K42" t="n">
-        <v>1165343.055751362</v>
+        <v>1399873.84055595</v>
       </c>
       <c r="L42" t="n">
-        <v>1537897.044032603</v>
+        <v>2042740.193269117</v>
       </c>
       <c r="M42" t="n">
         <v>3</v>
@@ -3938,10 +3938,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>50</v>
+        <v>81.52271976585857</v>
       </c>
       <c r="S42" t="n">
-        <v>50</v>
+        <v>18.47728023414143</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -3976,34 +3976,34 @@
         <v>42</v>
       </c>
       <c r="C43" t="n">
-        <v>1915884.071422089</v>
+        <v>1927184.886119311</v>
       </c>
       <c r="D43" t="n">
-        <v>2476345.275670725</v>
+        <v>2561631.517401604</v>
       </c>
       <c r="E43" t="n">
-        <v>3193526.91574027</v>
+        <v>3485567.293867061</v>
       </c>
       <c r="F43" t="n">
-        <v>4257105.642621064</v>
+        <v>5157130.971704281</v>
       </c>
       <c r="G43" t="n">
-        <v>5555845.998167073</v>
+        <v>7359192.077957277</v>
       </c>
       <c r="H43" t="n">
-        <v>553612.3746102491</v>
+        <v>556877.8492560691</v>
       </c>
       <c r="I43" t="n">
-        <v>715562.8092890544</v>
+        <v>740207.0555200749</v>
       </c>
       <c r="J43" t="n">
-        <v>922799.0594923694</v>
+        <v>1007186.820541419</v>
       </c>
       <c r="K43" t="n">
-        <v>1230129.943107039</v>
+        <v>1490200.563806593</v>
       </c>
       <c r="L43" t="n">
-        <v>1605412.948462525</v>
+        <v>2126506.432336889</v>
       </c>
       <c r="M43" t="n">
         <v>3</v>
@@ -4021,10 +4021,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>50.46780429006793</v>
+        <v>82.04995224919507</v>
       </c>
       <c r="S43" t="n">
-        <v>49.53219570993207</v>
+        <v>17.95004775080493</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -4059,34 +4059,34 @@
         <v>43</v>
       </c>
       <c r="C44" t="n">
-        <v>2063185.375517385</v>
+        <v>2009615.864225061</v>
       </c>
       <c r="D44" t="n">
-        <v>2647751.51778507</v>
+        <v>2749140.248787422</v>
       </c>
       <c r="E44" t="n">
-        <v>3447382.19257579</v>
+        <v>3804302.12895247</v>
       </c>
       <c r="F44" t="n">
-        <v>4566068.118395276</v>
+        <v>5560477.013186957</v>
       </c>
       <c r="G44" t="n">
-        <v>5969481.116324893</v>
+        <v>8129796.974453511</v>
       </c>
       <c r="H44" t="n">
-        <v>578812.0826604712</v>
+        <v>563783.5346850195</v>
       </c>
       <c r="I44" t="n">
-        <v>742807.984470267</v>
+        <v>771251.8767380945</v>
       </c>
       <c r="J44" t="n">
-        <v>967138.7216531776</v>
+        <v>1067270.088504022</v>
       </c>
       <c r="K44" t="n">
-        <v>1280978.155690538</v>
+        <v>1559952.546571983</v>
       </c>
       <c r="L44" t="n">
-        <v>1674695.758482635</v>
+        <v>2280757.111905277</v>
       </c>
       <c r="M44" t="n">
         <v>3</v>
@@ -4104,10 +4104,10 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>50.93900238560317</v>
+        <v>81.72422351753701</v>
       </c>
       <c r="S44" t="n">
-        <v>49.06099761439683</v>
+        <v>18.27577648246299</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4142,34 +4142,34 @@
         <v>44</v>
       </c>
       <c r="C45" t="n">
-        <v>2199025.841386517</v>
+        <v>2158525.751650859</v>
       </c>
       <c r="D45" t="n">
-        <v>2842582.868925193</v>
+        <v>2943542.427014919</v>
       </c>
       <c r="E45" t="n">
-        <v>3726073.896954154</v>
+        <v>4107205.204803297</v>
       </c>
       <c r="F45" t="n">
-        <v>4942468.44278497</v>
+        <v>6018596.999473551</v>
       </c>
       <c r="G45" t="n">
-        <v>6471071.05922135</v>
+        <v>8854739.157761935</v>
       </c>
       <c r="H45" t="n">
-        <v>598952.5881324837</v>
+        <v>587921.5065006845</v>
       </c>
       <c r="I45" t="n">
-        <v>774239.362849101</v>
+        <v>801737.897644138</v>
       </c>
       <c r="J45" t="n">
-        <v>1014877.388956209</v>
+        <v>1118686.802633053</v>
       </c>
       <c r="K45" t="n">
-        <v>1346188.939600032</v>
+        <v>1639295.992760218</v>
       </c>
       <c r="L45" t="n">
-        <v>1762537.158938547</v>
+        <v>2411781.08777275</v>
       </c>
       <c r="M45" t="n">
         <v>3</v>
@@ -4187,10 +4187,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>51.61813073684991</v>
+        <v>82.09847681817334</v>
       </c>
       <c r="S45" t="n">
-        <v>48.38186926315009</v>
+        <v>17.90152318182666</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -4225,34 +4225,34 @@
         <v>45</v>
       </c>
       <c r="C46" t="n">
-        <v>2378882.422951548</v>
+        <v>2313924.455872102</v>
       </c>
       <c r="D46" t="n">
-        <v>2996055.612411204</v>
+        <v>3107231.54681761</v>
       </c>
       <c r="E46" t="n">
-        <v>3996228.826676298</v>
+        <v>4403090.895980804</v>
       </c>
       <c r="F46" t="n">
-        <v>5340889.049569755</v>
+        <v>6671288.366800827</v>
       </c>
       <c r="G46" t="n">
-        <v>6960815.247053157</v>
+        <v>9886888.63629072</v>
       </c>
       <c r="H46" t="n">
-        <v>629068.3940229682</v>
+        <v>611890.998605937</v>
       </c>
       <c r="I46" t="n">
-        <v>792272.822868053</v>
+        <v>821672.03395822</v>
       </c>
       <c r="J46" t="n">
-        <v>1056757.251174474</v>
+        <v>1164347.296843351</v>
       </c>
       <c r="K46" t="n">
-        <v>1412337.349947343</v>
+        <v>1764146.314453215</v>
       </c>
       <c r="L46" t="n">
-        <v>1840708.404209982</v>
+        <v>2614475.224294015</v>
       </c>
       <c r="M46" t="n">
         <v>3</v>
@@ -4270,10 +4270,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>51.78115762400225</v>
+        <v>82.0973456516133</v>
       </c>
       <c r="S46" t="n">
-        <v>48.21884237599776</v>
+        <v>17.9026543483867</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4308,34 +4308,34 @@
         <v>46</v>
       </c>
       <c r="C47" t="n">
-        <v>2523803.874123275</v>
+        <v>2511670.157142459</v>
       </c>
       <c r="D47" t="n">
-        <v>3197403.071639944</v>
+        <v>3316217.953992279</v>
       </c>
       <c r="E47" t="n">
-        <v>4308766.880960803</v>
+        <v>4726093.524069067</v>
       </c>
       <c r="F47" t="n">
-        <v>5881809.256106667</v>
+        <v>7088498.834929395</v>
       </c>
       <c r="G47" t="n">
-        <v>7578404.194622496</v>
+        <v>10601900.59386599</v>
       </c>
       <c r="H47" t="n">
-        <v>647952.643810466</v>
+        <v>644837.4754419656</v>
       </c>
       <c r="I47" t="n">
-        <v>820890.1629951344</v>
+        <v>851394.2833562968</v>
       </c>
       <c r="J47" t="n">
-        <v>1106217.848663608</v>
+        <v>1213360.842026545</v>
       </c>
       <c r="K47" t="n">
-        <v>1510075.28634019</v>
+        <v>1819876.579092518</v>
       </c>
       <c r="L47" t="n">
-        <v>1945653.180152826</v>
+        <v>2721895.147893603</v>
       </c>
       <c r="M47" t="n">
         <v>3</v>
@@ -4353,10 +4353,10 @@
         <v>0</v>
       </c>
       <c r="R47" t="n">
-        <v>50</v>
+        <v>82.71118118666479</v>
       </c>
       <c r="S47" t="n">
-        <v>50</v>
+        <v>17.2888188133352</v>
       </c>
       <c r="T47" t="n">
         <v>0</v>
@@ -4391,34 +4391,34 @@
         <v>47</v>
       </c>
       <c r="C48" t="n">
-        <v>2697034.687239896</v>
+        <v>2645392.907415615</v>
       </c>
       <c r="D48" t="n">
-        <v>3388205.465394208</v>
+        <v>3507687.274675374</v>
       </c>
       <c r="E48" t="n">
-        <v>4579473.726340355</v>
+        <v>5171157.336487629</v>
       </c>
       <c r="F48" t="n">
-        <v>6307863.003577277</v>
+        <v>7540414.939275763</v>
       </c>
       <c r="G48" t="n">
-        <v>8557800.47761941</v>
+        <v>11504441.99636944</v>
       </c>
       <c r="H48" t="n">
-        <v>672259.5352426731</v>
+        <v>659387.3689824371</v>
       </c>
       <c r="I48" t="n">
-        <v>844539.9097938979</v>
+        <v>874321.7980125886</v>
       </c>
       <c r="J48" t="n">
-        <v>1141473.965274131</v>
+        <v>1288956.29119682</v>
       </c>
       <c r="K48" t="n">
-        <v>1572290.141918418</v>
+        <v>1879514.515181149</v>
       </c>
       <c r="L48" t="n">
-        <v>2133106.777974571</v>
+        <v>2867583.003769387</v>
       </c>
       <c r="M48" t="n">
         <v>3</v>
@@ -4436,10 +4436,10 @@
         <v>0</v>
       </c>
       <c r="R48" t="n">
-        <v>50.08916168071971</v>
+        <v>82.60774942950607</v>
       </c>
       <c r="S48" t="n">
-        <v>49.91083831928029</v>
+        <v>17.39225057049394</v>
       </c>
       <c r="T48" t="n">
         <v>0</v>
@@ -4474,34 +4474,34 @@
         <v>48</v>
       </c>
       <c r="C49" t="n">
-        <v>2874857.393069129</v>
+        <v>2789179.914145329</v>
       </c>
       <c r="D49" t="n">
-        <v>3650686.156027896</v>
+        <v>3832759.430465593</v>
       </c>
       <c r="E49" t="n">
-        <v>4898858.902993403</v>
+        <v>5452114.994931082</v>
       </c>
       <c r="F49" t="n">
-        <v>6858943.670696691</v>
+        <v>8146888.921030617</v>
       </c>
       <c r="G49" t="n">
-        <v>9173837.258907299</v>
+        <v>12611152.64632973</v>
       </c>
       <c r="H49" t="n">
-        <v>695712.0420219519</v>
+        <v>674978.1948540633</v>
       </c>
       <c r="I49" t="n">
-        <v>883461.6723996804</v>
+        <v>927523.1864984519</v>
       </c>
       <c r="J49" t="n">
-        <v>1185517.98054249</v>
+        <v>1319405.291409109</v>
       </c>
       <c r="K49" t="n">
-        <v>1659856.144084985</v>
+        <v>1971537.35035369</v>
       </c>
       <c r="L49" t="n">
-        <v>2220057.616756364</v>
+        <v>3051883.818995967</v>
       </c>
       <c r="M49" t="n">
         <v>3</v>
@@ -4519,10 +4519,10 @@
         <v>0</v>
       </c>
       <c r="R49" t="n">
-        <v>50.29437930815809</v>
+        <v>82.85645482055861</v>
       </c>
       <c r="S49" t="n">
-        <v>49.70562069184191</v>
+        <v>17.14354517944138</v>
       </c>
       <c r="T49" t="n">
         <v>0</v>
@@ -4557,34 +4557,34 @@
         <v>49</v>
       </c>
       <c r="C50" t="n">
-        <v>3030114.558495133</v>
+        <v>3000834.494249728</v>
       </c>
       <c r="D50" t="n">
-        <v>3938854.173114388</v>
+        <v>4105989.100199914</v>
       </c>
       <c r="E50" t="n">
-        <v>5227834.168967985</v>
+        <v>5794443.758478371</v>
       </c>
       <c r="F50" t="n">
-        <v>7305803.880789273</v>
+        <v>8552511.422998313</v>
       </c>
       <c r="G50" t="n">
-        <v>9975412.083741786</v>
+        <v>13573072.66259293</v>
       </c>
       <c r="H50" t="n">
-        <v>711926.3008677451</v>
+        <v>705046.9412181372</v>
       </c>
       <c r="I50" t="n">
-        <v>925434.9388412114</v>
+        <v>964703.3387940144</v>
       </c>
       <c r="J50" t="n">
-        <v>1228281.165485631</v>
+        <v>1361406.254095038</v>
       </c>
       <c r="K50" t="n">
-        <v>1716500.756426394</v>
+        <v>2009415.057735713</v>
       </c>
       <c r="L50" t="n">
-        <v>2343725.983725411</v>
+        <v>3188997.387903353</v>
       </c>
       <c r="M50" t="n">
         <v>3</v>
@@ -4602,10 +4602,10 @@
         <v>0</v>
       </c>
       <c r="R50" t="n">
-        <v>50.37231896497272</v>
+        <v>83.00753848722411</v>
       </c>
       <c r="S50" t="n">
-        <v>49.62768103502728</v>
+        <v>16.9924615127759</v>
       </c>
       <c r="T50" t="n">
         <v>0</v>
@@ -4640,34 +4640,34 @@
         <v>50</v>
       </c>
       <c r="C51" t="n">
-        <v>3313676.307476745</v>
+        <v>3209479.077682982</v>
       </c>
       <c r="D51" t="n">
-        <v>4162678.872662534</v>
+        <v>4407454.812299664</v>
       </c>
       <c r="E51" t="n">
-        <v>5638579.06983402</v>
+        <v>6231451.098983246</v>
       </c>
       <c r="F51" t="n">
-        <v>7771536.637010755</v>
+        <v>9514310.776811697</v>
       </c>
       <c r="G51" t="n">
-        <v>10561191.045943</v>
+        <v>14604970.06486539</v>
       </c>
       <c r="H51" t="n">
-        <v>755873.0258670134</v>
+        <v>732104.9000565762</v>
       </c>
       <c r="I51" t="n">
-        <v>949536.5217455535</v>
+        <v>1005371.646538972</v>
       </c>
       <c r="J51" t="n">
-        <v>1286199.805783463</v>
+        <v>1421438.113041718</v>
       </c>
       <c r="K51" t="n">
-        <v>1772742.527747605</v>
+        <v>2170281.647510697</v>
       </c>
       <c r="L51" t="n">
-        <v>2409082.448591749</v>
+        <v>3331497.07191321</v>
       </c>
       <c r="M51" t="n">
         <v>3</v>
@@ -4685,10 +4685,10 @@
         <v>0</v>
       </c>
       <c r="R51" t="n">
-        <v>50.92240116455741</v>
+        <v>83.59933834626794</v>
       </c>
       <c r="S51" t="n">
-        <v>49.07759883544259</v>
+        <v>16.40066165373205</v>
       </c>
       <c r="T51" t="n">
         <v>0</v>
@@ -4723,34 +4723,34 @@
         <v>51</v>
       </c>
       <c r="C52" t="n">
-        <v>3077498.681096833</v>
+        <v>854768.6902335217</v>
       </c>
       <c r="D52" t="n">
-        <v>4044673.351524281</v>
+        <v>1956780.772198172</v>
       </c>
       <c r="E52" t="n">
-        <v>5636103.116733858</v>
+        <v>3356983.857481396</v>
       </c>
       <c r="F52" t="n">
-        <v>8020324.742941135</v>
+        <v>6728594.55547899</v>
       </c>
       <c r="G52" t="n">
-        <v>11068886.50243089</v>
+        <v>12297632.55069266</v>
       </c>
       <c r="H52" t="n">
-        <v>681552.6574774915</v>
+        <v>189299.7959464864</v>
       </c>
       <c r="I52" t="n">
-        <v>895746.2397278048</v>
+        <v>433354.9007134601</v>
       </c>
       <c r="J52" t="n">
-        <v>1248189.34306028</v>
+        <v>743448.3345936148</v>
       </c>
       <c r="K52" t="n">
-        <v>1776206.656386221</v>
+        <v>1490135.975863638</v>
       </c>
       <c r="L52" t="n">
-        <v>2451350.851061872</v>
+        <v>2723472.863559145</v>
       </c>
       <c r="M52" t="n">
         <v>3</v>
@@ -4762,16 +4762,16 @@
         <v>0</v>
       </c>
       <c r="P52" t="n">
-        <v>361233.8559414647</v>
+        <v>3612338.559414647</v>
       </c>
       <c r="Q52" t="n">
-        <v>80000</v>
+        <v>800000</v>
       </c>
       <c r="R52" t="n">
-        <v>50</v>
+        <v>83.44884794269311</v>
       </c>
       <c r="S52" t="n">
-        <v>50</v>
+        <v>16.55115205730689</v>
       </c>
       <c r="T52" t="n">
         <v>0</v>
@@ -4806,34 +4806,34 @@
         <v>52</v>
       </c>
       <c r="C53" t="n">
-        <v>2846793.724023063</v>
+        <v>274309.7505184748</v>
       </c>
       <c r="D53" t="n">
-        <v>3933094.428093295</v>
+        <v>865003.0804670546</v>
       </c>
       <c r="E53" t="n">
-        <v>5673444.127620227</v>
+        <v>2163906.182292808</v>
       </c>
       <c r="F53" t="n">
-        <v>8116788.48980656</v>
+        <v>3616364.980705492</v>
       </c>
       <c r="G53" t="n">
-        <v>11607057.28148036</v>
+        <v>9588567.691376088</v>
       </c>
       <c r="H53" t="n">
-        <v>612097.0903484762</v>
+        <v>58980.10759602707</v>
       </c>
       <c r="I53" t="n">
-        <v>845665.6466488</v>
+        <v>185986.7345597898</v>
       </c>
       <c r="J53" t="n">
-        <v>1219863.108965761</v>
+        <v>465267.5277423002</v>
       </c>
       <c r="K53" t="n">
-        <v>1745213.422264924</v>
+        <v>777564.7612429617</v>
       </c>
       <c r="L53" t="n">
-        <v>2495665.888802791</v>
+        <v>2061664.78975038</v>
       </c>
       <c r="M53" t="n">
         <v>3</v>
@@ -4845,16 +4845,16 @@
         <v>0</v>
       </c>
       <c r="P53" t="n">
-        <v>372070.8716197087</v>
+        <v>3502842.593651301</v>
       </c>
       <c r="Q53" t="n">
-        <v>80000.00000000001</v>
+        <v>753155.9949108912</v>
       </c>
       <c r="R53" t="n">
-        <v>50.66738600573393</v>
+        <v>84.02578137983616</v>
       </c>
       <c r="S53" t="n">
-        <v>49.33261399426607</v>
+        <v>15.97421862016383</v>
       </c>
       <c r="T53" t="n">
         <v>0</v>
@@ -4889,34 +4889,34 @@
         <v>53</v>
       </c>
       <c r="C54" t="n">
-        <v>2649308.654787848</v>
+        <v>52878.0303059564</v>
       </c>
       <c r="D54" t="n">
-        <v>3747502.080437821</v>
+        <v>205108.3160565868</v>
       </c>
       <c r="E54" t="n">
-        <v>5693557.682912617</v>
+        <v>850561.6058336415</v>
       </c>
       <c r="F54" t="n">
-        <v>8241316.421016185</v>
+        <v>2578674.793195643</v>
       </c>
       <c r="G54" t="n">
-        <v>12028633.62911903</v>
+        <v>6144114.869294306</v>
       </c>
       <c r="H54" t="n">
-        <v>553043.9539842762</v>
+        <v>11038.30424079006</v>
       </c>
       <c r="I54" t="n">
-        <v>782292.1517219737</v>
+        <v>42816.4207677323</v>
       </c>
       <c r="J54" t="n">
-        <v>1188531.826031307</v>
+        <v>177554.9831641346</v>
       </c>
       <c r="K54" t="n">
-        <v>1720377.205305025</v>
+        <v>538299.1147864969</v>
       </c>
       <c r="L54" t="n">
-        <v>2510980.776533541</v>
+        <v>1282585.770029959</v>
       </c>
       <c r="M54" t="n">
         <v>3</v>
@@ -4928,16 +4928,16 @@
         <v>0</v>
       </c>
       <c r="P54" t="n">
-        <v>383232.9977682999</v>
+        <v>2179219.6206896</v>
       </c>
       <c r="Q54" t="n">
-        <v>80000.00000000001</v>
+        <v>454912.7310810832</v>
       </c>
       <c r="R54" t="n">
-        <v>50.96001958396486</v>
+        <v>84.17253874947482</v>
       </c>
       <c r="S54" t="n">
-        <v>49.03998041603514</v>
+        <v>15.82746125052517</v>
       </c>
       <c r="T54" t="n">
         <v>0</v>
@@ -4972,34 +4972,34 @@
         <v>54</v>
       </c>
       <c r="C55" t="n">
-        <v>2336731.192431778</v>
+        <v>21115.07361359836</v>
       </c>
       <c r="D55" t="n">
-        <v>3600097.106220625</v>
+        <v>75020.17074995239</v>
       </c>
       <c r="E55" t="n">
-        <v>5654345.625502052</v>
+        <v>261218.9469198702</v>
       </c>
       <c r="F55" t="n">
-        <v>8458881.614123784</v>
+        <v>1309212.426718462</v>
       </c>
       <c r="G55" t="n">
-        <v>12587977.46994773</v>
+        <v>3528050.572323829</v>
       </c>
       <c r="H55" t="n">
-        <v>473585.7452410712</v>
+        <v>4279.395895216137</v>
       </c>
       <c r="I55" t="n">
-        <v>729632.3498876287</v>
+        <v>15204.35195447321</v>
       </c>
       <c r="J55" t="n">
-        <v>1145967.279239014</v>
+        <v>52941.29254096749</v>
       </c>
       <c r="K55" t="n">
-        <v>1714363.109503348</v>
+        <v>265338.3259462934</v>
       </c>
       <c r="L55" t="n">
-        <v>2551207.734330384</v>
+        <v>715030.6654670762</v>
       </c>
       <c r="M55" t="n">
         <v>3</v>
@@ -5011,16 +5011,16 @@
         <v>0</v>
       </c>
       <c r="P55" t="n">
-        <v>394729.987701349</v>
+        <v>854609.1504390266</v>
       </c>
       <c r="Q55" t="n">
-        <v>80000</v>
+        <v>173203.7954178684</v>
       </c>
       <c r="R55" t="n">
-        <v>51.23801456758605</v>
+        <v>84.20334380721697</v>
       </c>
       <c r="S55" t="n">
-        <v>48.76198543241394</v>
+        <v>15.79665619278304</v>
       </c>
       <c r="T55" t="n">
         <v>0</v>
@@ -5055,34 +5055,34 @@
         <v>55</v>
       </c>
       <c r="C56" t="n">
-        <v>2081492.068902762</v>
+        <v>3563.065022314185</v>
       </c>
       <c r="D56" t="n">
-        <v>3414621.188244029</v>
+        <v>24854.95017394389</v>
       </c>
       <c r="E56" t="n">
-        <v>5548645.580869023</v>
+        <v>133018.0107659346</v>
       </c>
       <c r="F56" t="n">
-        <v>8691933.267020324</v>
+        <v>458929.5595781336</v>
       </c>
       <c r="G56" t="n">
-        <v>12990054.68966932</v>
+        <v>2538955.778097679</v>
       </c>
       <c r="H56" t="n">
-        <v>409569.3054549157</v>
+        <v>701.0942238416463</v>
       </c>
       <c r="I56" t="n">
-        <v>671885.3505879387</v>
+        <v>4890.638226272431</v>
       </c>
       <c r="J56" t="n">
-        <v>1091791.292757588</v>
+        <v>26173.57764476949</v>
       </c>
       <c r="K56" t="n">
-        <v>1710287.117793623</v>
+        <v>90302.27103782797</v>
       </c>
       <c r="L56" t="n">
-        <v>2556016.309912626</v>
+        <v>499583.145260012</v>
       </c>
       <c r="M56" t="n">
         <v>3</v>
@@ -5094,16 +5094,16 @@
         <v>0</v>
       </c>
       <c r="P56" t="n">
-        <v>406571.8873323894</v>
+        <v>275870.4216367996</v>
       </c>
       <c r="Q56" t="n">
-        <v>80000</v>
+        <v>54282.24237476884</v>
       </c>
       <c r="R56" t="n">
-        <v>51.87206799685288</v>
+        <v>84.44747617821344</v>
       </c>
       <c r="S56" t="n">
-        <v>48.12793200314712</v>
+        <v>15.55252382178656</v>
       </c>
       <c r="T56" t="n">
         <v>0</v>
@@ -5138,34 +5138,34 @@
         <v>56</v>
       </c>
       <c r="C57" t="n">
-        <v>1846134.052459337</v>
+        <v>1598.400769617888</v>
       </c>
       <c r="D57" t="n">
-        <v>3254391.81916431</v>
+        <v>8026.946607735935</v>
       </c>
       <c r="E57" t="n">
-        <v>5544793.486560415</v>
+        <v>43758.16708381651</v>
       </c>
       <c r="F57" t="n">
-        <v>8739219.364886478</v>
+        <v>253531.9985024454</v>
       </c>
       <c r="G57" t="n">
-        <v>13749701.63839802</v>
+        <v>1657022.591981838</v>
       </c>
       <c r="H57" t="n">
-        <v>352678.2276044935</v>
+        <v>305.3522303429327</v>
       </c>
       <c r="I57" t="n">
-        <v>621706.282479567</v>
+        <v>1533.436479827114</v>
       </c>
       <c r="J57" t="n">
-        <v>1059255.657338643</v>
+        <v>8359.389064831528</v>
       </c>
       <c r="K57" t="n">
-        <v>1669506.281057517</v>
+        <v>48433.76121780138</v>
       </c>
       <c r="L57" t="n">
-        <v>2626689.214394209</v>
+        <v>316551.1139682693</v>
       </c>
       <c r="M57" t="n">
         <v>3</v>
@@ -5177,16 +5177,16 @@
         <v>0</v>
       </c>
       <c r="P57" t="n">
-        <v>418769.0439523611</v>
+        <v>133816.5643196463</v>
       </c>
       <c r="Q57" t="n">
-        <v>80000</v>
+        <v>25563.79297890399</v>
       </c>
       <c r="R57" t="n">
-        <v>50</v>
+        <v>84.60488473718175</v>
       </c>
       <c r="S57" t="n">
-        <v>50</v>
+        <v>15.39511526281825</v>
       </c>
       <c r="T57" t="n">
         <v>0</v>
@@ -5221,34 +5221,34 @@
         <v>57</v>
       </c>
       <c r="C58" t="n">
-        <v>1554785.539545521</v>
+        <v>457.4926254840838</v>
       </c>
       <c r="D58" t="n">
-        <v>3012308.121383045</v>
+        <v>3140.355425557356</v>
       </c>
       <c r="E58" t="n">
-        <v>5440297.709380392</v>
+        <v>19980.57517384426</v>
       </c>
       <c r="F58" t="n">
-        <v>9022571.601844244</v>
+        <v>99316.61642241108</v>
       </c>
       <c r="G58" t="n">
-        <v>14501890.81912265</v>
+        <v>444695.3910012444</v>
       </c>
       <c r="H58" t="n">
-        <v>288369.0751510893</v>
+        <v>84.85204032567243</v>
       </c>
       <c r="I58" t="n">
-        <v>558698.6017938273</v>
+        <v>582.447782462905</v>
       </c>
       <c r="J58" t="n">
-        <v>1009022.517317207</v>
+        <v>3705.835845085431</v>
       </c>
       <c r="K58" t="n">
-        <v>1673433.770852312</v>
+        <v>18420.44455419741</v>
       </c>
       <c r="L58" t="n">
-        <v>2689693.6825608</v>
+        <v>82478.51254422244</v>
       </c>
       <c r="M58" t="n">
         <v>3</v>
@@ -5260,16 +5260,16 @@
         <v>0</v>
       </c>
       <c r="P58" t="n">
-        <v>431332.1152709319</v>
+        <v>45338.56115652013</v>
       </c>
       <c r="Q58" t="n">
-        <v>80000</v>
+        <v>8409.03045265557</v>
       </c>
       <c r="R58" t="n">
-        <v>50.45752344698401</v>
+        <v>84.49716204223316</v>
       </c>
       <c r="S58" t="n">
-        <v>49.54247655301599</v>
+        <v>15.50283795776684</v>
       </c>
       <c r="T58" t="n">
         <v>0</v>
@@ -5304,34 +5304,34 @@
         <v>58</v>
       </c>
       <c r="C59" t="n">
-        <v>1153885.848524836</v>
+        <v>147.4349933932468</v>
       </c>
       <c r="D59" t="n">
-        <v>2757991.426850852</v>
+        <v>1157.335853336549</v>
       </c>
       <c r="E59" t="n">
-        <v>5409711.737831119</v>
+        <v>7244.58992891963</v>
       </c>
       <c r="F59" t="n">
-        <v>9297107.75218863</v>
+        <v>46694.6951943177</v>
       </c>
       <c r="G59" t="n">
-        <v>14412931.05012393</v>
+        <v>287835.0783631454</v>
       </c>
       <c r="H59" t="n">
-        <v>207780.0345816529</v>
+        <v>26.54859496280166</v>
       </c>
       <c r="I59" t="n">
-        <v>496631.06171168</v>
+        <v>208.4012763795318</v>
       </c>
       <c r="J59" t="n">
-        <v>974125.901102192</v>
+        <v>1304.53211458067</v>
       </c>
       <c r="K59" t="n">
-        <v>1674128.660758533</v>
+        <v>8408.306068281106</v>
       </c>
       <c r="L59" t="n">
-        <v>2595334.118921965</v>
+        <v>51830.41512517505</v>
       </c>
       <c r="M59" t="n">
         <v>3</v>
@@ -5343,16 +5343,16 @@
         <v>0</v>
       </c>
       <c r="P59" t="n">
-        <v>444272.0787290599</v>
+        <v>20463.5905489607</v>
       </c>
       <c r="Q59" t="n">
-        <v>79999.99999999999</v>
+        <v>3684.875377719238</v>
       </c>
       <c r="R59" t="n">
-        <v>51.19317090416545</v>
+        <v>84.36050975574517</v>
       </c>
       <c r="S59" t="n">
-        <v>48.80682909583454</v>
+        <v>15.63949024425484</v>
       </c>
       <c r="T59" t="n">
         <v>0</v>
@@ -5387,34 +5387,34 @@
         <v>59</v>
       </c>
       <c r="C60" t="n">
-        <v>759444.7452104356</v>
+        <v>43.7493778384452</v>
       </c>
       <c r="D60" t="n">
-        <v>2501839.569660418</v>
+        <v>417.4312092722185</v>
       </c>
       <c r="E60" t="n">
-        <v>5219641.752315176</v>
+        <v>3266.331064544113</v>
       </c>
       <c r="F60" t="n">
-        <v>9256624.17025806</v>
+        <v>18443.28494813825</v>
       </c>
       <c r="G60" t="n">
-        <v>15767506.98281714</v>
+        <v>115121.8811385044</v>
       </c>
       <c r="H60" t="n">
-        <v>132769.9904003369</v>
+        <v>7.648488599419522</v>
       </c>
       <c r="I60" t="n">
-        <v>437384.3097103206</v>
+        <v>72.97744568963527</v>
       </c>
       <c r="J60" t="n">
-        <v>912524.3011011365</v>
+        <v>571.0365985397366</v>
       </c>
       <c r="K60" t="n">
-        <v>1618290.086244712</v>
+        <v>3224.348816629806</v>
       </c>
       <c r="L60" t="n">
-        <v>2756555.712510459</v>
+        <v>20126.19239256529</v>
       </c>
       <c r="M60" t="n">
         <v>3</v>
@@ -5426,16 +5426,16 @@
         <v>0</v>
       </c>
       <c r="P60" t="n">
-        <v>457600.2410909317</v>
+        <v>7608.790713071166</v>
       </c>
       <c r="Q60" t="n">
-        <v>80000</v>
+        <v>1330.207465788322</v>
       </c>
       <c r="R60" t="n">
-        <v>50.96334849082957</v>
+        <v>84.50630633790874</v>
       </c>
       <c r="S60" t="n">
-        <v>49.03665150917044</v>
+        <v>15.49369366209125</v>
       </c>
       <c r="T60" t="n">
         <v>0</v>
@@ -5470,34 +5470,34 @@
         <v>60</v>
       </c>
       <c r="C61" t="n">
-        <v>400895.6416070898</v>
+        <v>14.3950390811737</v>
       </c>
       <c r="D61" t="n">
-        <v>2152945.374016924</v>
+        <v>128.183113787664</v>
       </c>
       <c r="E61" t="n">
-        <v>5069180.312182098</v>
+        <v>1222.662364230024</v>
       </c>
       <c r="F61" t="n">
-        <v>9414790.890621847</v>
+        <v>7636.28478361151</v>
       </c>
       <c r="G61" t="n">
-        <v>15792465.09988838</v>
+        <v>49643.65595773762</v>
       </c>
       <c r="H61" t="n">
-        <v>68045.25602408554</v>
+        <v>2.4433144641547</v>
       </c>
       <c r="I61" t="n">
-        <v>365426.0709684436</v>
+        <v>21.75691599110623</v>
       </c>
       <c r="J61" t="n">
-        <v>860407.6382370542</v>
+        <v>207.5262611275403</v>
       </c>
       <c r="K61" t="n">
-        <v>1598001.549723663</v>
+        <v>1296.13021256773</v>
       </c>
       <c r="L61" t="n">
-        <v>2680503.900380482</v>
+        <v>8426.171125418728</v>
       </c>
       <c r="M61" t="n">
         <v>3</v>
@@ -5509,16 +5509,16 @@
         <v>0</v>
       </c>
       <c r="P61" t="n">
-        <v>471328.2483236596</v>
+        <v>3304.195199127619</v>
       </c>
       <c r="Q61" t="n">
-        <v>79999.99999999999</v>
+        <v>560.8312611653419</v>
       </c>
       <c r="R61" t="n">
-        <v>51.65621032288421</v>
+        <v>84.66953919463828</v>
       </c>
       <c r="S61" t="n">
-        <v>48.34378967711579</v>
+        <v>15.33046080536172</v>
       </c>
       <c r="T61" t="n">
         <v>0</v>
@@ -5553,34 +5553,34 @@
         <v>61</v>
       </c>
       <c r="C62" t="n">
-        <v>205780.6734242356</v>
+        <v>5.509251172831241</v>
       </c>
       <c r="D62" t="n">
-        <v>1747379.471549225</v>
+        <v>44.33779577541935</v>
       </c>
       <c r="E62" t="n">
-        <v>4923157.219702564</v>
+        <v>447.3859744175077</v>
       </c>
       <c r="F62" t="n">
-        <v>9544659.757844985</v>
+        <v>3205.674237924935</v>
       </c>
       <c r="G62" t="n">
-        <v>16578306.70494244</v>
+        <v>21957.55045646113</v>
       </c>
       <c r="H62" t="n">
-        <v>33910.47530675217</v>
+        <v>0.9078662380982693</v>
       </c>
       <c r="I62" t="n">
-        <v>287949.6282886448</v>
+        <v>7.306399108231823</v>
       </c>
       <c r="J62" t="n">
-        <v>811284.1626570387</v>
+        <v>73.72446977464988</v>
       </c>
       <c r="K62" t="n">
-        <v>1572858.828984833</v>
+        <v>528.2611592126435</v>
       </c>
       <c r="L62" t="n">
-        <v>2731929.343951232</v>
+        <v>3618.37173608402</v>
       </c>
       <c r="M62" t="n">
         <v>3</v>
@@ -5592,16 +5592,16 @@
         <v>0</v>
       </c>
       <c r="P62" t="n">
-        <v>485468.0957733694</v>
+        <v>1150.278678603934</v>
       </c>
       <c r="Q62" t="n">
-        <v>79999.99999999999</v>
+        <v>189.5537422324729</v>
       </c>
       <c r="R62" t="n">
-        <v>50</v>
+        <v>84.79470329893536</v>
       </c>
       <c r="S62" t="n">
-        <v>50</v>
+        <v>15.20529670106464</v>
       </c>
       <c r="T62" t="n">
         <v>0</v>
@@ -5636,34 +5636,34 @@
         <v>62</v>
       </c>
       <c r="C63" t="n">
-        <v>69396.00819889283</v>
+        <v>1.502373015924668</v>
       </c>
       <c r="D63" t="n">
-        <v>1360033.235463885</v>
+        <v>16.19791473000318</v>
       </c>
       <c r="E63" t="n">
-        <v>4782605.87014712</v>
+        <v>156.9647341528948</v>
       </c>
       <c r="F63" t="n">
-        <v>10016982.69710155</v>
+        <v>1236.12988081707</v>
       </c>
       <c r="G63" t="n">
-        <v>17187644.7804523</v>
+        <v>10275.69636629648</v>
       </c>
       <c r="H63" t="n">
-        <v>11102.64766368433</v>
+        <v>0.2403642325857082</v>
       </c>
       <c r="I63" t="n">
-        <v>217591.3314924222</v>
+        <v>2.591499782209333</v>
       </c>
       <c r="J63" t="n">
-        <v>765167.7563113646</v>
+        <v>25.11274328530144</v>
       </c>
       <c r="K63" t="n">
-        <v>1602614.219832247</v>
+        <v>197.7680689345903</v>
       </c>
       <c r="L63" t="n">
-        <v>2749846.412188437</v>
+        <v>1644.005746368151</v>
       </c>
       <c r="M63" t="n">
         <v>3</v>
@@ -5675,16 +5675,16 @@
         <v>0</v>
       </c>
       <c r="P63" t="n">
-        <v>500032.1386465705</v>
+        <v>459.2222323684511</v>
       </c>
       <c r="Q63" t="n">
-        <v>79999.99999999999</v>
+        <v>73.4708346725746</v>
       </c>
       <c r="R63" t="n">
-        <v>50.41952973482836</v>
+        <v>85.17963423388656</v>
       </c>
       <c r="S63" t="n">
-        <v>49.58047026517165</v>
+        <v>14.82036576611346</v>
       </c>
       <c r="T63" t="n">
         <v>0</v>
@@ -5719,34 +5719,34 @@
         <v>63</v>
       </c>
       <c r="C64" t="n">
-        <v>27260.85592194629</v>
+        <v>0.566637095842364</v>
       </c>
       <c r="D64" t="n">
-        <v>914385.1603124054</v>
+        <v>4.862507026319324</v>
       </c>
       <c r="E64" t="n">
-        <v>4471584.810734843</v>
+        <v>63.07598474605584</v>
       </c>
       <c r="F64" t="n">
-        <v>10200435.58357478</v>
+        <v>543.2825698677771</v>
       </c>
       <c r="G64" t="n">
-        <v>17700886.3594639</v>
+        <v>4488.794635151333</v>
       </c>
       <c r="H64" t="n">
-        <v>4234.423888239506</v>
+        <v>0.08801563903450103</v>
       </c>
       <c r="I64" t="n">
-        <v>142031.2838659442</v>
+        <v>0.7552923491445886</v>
       </c>
       <c r="J64" t="n">
-        <v>694570.4711208756</v>
+        <v>9.79758146067266</v>
       </c>
       <c r="K64" t="n">
-        <v>1584431.839895567</v>
+        <v>84.38798468027045</v>
       </c>
       <c r="L64" t="n">
-        <v>2749475.521169751</v>
+        <v>697.2436700780268</v>
       </c>
       <c r="M64" t="n">
         <v>3</v>
@@ -5758,16 +5758,16 @@
         <v>0</v>
       </c>
       <c r="P64" t="n">
-        <v>515033.1028059676</v>
+        <v>156.1594706171558</v>
       </c>
       <c r="Q64" t="n">
-        <v>79999.99999999997</v>
+        <v>24.25622271910346</v>
       </c>
       <c r="R64" t="n">
-        <v>50.96222593668632</v>
+        <v>85.54159781051857</v>
       </c>
       <c r="S64" t="n">
-        <v>49.03777406331368</v>
+        <v>14.45840218948143</v>
       </c>
       <c r="T64" t="n">
         <v>0</v>
@@ -5802,34 +5802,34 @@
         <v>64</v>
       </c>
       <c r="C65" t="n">
-        <v>4935.95125441755</v>
+        <v>0.1960060515584158</v>
       </c>
       <c r="D65" t="n">
-        <v>466556.5103818482</v>
+        <v>1.921661897567032</v>
       </c>
       <c r="E65" t="n">
-        <v>4188616.750412696</v>
+        <v>22.18680922782501</v>
       </c>
       <c r="F65" t="n">
-        <v>10319463.93568907</v>
+        <v>244.2616140498989</v>
       </c>
       <c r="G65" t="n">
-        <v>18557110.0431332</v>
+        <v>1869.532348965305</v>
       </c>
       <c r="H65" t="n">
-        <v>744.3693475688578</v>
+        <v>0.02955882041734272</v>
       </c>
       <c r="I65" t="n">
-        <v>70359.35878137439</v>
+        <v>0.2897974755442955</v>
       </c>
       <c r="J65" t="n">
-        <v>631667.0803688078</v>
+        <v>3.345896233227617</v>
       </c>
       <c r="K65" t="n">
-        <v>1556233.487961311</v>
+        <v>36.83603198546874</v>
       </c>
       <c r="L65" t="n">
-        <v>2798517.080817597</v>
+        <v>281.9360449746565</v>
       </c>
       <c r="M65" t="n">
         <v>3</v>
@@ -5841,16 +5841,16 @@
         <v>0</v>
       </c>
       <c r="P65" t="n">
-        <v>530484.0958901467</v>
+        <v>65.56588489132514</v>
       </c>
       <c r="Q65" t="n">
-        <v>79999.99999999999</v>
+        <v>9.887706025388944</v>
       </c>
       <c r="R65" t="n">
-        <v>51.21588605516858</v>
+        <v>85.54676622059048</v>
       </c>
       <c r="S65" t="n">
-        <v>48.78411394483141</v>
+        <v>14.4532337794095</v>
       </c>
       <c r="T65" t="n">
         <v>0</v>
@@ -5885,34 +5885,34 @@
         <v>65</v>
       </c>
       <c r="C66" t="n">
-        <v>1987.470109880987</v>
+        <v>0.06004388332268198</v>
       </c>
       <c r="D66" t="n">
-        <v>304220.8854997881</v>
+        <v>0.5696431900946088</v>
       </c>
       <c r="E66" t="n">
-        <v>3894339.657143486</v>
+        <v>9.254630139184645</v>
       </c>
       <c r="F66" t="n">
-        <v>10373510.1067857</v>
+        <v>103.0004412942888</v>
       </c>
       <c r="G66" t="n">
-        <v>19029100.46460079</v>
+        <v>875.9175981323408</v>
       </c>
       <c r="H66" t="n">
-        <v>290.9919669074482</v>
+        <v>0.008791220367019669</v>
       </c>
       <c r="I66" t="n">
-        <v>44541.96991732871</v>
+        <v>0.08340331333636494</v>
       </c>
       <c r="J66" t="n">
-        <v>570182.9431315168</v>
+        <v>1.355000517398248</v>
       </c>
       <c r="K66" t="n">
-        <v>1518819.374792319</v>
+        <v>15.08062981956244</v>
       </c>
       <c r="L66" t="n">
-        <v>2786112.528255936</v>
+        <v>128.245946171558</v>
       </c>
       <c r="M66" t="n">
         <v>3</v>
@@ -5924,16 +5924,16 @@
         <v>0</v>
       </c>
       <c r="P66" t="n">
-        <v>546398.6187668511</v>
+        <v>22.414465793674</v>
       </c>
       <c r="Q66" t="n">
-        <v>79999.99999999999</v>
+        <v>3.281774883583777</v>
       </c>
       <c r="R66" t="n">
-        <v>51.38824090846647</v>
+        <v>85.54792820117395</v>
       </c>
       <c r="S66" t="n">
-        <v>48.61175909153353</v>
+        <v>14.45207179882606</v>
       </c>
       <c r="T66" t="n">
         <v>0</v>
@@ -5968,34 +5968,34 @@
         <v>66</v>
       </c>
       <c r="C67" t="n">
-        <v>666.6356385502201</v>
+        <v>0.01967738789221609</v>
       </c>
       <c r="D67" t="n">
-        <v>150550.6509843307</v>
+        <v>0.2248353229041559</v>
       </c>
       <c r="E67" t="n">
-        <v>3628490.832325303</v>
+        <v>3.303499041058775</v>
       </c>
       <c r="F67" t="n">
-        <v>10753889.10476838</v>
+        <v>44.09027499733794</v>
       </c>
       <c r="G67" t="n">
-        <v>19772922.53072422</v>
+        <v>437.1283546528661</v>
       </c>
       <c r="H67" t="n">
-        <v>94.76144987544789</v>
+        <v>0.002797116893545002</v>
       </c>
       <c r="I67" t="n">
-        <v>21400.59298058811</v>
+        <v>0.03196006926354459</v>
       </c>
       <c r="J67" t="n">
-        <v>515785.5839791164</v>
+        <v>0.4695883938543717</v>
       </c>
       <c r="K67" t="n">
-        <v>1528652.33185529</v>
+        <v>6.267379273693309</v>
       </c>
       <c r="L67" t="n">
-        <v>2810697.026881476</v>
+        <v>62.1372670063964</v>
       </c>
       <c r="M67" t="n">
         <v>3</v>
@@ -6007,16 +6007,16 @@
         <v>0</v>
       </c>
       <c r="P67" t="n">
-        <v>562790.5773298567</v>
+        <v>9.687213695109495</v>
       </c>
       <c r="Q67" t="n">
-        <v>79999.99999999999</v>
+        <v>1.377025712274032</v>
       </c>
       <c r="R67" t="n">
-        <v>50</v>
+        <v>85.65070660763523</v>
       </c>
       <c r="S67" t="n">
-        <v>50</v>
+        <v>14.34929339236478</v>
       </c>
       <c r="T67" t="n">
         <v>0</v>
@@ -6051,34 +6051,34 @@
         <v>67</v>
       </c>
       <c r="C68" t="n">
-        <v>191.1222416903749</v>
+        <v>0.00589492898258103</v>
       </c>
       <c r="D68" t="n">
-        <v>33935.24237647468</v>
+        <v>0.06648225923588999</v>
       </c>
       <c r="E68" t="n">
-        <v>3412470.125475961</v>
+        <v>1.297326727563733</v>
       </c>
       <c r="F68" t="n">
-        <v>10849249.93051399</v>
+        <v>15.88273774830206</v>
       </c>
       <c r="G68" t="n">
-        <v>20438739.77142737</v>
+        <v>139.3362123172348</v>
       </c>
       <c r="H68" t="n">
-        <v>26.37650052167364</v>
+        <v>0.0008135505109665532</v>
       </c>
       <c r="I68" t="n">
-        <v>4683.353074605985</v>
+        <v>0.009175119179788303</v>
       </c>
       <c r="J68" t="n">
-        <v>470950.0016781422</v>
+        <v>0.1790421606806072</v>
       </c>
       <c r="K68" t="n">
-        <v>1497289.085357047</v>
+        <v>2.191953363451955</v>
       </c>
       <c r="L68" t="n">
-        <v>2820720.526691873</v>
+        <v>19.22958649065833</v>
       </c>
       <c r="M68" t="n">
         <v>3</v>
@@ -6090,16 +6090,16 @@
         <v>0</v>
       </c>
       <c r="P68" t="n">
-        <v>579674.2946497524</v>
+        <v>3.461623387202383</v>
       </c>
       <c r="Q68" t="n">
-        <v>80000</v>
+        <v>0.4777335713040642</v>
       </c>
       <c r="R68" t="n">
-        <v>50.63537422346554</v>
+        <v>86.13316024234295</v>
       </c>
       <c r="S68" t="n">
-        <v>49.36462577653445</v>
+        <v>13.86683975765705</v>
       </c>
       <c r="T68" t="n">
         <v>0</v>
@@ -6134,34 +6134,34 @@
         <v>68</v>
       </c>
       <c r="C69" t="n">
-        <v>76.51186064909619</v>
+        <v>0.002117295761996263</v>
       </c>
       <c r="D69" t="n">
-        <v>20277.41986419353</v>
+        <v>0.03328559640439316</v>
       </c>
       <c r="E69" t="n">
-        <v>2991938.123927111</v>
+        <v>0.4741816371814315</v>
       </c>
       <c r="F69" t="n">
-        <v>11010791.16361644</v>
+        <v>6.227503924629909</v>
       </c>
       <c r="G69" t="n">
-        <v>21785437.46229696</v>
+        <v>70.05831854157567</v>
       </c>
       <c r="H69" t="n">
-        <v>10.25173764496485</v>
+        <v>0.0002836940636998878</v>
       </c>
       <c r="I69" t="n">
-        <v>2716.948546290078</v>
+        <v>0.004459899403819492</v>
       </c>
       <c r="J69" t="n">
-        <v>400886.4042287724</v>
+        <v>0.06353506108992227</v>
       </c>
       <c r="K69" t="n">
-        <v>1475323.450707723</v>
+        <v>0.8344162052350893</v>
       </c>
       <c r="L69" t="n">
-        <v>2919006.118130465</v>
+        <v>9.387034839337613</v>
       </c>
       <c r="M69" t="n">
         <v>3</v>
@@ -6173,16 +6173,16 @@
         <v>0</v>
       </c>
       <c r="P69" t="n">
-        <v>597064.523489245</v>
+        <v>1.26714017185189</v>
       </c>
       <c r="Q69" t="n">
-        <v>79999.99999999999</v>
+        <v>0.1697826780190151</v>
       </c>
       <c r="R69" t="n">
-        <v>51.13925943054991</v>
+        <v>86.49910156102061</v>
       </c>
       <c r="S69" t="n">
-        <v>48.86074056945009</v>
+        <v>13.5008984389794</v>
       </c>
       <c r="T69" t="n">
         <v>0</v>
@@ -6217,34 +6217,34 @@
         <v>69</v>
       </c>
       <c r="C70" t="n">
-        <v>26.31623783411009</v>
+        <v>0.0007101938443822364</v>
       </c>
       <c r="D70" t="n">
-        <v>3967.459627599062</v>
+        <v>0.009101599143551771</v>
       </c>
       <c r="E70" t="n">
-        <v>2536013.21022516</v>
+        <v>0.1772839995021571</v>
       </c>
       <c r="F70" t="n">
-        <v>11166007.54866887</v>
+        <v>2.745553912717555</v>
       </c>
       <c r="G70" t="n">
-        <v>22743470.0470461</v>
+        <v>27.94180382758498</v>
       </c>
       <c r="H70" t="n">
-        <v>3.423381489249717</v>
+        <v>9.238647545151497e-05</v>
       </c>
       <c r="I70" t="n">
-        <v>516.1120648812334</v>
+        <v>0.001183993176647009</v>
       </c>
       <c r="J70" t="n">
-        <v>329900.5251094297</v>
+        <v>0.02306221603793177</v>
       </c>
       <c r="K70" t="n">
-        <v>1452544.386925595</v>
+        <v>0.3571588956515542</v>
       </c>
       <c r="L70" t="n">
-        <v>2958613.417737258</v>
+        <v>3.634845322594569</v>
       </c>
       <c r="M70" t="n">
         <v>3</v>
@@ -6256,16 +6256,16 @@
         <v>0</v>
       </c>
       <c r="P70" t="n">
-        <v>614976.4591939223</v>
+        <v>0.5016254552698938</v>
       </c>
       <c r="Q70" t="n">
-        <v>79999.99999999999</v>
+        <v>0.06525458954021063</v>
       </c>
       <c r="R70" t="n">
-        <v>51.66729824217099</v>
+        <v>86.60811475458848</v>
       </c>
       <c r="S70" t="n">
-        <v>48.33270175782901</v>
+        <v>13.3918852454115</v>
       </c>
       <c r="T70" t="n">
         <v>0</v>
@@ -6300,34 +6300,34 @@
         <v>70</v>
       </c>
       <c r="C71" t="n">
-        <v>6.604670678854614</v>
+        <v>0.0002403635457632811</v>
       </c>
       <c r="D71" t="n">
-        <v>1824.814270639459</v>
+        <v>0.003513760878915055</v>
       </c>
       <c r="E71" t="n">
-        <v>2094324.676661876</v>
+        <v>0.07432237413610362</v>
       </c>
       <c r="F71" t="n">
-        <v>11126697.48048751</v>
+        <v>1.093304102291299</v>
       </c>
       <c r="G71" t="n">
-        <v>23755692.92367592</v>
+        <v>13.03487745074263</v>
       </c>
       <c r="H71" t="n">
-        <v>0.8341524666958252</v>
+        <v>3.035728113501741e-05</v>
       </c>
       <c r="I71" t="n">
-        <v>230.4692238462409</v>
+        <v>0.0004437787207029347</v>
       </c>
       <c r="J71" t="n">
-        <v>264507.6764678907</v>
+        <v>0.009386719600540668</v>
       </c>
       <c r="K71" t="n">
-        <v>1405272.511049175</v>
+        <v>0.1380814211819428</v>
       </c>
       <c r="L71" t="n">
-        <v>3000281.28787631</v>
+        <v>1.646270602624561</v>
       </c>
       <c r="M71" t="n">
         <v>3</v>
@@ -6339,16 +6339,16 @@
         <v>0</v>
       </c>
       <c r="P71" t="n">
-        <v>633425.7529697401</v>
+        <v>0.1874392600968546</v>
       </c>
       <c r="Q71" t="n">
-        <v>80000</v>
+        <v>0.02367308360521413</v>
       </c>
       <c r="R71" t="n">
-        <v>51.75180790025169</v>
+        <v>86.73125959024271</v>
       </c>
       <c r="S71" t="n">
-        <v>48.24819209974832</v>
+        <v>13.18327708670567</v>
       </c>
       <c r="T71" t="n">
         <v>0</v>
@@ -6383,34 +6383,34 @@
         <v>71</v>
       </c>
       <c r="C72" t="n">
-        <v>2.21930536343858</v>
+        <v>5.396595043962786e-05</v>
       </c>
       <c r="D72" t="n">
-        <v>711.2599061696549</v>
+        <v>0.001270785528154452</v>
       </c>
       <c r="E72" t="n">
-        <v>1496615.112848398</v>
+        <v>0.02450696728270528</v>
       </c>
       <c r="F72" t="n">
-        <v>11095036.76259807</v>
+        <v>0.4644680913881866</v>
       </c>
       <c r="G72" t="n">
-        <v>25288074.46675532</v>
+        <v>5.328114718107455</v>
       </c>
       <c r="H72" t="n">
-        <v>0.2721285506684616</v>
+        <v>6.617239844735945e-06</v>
       </c>
       <c r="I72" t="n">
-        <v>87.21383303226123</v>
+        <v>0.000155822190890991</v>
       </c>
       <c r="J72" t="n">
-        <v>183513.1425703969</v>
+        <v>0.003005014811296184</v>
       </c>
       <c r="K72" t="n">
-        <v>1360460.044642555</v>
+        <v>0.05695251794704717</v>
       </c>
       <c r="L72" t="n">
-        <v>3100793.233416032</v>
+        <v>0.6533270093969238</v>
       </c>
       <c r="M72" t="n">
         <v>3</v>
@@ -6422,16 +6422,16 @@
         <v>0</v>
       </c>
       <c r="P72" t="n">
-        <v>652428.5255588323</v>
+        <v>0.07543546829213607</v>
       </c>
       <c r="Q72" t="n">
-        <v>80000</v>
+        <v>0.009249806265294414</v>
       </c>
       <c r="R72" t="n">
-        <v>50</v>
+        <v>86.88606382743411</v>
       </c>
       <c r="S72" t="n">
-        <v>50</v>
+        <v>13.08428053234693</v>
       </c>
       <c r="T72" t="n">
         <v>0</v>
@@ -6466,34 +6466,34 @@
         <v>72</v>
       </c>
       <c r="C73" t="n">
-        <v>0.448259763263525</v>
+        <v>2.119741322115826e-05</v>
       </c>
       <c r="D73" t="n">
-        <v>128.0550448598227</v>
+        <v>0.0004441699570880145</v>
       </c>
       <c r="E73" t="n">
-        <v>978003.0518090979</v>
+        <v>0.009277044985253575</v>
       </c>
       <c r="F73" t="n">
-        <v>11324659.32276967</v>
+        <v>0.1747307450405161</v>
       </c>
       <c r="G73" t="n">
-        <v>25638203.76372423</v>
+        <v>1.946964974555892</v>
       </c>
       <c r="H73" t="n">
-        <v>0.05336414783901579</v>
+        <v>2.523496386789446e-06</v>
       </c>
       <c r="I73" t="n">
-        <v>15.24461686161655</v>
+        <v>5.287726715225972e-05</v>
       </c>
       <c r="J73" t="n">
-        <v>116428.695414867</v>
+        <v>0.001104407847133121</v>
       </c>
       <c r="K73" t="n">
-        <v>1348170.957676369</v>
+        <v>0.0208012364136324</v>
       </c>
       <c r="L73" t="n">
-        <v>3052160.840878039</v>
+        <v>0.2317810681537931</v>
       </c>
       <c r="M73" t="n">
         <v>3</v>
@@ -6505,16 +6505,16 @@
         <v>0</v>
       </c>
       <c r="P73" t="n">
-        <v>672001.3813255973</v>
+        <v>0.025705651724666</v>
       </c>
       <c r="Q73" t="n">
-        <v>80000</v>
+        <v>0.003060190343532776</v>
       </c>
       <c r="R73" t="n">
-        <v>50.28959901650299</v>
+        <v>87.0138281693032</v>
       </c>
       <c r="S73" t="n">
-        <v>49.71040098349701</v>
+        <v>12.8987554314663</v>
       </c>
       <c r="T73" t="n">
         <v>0</v>
@@ -6549,34 +6549,34 @@
         <v>73</v>
       </c>
       <c r="C74" t="n">
-        <v>0.2233101160473355</v>
+        <v>5.113463838887695e-06</v>
       </c>
       <c r="D74" t="n">
-        <v>60.66806950054585</v>
+        <v>0.0001620145425817931</v>
       </c>
       <c r="E74" t="n">
-        <v>493563.7989044115</v>
+        <v>0.00388526626437541</v>
       </c>
       <c r="F74" t="n">
-        <v>10988965.03818128</v>
+        <v>0.09251754602952592</v>
       </c>
       <c r="G74" t="n">
-        <v>25323644.78032584</v>
+        <v>0.8795410719598844</v>
       </c>
       <c r="H74" t="n">
-        <v>0.0258101776496186</v>
+        <v>5.910140231113229e-07</v>
       </c>
       <c r="I74" t="n">
-        <v>7.012013961501768</v>
+        <v>1.872563679547499e-05</v>
       </c>
       <c r="J74" t="n">
-        <v>57046.09158164239</v>
+        <v>0.0004490589780462204</v>
       </c>
       <c r="K74" t="n">
-        <v>1270104.305354378</v>
+        <v>0.01069317566528273</v>
       </c>
       <c r="L74" t="n">
-        <v>2926906.232843927</v>
+        <v>0.1016573351858749</v>
       </c>
       <c r="M74" t="n">
         <v>3</v>
@@ -6588,16 +6588,16 @@
         <v>0</v>
       </c>
       <c r="P74" t="n">
-        <v>692161.4227653652</v>
+        <v>0.009465809976430761</v>
       </c>
       <c r="Q74" t="n">
-        <v>80000</v>
+        <v>0.001094058081262303</v>
       </c>
       <c r="R74" t="n">
-        <v>50.61001595837483</v>
+        <v>86.95045283341113</v>
       </c>
       <c r="S74" t="n">
-        <v>49.38998404162515</v>
+        <v>12.8096658769278</v>
       </c>
       <c r="T74" t="n">
         <v>0</v>
@@ -6632,34 +6632,34 @@
         <v>74</v>
       </c>
       <c r="C75" t="n">
-        <v>0.06173963401165445</v>
+        <v>1.781207644294667e-06</v>
       </c>
       <c r="D75" t="n">
-        <v>21.99380614650094</v>
+        <v>6.308181850498063e-05</v>
       </c>
       <c r="E75" t="n">
-        <v>350299.8145623179</v>
+        <v>0.001282787264115254</v>
       </c>
       <c r="F75" t="n">
-        <v>11249418.17499298</v>
+        <v>0.03287531195346016</v>
       </c>
       <c r="G75" t="n">
-        <v>26719008.34969657</v>
+        <v>0.4242077229132171</v>
       </c>
       <c r="H75" t="n">
-        <v>0.006928024622330812</v>
+        <v>1.998756651979484e-07</v>
       </c>
       <c r="I75" t="n">
-        <v>2.468003462621208</v>
+        <v>7.078635933303583e-06</v>
       </c>
       <c r="J75" t="n">
-        <v>39308.39207805376</v>
+        <v>0.0001439461359509395</v>
       </c>
       <c r="K75" t="n">
-        <v>1262337.351862748</v>
+        <v>0.003689056054938463</v>
       </c>
       <c r="L75" t="n">
-        <v>2998235.26158282</v>
+        <v>0.04760186218095949</v>
       </c>
       <c r="M75" t="n">
         <v>3</v>
@@ -6671,16 +6671,16 @@
         <v>0</v>
       </c>
       <c r="P75" t="n">
-        <v>502534.459014466</v>
+        <v>0.004040573202135024</v>
       </c>
       <c r="Q75" t="n">
-        <v>56391.18471231473</v>
+        <v>0.0004534071359645134</v>
       </c>
       <c r="R75" t="n">
-        <v>51.33594878628276</v>
+        <v>87.03777828874317</v>
       </c>
       <c r="S75" t="n">
-        <v>48.66405121371724</v>
+        <v>12.80473466480031</v>
       </c>
       <c r="T75" t="n">
         <v>0</v>
@@ -6715,34 +6715,34 @@
         <v>75</v>
       </c>
       <c r="C76" t="n">
-        <v>0.02559752294650698</v>
+        <v>7.797653544851878e-07</v>
       </c>
       <c r="D76" t="n">
-        <v>6.871142133242365</v>
+        <v>2.004340224187685e-05</v>
       </c>
       <c r="E76" t="n">
-        <v>88779.14380563528</v>
+        <v>0.0005212374547364253</v>
       </c>
       <c r="F76" t="n">
-        <v>10906455.03923895</v>
+        <v>0.01034872754307683</v>
       </c>
       <c r="G76" t="n">
-        <v>28160389.08870958</v>
+        <v>0.1788130180027854</v>
       </c>
       <c r="H76" t="n">
-        <v>0.00278872755629018</v>
+        <v>8.495170161728331e-08</v>
       </c>
       <c r="I76" t="n">
-        <v>0.7485780342966455</v>
+        <v>2.183632700341335e-06</v>
       </c>
       <c r="J76" t="n">
-        <v>9672.062616059044</v>
+        <v>5.678632484993553e-05</v>
       </c>
       <c r="K76" t="n">
-        <v>1188206.05309843</v>
+        <v>0.00112744431296059</v>
       </c>
       <c r="L76" t="n">
-        <v>3067939.550699927</v>
+        <v>0.01948082210024258</v>
       </c>
       <c r="M76" t="n">
         <v>3</v>
@@ -6754,16 +6754,16 @@
         <v>0</v>
       </c>
       <c r="P76" t="n">
-        <v>358900.2154499446</v>
+        <v>0.001314194611309108</v>
       </c>
       <c r="Q76" t="n">
-        <v>39100.45994979064</v>
+        <v>0.0001431752101382875</v>
       </c>
       <c r="R76" t="n">
-        <v>51.50842571449017</v>
+        <v>87.15057113574191</v>
       </c>
       <c r="S76" t="n">
-        <v>48.49157428550983</v>
+        <v>12.52866093661289</v>
       </c>
       <c r="T76" t="n">
         <v>0</v>
@@ -6798,34 +6798,34 @@
         <v>76</v>
       </c>
       <c r="C77" t="n">
-        <v>0.007919450952404964</v>
+        <v>2.460691503824725e-07</v>
       </c>
       <c r="D77" t="n">
-        <v>2.248764583682652</v>
+        <v>8.831524184463912e-06</v>
       </c>
       <c r="E77" t="n">
-        <v>40278.40024645143</v>
+        <v>0.0001934146509006114</v>
       </c>
       <c r="F77" t="n">
-        <v>10852775.27798547</v>
+        <v>0.004719287491544639</v>
       </c>
       <c r="G77" t="n">
-        <v>29573324.2912395</v>
+        <v>0.08196671879906474</v>
       </c>
       <c r="H77" t="n">
-        <v>0.0008376565636142517</v>
+        <v>2.602723852444164e-08</v>
       </c>
       <c r="I77" t="n">
-        <v>0.2378564404105575</v>
+        <v>9.341284192924577e-07</v>
       </c>
       <c r="J77" t="n">
-        <v>4260.328972436656</v>
+        <v>2.045786416252201e-05</v>
       </c>
       <c r="K77" t="n">
-        <v>1147920.291402816</v>
+        <v>0.0004991687134162403</v>
       </c>
       <c r="L77" t="n">
-        <v>3128031.141215257</v>
+        <v>0.008669787894716329</v>
       </c>
       <c r="M77" t="n">
         <v>3</v>
@@ -6837,16 +6837,16 @@
         <v>0</v>
       </c>
       <c r="P77" t="n">
-        <v>93484.7699099392</v>
+        <v>0.000526741117730913</v>
       </c>
       <c r="Q77" t="n">
-        <v>9888.07577490561</v>
+        <v>5.571448794171964e-05</v>
       </c>
       <c r="R77" t="n">
-        <v>50</v>
+        <v>87.74568093175898</v>
       </c>
       <c r="S77" t="n">
-        <v>50</v>
+        <v>11.7089756669011</v>
       </c>
       <c r="T77" t="n">
         <v>0</v>
@@ -6881,34 +6881,34 @@
         <v>77</v>
       </c>
       <c r="C78" t="n">
-        <v>0.002063580907802081</v>
+        <v>8.46470446729756e-08</v>
       </c>
       <c r="D78" t="n">
-        <v>0.9882547464862866</v>
+        <v>2.638792180941924e-06</v>
       </c>
       <c r="E78" t="n">
-        <v>14143.3011936553</v>
+        <v>7.261144831329405e-05</v>
       </c>
       <c r="F78" t="n">
-        <v>10569325.19845629</v>
+        <v>0.002209273154212993</v>
       </c>
       <c r="G78" t="n">
-        <v>30178752.00987333</v>
+        <v>0.02754705679456467</v>
       </c>
       <c r="H78" t="n">
-        <v>0.0002119118284960845</v>
+        <v>8.692515978230022e-09</v>
       </c>
       <c r="I78" t="n">
-        <v>0.1014851753842303</v>
+        <v>2.709810281585557e-07</v>
       </c>
       <c r="J78" t="n">
-        <v>1452.394139520603</v>
+        <v>7.456564811024539e-06</v>
       </c>
       <c r="K78" t="n">
-        <v>1085377.859577208</v>
+        <v>0.0002268731562627395</v>
       </c>
       <c r="L78" t="n">
-        <v>3099095.604132964</v>
+        <v>0.002828843372678446</v>
       </c>
       <c r="M78" t="n">
         <v>3</v>
@@ -6920,16 +6920,16 @@
         <v>0</v>
       </c>
       <c r="P78" t="n">
-        <v>40730.10977374626</v>
+        <v>0.0001991273086915807</v>
       </c>
       <c r="Q78" t="n">
-        <v>4182.628364299943</v>
+        <v>2.044864435835549e-05</v>
       </c>
       <c r="R78" t="n">
-        <v>50.44624850229565</v>
+        <v>88.04209831433923</v>
       </c>
       <c r="S78" t="n">
-        <v>49.55136375762895</v>
+        <v>11.22686701034663</v>
       </c>
       <c r="T78" t="n">
         <v>0</v>
@@ -6964,34 +6964,34 @@
         <v>78</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0008127039381964719</v>
+        <v>2.460054601791765e-08</v>
       </c>
       <c r="D79" t="n">
-        <v>0.2053455623073104</v>
+        <v>9.49910265903892e-07</v>
       </c>
       <c r="E79" t="n">
-        <v>3909.510548244688</v>
+        <v>2.794936078717289e-05</v>
       </c>
       <c r="F79" t="n">
-        <v>10790735.13423405</v>
+        <v>0.0008450708804374897</v>
       </c>
       <c r="G79" t="n">
-        <v>31711393.08763573</v>
+        <v>0.01551108118202644</v>
       </c>
       <c r="H79" t="n">
-        <v>8.102682792011398e-05</v>
+        <v>2.452681862669621e-09</v>
       </c>
       <c r="I79" t="n">
-        <v>0.02047301453731987</v>
+        <v>9.470634020274335e-08</v>
       </c>
       <c r="J79" t="n">
-        <v>389.7793815881721</v>
+        <v>2.786559705869124e-06</v>
       </c>
       <c r="K79" t="n">
-        <v>1075839.549631588</v>
+        <v>8.425382183020035e-05</v>
       </c>
       <c r="L79" t="n">
-        <v>3161635.461643081</v>
+        <v>0.001546459475242679</v>
       </c>
       <c r="M79" t="n">
         <v>3</v>
@@ -7003,16 +7003,16 @@
         <v>0</v>
       </c>
       <c r="P79" t="n">
-        <v>14576.34353663557</v>
+        <v>7.491236312315302e-05</v>
       </c>
       <c r="Q79" t="n">
-        <v>1453.265849884328</v>
+        <v>7.468785212655641e-06</v>
       </c>
       <c r="R79" t="n">
-        <v>50.46408332642349</v>
+        <v>88.19547496153163</v>
       </c>
       <c r="S79" t="n">
-        <v>49.515633276363</v>
+        <v>10.25562815623019</v>
       </c>
       <c r="T79" t="n">
         <v>0</v>
@@ -7047,34 +7047,34 @@
         <v>79</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0002682711723734975</v>
+        <v>1.055726925388495e-08</v>
       </c>
       <c r="D80" t="n">
-        <v>0.08811183407712925</v>
+        <v>3.34163566907854e-07</v>
       </c>
       <c r="E80" t="n">
-        <v>1586.320211798978</v>
+        <v>1.029021115607322e-05</v>
       </c>
       <c r="F80" t="n">
-        <v>10634358.62228658</v>
+        <v>0.0004045198957036882</v>
       </c>
       <c r="G80" t="n">
-        <v>33324968.02288119</v>
+        <v>0.005824170713521681</v>
       </c>
       <c r="H80" t="n">
-        <v>2.596768626454152e-05</v>
+        <v>1.021905758153901e-09</v>
       </c>
       <c r="I80" t="n">
-        <v>0.008528909175238193</v>
+        <v>3.234583347040431e-08</v>
       </c>
       <c r="J80" t="n">
-        <v>153.55010085745</v>
+        <v>9.960554931514225e-07</v>
       </c>
       <c r="K80" t="n">
-        <v>1029367.732227649</v>
+        <v>3.91560734851292e-05</v>
       </c>
       <c r="L80" t="n">
-        <v>3225737.252116125</v>
+        <v>0.0005637588135235768</v>
       </c>
       <c r="M80" t="n">
         <v>3</v>
@@ -7086,16 +7086,16 @@
         <v>0</v>
       </c>
       <c r="P80" t="n">
-        <v>3672.348136509837</v>
+        <v>2.883812270023096e-05</v>
       </c>
       <c r="Q80" t="n">
-        <v>355.4701141362066</v>
+        <v>2.791426734794149e-06</v>
       </c>
       <c r="R80" t="n">
-        <v>50.90603718668234</v>
+        <v>88.43505934984881</v>
       </c>
       <c r="S80" t="n">
-        <v>49.07292363550617</v>
+        <v>9.454190167650292</v>
       </c>
       <c r="T80" t="n">
         <v>0</v>
@@ -7130,34 +7130,34 @@
         <v>80</v>
       </c>
       <c r="C81" t="n">
-        <v>8.822900533048215e-05</v>
+        <v>2.96646700207655e-09</v>
       </c>
       <c r="D81" t="n">
-        <v>0.02887461474819281</v>
+        <v>1.193300039579879e-07</v>
       </c>
       <c r="E81" t="n">
-        <v>575.2845362925117</v>
+        <v>3.420788060043144e-06</v>
       </c>
       <c r="F81" t="n">
-        <v>10004701.70275653</v>
+        <v>0.0001488080478521771</v>
       </c>
       <c r="G81" t="n">
-        <v>33993270.10156573</v>
+        <v>0.002508219794950435</v>
       </c>
       <c r="H81" t="n">
-        <v>8.291505759089493e-06</v>
+        <v>2.787799560896653e-10</v>
       </c>
       <c r="I81" t="n">
-        <v>0.002713552460206828</v>
+        <v>1.121428731224734e-08</v>
       </c>
       <c r="J81" t="n">
-        <v>54.06357045415444</v>
+        <v>3.214757300530627e-07</v>
       </c>
       <c r="K81" t="n">
-        <v>940212.8186264221</v>
+        <v>1.398454829161394e-05</v>
       </c>
       <c r="L81" t="n">
-        <v>3194588.828941938</v>
+        <v>0.0002357152140273387</v>
       </c>
       <c r="M81" t="n">
         <v>3</v>
@@ -7169,16 +7169,16 @@
         <v>0</v>
       </c>
       <c r="P81" t="n">
-        <v>1646.679558754222</v>
+        <v>1.049823244453347e-05</v>
       </c>
       <c r="Q81" t="n">
-        <v>154.750164003815</v>
+        <v>9.865934048339082e-07</v>
       </c>
       <c r="R81" t="n">
-        <v>51.59937982525197</v>
+        <v>88.45207099071544</v>
       </c>
       <c r="S81" t="n">
-        <v>48.35396399312027</v>
+        <v>9.271472229103182</v>
       </c>
       <c r="T81" t="n">
         <v>0</v>
